--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16960" tabRatio="500"/>
+    <workbookView xWindow="-24040" yWindow="800" windowWidth="28800" windowHeight="16960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1129,9 +1129,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="192">
+  <cellStyleXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1394,15 +1398,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1451,8 +1446,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="192">
+  <cellStyles count="196">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1549,6 +1553,8 @@
     <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1644,6 +1650,8 @@
     <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1979,7 +1987,7 @@
   <dimension ref="A1:FC17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="DB3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -1998,1314 +2006,1314 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="25"/>
-      <c r="BC1" s="25"/>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="25"/>
-      <c r="BF1" s="25"/>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="25"/>
-      <c r="BL1" s="25"/>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25"/>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25"/>
-      <c r="BR1" s="25"/>
-      <c r="BS1" s="25"/>
-      <c r="BT1" s="25"/>
-      <c r="BU1" s="25"/>
-      <c r="BV1" s="25"/>
-      <c r="BW1" s="25"/>
-      <c r="BX1" s="25"/>
-      <c r="BY1" s="25"/>
-      <c r="BZ1" s="25"/>
-      <c r="CA1" s="25"/>
-      <c r="CB1" s="25"/>
-      <c r="CC1" s="25"/>
-      <c r="CD1" s="25"/>
-      <c r="CE1" s="25"/>
-      <c r="CF1" s="25"/>
-      <c r="CG1" s="25"/>
-      <c r="CH1" s="25"/>
-      <c r="CI1" s="25"/>
-      <c r="CJ1" s="25"/>
-      <c r="CK1" s="25"/>
-      <c r="CL1" s="25"/>
-      <c r="CM1" s="25"/>
-      <c r="CN1" s="25"/>
-      <c r="CO1" s="25"/>
-      <c r="CP1" s="25"/>
-      <c r="CQ1" s="25"/>
-      <c r="CR1" s="25"/>
-      <c r="CS1" s="25"/>
-      <c r="CT1" s="25"/>
-      <c r="CU1" s="25"/>
-      <c r="CV1" s="25"/>
-      <c r="CW1" s="25"/>
-      <c r="CX1" s="25"/>
-      <c r="CY1" s="25"/>
-      <c r="CZ1" s="25"/>
-      <c r="DA1" s="25"/>
-      <c r="DB1" s="25"/>
-      <c r="DC1" s="25"/>
-      <c r="DD1" s="25"/>
-      <c r="DE1" s="25"/>
-      <c r="DF1" s="25"/>
-      <c r="DG1" s="25"/>
-      <c r="DH1" s="25"/>
-      <c r="DI1" s="25"/>
-      <c r="DJ1" s="25"/>
-      <c r="DK1" s="25"/>
-      <c r="DL1" s="25"/>
-      <c r="DM1" s="25"/>
-      <c r="DN1" s="25"/>
-      <c r="DO1" s="25"/>
-      <c r="DP1" s="25"/>
-      <c r="DQ1" s="25"/>
-      <c r="DR1" s="25"/>
-      <c r="DS1" s="25"/>
-      <c r="DT1" s="25"/>
-      <c r="DU1" s="25"/>
-      <c r="DV1" s="25"/>
-      <c r="DW1" s="25"/>
-      <c r="DX1" s="25"/>
-      <c r="DY1" s="25"/>
-      <c r="DZ1" s="25"/>
-      <c r="EA1" s="25"/>
-      <c r="EB1" s="25"/>
-      <c r="EC1" s="25"/>
-      <c r="ED1" s="25"/>
-      <c r="EE1" s="25"/>
-      <c r="EF1" s="25"/>
-      <c r="EG1" s="25"/>
-      <c r="EH1" s="25"/>
-      <c r="EI1" s="25"/>
-      <c r="EJ1" s="25"/>
-      <c r="EK1" s="25"/>
-      <c r="EL1" s="25"/>
-      <c r="EM1" s="25"/>
-      <c r="EN1" s="25"/>
-      <c r="EO1" s="25"/>
-      <c r="EP1" s="25"/>
-      <c r="EQ1" s="25"/>
-      <c r="ER1" s="25"/>
-      <c r="ES1" s="25"/>
-      <c r="ET1" s="25"/>
-      <c r="EU1" s="25"/>
-      <c r="EV1" s="25"/>
-      <c r="EW1" s="25"/>
-      <c r="EX1" s="25"/>
-      <c r="EY1" s="25"/>
-      <c r="EZ1" s="25"/>
-      <c r="FA1" s="25"/>
-      <c r="FB1" s="25"/>
-      <c r="FC1" s="26"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="41"/>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="41"/>
+      <c r="BF1" s="41"/>
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="41"/>
+      <c r="BI1" s="41"/>
+      <c r="BJ1" s="41"/>
+      <c r="BK1" s="41"/>
+      <c r="BL1" s="41"/>
+      <c r="BM1" s="41"/>
+      <c r="BN1" s="41"/>
+      <c r="BO1" s="41"/>
+      <c r="BP1" s="41"/>
+      <c r="BQ1" s="41"/>
+      <c r="BR1" s="41"/>
+      <c r="BS1" s="41"/>
+      <c r="BT1" s="41"/>
+      <c r="BU1" s="41"/>
+      <c r="BV1" s="41"/>
+      <c r="BW1" s="41"/>
+      <c r="BX1" s="41"/>
+      <c r="BY1" s="41"/>
+      <c r="BZ1" s="41"/>
+      <c r="CA1" s="41"/>
+      <c r="CB1" s="41"/>
+      <c r="CC1" s="41"/>
+      <c r="CD1" s="41"/>
+      <c r="CE1" s="41"/>
+      <c r="CF1" s="41"/>
+      <c r="CG1" s="41"/>
+      <c r="CH1" s="41"/>
+      <c r="CI1" s="41"/>
+      <c r="CJ1" s="41"/>
+      <c r="CK1" s="41"/>
+      <c r="CL1" s="41"/>
+      <c r="CM1" s="41"/>
+      <c r="CN1" s="41"/>
+      <c r="CO1" s="41"/>
+      <c r="CP1" s="41"/>
+      <c r="CQ1" s="41"/>
+      <c r="CR1" s="41"/>
+      <c r="CS1" s="41"/>
+      <c r="CT1" s="41"/>
+      <c r="CU1" s="41"/>
+      <c r="CV1" s="41"/>
+      <c r="CW1" s="41"/>
+      <c r="CX1" s="41"/>
+      <c r="CY1" s="41"/>
+      <c r="CZ1" s="41"/>
+      <c r="DA1" s="41"/>
+      <c r="DB1" s="41"/>
+      <c r="DC1" s="41"/>
+      <c r="DD1" s="41"/>
+      <c r="DE1" s="41"/>
+      <c r="DF1" s="41"/>
+      <c r="DG1" s="41"/>
+      <c r="DH1" s="41"/>
+      <c r="DI1" s="41"/>
+      <c r="DJ1" s="41"/>
+      <c r="DK1" s="41"/>
+      <c r="DL1" s="41"/>
+      <c r="DM1" s="41"/>
+      <c r="DN1" s="41"/>
+      <c r="DO1" s="41"/>
+      <c r="DP1" s="41"/>
+      <c r="DQ1" s="41"/>
+      <c r="DR1" s="41"/>
+      <c r="DS1" s="41"/>
+      <c r="DT1" s="41"/>
+      <c r="DU1" s="41"/>
+      <c r="DV1" s="41"/>
+      <c r="DW1" s="41"/>
+      <c r="DX1" s="41"/>
+      <c r="DY1" s="41"/>
+      <c r="DZ1" s="41"/>
+      <c r="EA1" s="41"/>
+      <c r="EB1" s="41"/>
+      <c r="EC1" s="41"/>
+      <c r="ED1" s="41"/>
+      <c r="EE1" s="41"/>
+      <c r="EF1" s="41"/>
+      <c r="EG1" s="41"/>
+      <c r="EH1" s="41"/>
+      <c r="EI1" s="41"/>
+      <c r="EJ1" s="41"/>
+      <c r="EK1" s="41"/>
+      <c r="EL1" s="41"/>
+      <c r="EM1" s="41"/>
+      <c r="EN1" s="41"/>
+      <c r="EO1" s="41"/>
+      <c r="EP1" s="41"/>
+      <c r="EQ1" s="41"/>
+      <c r="ER1" s="41"/>
+      <c r="ES1" s="41"/>
+      <c r="ET1" s="41"/>
+      <c r="EU1" s="41"/>
+      <c r="EV1" s="41"/>
+      <c r="EW1" s="41"/>
+      <c r="EX1" s="41"/>
+      <c r="EY1" s="41"/>
+      <c r="EZ1" s="41"/>
+      <c r="FA1" s="41"/>
+      <c r="FB1" s="41"/>
+      <c r="FC1" s="42"/>
     </row>
     <row r="2" spans="1:159" ht="30" customHeight="1" thickBot="1">
       <c r="A2" s="10"/>
       <c r="B2" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="29">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="29">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="29">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="29">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="29">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="29">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="29">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="29">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="29">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="29">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="29">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="29">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="29">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="32">
+      <c r="Y2" s="29">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="32">
+      <c r="Z2" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="32">
+      <c r="AB2" s="29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="29">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="29">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="32">
+      <c r="AE2" s="29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="32">
+      <c r="AF2" s="29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="29">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="29">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="32">
+      <c r="AI2" s="29">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="32">
+      <c r="AJ2" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="32">
+      <c r="AK2" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="32">
+      <c r="AL2" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="32">
+      <c r="AM2" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="32">
+      <c r="AN2" s="29">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="32">
+      <c r="AO2" s="29">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="32">
+      <c r="AP2" s="29">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="32">
+      <c r="AQ2" s="29">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="32">
+      <c r="AR2" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="32">
+      <c r="AS2" s="29">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="32">
+      <c r="AT2" s="29">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="32">
+      <c r="AU2" s="29">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="32">
+      <c r="AV2" s="29">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="32">
+      <c r="AW2" s="29">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="32">
+      <c r="AX2" s="29">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="32">
+      <c r="AY2" s="29">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="32">
+      <c r="AZ2" s="29">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="32">
+      <c r="BA2" s="29">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="32">
+      <c r="BB2" s="29">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="32">
+      <c r="BC2" s="29">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="32">
+      <c r="BD2" s="29">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="32">
+      <c r="BE2" s="29">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="32">
+      <c r="BF2" s="29">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="32">
+      <c r="BG2" s="29">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="32">
+      <c r="BH2" s="29">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="32">
+      <c r="BI2" s="29">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="32">
+      <c r="BJ2" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="32">
+      <c r="BK2" s="29">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="32">
+      <c r="BL2" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="32">
+      <c r="BM2" s="29">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="32">
+      <c r="BN2" s="29">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="32">
+      <c r="BO2" s="29">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="32">
+      <c r="BP2" s="29">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="32">
+      <c r="BQ2" s="29">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="32">
+      <c r="BR2" s="29">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="32">
+      <c r="BS2" s="29">
         <f t="shared" ref="BS2:ED2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="32">
+      <c r="BT2" s="29">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="32">
+      <c r="BU2" s="29">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="32">
+      <c r="BV2" s="29">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="32">
+      <c r="BW2" s="29">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="32">
+      <c r="BX2" s="29">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="32">
+      <c r="BY2" s="29">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="32">
+      <c r="BZ2" s="29">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="32">
+      <c r="CA2" s="29">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="CB2" s="32">
+      <c r="CB2" s="29">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="CC2" s="32">
+      <c r="CC2" s="29">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="CD2" s="32">
+      <c r="CD2" s="29">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="CE2" s="32">
+      <c r="CE2" s="29">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="CF2" s="32">
+      <c r="CF2" s="29">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="CG2" s="32">
+      <c r="CG2" s="29">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="CH2" s="32">
+      <c r="CH2" s="29">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="CI2" s="32">
+      <c r="CI2" s="29">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="CJ2" s="32">
+      <c r="CJ2" s="29">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="CK2" s="32">
+      <c r="CK2" s="29">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="CL2" s="32">
+      <c r="CL2" s="29">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="CM2" s="32">
+      <c r="CM2" s="29">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="CN2" s="32">
+      <c r="CN2" s="29">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="CO2" s="32">
+      <c r="CO2" s="29">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="CP2" s="32">
+      <c r="CP2" s="29">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="CQ2" s="32">
+      <c r="CQ2" s="29">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="CR2" s="32">
+      <c r="CR2" s="29">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="CS2" s="32">
+      <c r="CS2" s="29">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="CT2" s="32">
+      <c r="CT2" s="29">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="CU2" s="32">
+      <c r="CU2" s="29">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="CV2" s="32">
+      <c r="CV2" s="29">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="CW2" s="32">
+      <c r="CW2" s="29">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="CX2" s="32">
+      <c r="CX2" s="29">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="CY2" s="32">
+      <c r="CY2" s="29">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="CZ2" s="32">
+      <c r="CZ2" s="29">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="DA2" s="32">
+      <c r="DA2" s="29">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="DB2" s="32">
+      <c r="DB2" s="29">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="DC2" s="32">
+      <c r="DC2" s="29">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="DD2" s="32">
+      <c r="DD2" s="29">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="DE2" s="32">
+      <c r="DE2" s="29">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="DF2" s="32">
+      <c r="DF2" s="29">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="DG2" s="32">
+      <c r="DG2" s="29">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="DH2" s="32">
+      <c r="DH2" s="29">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="DI2" s="32">
+      <c r="DI2" s="29">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="DJ2" s="32">
+      <c r="DJ2" s="29">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="DK2" s="32">
+      <c r="DK2" s="29">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="DL2" s="32">
+      <c r="DL2" s="29">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="DM2" s="32">
+      <c r="DM2" s="29">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="DN2" s="32">
+      <c r="DN2" s="29">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="DO2" s="32">
+      <c r="DO2" s="29">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="DP2" s="32">
+      <c r="DP2" s="29">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="DQ2" s="32">
+      <c r="DQ2" s="29">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="DR2" s="32">
+      <c r="DR2" s="29">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="DS2" s="32">
+      <c r="DS2" s="29">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="DT2" s="32">
+      <c r="DT2" s="29">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="DU2" s="32">
+      <c r="DU2" s="29">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="DV2" s="32">
+      <c r="DV2" s="29">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="DW2" s="32">
+      <c r="DW2" s="29">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="DX2" s="32">
+      <c r="DX2" s="29">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="DY2" s="32">
+      <c r="DY2" s="29">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="DZ2" s="32">
+      <c r="DZ2" s="29">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="EA2" s="32">
+      <c r="EA2" s="29">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="EB2" s="32">
+      <c r="EB2" s="29">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="EC2" s="32">
+      <c r="EC2" s="29">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="ED2" s="32">
+      <c r="ED2" s="29">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="EE2" s="32">
+      <c r="EE2" s="29">
         <f t="shared" ref="EE2:EY2" si="2">ED2+1</f>
         <v>131</v>
       </c>
-      <c r="EF2" s="32">
+      <c r="EF2" s="29">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="EG2" s="32">
+      <c r="EG2" s="29">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="EH2" s="32">
+      <c r="EH2" s="29">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="EI2" s="32">
+      <c r="EI2" s="29">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="EJ2" s="32">
+      <c r="EJ2" s="29">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="EK2" s="32">
+      <c r="EK2" s="29">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="EL2" s="32">
+      <c r="EL2" s="29">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="EM2" s="32">
+      <c r="EM2" s="29">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="EN2" s="32">
+      <c r="EN2" s="29">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="EO2" s="32">
+      <c r="EO2" s="29">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="EP2" s="32">
+      <c r="EP2" s="29">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="EQ2" s="32">
+      <c r="EQ2" s="29">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="ER2" s="32">
+      <c r="ER2" s="29">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="ES2" s="32">
+      <c r="ES2" s="29">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="ET2" s="32">
+      <c r="ET2" s="29">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="EU2" s="32">
+      <c r="EU2" s="29">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="EV2" s="32">
+      <c r="EV2" s="29">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="EW2" s="32">
+      <c r="EW2" s="29">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="EX2" s="32">
+      <c r="EX2" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="EY2" s="32">
+      <c r="EY2" s="29">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="EZ2" s="32">
+      <c r="EZ2" s="29">
         <f t="shared" ref="EZ2" si="3">EY2+1</f>
         <v>152</v>
       </c>
-      <c r="FA2" s="32">
+      <c r="FA2" s="29">
         <f t="shared" ref="FA2" si="4">EZ2+1</f>
         <v>153</v>
       </c>
-      <c r="FB2" s="32">
+      <c r="FB2" s="29">
         <f t="shared" ref="FB2" si="5">FA2+1</f>
         <v>154</v>
       </c>
-      <c r="FC2" s="33">
+      <c r="FC2" s="30">
         <f t="shared" ref="FC2" si="6">FB2+1</f>
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:159" ht="30" customHeight="1">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <v>20</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38" t="str">
+      <c r="F3" s="35" t="str">
         <f>E3</f>
         <v>joint 1</v>
       </c>
-      <c r="G3" s="38" t="str">
+      <c r="G3" s="35" t="str">
         <f t="shared" ref="G3:X3" si="7">F3</f>
         <v>joint 1</v>
       </c>
-      <c r="H3" s="38" t="str">
+      <c r="H3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="I3" s="38" t="str">
+      <c r="I3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="J3" s="38" t="str">
+      <c r="J3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="K3" s="38" t="str">
+      <c r="K3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="L3" s="38" t="str">
+      <c r="L3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="M3" s="38" t="str">
+      <c r="M3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="N3" s="38" t="str">
+      <c r="N3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="O3" s="38" t="str">
+      <c r="O3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="P3" s="38" t="str">
+      <c r="P3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="Q3" s="38" t="str">
+      <c r="Q3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="R3" s="38" t="str">
+      <c r="R3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="S3" s="38" t="str">
+      <c r="S3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="T3" s="38" t="str">
+      <c r="T3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="U3" s="38" t="str">
+      <c r="U3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="V3" s="38" t="str">
+      <c r="V3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="W3" s="38" t="str">
+      <c r="W3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="X3" s="38" t="str">
+      <c r="X3" s="35" t="str">
         <f t="shared" si="7"/>
         <v>joint 1</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="38" t="str">
+      <c r="Z3" s="35" t="str">
         <f t="shared" ref="Z3:CK3" si="8">Y3</f>
         <v>joint 2</v>
       </c>
-      <c r="AA3" s="38" t="str">
+      <c r="AA3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AB3" s="38" t="str">
+      <c r="AB3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AC3" s="38" t="str">
+      <c r="AC3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AD3" s="38" t="str">
+      <c r="AD3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AE3" s="38" t="str">
+      <c r="AE3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AF3" s="38" t="str">
+      <c r="AF3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AG3" s="38" t="str">
+      <c r="AG3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AH3" s="38" t="str">
+      <c r="AH3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AI3" s="38" t="str">
+      <c r="AI3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AJ3" s="38" t="str">
+      <c r="AJ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AK3" s="38" t="str">
+      <c r="AK3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AL3" s="38" t="str">
+      <c r="AL3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AM3" s="38" t="str">
+      <c r="AM3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AN3" s="38" t="str">
+      <c r="AN3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AO3" s="38" t="str">
+      <c r="AO3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AP3" s="38" t="str">
+      <c r="AP3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AQ3" s="38" t="str">
+      <c r="AQ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AR3" s="38" t="str">
+      <c r="AR3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 2</v>
       </c>
-      <c r="AS3" s="38" t="s">
+      <c r="AS3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="38" t="str">
+      <c r="AT3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AU3" s="38" t="str">
+      <c r="AU3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AV3" s="38" t="str">
+      <c r="AV3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AW3" s="38" t="str">
+      <c r="AW3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AX3" s="38" t="str">
+      <c r="AX3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AY3" s="38" t="str">
+      <c r="AY3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="AZ3" s="38" t="str">
+      <c r="AZ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BA3" s="38" t="str">
+      <c r="BA3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BB3" s="38" t="str">
+      <c r="BB3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BC3" s="38" t="str">
+      <c r="BC3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BD3" s="38" t="str">
+      <c r="BD3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BE3" s="38" t="str">
+      <c r="BE3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BF3" s="38" t="str">
+      <c r="BF3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BG3" s="38" t="str">
+      <c r="BG3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BH3" s="38" t="str">
+      <c r="BH3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BI3" s="38" t="str">
+      <c r="BI3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BJ3" s="38" t="str">
+      <c r="BJ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BK3" s="38" t="str">
+      <c r="BK3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BL3" s="38" t="str">
+      <c r="BL3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 3</v>
       </c>
-      <c r="BM3" s="38" t="s">
+      <c r="BM3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="BN3" s="38" t="str">
+      <c r="BN3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BO3" s="38" t="str">
+      <c r="BO3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BP3" s="38" t="str">
+      <c r="BP3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BQ3" s="38" t="str">
+      <c r="BQ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BR3" s="38" t="str">
+      <c r="BR3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BS3" s="38" t="str">
+      <c r="BS3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BT3" s="38" t="str">
+      <c r="BT3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BU3" s="38" t="str">
+      <c r="BU3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BV3" s="38" t="str">
+      <c r="BV3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BW3" s="38" t="str">
+      <c r="BW3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BX3" s="38" t="str">
+      <c r="BX3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BY3" s="38" t="str">
+      <c r="BY3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="BZ3" s="38" t="str">
+      <c r="BZ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CA3" s="38" t="str">
+      <c r="CA3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CB3" s="38" t="str">
+      <c r="CB3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CC3" s="38" t="str">
+      <c r="CC3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CD3" s="38" t="str">
+      <c r="CD3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CE3" s="38" t="str">
+      <c r="CE3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CF3" s="38" t="str">
+      <c r="CF3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 4</v>
       </c>
-      <c r="CG3" s="38" t="s">
+      <c r="CG3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="CH3" s="38" t="str">
+      <c r="CH3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 5</v>
       </c>
-      <c r="CI3" s="38" t="str">
+      <c r="CI3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 5</v>
       </c>
-      <c r="CJ3" s="38" t="str">
+      <c r="CJ3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 5</v>
       </c>
-      <c r="CK3" s="38" t="str">
+      <c r="CK3" s="35" t="str">
         <f t="shared" si="8"/>
         <v>joint 5</v>
       </c>
-      <c r="CL3" s="38" t="str">
+      <c r="CL3" s="35" t="str">
         <f t="shared" ref="CL3:CZ3" si="9">CK3</f>
         <v>joint 5</v>
       </c>
-      <c r="CM3" s="38" t="str">
+      <c r="CM3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CN3" s="38" t="str">
+      <c r="CN3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CO3" s="38" t="str">
+      <c r="CO3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CP3" s="38" t="str">
+      <c r="CP3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CQ3" s="38" t="str">
+      <c r="CQ3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CR3" s="38" t="str">
+      <c r="CR3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CS3" s="38" t="str">
+      <c r="CS3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CT3" s="38" t="str">
+      <c r="CT3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CU3" s="38" t="str">
+      <c r="CU3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CV3" s="38" t="str">
+      <c r="CV3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CW3" s="38" t="str">
+      <c r="CW3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CX3" s="38" t="str">
+      <c r="CX3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CY3" s="38" t="str">
+      <c r="CY3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="CZ3" s="38" t="str">
+      <c r="CZ3" s="35" t="str">
         <f t="shared" si="9"/>
         <v>joint 5</v>
       </c>
-      <c r="DA3" s="38" t="s">
+      <c r="DA3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="DB3" s="38" t="str">
+      <c r="DB3" s="35" t="str">
         <f t="shared" ref="DB3:DT3" si="10">DA3</f>
         <v>joint 6</v>
       </c>
-      <c r="DC3" s="38" t="str">
+      <c r="DC3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DD3" s="38" t="str">
+      <c r="DD3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DE3" s="38" t="str">
+      <c r="DE3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DF3" s="38" t="str">
+      <c r="DF3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DG3" s="38" t="str">
+      <c r="DG3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DH3" s="38" t="str">
+      <c r="DH3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DI3" s="38" t="str">
+      <c r="DI3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DJ3" s="38" t="str">
+      <c r="DJ3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DK3" s="38" t="str">
+      <c r="DK3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DL3" s="38" t="str">
+      <c r="DL3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DM3" s="38" t="str">
+      <c r="DM3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DN3" s="38" t="str">
+      <c r="DN3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DO3" s="38" t="str">
+      <c r="DO3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DP3" s="38" t="str">
+      <c r="DP3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DQ3" s="38" t="str">
+      <c r="DQ3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DR3" s="38" t="str">
+      <c r="DR3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DS3" s="38" t="str">
+      <c r="DS3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DT3" s="38" t="str">
+      <c r="DT3" s="35" t="str">
         <f t="shared" si="10"/>
         <v>joint 6</v>
       </c>
-      <c r="DU3" s="39"/>
-      <c r="DV3" s="39"/>
-      <c r="DW3" s="39"/>
-      <c r="DX3" s="39"/>
-      <c r="DY3" s="39"/>
-      <c r="DZ3" s="39"/>
-      <c r="EA3" s="39"/>
-      <c r="EB3" s="39"/>
-      <c r="EC3" s="39"/>
-      <c r="ED3" s="39"/>
-      <c r="EE3" s="39"/>
-      <c r="EF3" s="39"/>
-      <c r="EG3" s="39"/>
-      <c r="EH3" s="39"/>
-      <c r="EI3" s="39"/>
-      <c r="EJ3" s="39"/>
-      <c r="EK3" s="39"/>
-      <c r="EL3" s="39"/>
-      <c r="EM3" s="39"/>
-      <c r="EN3" s="39"/>
-      <c r="EO3" s="39"/>
-      <c r="EP3" s="39"/>
-      <c r="EQ3" s="39"/>
-      <c r="ER3" s="39"/>
-      <c r="ES3" s="39"/>
-      <c r="ET3" s="39"/>
-      <c r="EU3" s="39"/>
-      <c r="EV3" s="39"/>
-      <c r="EW3" s="39"/>
-      <c r="EX3" s="39"/>
-      <c r="EY3" s="39"/>
-      <c r="EZ3" s="39"/>
-      <c r="FA3" s="39"/>
-      <c r="FB3" s="39"/>
-      <c r="FC3" s="40"/>
+      <c r="DU3" s="36"/>
+      <c r="DV3" s="36"/>
+      <c r="DW3" s="36"/>
+      <c r="DX3" s="36"/>
+      <c r="DY3" s="36"/>
+      <c r="DZ3" s="36"/>
+      <c r="EA3" s="36"/>
+      <c r="EB3" s="36"/>
+      <c r="EC3" s="36"/>
+      <c r="ED3" s="36"/>
+      <c r="EE3" s="36"/>
+      <c r="EF3" s="36"/>
+      <c r="EG3" s="36"/>
+      <c r="EH3" s="36"/>
+      <c r="EI3" s="36"/>
+      <c r="EJ3" s="36"/>
+      <c r="EK3" s="36"/>
+      <c r="EL3" s="36"/>
+      <c r="EM3" s="36"/>
+      <c r="EN3" s="36"/>
+      <c r="EO3" s="36"/>
+      <c r="EP3" s="36"/>
+      <c r="EQ3" s="36"/>
+      <c r="ER3" s="36"/>
+      <c r="ES3" s="36"/>
+      <c r="ET3" s="36"/>
+      <c r="EU3" s="36"/>
+      <c r="EV3" s="36"/>
+      <c r="EW3" s="36"/>
+      <c r="EX3" s="36"/>
+      <c r="EY3" s="36"/>
+      <c r="EZ3" s="36"/>
+      <c r="FA3" s="36"/>
+      <c r="FB3" s="36"/>
+      <c r="FC3" s="37"/>
     </row>
     <row r="4" spans="1:159" ht="30" customHeight="1">
       <c r="B4" s="6" t="s">
@@ -3317,7 +3325,7 @@
       <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="41"/>
+      <c r="E4" s="38"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -3567,7 +3575,7 @@
       <c r="D5" s="2">
         <v>20</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -3939,7 +3947,7 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -4123,7 +4131,7 @@
       <c r="FB6" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="FC6" s="36" t="s">
+      <c r="FC6" s="33" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4137,7 +4145,7 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
@@ -4303,7 +4311,7 @@
       <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
@@ -4464,933 +4472,933 @@
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="25"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="25"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="25"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="25"/>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
-      <c r="BP10" s="25"/>
-      <c r="BQ10" s="25"/>
-      <c r="BR10" s="25"/>
-      <c r="BS10" s="25"/>
-      <c r="BT10" s="25"/>
-      <c r="BU10" s="25"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="25"/>
-      <c r="BZ10" s="25"/>
-      <c r="CA10" s="25"/>
-      <c r="CB10" s="25"/>
-      <c r="CC10" s="25"/>
-      <c r="CD10" s="25"/>
-      <c r="CE10" s="25"/>
-      <c r="CF10" s="25"/>
-      <c r="CG10" s="25"/>
-      <c r="CH10" s="25"/>
-      <c r="CI10" s="25"/>
-      <c r="CJ10" s="25"/>
-      <c r="CK10" s="25"/>
-      <c r="CL10" s="25"/>
-      <c r="CM10" s="25"/>
-      <c r="CN10" s="25"/>
-      <c r="CO10" s="25"/>
-      <c r="CP10" s="25"/>
-      <c r="CQ10" s="25"/>
-      <c r="CR10" s="25"/>
-      <c r="CS10" s="25"/>
-      <c r="CT10" s="25"/>
-      <c r="CU10" s="25"/>
-      <c r="CV10" s="25"/>
-      <c r="CW10" s="25"/>
-      <c r="CX10" s="25"/>
-      <c r="CY10" s="25"/>
-      <c r="CZ10" s="25"/>
-      <c r="DA10" s="25"/>
-      <c r="DB10" s="25"/>
-      <c r="DC10" s="25"/>
-      <c r="DD10" s="25"/>
-      <c r="DE10" s="25"/>
-      <c r="DF10" s="25"/>
-      <c r="DG10" s="25"/>
-      <c r="DH10" s="25"/>
-      <c r="DI10" s="25"/>
-      <c r="DJ10" s="25"/>
-      <c r="DK10" s="25"/>
-      <c r="DL10" s="25"/>
-      <c r="DM10" s="25"/>
-      <c r="DN10" s="25"/>
-      <c r="DO10" s="25"/>
-      <c r="DP10" s="25"/>
-      <c r="DQ10" s="25"/>
-      <c r="DR10" s="25"/>
-      <c r="DS10" s="25"/>
-      <c r="DT10" s="25"/>
-      <c r="DU10" s="25"/>
-      <c r="DV10" s="25"/>
-      <c r="DW10" s="25"/>
-      <c r="DX10" s="25"/>
-      <c r="DY10" s="25"/>
-      <c r="DZ10" s="25"/>
-      <c r="EA10" s="25"/>
-      <c r="EB10" s="25"/>
-      <c r="EC10" s="25"/>
-      <c r="ED10" s="25"/>
-      <c r="EE10" s="25"/>
-      <c r="EF10" s="25"/>
-      <c r="EG10" s="25"/>
-      <c r="EH10" s="25"/>
-      <c r="EI10" s="25"/>
-      <c r="EJ10" s="25"/>
-      <c r="EK10" s="25"/>
-      <c r="EL10" s="25"/>
-      <c r="EM10" s="25"/>
-      <c r="EN10" s="25"/>
-      <c r="EO10" s="25"/>
-      <c r="EP10" s="25"/>
-      <c r="EQ10" s="25"/>
-      <c r="ER10" s="25"/>
-      <c r="ES10" s="25"/>
-      <c r="ET10" s="25"/>
-      <c r="EU10" s="25"/>
-      <c r="EV10" s="25"/>
-      <c r="EW10" s="25"/>
-      <c r="EX10" s="25"/>
-      <c r="EY10" s="26"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="41"/>
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="41"/>
+      <c r="AH10" s="41"/>
+      <c r="AI10" s="41"/>
+      <c r="AJ10" s="41"/>
+      <c r="AK10" s="41"/>
+      <c r="AL10" s="41"/>
+      <c r="AM10" s="41"/>
+      <c r="AN10" s="41"/>
+      <c r="AO10" s="41"/>
+      <c r="AP10" s="41"/>
+      <c r="AQ10" s="41"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="41"/>
+      <c r="AV10" s="41"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="41"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="41"/>
+      <c r="BE10" s="41"/>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="41"/>
+      <c r="BI10" s="41"/>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="41"/>
+      <c r="BM10" s="41"/>
+      <c r="BN10" s="41"/>
+      <c r="BO10" s="41"/>
+      <c r="BP10" s="41"/>
+      <c r="BQ10" s="41"/>
+      <c r="BR10" s="41"/>
+      <c r="BS10" s="41"/>
+      <c r="BT10" s="41"/>
+      <c r="BU10" s="41"/>
+      <c r="BV10" s="41"/>
+      <c r="BW10" s="41"/>
+      <c r="BX10" s="41"/>
+      <c r="BY10" s="41"/>
+      <c r="BZ10" s="41"/>
+      <c r="CA10" s="41"/>
+      <c r="CB10" s="41"/>
+      <c r="CC10" s="41"/>
+      <c r="CD10" s="41"/>
+      <c r="CE10" s="41"/>
+      <c r="CF10" s="41"/>
+      <c r="CG10" s="41"/>
+      <c r="CH10" s="41"/>
+      <c r="CI10" s="41"/>
+      <c r="CJ10" s="41"/>
+      <c r="CK10" s="41"/>
+      <c r="CL10" s="41"/>
+      <c r="CM10" s="41"/>
+      <c r="CN10" s="41"/>
+      <c r="CO10" s="41"/>
+      <c r="CP10" s="41"/>
+      <c r="CQ10" s="41"/>
+      <c r="CR10" s="41"/>
+      <c r="CS10" s="41"/>
+      <c r="CT10" s="41"/>
+      <c r="CU10" s="41"/>
+      <c r="CV10" s="41"/>
+      <c r="CW10" s="41"/>
+      <c r="CX10" s="41"/>
+      <c r="CY10" s="41"/>
+      <c r="CZ10" s="41"/>
+      <c r="DA10" s="41"/>
+      <c r="DB10" s="41"/>
+      <c r="DC10" s="41"/>
+      <c r="DD10" s="41"/>
+      <c r="DE10" s="41"/>
+      <c r="DF10" s="41"/>
+      <c r="DG10" s="41"/>
+      <c r="DH10" s="41"/>
+      <c r="DI10" s="41"/>
+      <c r="DJ10" s="41"/>
+      <c r="DK10" s="41"/>
+      <c r="DL10" s="41"/>
+      <c r="DM10" s="41"/>
+      <c r="DN10" s="41"/>
+      <c r="DO10" s="41"/>
+      <c r="DP10" s="41"/>
+      <c r="DQ10" s="41"/>
+      <c r="DR10" s="41"/>
+      <c r="DS10" s="41"/>
+      <c r="DT10" s="41"/>
+      <c r="DU10" s="41"/>
+      <c r="DV10" s="41"/>
+      <c r="DW10" s="41"/>
+      <c r="DX10" s="41"/>
+      <c r="DY10" s="41"/>
+      <c r="DZ10" s="41"/>
+      <c r="EA10" s="41"/>
+      <c r="EB10" s="41"/>
+      <c r="EC10" s="41"/>
+      <c r="ED10" s="41"/>
+      <c r="EE10" s="41"/>
+      <c r="EF10" s="41"/>
+      <c r="EG10" s="41"/>
+      <c r="EH10" s="41"/>
+      <c r="EI10" s="41"/>
+      <c r="EJ10" s="41"/>
+      <c r="EK10" s="41"/>
+      <c r="EL10" s="41"/>
+      <c r="EM10" s="41"/>
+      <c r="EN10" s="41"/>
+      <c r="EO10" s="41"/>
+      <c r="EP10" s="41"/>
+      <c r="EQ10" s="41"/>
+      <c r="ER10" s="41"/>
+      <c r="ES10" s="41"/>
+      <c r="ET10" s="41"/>
+      <c r="EU10" s="41"/>
+      <c r="EV10" s="41"/>
+      <c r="EW10" s="41"/>
+      <c r="EX10" s="41"/>
+      <c r="EY10" s="42"/>
     </row>
     <row r="11" spans="1:159" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="10"/>
       <c r="B11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="29">
         <v>156</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="29">
         <f t="shared" ref="F11" si="13">E11+1</f>
         <v>157</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="29">
         <f t="shared" ref="G11" si="14">F11+1</f>
         <v>158</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="29">
         <f t="shared" ref="H11" si="15">G11+1</f>
         <v>159</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="29">
         <f t="shared" ref="I11" si="16">H11+1</f>
         <v>160</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="29">
         <f t="shared" ref="J11" si="17">I11+1</f>
         <v>161</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="29">
         <f t="shared" ref="K11" si="18">J11+1</f>
         <v>162</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="29">
         <f t="shared" ref="L11" si="19">K11+1</f>
         <v>163</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="29">
         <f t="shared" ref="M11" si="20">L11+1</f>
         <v>164</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="29">
         <f t="shared" ref="N11" si="21">M11+1</f>
         <v>165</v>
       </c>
-      <c r="O11" s="32">
+      <c r="O11" s="29">
         <f t="shared" ref="O11" si="22">N11+1</f>
         <v>166</v>
       </c>
-      <c r="P11" s="32">
+      <c r="P11" s="29">
         <f t="shared" ref="P11" si="23">O11+1</f>
         <v>167</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="29">
         <f t="shared" ref="Q11" si="24">P11+1</f>
         <v>168</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="29">
         <f t="shared" ref="R11" si="25">Q11+1</f>
         <v>169</v>
       </c>
-      <c r="S11" s="32">
+      <c r="S11" s="29">
         <f t="shared" ref="S11" si="26">R11+1</f>
         <v>170</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="29">
         <f t="shared" ref="T11" si="27">S11+1</f>
         <v>171</v>
       </c>
-      <c r="U11" s="32">
+      <c r="U11" s="29">
         <f t="shared" ref="U11" si="28">T11+1</f>
         <v>172</v>
       </c>
-      <c r="V11" s="32">
+      <c r="V11" s="29">
         <f t="shared" ref="V11" si="29">U11+1</f>
         <v>173</v>
       </c>
-      <c r="W11" s="32">
+      <c r="W11" s="29">
         <f t="shared" ref="W11" si="30">V11+1</f>
         <v>174</v>
       </c>
-      <c r="X11" s="32">
+      <c r="X11" s="29">
         <f t="shared" ref="X11" si="31">W11+1</f>
         <v>175</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="29">
         <f t="shared" ref="Y11" si="32">X11+1</f>
         <v>176</v>
       </c>
-      <c r="Z11" s="32">
+      <c r="Z11" s="29">
         <f t="shared" ref="Z11" si="33">Y11+1</f>
         <v>177</v>
       </c>
-      <c r="AA11" s="32">
+      <c r="AA11" s="29">
         <f t="shared" ref="AA11" si="34">Z11+1</f>
         <v>178</v>
       </c>
-      <c r="AB11" s="32">
+      <c r="AB11" s="29">
         <f t="shared" ref="AB11" si="35">AA11+1</f>
         <v>179</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="29">
         <f t="shared" ref="AC11" si="36">AB11+1</f>
         <v>180</v>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="29">
         <f t="shared" ref="AD11" si="37">AC11+1</f>
         <v>181</v>
       </c>
-      <c r="AE11" s="32">
+      <c r="AE11" s="29">
         <f t="shared" ref="AE11" si="38">AD11+1</f>
         <v>182</v>
       </c>
-      <c r="AF11" s="32">
+      <c r="AF11" s="29">
         <f t="shared" ref="AF11" si="39">AE11+1</f>
         <v>183</v>
       </c>
-      <c r="AG11" s="32">
+      <c r="AG11" s="29">
         <f t="shared" ref="AG11" si="40">AF11+1</f>
         <v>184</v>
       </c>
-      <c r="AH11" s="32">
+      <c r="AH11" s="29">
         <f t="shared" ref="AH11" si="41">AG11+1</f>
         <v>185</v>
       </c>
-      <c r="AI11" s="32">
+      <c r="AI11" s="29">
         <f t="shared" ref="AI11" si="42">AH11+1</f>
         <v>186</v>
       </c>
-      <c r="AJ11" s="32">
+      <c r="AJ11" s="29">
         <f t="shared" ref="AJ11" si="43">AI11+1</f>
         <v>187</v>
       </c>
-      <c r="AK11" s="32">
+      <c r="AK11" s="29">
         <f t="shared" ref="AK11" si="44">AJ11+1</f>
         <v>188</v>
       </c>
-      <c r="AL11" s="32">
+      <c r="AL11" s="29">
         <f t="shared" ref="AL11" si="45">AK11+1</f>
         <v>189</v>
       </c>
-      <c r="AM11" s="32">
+      <c r="AM11" s="29">
         <f t="shared" ref="AM11" si="46">AL11+1</f>
         <v>190</v>
       </c>
-      <c r="AN11" s="32">
+      <c r="AN11" s="29">
         <f t="shared" ref="AN11" si="47">AM11+1</f>
         <v>191</v>
       </c>
-      <c r="AO11" s="32">
+      <c r="AO11" s="29">
         <f t="shared" ref="AO11" si="48">AN11+1</f>
         <v>192</v>
       </c>
-      <c r="AP11" s="32">
+      <c r="AP11" s="29">
         <f t="shared" ref="AP11" si="49">AO11+1</f>
         <v>193</v>
       </c>
-      <c r="AQ11" s="32">
+      <c r="AQ11" s="29">
         <f t="shared" ref="AQ11" si="50">AP11+1</f>
         <v>194</v>
       </c>
-      <c r="AR11" s="32">
+      <c r="AR11" s="29">
         <f t="shared" ref="AR11" si="51">AQ11+1</f>
         <v>195</v>
       </c>
-      <c r="AS11" s="32">
+      <c r="AS11" s="29">
         <f t="shared" ref="AS11" si="52">AR11+1</f>
         <v>196</v>
       </c>
-      <c r="AT11" s="32">
+      <c r="AT11" s="29">
         <f t="shared" ref="AT11" si="53">AS11+1</f>
         <v>197</v>
       </c>
-      <c r="AU11" s="32">
+      <c r="AU11" s="29">
         <f t="shared" ref="AU11" si="54">AT11+1</f>
         <v>198</v>
       </c>
-      <c r="AV11" s="32">
+      <c r="AV11" s="29">
         <f t="shared" ref="AV11" si="55">AU11+1</f>
         <v>199</v>
       </c>
-      <c r="AW11" s="32">
+      <c r="AW11" s="29">
         <f t="shared" ref="AW11" si="56">AV11+1</f>
         <v>200</v>
       </c>
-      <c r="AX11" s="32">
+      <c r="AX11" s="29">
         <f t="shared" ref="AX11" si="57">AW11+1</f>
         <v>201</v>
       </c>
-      <c r="AY11" s="32">
+      <c r="AY11" s="29">
         <f t="shared" ref="AY11" si="58">AX11+1</f>
         <v>202</v>
       </c>
-      <c r="AZ11" s="32">
+      <c r="AZ11" s="29">
         <f t="shared" ref="AZ11" si="59">AY11+1</f>
         <v>203</v>
       </c>
-      <c r="BA11" s="32">
+      <c r="BA11" s="29">
         <f t="shared" ref="BA11" si="60">AZ11+1</f>
         <v>204</v>
       </c>
-      <c r="BB11" s="32">
+      <c r="BB11" s="29">
         <f t="shared" ref="BB11" si="61">BA11+1</f>
         <v>205</v>
       </c>
-      <c r="BC11" s="32">
+      <c r="BC11" s="29">
         <f t="shared" ref="BC11" si="62">BB11+1</f>
         <v>206</v>
       </c>
-      <c r="BD11" s="32">
+      <c r="BD11" s="29">
         <f t="shared" ref="BD11" si="63">BC11+1</f>
         <v>207</v>
       </c>
-      <c r="BE11" s="32">
+      <c r="BE11" s="29">
         <f t="shared" ref="BE11" si="64">BD11+1</f>
         <v>208</v>
       </c>
-      <c r="BF11" s="32">
+      <c r="BF11" s="29">
         <f t="shared" ref="BF11" si="65">BE11+1</f>
         <v>209</v>
       </c>
-      <c r="BG11" s="32">
+      <c r="BG11" s="29">
         <f t="shared" ref="BG11" si="66">BF11+1</f>
         <v>210</v>
       </c>
-      <c r="BH11" s="32">
+      <c r="BH11" s="29">
         <f t="shared" ref="BH11" si="67">BG11+1</f>
         <v>211</v>
       </c>
-      <c r="BI11" s="32">
+      <c r="BI11" s="29">
         <f t="shared" ref="BI11" si="68">BH11+1</f>
         <v>212</v>
       </c>
-      <c r="BJ11" s="32">
+      <c r="BJ11" s="29">
         <f t="shared" ref="BJ11" si="69">BI11+1</f>
         <v>213</v>
       </c>
-      <c r="BK11" s="32">
+      <c r="BK11" s="29">
         <f t="shared" ref="BK11" si="70">BJ11+1</f>
         <v>214</v>
       </c>
-      <c r="BL11" s="32">
+      <c r="BL11" s="29">
         <f t="shared" ref="BL11" si="71">BK11+1</f>
         <v>215</v>
       </c>
-      <c r="BM11" s="32">
+      <c r="BM11" s="29">
         <f t="shared" ref="BM11" si="72">BL11+1</f>
         <v>216</v>
       </c>
-      <c r="BN11" s="32">
+      <c r="BN11" s="29">
         <f t="shared" ref="BN11" si="73">BM11+1</f>
         <v>217</v>
       </c>
-      <c r="BO11" s="32">
+      <c r="BO11" s="29">
         <f t="shared" ref="BO11" si="74">BN11+1</f>
         <v>218</v>
       </c>
-      <c r="BP11" s="32">
+      <c r="BP11" s="29">
         <f t="shared" ref="BP11" si="75">BO11+1</f>
         <v>219</v>
       </c>
-      <c r="BQ11" s="32">
+      <c r="BQ11" s="29">
         <f t="shared" ref="BQ11" si="76">BP11+1</f>
         <v>220</v>
       </c>
-      <c r="BR11" s="32">
+      <c r="BR11" s="29">
         <f t="shared" ref="BR11" si="77">BQ11+1</f>
         <v>221</v>
       </c>
-      <c r="BS11" s="32">
+      <c r="BS11" s="29">
         <f t="shared" ref="BS11" si="78">BR11+1</f>
         <v>222</v>
       </c>
-      <c r="BT11" s="32">
+      <c r="BT11" s="29">
         <f t="shared" ref="BT11" si="79">BS11+1</f>
         <v>223</v>
       </c>
-      <c r="BU11" s="32">
+      <c r="BU11" s="29">
         <f t="shared" ref="BU11" si="80">BT11+1</f>
         <v>224</v>
       </c>
-      <c r="BV11" s="32">
+      <c r="BV11" s="29">
         <f t="shared" ref="BV11" si="81">BU11+1</f>
         <v>225</v>
       </c>
-      <c r="BW11" s="32">
+      <c r="BW11" s="29">
         <f t="shared" ref="BW11" si="82">BV11+1</f>
         <v>226</v>
       </c>
-      <c r="BX11" s="32">
+      <c r="BX11" s="29">
         <f t="shared" ref="BX11" si="83">BW11+1</f>
         <v>227</v>
       </c>
-      <c r="BY11" s="32">
+      <c r="BY11" s="29">
         <f t="shared" ref="BY11" si="84">BX11+1</f>
         <v>228</v>
       </c>
-      <c r="BZ11" s="32">
+      <c r="BZ11" s="29">
         <f t="shared" ref="BZ11" si="85">BY11+1</f>
         <v>229</v>
       </c>
-      <c r="CA11" s="32">
+      <c r="CA11" s="29">
         <f t="shared" ref="CA11" si="86">BZ11+1</f>
         <v>230</v>
       </c>
-      <c r="CB11" s="32">
+      <c r="CB11" s="29">
         <f t="shared" ref="CB11" si="87">CA11+1</f>
         <v>231</v>
       </c>
-      <c r="CC11" s="32">
+      <c r="CC11" s="29">
         <f t="shared" ref="CC11" si="88">CB11+1</f>
         <v>232</v>
       </c>
-      <c r="CD11" s="32">
+      <c r="CD11" s="29">
         <f t="shared" ref="CD11" si="89">CC11+1</f>
         <v>233</v>
       </c>
-      <c r="CE11" s="32">
+      <c r="CE11" s="29">
         <f t="shared" ref="CE11" si="90">CD11+1</f>
         <v>234</v>
       </c>
-      <c r="CF11" s="32">
+      <c r="CF11" s="29">
         <f t="shared" ref="CF11" si="91">CE11+1</f>
         <v>235</v>
       </c>
-      <c r="CG11" s="32">
+      <c r="CG11" s="29">
         <f t="shared" ref="CG11" si="92">CF11+1</f>
         <v>236</v>
       </c>
-      <c r="CH11" s="32">
+      <c r="CH11" s="29">
         <f t="shared" ref="CH11" si="93">CG11+1</f>
         <v>237</v>
       </c>
-      <c r="CI11" s="32">
+      <c r="CI11" s="29">
         <f t="shared" ref="CI11" si="94">CH11+1</f>
         <v>238</v>
       </c>
-      <c r="CJ11" s="32">
+      <c r="CJ11" s="29">
         <f t="shared" ref="CJ11" si="95">CI11+1</f>
         <v>239</v>
       </c>
-      <c r="CK11" s="32">
+      <c r="CK11" s="29">
         <f t="shared" ref="CK11" si="96">CJ11+1</f>
         <v>240</v>
       </c>
-      <c r="CL11" s="32">
+      <c r="CL11" s="29">
         <f t="shared" ref="CL11" si="97">CK11+1</f>
         <v>241</v>
       </c>
-      <c r="CM11" s="32">
+      <c r="CM11" s="29">
         <f t="shared" ref="CM11" si="98">CL11+1</f>
         <v>242</v>
       </c>
-      <c r="CN11" s="32">
+      <c r="CN11" s="29">
         <f t="shared" ref="CN11" si="99">CM11+1</f>
         <v>243</v>
       </c>
-      <c r="CO11" s="32">
+      <c r="CO11" s="29">
         <f t="shared" ref="CO11" si="100">CN11+1</f>
         <v>244</v>
       </c>
-      <c r="CP11" s="32">
+      <c r="CP11" s="29">
         <f t="shared" ref="CP11" si="101">CO11+1</f>
         <v>245</v>
       </c>
-      <c r="CQ11" s="32">
+      <c r="CQ11" s="29">
         <f t="shared" ref="CQ11" si="102">CP11+1</f>
         <v>246</v>
       </c>
-      <c r="CR11" s="32">
+      <c r="CR11" s="29">
         <f t="shared" ref="CR11" si="103">CQ11+1</f>
         <v>247</v>
       </c>
-      <c r="CS11" s="32">
+      <c r="CS11" s="29">
         <f t="shared" ref="CS11" si="104">CR11+1</f>
         <v>248</v>
       </c>
-      <c r="CT11" s="32">
+      <c r="CT11" s="29">
         <f t="shared" ref="CT11" si="105">CS11+1</f>
         <v>249</v>
       </c>
-      <c r="CU11" s="32">
+      <c r="CU11" s="29">
         <f t="shared" ref="CU11" si="106">CT11+1</f>
         <v>250</v>
       </c>
-      <c r="CV11" s="32">
+      <c r="CV11" s="29">
         <f t="shared" ref="CV11" si="107">CU11+1</f>
         <v>251</v>
       </c>
-      <c r="CW11" s="32">
+      <c r="CW11" s="29">
         <f t="shared" ref="CW11" si="108">CV11+1</f>
         <v>252</v>
       </c>
-      <c r="CX11" s="32">
+      <c r="CX11" s="29">
         <f t="shared" ref="CX11" si="109">CW11+1</f>
         <v>253</v>
       </c>
-      <c r="CY11" s="32">
+      <c r="CY11" s="29">
         <f t="shared" ref="CY11" si="110">CX11+1</f>
         <v>254</v>
       </c>
-      <c r="CZ11" s="32">
+      <c r="CZ11" s="29">
         <f t="shared" ref="CZ11" si="111">CY11+1</f>
         <v>255</v>
       </c>
-      <c r="DA11" s="32">
+      <c r="DA11" s="29">
         <f t="shared" ref="DA11" si="112">CZ11+1</f>
         <v>256</v>
       </c>
-      <c r="DB11" s="32">
+      <c r="DB11" s="29">
         <f t="shared" ref="DB11" si="113">DA11+1</f>
         <v>257</v>
       </c>
-      <c r="DC11" s="32">
+      <c r="DC11" s="29">
         <f t="shared" ref="DC11" si="114">DB11+1</f>
         <v>258</v>
       </c>
-      <c r="DD11" s="32">
+      <c r="DD11" s="29">
         <f t="shared" ref="DD11" si="115">DC11+1</f>
         <v>259</v>
       </c>
-      <c r="DE11" s="32">
+      <c r="DE11" s="29">
         <f t="shared" ref="DE11" si="116">DD11+1</f>
         <v>260</v>
       </c>
-      <c r="DF11" s="32">
+      <c r="DF11" s="29">
         <f t="shared" ref="DF11" si="117">DE11+1</f>
         <v>261</v>
       </c>
-      <c r="DG11" s="32">
+      <c r="DG11" s="29">
         <f t="shared" ref="DG11" si="118">DF11+1</f>
         <v>262</v>
       </c>
-      <c r="DH11" s="32">
+      <c r="DH11" s="29">
         <f t="shared" ref="DH11" si="119">DG11+1</f>
         <v>263</v>
       </c>
-      <c r="DI11" s="32">
+      <c r="DI11" s="29">
         <f t="shared" ref="DI11" si="120">DH11+1</f>
         <v>264</v>
       </c>
-      <c r="DJ11" s="32">
+      <c r="DJ11" s="29">
         <f t="shared" ref="DJ11" si="121">DI11+1</f>
         <v>265</v>
       </c>
-      <c r="DK11" s="32">
+      <c r="DK11" s="29">
         <f t="shared" ref="DK11" si="122">DJ11+1</f>
         <v>266</v>
       </c>
-      <c r="DL11" s="32">
+      <c r="DL11" s="29">
         <f t="shared" ref="DL11" si="123">DK11+1</f>
         <v>267</v>
       </c>
-      <c r="DM11" s="32">
+      <c r="DM11" s="29">
         <f t="shared" ref="DM11" si="124">DL11+1</f>
         <v>268</v>
       </c>
-      <c r="DN11" s="32">
+      <c r="DN11" s="29">
         <f t="shared" ref="DN11" si="125">DM11+1</f>
         <v>269</v>
       </c>
-      <c r="DO11" s="32">
+      <c r="DO11" s="29">
         <f t="shared" ref="DO11" si="126">DN11+1</f>
         <v>270</v>
       </c>
-      <c r="DP11" s="32">
+      <c r="DP11" s="29">
         <f t="shared" ref="DP11" si="127">DO11+1</f>
         <v>271</v>
       </c>
-      <c r="DQ11" s="32">
+      <c r="DQ11" s="29">
         <f t="shared" ref="DQ11" si="128">DP11+1</f>
         <v>272</v>
       </c>
-      <c r="DR11" s="32">
+      <c r="DR11" s="29">
         <f t="shared" ref="DR11" si="129">DQ11+1</f>
         <v>273</v>
       </c>
-      <c r="DS11" s="32">
+      <c r="DS11" s="29">
         <f t="shared" ref="DS11" si="130">DR11+1</f>
         <v>274</v>
       </c>
-      <c r="DT11" s="32">
+      <c r="DT11" s="29">
         <f t="shared" ref="DT11" si="131">DS11+1</f>
         <v>275</v>
       </c>
-      <c r="DU11" s="32">
+      <c r="DU11" s="29">
         <f t="shared" ref="DU11" si="132">DT11+1</f>
         <v>276</v>
       </c>
-      <c r="DV11" s="32">
+      <c r="DV11" s="29">
         <f t="shared" ref="DV11" si="133">DU11+1</f>
         <v>277</v>
       </c>
-      <c r="DW11" s="32">
+      <c r="DW11" s="29">
         <f t="shared" ref="DW11" si="134">DV11+1</f>
         <v>278</v>
       </c>
-      <c r="DX11" s="32">
+      <c r="DX11" s="29">
         <f t="shared" ref="DX11" si="135">DW11+1</f>
         <v>279</v>
       </c>
-      <c r="DY11" s="32">
+      <c r="DY11" s="29">
         <f t="shared" ref="DY11" si="136">DX11+1</f>
         <v>280</v>
       </c>
-      <c r="DZ11" s="32">
+      <c r="DZ11" s="29">
         <f t="shared" ref="DZ11" si="137">DY11+1</f>
         <v>281</v>
       </c>
-      <c r="EA11" s="32">
+      <c r="EA11" s="29">
         <f t="shared" ref="EA11" si="138">DZ11+1</f>
         <v>282</v>
       </c>
-      <c r="EB11" s="32">
+      <c r="EB11" s="29">
         <f t="shared" ref="EB11" si="139">EA11+1</f>
         <v>283</v>
       </c>
-      <c r="EC11" s="32">
+      <c r="EC11" s="29">
         <f t="shared" ref="EC11" si="140">EB11+1</f>
         <v>284</v>
       </c>
-      <c r="ED11" s="32">
+      <c r="ED11" s="29">
         <f t="shared" ref="ED11" si="141">EC11+1</f>
         <v>285</v>
       </c>
-      <c r="EE11" s="32">
+      <c r="EE11" s="29">
         <f t="shared" ref="EE11" si="142">ED11+1</f>
         <v>286</v>
       </c>
-      <c r="EF11" s="32">
+      <c r="EF11" s="29">
         <f t="shared" ref="EF11" si="143">EE11+1</f>
         <v>287</v>
       </c>
-      <c r="EG11" s="32">
+      <c r="EG11" s="29">
         <f t="shared" ref="EG11" si="144">EF11+1</f>
         <v>288</v>
       </c>
-      <c r="EH11" s="32">
+      <c r="EH11" s="29">
         <f t="shared" ref="EH11" si="145">EG11+1</f>
         <v>289</v>
       </c>
-      <c r="EI11" s="32">
+      <c r="EI11" s="29">
         <f t="shared" ref="EI11" si="146">EH11+1</f>
         <v>290</v>
       </c>
-      <c r="EJ11" s="32">
+      <c r="EJ11" s="29">
         <f t="shared" ref="EJ11" si="147">EI11+1</f>
         <v>291</v>
       </c>
-      <c r="EK11" s="32">
+      <c r="EK11" s="29">
         <f t="shared" ref="EK11" si="148">EJ11+1</f>
         <v>292</v>
       </c>
-      <c r="EL11" s="32">
+      <c r="EL11" s="29">
         <f t="shared" ref="EL11" si="149">EK11+1</f>
         <v>293</v>
       </c>
-      <c r="EM11" s="32">
+      <c r="EM11" s="29">
         <f t="shared" ref="EM11" si="150">EL11+1</f>
         <v>294</v>
       </c>
-      <c r="EN11" s="32">
+      <c r="EN11" s="29">
         <f t="shared" ref="EN11" si="151">EM11+1</f>
         <v>295</v>
       </c>
-      <c r="EO11" s="32">
+      <c r="EO11" s="29">
         <f t="shared" ref="EO11" si="152">EN11+1</f>
         <v>296</v>
       </c>
-      <c r="EP11" s="32">
+      <c r="EP11" s="29">
         <f t="shared" ref="EP11" si="153">EO11+1</f>
         <v>297</v>
       </c>
-      <c r="EQ11" s="32">
+      <c r="EQ11" s="29">
         <f t="shared" ref="EQ11" si="154">EP11+1</f>
         <v>298</v>
       </c>
-      <c r="ER11" s="32">
+      <c r="ER11" s="29">
         <f t="shared" ref="ER11" si="155">EQ11+1</f>
         <v>299</v>
       </c>
-      <c r="ES11" s="32">
+      <c r="ES11" s="29">
         <f t="shared" ref="ES11" si="156">ER11+1</f>
         <v>300</v>
       </c>
-      <c r="ET11" s="32">
+      <c r="ET11" s="29">
         <f t="shared" ref="ET11" si="157">ES11+1</f>
         <v>301</v>
       </c>
-      <c r="EU11" s="32">
+      <c r="EU11" s="29">
         <f t="shared" ref="EU11" si="158">ET11+1</f>
         <v>302</v>
       </c>
-      <c r="EV11" s="32">
+      <c r="EV11" s="29">
         <f t="shared" ref="EV11" si="159">EU11+1</f>
         <v>303</v>
       </c>
-      <c r="EW11" s="32">
+      <c r="EW11" s="29">
         <f t="shared" ref="EW11" si="160">EV11+1</f>
         <v>304</v>
       </c>
-      <c r="EX11" s="32">
+      <c r="EX11" s="29">
         <f t="shared" ref="EX11" si="161">EW11+1</f>
         <v>305</v>
       </c>
-      <c r="EY11" s="33"/>
+      <c r="EY11" s="30"/>
     </row>
     <row r="12" spans="1:159" ht="30" customHeight="1">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="25">
         <v>2</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="26">
         <v>20</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="34"/>
-      <c r="AK12" s="34"/>
-      <c r="AL12" s="34"/>
-      <c r="AM12" s="34"/>
-      <c r="AN12" s="34"/>
-      <c r="AO12" s="34"/>
-      <c r="AP12" s="34"/>
-      <c r="AQ12" s="34"/>
-      <c r="AR12" s="34"/>
-      <c r="AS12" s="34"/>
-      <c r="AT12" s="34"/>
-      <c r="AU12" s="34"/>
-      <c r="AV12" s="34"/>
-      <c r="AW12" s="34"/>
-      <c r="AX12" s="34"/>
-      <c r="AY12" s="34"/>
-      <c r="AZ12" s="34"/>
-      <c r="BA12" s="34"/>
-      <c r="BB12" s="34"/>
-      <c r="BC12" s="34"/>
-      <c r="BD12" s="34"/>
-      <c r="BE12" s="34"/>
-      <c r="BF12" s="34"/>
-      <c r="BG12" s="34"/>
-      <c r="BH12" s="34"/>
-      <c r="BI12" s="34"/>
-      <c r="BJ12" s="34"/>
-      <c r="BK12" s="34"/>
-      <c r="BL12" s="34"/>
-      <c r="BM12" s="34"/>
-      <c r="BN12" s="34"/>
-      <c r="BO12" s="34"/>
-      <c r="BP12" s="34"/>
-      <c r="BQ12" s="34"/>
-      <c r="BR12" s="34"/>
-      <c r="BS12" s="34"/>
-      <c r="BT12" s="34"/>
-      <c r="BU12" s="34"/>
-      <c r="BV12" s="34"/>
-      <c r="BW12" s="34"/>
-      <c r="BX12" s="34"/>
-      <c r="BY12" s="34"/>
-      <c r="BZ12" s="34"/>
-      <c r="CA12" s="34"/>
-      <c r="CB12" s="34"/>
-      <c r="CC12" s="34"/>
-      <c r="CD12" s="34"/>
-      <c r="CE12" s="34"/>
-      <c r="CF12" s="34"/>
-      <c r="CG12" s="34"/>
-      <c r="CH12" s="34"/>
-      <c r="CI12" s="34"/>
-      <c r="CJ12" s="34"/>
-      <c r="CK12" s="34"/>
-      <c r="CL12" s="34"/>
-      <c r="CM12" s="34"/>
-      <c r="CN12" s="34"/>
-      <c r="CO12" s="34"/>
-      <c r="CP12" s="34"/>
-      <c r="CQ12" s="34"/>
-      <c r="CR12" s="34"/>
-      <c r="CS12" s="34"/>
-      <c r="CT12" s="34"/>
-      <c r="CU12" s="34"/>
-      <c r="CV12" s="34"/>
-      <c r="CW12" s="34"/>
-      <c r="CX12" s="34"/>
-      <c r="CY12" s="34"/>
-      <c r="CZ12" s="34"/>
-      <c r="DA12" s="34"/>
-      <c r="DB12" s="34"/>
-      <c r="DC12" s="34"/>
-      <c r="DD12" s="34"/>
-      <c r="DE12" s="34"/>
-      <c r="DF12" s="34"/>
-      <c r="DG12" s="34"/>
-      <c r="DH12" s="34"/>
-      <c r="DI12" s="34"/>
-      <c r="DJ12" s="34"/>
-      <c r="DK12" s="34"/>
-      <c r="DL12" s="34"/>
-      <c r="DM12" s="34"/>
-      <c r="DN12" s="34"/>
-      <c r="DO12" s="34"/>
-      <c r="DP12" s="34"/>
-      <c r="DQ12" s="34"/>
-      <c r="DR12" s="34"/>
-      <c r="DS12" s="34"/>
-      <c r="DT12" s="34"/>
-      <c r="DU12" s="34"/>
-      <c r="DV12" s="34"/>
-      <c r="DW12" s="34"/>
-      <c r="DX12" s="34"/>
-      <c r="DY12" s="34"/>
-      <c r="DZ12" s="34"/>
-      <c r="EA12" s="34"/>
-      <c r="EB12" s="34"/>
-      <c r="EC12" s="34"/>
-      <c r="ED12" s="34"/>
-      <c r="EE12" s="34"/>
-      <c r="EF12" s="34"/>
-      <c r="EG12" s="34"/>
-      <c r="EH12" s="34"/>
-      <c r="EI12" s="34"/>
-      <c r="EJ12" s="34"/>
-      <c r="EK12" s="34"/>
-      <c r="EL12" s="34"/>
-      <c r="EM12" s="34"/>
-      <c r="EN12" s="34"/>
-      <c r="EO12" s="34"/>
-      <c r="EP12" s="34"/>
-      <c r="EQ12" s="34"/>
-      <c r="ER12" s="34"/>
-      <c r="ES12" s="34"/>
-      <c r="ET12" s="34"/>
-      <c r="EU12" s="34"/>
-      <c r="EV12" s="34"/>
-      <c r="EW12" s="34"/>
-      <c r="EX12" s="34"/>
-      <c r="EY12" s="35"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+      <c r="AH12" s="31"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="31"/>
+      <c r="AL12" s="31"/>
+      <c r="AM12" s="31"/>
+      <c r="AN12" s="31"/>
+      <c r="AO12" s="31"/>
+      <c r="AP12" s="31"/>
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31"/>
+      <c r="AS12" s="31"/>
+      <c r="AT12" s="31"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="31"/>
+      <c r="AY12" s="31"/>
+      <c r="AZ12" s="31"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="31"/>
+      <c r="BC12" s="31"/>
+      <c r="BD12" s="31"/>
+      <c r="BE12" s="31"/>
+      <c r="BF12" s="31"/>
+      <c r="BG12" s="31"/>
+      <c r="BH12" s="31"/>
+      <c r="BI12" s="31"/>
+      <c r="BJ12" s="31"/>
+      <c r="BK12" s="31"/>
+      <c r="BL12" s="31"/>
+      <c r="BM12" s="31"/>
+      <c r="BN12" s="31"/>
+      <c r="BO12" s="31"/>
+      <c r="BP12" s="31"/>
+      <c r="BQ12" s="31"/>
+      <c r="BR12" s="31"/>
+      <c r="BS12" s="31"/>
+      <c r="BT12" s="31"/>
+      <c r="BU12" s="31"/>
+      <c r="BV12" s="31"/>
+      <c r="BW12" s="31"/>
+      <c r="BX12" s="31"/>
+      <c r="BY12" s="31"/>
+      <c r="BZ12" s="31"/>
+      <c r="CA12" s="31"/>
+      <c r="CB12" s="31"/>
+      <c r="CC12" s="31"/>
+      <c r="CD12" s="31"/>
+      <c r="CE12" s="31"/>
+      <c r="CF12" s="31"/>
+      <c r="CG12" s="31"/>
+      <c r="CH12" s="31"/>
+      <c r="CI12" s="31"/>
+      <c r="CJ12" s="31"/>
+      <c r="CK12" s="31"/>
+      <c r="CL12" s="31"/>
+      <c r="CM12" s="31"/>
+      <c r="CN12" s="31"/>
+      <c r="CO12" s="31"/>
+      <c r="CP12" s="31"/>
+      <c r="CQ12" s="31"/>
+      <c r="CR12" s="31"/>
+      <c r="CS12" s="31"/>
+      <c r="CT12" s="31"/>
+      <c r="CU12" s="31"/>
+      <c r="CV12" s="31"/>
+      <c r="CW12" s="31"/>
+      <c r="CX12" s="31"/>
+      <c r="CY12" s="31"/>
+      <c r="CZ12" s="31"/>
+      <c r="DA12" s="31"/>
+      <c r="DB12" s="31"/>
+      <c r="DC12" s="31"/>
+      <c r="DD12" s="31"/>
+      <c r="DE12" s="31"/>
+      <c r="DF12" s="31"/>
+      <c r="DG12" s="31"/>
+      <c r="DH12" s="31"/>
+      <c r="DI12" s="31"/>
+      <c r="DJ12" s="31"/>
+      <c r="DK12" s="31"/>
+      <c r="DL12" s="31"/>
+      <c r="DM12" s="31"/>
+      <c r="DN12" s="31"/>
+      <c r="DO12" s="31"/>
+      <c r="DP12" s="31"/>
+      <c r="DQ12" s="31"/>
+      <c r="DR12" s="31"/>
+      <c r="DS12" s="31"/>
+      <c r="DT12" s="31"/>
+      <c r="DU12" s="31"/>
+      <c r="DV12" s="31"/>
+      <c r="DW12" s="31"/>
+      <c r="DX12" s="31"/>
+      <c r="DY12" s="31"/>
+      <c r="DZ12" s="31"/>
+      <c r="EA12" s="31"/>
+      <c r="EB12" s="31"/>
+      <c r="EC12" s="31"/>
+      <c r="ED12" s="31"/>
+      <c r="EE12" s="31"/>
+      <c r="EF12" s="31"/>
+      <c r="EG12" s="31"/>
+      <c r="EH12" s="31"/>
+      <c r="EI12" s="31"/>
+      <c r="EJ12" s="31"/>
+      <c r="EK12" s="31"/>
+      <c r="EL12" s="31"/>
+      <c r="EM12" s="31"/>
+      <c r="EN12" s="31"/>
+      <c r="EO12" s="31"/>
+      <c r="EP12" s="31"/>
+      <c r="EQ12" s="31"/>
+      <c r="ER12" s="31"/>
+      <c r="ES12" s="31"/>
+      <c r="ET12" s="31"/>
+      <c r="EU12" s="31"/>
+      <c r="EV12" s="31"/>
+      <c r="EW12" s="31"/>
+      <c r="EX12" s="31"/>
+      <c r="EY12" s="32"/>
     </row>
     <row r="13" spans="1:159" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="166">
   <si>
     <t>sincos</t>
   </si>
@@ -258,75 +258,9 @@
     <t>square root</t>
   </si>
   <si>
-    <t>chol diag 1</t>
-  </si>
-  <si>
     <t>divider</t>
   </si>
   <si>
-    <t>chol diag 0</t>
-  </si>
-  <si>
-    <t>chol 15 mult</t>
-  </si>
-  <si>
-    <t>chol 15 sub</t>
-  </si>
-  <si>
-    <t>chol 25 mult</t>
-  </si>
-  <si>
-    <t>chol 25 sub</t>
-  </si>
-  <si>
-    <t>chol diag 2</t>
-  </si>
-  <si>
-    <t>chol 35 mult</t>
-  </si>
-  <si>
-    <t>chol 35 sub</t>
-  </si>
-  <si>
-    <t>chol diag 3</t>
-  </si>
-  <si>
-    <t>chol 45 mult</t>
-  </si>
-  <si>
-    <t>chol 45 sub</t>
-  </si>
-  <si>
-    <t>chol diag 4</t>
-  </si>
-  <si>
-    <t>chol 55 mult</t>
-  </si>
-  <si>
-    <t>chol 55 sub</t>
-  </si>
-  <si>
-    <t>chol diag 5</t>
-  </si>
-  <si>
-    <t>chol inv col 0</t>
-  </si>
-  <si>
-    <t>chol inv col 1</t>
-  </si>
-  <si>
-    <t>chol inv col 2</t>
-  </si>
-  <si>
-    <t>chol inv col 3</t>
-  </si>
-  <si>
-    <t>chol inv col 4</t>
-  </si>
-  <si>
-    <t>inv col 5</t>
-  </si>
-  <si>
     <t>inv cyc 1</t>
   </si>
   <si>
@@ -421,13 +355,175 @@
   </si>
   <si>
     <t>T06 cyc 11</t>
+  </si>
+  <si>
+    <t>T02 cyc 12</t>
+  </si>
+  <si>
+    <t>T04 cyc 12</t>
+  </si>
+  <si>
+    <t>T05 cyc 12</t>
+  </si>
+  <si>
+    <t>T06 cyc 12</t>
+  </si>
+  <si>
+    <t>T01 x Z0 accum</t>
+  </si>
+  <si>
+    <t>T02 x Z0 accum</t>
+  </si>
+  <si>
+    <t>T03 x Z0 accum</t>
+  </si>
+  <si>
+    <t>T04 x Z0 accum</t>
+  </si>
+  <si>
+    <t>T05 x Z0 accum</t>
+  </si>
+  <si>
+    <t>T06 x Z0 accum</t>
+  </si>
+  <si>
+    <t>JJT cyc 11</t>
+  </si>
+  <si>
+    <t>JJT cyc 12</t>
+  </si>
+  <si>
+    <t>chol step 1 element 11</t>
+  </si>
+  <si>
+    <t>chol step 4 element 22</t>
+  </si>
+  <si>
+    <t>chol step 7 element 33</t>
+  </si>
+  <si>
+    <t>chol step 10 element 44</t>
+  </si>
+  <si>
+    <t>chol step 13 element 55</t>
+  </si>
+  <si>
+    <t>chol step 16 element 66</t>
+  </si>
+  <si>
+    <t>chol step 2 col 1</t>
+  </si>
+  <si>
+    <t>chol step 5 col 2</t>
+  </si>
+  <si>
+    <t>chol step 8 col 3</t>
+  </si>
+  <si>
+    <t>chol step 11 col 4</t>
+  </si>
+  <si>
+    <t>chol step 14 col 5</t>
+  </si>
+  <si>
+    <t>chol step 3 15 muls</t>
+  </si>
+  <si>
+    <t>chol step 6 10 muls</t>
+  </si>
+  <si>
+    <t>chol step 3 15 adds</t>
+  </si>
+  <si>
+    <t>chol step 6 10 adds</t>
+  </si>
+  <si>
+    <t>chol step 9 6 muls</t>
+  </si>
+  <si>
+    <t>chol step 9 6 adds</t>
+  </si>
+  <si>
+    <t>chol step 12 3 muls</t>
+  </si>
+  <si>
+    <t>chol step 12 3 subs</t>
+  </si>
+  <si>
+    <t>chol step 15 1 muls</t>
+  </si>
+  <si>
+    <t>chol step 15 1 adds</t>
+  </si>
+  <si>
+    <t>inv step 1 1 divs</t>
+  </si>
+  <si>
+    <t>inv step 2 5 muls</t>
+  </si>
+  <si>
+    <t>inv step 2 5 adds</t>
+  </si>
+  <si>
+    <t>inv step 3 2 divs</t>
+  </si>
+  <si>
+    <t>inv step 4 8 mults</t>
+  </si>
+  <si>
+    <t>inv step 4 8 adds</t>
+  </si>
+  <si>
+    <t>inv step 5 3 divs</t>
+  </si>
+  <si>
+    <t>inv step 6 9 muls</t>
+  </si>
+  <si>
+    <t>inv step 6 9 adds</t>
+  </si>
+  <si>
+    <t>inv step 7 4 divs</t>
+  </si>
+  <si>
+    <t>inv step 8 8 mults</t>
+  </si>
+  <si>
+    <t>inv step 8 8 adds</t>
+  </si>
+  <si>
+    <t>inv step 9 5 divs</t>
+  </si>
+  <si>
+    <t>inv step 10 5 mults</t>
+  </si>
+  <si>
+    <t>inv step 10 5 adds</t>
+  </si>
+  <si>
+    <t>inv step 11 6 divs</t>
+  </si>
+  <si>
+    <t>inv cyc 11</t>
+  </si>
+  <si>
+    <t>inv cyc 12</t>
+  </si>
+  <si>
+    <t>JT(JJT)-1 cyc 11</t>
+  </si>
+  <si>
+    <t>JT(JJT)-1 cyc 12</t>
+  </si>
+  <si>
+    <t>6 or 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,25 +558,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="6"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -488,8 +607,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="409">
+  <cellStyleXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -899,17 +1129,288 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="409">
+  <cellStyles count="599">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1114,6 +1615,101 @@
     <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1318,6 +1914,101 @@
     <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1650,2135 +2341,4354 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DN35"/>
+  <dimension ref="A1:DM28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CI27" sqref="CI27"/>
+      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="4" width="10.33203125" style="1" customWidth="1"/>
-    <col min="5" max="159" width="3" style="1" customWidth="1"/>
-    <col min="160" max="16384" width="5" style="1"/>
+    <col min="1" max="1" width="10.33203125" style="12" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="3.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
+    <row r="1" spans="2:94" s="4" customFormat="1" ht="42" customHeight="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="8"/>
     </row>
-    <row r="2" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="2:94" s="4" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="10">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AB2" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AC2" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AG2" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AH2" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="1">
+      <c r="AR2" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="1">
+      <c r="AS2" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AT2" s="10">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AU2" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AV2" s="10">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AW2" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AX2" s="10">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AY2" s="10">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="AZ2" s="10">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="BA2" s="10">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BB2" s="10">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BC2" s="10">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BD2" s="10">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BE2" s="10">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BF2" s="10">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BG2" s="10">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BH2" s="10">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BI2" s="10">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BJ2" s="10">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BK2" s="10">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="1">
+      <c r="BL2" s="10">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="1">
+      <c r="BM2" s="10">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="1">
+      <c r="BN2" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="1">
+      <c r="BO2" s="10">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="1">
+      <c r="BP2" s="10">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="1">
+      <c r="BQ2" s="10">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="1">
+      <c r="BR2" s="10">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="1">
+      <c r="BS2" s="10">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="1">
+      <c r="BT2" s="10">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="1">
+      <c r="BU2" s="10">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="1">
+      <c r="BV2" s="10">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="1">
+      <c r="BW2" s="10">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="1">
+      <c r="BX2" s="10">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="1">
+      <c r="BY2" s="10">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="1">
+      <c r="BZ2" s="10">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
+      <c r="CA2" s="10">
+        <f t="shared" ref="CA2" si="2">BZ2+1</f>
+        <v>75</v>
+      </c>
+      <c r="CB2" s="10">
+        <f t="shared" ref="CB2" si="3">CA2+1</f>
+        <v>76</v>
+      </c>
+      <c r="CC2" s="10">
+        <f t="shared" ref="CC2" si="4">CB2+1</f>
+        <v>77</v>
+      </c>
+      <c r="CD2" s="10">
+        <f t="shared" ref="CD2" si="5">CC2+1</f>
+        <v>78</v>
+      </c>
+      <c r="CE2" s="10">
+        <f t="shared" ref="CE2" si="6">CD2+1</f>
+        <v>79</v>
+      </c>
+      <c r="CF2" s="10">
+        <f t="shared" ref="CF2" si="7">CE2+1</f>
+        <v>80</v>
+      </c>
+      <c r="CG2" s="10">
+        <f t="shared" ref="CG2" si="8">CF2+1</f>
+        <v>81</v>
+      </c>
+      <c r="CH2" s="10">
+        <f t="shared" ref="CH2" si="9">CG2+1</f>
+        <v>82</v>
+      </c>
+      <c r="CI2" s="10">
+        <f t="shared" ref="CI2" si="10">CH2+1</f>
+        <v>83</v>
+      </c>
+      <c r="CJ2" s="10">
+        <f t="shared" ref="CJ2" si="11">CI2+1</f>
+        <v>84</v>
+      </c>
+      <c r="CK2" s="10">
+        <f t="shared" ref="CK2" si="12">CJ2+1</f>
+        <v>85</v>
+      </c>
+      <c r="CL2" s="10">
+        <f t="shared" ref="CL2" si="13">CK2+1</f>
+        <v>86</v>
+      </c>
+      <c r="CM2" s="10">
+        <f t="shared" ref="CM2" si="14">CL2+1</f>
+        <v>87</v>
+      </c>
+      <c r="CN2" s="10">
+        <f t="shared" ref="CN2" si="15">CM2+1</f>
+        <v>88</v>
+      </c>
+      <c r="CO2" s="10">
+        <f t="shared" ref="CO2" si="16">CN2+1</f>
+        <v>89</v>
+      </c>
+      <c r="CP2" s="11">
+        <f t="shared" ref="CP2" si="17">CO2+1</f>
+        <v>90</v>
+      </c>
     </row>
-    <row r="3" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:94" ht="42" customHeight="1">
+      <c r="B3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="14">
+        <v>22</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="15" t="str">
         <f>E3</f>
         <v>joint 1</v>
       </c>
-      <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:K3" si="2">F3</f>
+      <c r="G3" s="15" t="str">
+        <f t="shared" ref="G3:K3" si="18">F3</f>
         <v>joint 1</v>
       </c>
-      <c r="H3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="H3" s="15" t="str">
+        <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="I3" s="15" t="str">
+        <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="J3" s="15" t="str">
+        <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="K3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="K3" s="15" t="str">
+        <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="15" t="str">
         <f>L3</f>
         <v>joint 1</v>
       </c>
-      <c r="N3" s="1" t="str">
-        <f t="shared" ref="N3" si="3">M3</f>
+      <c r="N3" s="15" t="str">
+        <f t="shared" ref="N3" si="19">M3</f>
         <v>joint 1</v>
       </c>
-      <c r="O3" s="1" t="str">
-        <f t="shared" ref="O3" si="4">N3</f>
+      <c r="O3" s="15" t="str">
+        <f t="shared" ref="O3" si="20">N3</f>
         <v>joint 1</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3" si="5">O3</f>
+      <c r="P3" s="15" t="str">
+        <f t="shared" ref="P3" si="21">O3</f>
         <v>joint 1</v>
       </c>
-      <c r="Q3" s="1" t="str">
-        <f t="shared" ref="Q3" si="6">P3</f>
+      <c r="Q3" s="15" t="str">
+        <f t="shared" ref="Q3" si="22">P3</f>
         <v>joint 1</v>
       </c>
-      <c r="R3" s="1" t="str">
-        <f t="shared" ref="R3" si="7">Q3</f>
+      <c r="R3" s="15" t="str">
+        <f t="shared" ref="R3" si="23">Q3</f>
         <v>joint 1</v>
       </c>
-      <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3" si="8">R3</f>
+      <c r="S3" s="15" t="str">
+        <f t="shared" ref="S3" si="24">R3</f>
         <v>joint 1</v>
       </c>
-      <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3" si="9">S3</f>
+      <c r="T3" s="15" t="str">
+        <f t="shared" ref="T3" si="25">S3</f>
         <v>joint 1</v>
       </c>
-      <c r="U3" s="1" t="str">
-        <f t="shared" ref="U3" si="10">T3</f>
+      <c r="U3" s="15" t="str">
+        <f t="shared" ref="U3" si="26">T3</f>
         <v>joint 1</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3" si="11">U3</f>
+      <c r="V3" s="15" t="str">
+        <f t="shared" ref="V3" si="27">U3</f>
         <v>joint 1</v>
       </c>
-      <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3" si="12">V3</f>
+      <c r="W3" s="15" t="str">
+        <f t="shared" ref="W3" si="28">V3</f>
         <v>joint 1</v>
       </c>
-      <c r="X3" s="1" t="str">
-        <f t="shared" ref="X3" si="13">W3</f>
+      <c r="X3" s="15" t="str">
+        <f t="shared" ref="X3" si="29">W3</f>
         <v>joint 1</v>
       </c>
-      <c r="Y3" s="1" t="str">
-        <f t="shared" ref="Y3" si="14">X3</f>
+      <c r="Y3" s="15" t="str">
+        <f t="shared" ref="Y3" si="30">X3</f>
         <v>joint 1</v>
       </c>
-      <c r="Z3" s="1" t="str">
-        <f t="shared" ref="Z3" si="15">Y3</f>
+      <c r="Z3" s="15" t="str">
+        <f t="shared" ref="Z3" si="31">Y3</f>
         <v>joint 1</v>
       </c>
-      <c r="AA3" s="1" t="str">
-        <f t="shared" ref="AA3" si="16">Z3</f>
-        <v>joint 1</v>
-      </c>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="15"/>
+      <c r="AR3" s="15"/>
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="15"/>
+      <c r="AW3" s="15"/>
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="15"/>
+      <c r="BB3" s="15"/>
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="15"/>
+      <c r="BL3" s="15"/>
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="15"/>
+      <c r="BQ3" s="15"/>
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="15"/>
+      <c r="BV3" s="15"/>
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="15"/>
+      <c r="CA3" s="15"/>
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="15"/>
+      <c r="CF3" s="15"/>
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="15"/>
+      <c r="CK3" s="15"/>
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="15"/>
+      <c r="CP3" s="16"/>
     </row>
-    <row r="4" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="F4" s="1" t="s">
+    <row r="4" spans="2:94" ht="42" customHeight="1">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:L4" si="17">F4</f>
+      <c r="G4" s="15" t="str">
+        <f t="shared" ref="G4:L4" si="32">F4</f>
         <v>joint 2</v>
       </c>
-      <c r="H4" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="H4" s="15" t="str">
+        <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="I4" s="15" t="str">
+        <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="J4" s="15" t="str">
+        <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="K4" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="K4" s="15" t="str">
+        <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="L4" s="1" t="str">
-        <f t="shared" si="17"/>
+      <c r="L4" s="15" t="str">
+        <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="M4" s="1" t="str">
+      <c r="M4" s="15" t="str">
         <f>L4</f>
         <v>joint 2</v>
       </c>
-      <c r="N4" s="1" t="str">
-        <f t="shared" ref="N4:P5" si="18">M4</f>
+      <c r="N4" s="15" t="str">
+        <f t="shared" ref="N4:P5" si="33">M4</f>
         <v>joint 2</v>
       </c>
-      <c r="O4" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="O4" s="15" t="str">
+        <f t="shared" si="33"/>
         <v>joint 2</v>
       </c>
-      <c r="P4" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="P4" s="15" t="str">
+        <f t="shared" si="33"/>
         <v>joint 2</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="15"/>
+      <c r="CB4" s="15"/>
+      <c r="CC4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CH4" s="15"/>
+      <c r="CI4" s="15"/>
+      <c r="CJ4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
+      <c r="CO4" s="15"/>
+      <c r="CP4" s="16"/>
     </row>
-    <row r="5" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="G5" s="1" t="s">
+    <row r="5" spans="2:94" ht="42" customHeight="1">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="15" t="str">
         <f>G5</f>
         <v>joint 3</v>
       </c>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="15" t="str">
         <f>H5</f>
         <v>joint 3</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="15" t="str">
         <f>I5</f>
         <v>joint 3</v>
       </c>
-      <c r="K5" s="1" t="str">
+      <c r="K5" s="15" t="str">
         <f>J5</f>
         <v>joint 3</v>
       </c>
-      <c r="L5" s="1" t="str">
+      <c r="L5" s="15" t="str">
         <f>K5</f>
         <v>joint 3</v>
       </c>
-      <c r="M5" s="1" t="str">
+      <c r="M5" s="15" t="str">
         <f>L5</f>
         <v>joint 3</v>
       </c>
-      <c r="N5" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="N5" s="15" t="str">
+        <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="O5" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="O5" s="15" t="str">
+        <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="18"/>
+      <c r="P5" s="15" t="str">
+        <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="Q5" s="1" t="str">
+      <c r="Q5" s="15" t="str">
         <f>P5</f>
         <v>joint 3</v>
       </c>
-      <c r="R5" s="1" t="str">
+      <c r="R5" s="15" t="str">
         <f>Q5</f>
         <v>joint 3</v>
       </c>
-      <c r="S5" s="1" t="str">
+      <c r="S5" s="15" t="str">
         <f>R5</f>
         <v>joint 3</v>
       </c>
-      <c r="T5" s="1" t="str">
+      <c r="T5" s="15" t="str">
         <f>S5</f>
         <v>joint 3</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="U5" s="15" t="str">
         <f>T5</f>
         <v>joint 3</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="X5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Y5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AA5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AB5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="15"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="15"/>
+      <c r="AS5" s="15"/>
+      <c r="AT5" s="15"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="15"/>
+      <c r="AW5" s="15"/>
+      <c r="AX5" s="15"/>
+      <c r="AY5" s="15"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="15"/>
+      <c r="BB5" s="15"/>
+      <c r="BC5" s="15"/>
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+      <c r="BH5" s="15"/>
+      <c r="BI5" s="15"/>
+      <c r="BJ5" s="15"/>
+      <c r="BK5" s="15"/>
+      <c r="BL5" s="15"/>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="15"/>
+      <c r="BO5" s="15"/>
+      <c r="BP5" s="15"/>
+      <c r="BQ5" s="15"/>
+      <c r="BR5" s="15"/>
+      <c r="BS5" s="15"/>
+      <c r="BT5" s="15"/>
+      <c r="BU5" s="15"/>
+      <c r="BV5" s="15"/>
+      <c r="BW5" s="15"/>
+      <c r="BX5" s="15"/>
+      <c r="BY5" s="15"/>
+      <c r="BZ5" s="15"/>
+      <c r="CA5" s="15"/>
+      <c r="CB5" s="15"/>
+      <c r="CC5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CH5" s="15"/>
+      <c r="CI5" s="15"/>
+      <c r="CJ5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
+      <c r="CO5" s="15"/>
+      <c r="CP5" s="16"/>
     </row>
-    <row r="6" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="H6" s="1" t="s">
+    <row r="6" spans="2:94" ht="42" customHeight="1">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="15" t="str">
         <f>H6</f>
         <v>joint 4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="X6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Z6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AB6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
+      <c r="BJ6" s="15"/>
+      <c r="BK6" s="15"/>
+      <c r="BL6" s="15"/>
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="15"/>
+      <c r="BO6" s="15"/>
+      <c r="BP6" s="15"/>
+      <c r="BQ6" s="15"/>
+      <c r="BR6" s="15"/>
+      <c r="BS6" s="15"/>
+      <c r="BT6" s="15"/>
+      <c r="BU6" s="15"/>
+      <c r="BV6" s="15"/>
+      <c r="BW6" s="15"/>
+      <c r="BX6" s="15"/>
+      <c r="BY6" s="15"/>
+      <c r="BZ6" s="15"/>
+      <c r="CA6" s="15"/>
+      <c r="CB6" s="15"/>
+      <c r="CC6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CH6" s="15"/>
+      <c r="CI6" s="15"/>
+      <c r="CJ6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
+      <c r="CO6" s="15"/>
+      <c r="CP6" s="16"/>
     </row>
-    <row r="7" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="I7" s="1" t="s">
+    <row r="7" spans="2:94" ht="42" customHeight="1">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="AE7" s="15"/>
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="15"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="15"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="15"/>
+      <c r="AO7" s="15"/>
+      <c r="AP7" s="15"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="15"/>
+      <c r="AS7" s="15"/>
+      <c r="AT7" s="15"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="15"/>
+      <c r="AW7" s="15"/>
+      <c r="AX7" s="15"/>
+      <c r="AY7" s="15"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="15"/>
+      <c r="BB7" s="15"/>
+      <c r="BC7" s="15"/>
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+      <c r="BH7" s="15"/>
+      <c r="BI7" s="15"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="15"/>
+      <c r="BL7" s="15"/>
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="15"/>
+      <c r="BO7" s="15"/>
+      <c r="BP7" s="15"/>
+      <c r="BQ7" s="15"/>
+      <c r="BR7" s="15"/>
+      <c r="BS7" s="15"/>
+      <c r="BT7" s="15"/>
+      <c r="BU7" s="15"/>
+      <c r="BV7" s="15"/>
+      <c r="BW7" s="15"/>
+      <c r="BX7" s="15"/>
+      <c r="BY7" s="15"/>
+      <c r="BZ7" s="15"/>
+      <c r="CA7" s="15"/>
+      <c r="CB7" s="15"/>
+      <c r="CC7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CH7" s="15"/>
+      <c r="CI7" s="15"/>
+      <c r="CJ7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
+      <c r="CO7" s="15"/>
+      <c r="CP7" s="16"/>
     </row>
-    <row r="8" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="J8" s="1" t="str">
+    <row r="8" spans="2:94" ht="42" customHeight="1">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="str">
         <f>AA7</f>
         <v>joint 5</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="V8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="X8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Y8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AA8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AB8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AD8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AE8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="15"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="15"/>
+      <c r="AO8" s="15"/>
+      <c r="AP8" s="15"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="15"/>
+      <c r="AS8" s="15"/>
+      <c r="AT8" s="15"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="15"/>
+      <c r="AW8" s="15"/>
+      <c r="AX8" s="15"/>
+      <c r="AY8" s="15"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="15"/>
+      <c r="BB8" s="15"/>
+      <c r="BC8" s="15"/>
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+      <c r="BH8" s="15"/>
+      <c r="BI8" s="15"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="15"/>
+      <c r="BL8" s="15"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="15"/>
+      <c r="BQ8" s="15"/>
+      <c r="BR8" s="15"/>
+      <c r="BS8" s="15"/>
+      <c r="BT8" s="15"/>
+      <c r="BU8" s="15"/>
+      <c r="BV8" s="15"/>
+      <c r="BW8" s="15"/>
+      <c r="BX8" s="15"/>
+      <c r="BY8" s="15"/>
+      <c r="BZ8" s="15"/>
+      <c r="CA8" s="15"/>
+      <c r="CB8" s="15"/>
+      <c r="CC8" s="15"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="15"/>
+      <c r="CH8" s="15"/>
+      <c r="CI8" s="15"/>
+      <c r="CJ8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+      <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
+      <c r="CO8" s="15"/>
+      <c r="CP8" s="16"/>
     </row>
-    <row r="9" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:94" ht="42" customHeight="1">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="14">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="14">
         <v>4</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="1" t="str">
+      <c r="AB9" s="15" t="str">
+        <f>AA9</f>
+        <v>joint 1</v>
+      </c>
+      <c r="AC9" s="15" t="str">
         <f>AB9</f>
         <v>joint 1</v>
       </c>
-      <c r="AD9" s="1" t="str">
-        <f>AC9</f>
-        <v>joint 1</v>
-      </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AD9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AM9" s="1" t="s">
+      <c r="AM9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AN9" s="1" t="s">
+      <c r="AN9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AO9" s="15" t="s">
         <v>61</v>
       </c>
+      <c r="AP9" s="15"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="15"/>
+      <c r="AS9" s="15"/>
+      <c r="AT9" s="15"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="15"/>
+      <c r="AW9" s="15"/>
+      <c r="AX9" s="15"/>
+      <c r="AY9" s="15"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="15"/>
+      <c r="BB9" s="15"/>
+      <c r="BC9" s="15"/>
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+      <c r="BH9" s="15"/>
+      <c r="BI9" s="15"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="15"/>
+      <c r="BL9" s="15"/>
+      <c r="BM9" s="15"/>
+      <c r="BN9" s="15"/>
+      <c r="BO9" s="15"/>
+      <c r="BP9" s="15"/>
+      <c r="BQ9" s="15"/>
+      <c r="BR9" s="15"/>
+      <c r="BS9" s="15"/>
+      <c r="BT9" s="15"/>
+      <c r="BU9" s="15"/>
+      <c r="BV9" s="15"/>
+      <c r="BW9" s="15"/>
+      <c r="BX9" s="15"/>
+      <c r="BY9" s="15"/>
+      <c r="BZ9" s="15"/>
+      <c r="CA9" s="15"/>
+      <c r="CB9" s="15"/>
+      <c r="CC9" s="15"/>
+      <c r="CP9" s="16"/>
     </row>
-    <row r="10" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AC10" s="1" t="s">
+    <row r="10" spans="2:94" ht="42" customHeight="1">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="1" t="str">
-        <f>AC10</f>
+      <c r="AC10" s="15" t="str">
+        <f>AB10</f>
         <v>joint 2</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AD10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AE10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AS10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AT10" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AU10" s="15" t="s">
         <v>62</v>
       </c>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="15"/>
+      <c r="BL10" s="15"/>
+      <c r="BM10" s="15"/>
+      <c r="BN10" s="15"/>
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15"/>
+      <c r="BQ10" s="15"/>
+      <c r="BR10" s="15"/>
+      <c r="BS10" s="15"/>
+      <c r="BT10" s="15"/>
+      <c r="BU10" s="15"/>
+      <c r="BV10" s="15"/>
+      <c r="BW10" s="15"/>
+      <c r="BX10" s="15"/>
+      <c r="BY10" s="15"/>
+      <c r="BZ10" s="15"/>
+      <c r="CA10" s="15"/>
+      <c r="CB10" s="15"/>
+      <c r="CC10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="15"/>
+      <c r="CH10" s="15"/>
+      <c r="CI10" s="15"/>
+      <c r="CJ10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
+      <c r="CO10" s="15"/>
+      <c r="CP10" s="16"/>
     </row>
-    <row r="11" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AD11" s="1" t="s">
+    <row r="11" spans="2:94" ht="42" customHeight="1">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="1" t="str">
+      <c r="AD11" s="15" t="str">
+        <f>AC11</f>
+        <v>joint 3</v>
+      </c>
+      <c r="AE11" s="15" t="str">
         <f>AD11</f>
         <v>joint 3</v>
       </c>
-      <c r="AF11" s="1" t="str">
+      <c r="AF11" s="15" t="str">
         <f>AE11</f>
         <v>joint 3</v>
       </c>
-      <c r="AG11" s="1" t="str">
-        <f>AF11</f>
-        <v>joint 3</v>
-      </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AY11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="AZ11" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BA11" s="15" t="s">
         <v>63</v>
       </c>
+      <c r="BB11" s="15"/>
+      <c r="BC11" s="15"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+      <c r="BH11" s="15"/>
+      <c r="BI11" s="15"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="15"/>
+      <c r="BL11" s="15"/>
+      <c r="BM11" s="15"/>
+      <c r="BN11" s="15"/>
+      <c r="BO11" s="15"/>
+      <c r="BP11" s="15"/>
+      <c r="BQ11" s="15"/>
+      <c r="BR11" s="15"/>
+      <c r="BS11" s="15"/>
+      <c r="BT11" s="15"/>
+      <c r="BU11" s="15"/>
+      <c r="BV11" s="15"/>
+      <c r="BW11" s="15"/>
+      <c r="BX11" s="15"/>
+      <c r="BY11" s="15"/>
+      <c r="BZ11" s="15"/>
+      <c r="CA11" s="15"/>
+      <c r="CB11" s="15"/>
+      <c r="CC11" s="15"/>
+      <c r="CD11" s="15"/>
+      <c r="CE11" s="15"/>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="15"/>
+      <c r="CH11" s="15"/>
+      <c r="CI11" s="15"/>
+      <c r="CJ11" s="15"/>
+      <c r="CK11" s="15"/>
+      <c r="CL11" s="15"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="15"/>
+      <c r="CO11" s="15"/>
+      <c r="CP11" s="16"/>
     </row>
-    <row r="12" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AE12" s="1" t="s">
+    <row r="12" spans="2:94" ht="42" customHeight="1">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AD12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AE12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AF12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AG12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="BD12" s="1" t="s">
+      <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="15"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BE12" s="1" t="s">
+      <c r="BE12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BF12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BG12" s="1" t="s">
+      <c r="BG12" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+      <c r="BM12" s="15"/>
+      <c r="BN12" s="15"/>
+      <c r="BO12" s="15"/>
+      <c r="BP12" s="15"/>
+      <c r="BQ12" s="15"/>
+      <c r="BR12" s="15"/>
+      <c r="BS12" s="15"/>
+      <c r="BT12" s="15"/>
+      <c r="BU12" s="15"/>
+      <c r="BV12" s="15"/>
+      <c r="BW12" s="15"/>
+      <c r="BX12" s="15"/>
+      <c r="BY12" s="15"/>
+      <c r="BZ12" s="15"/>
+      <c r="CA12" s="15"/>
+      <c r="CB12" s="15"/>
+      <c r="CC12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="15"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CH12" s="15"/>
+      <c r="CI12" s="15"/>
+      <c r="CJ12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
+      <c r="CO12" s="15"/>
+      <c r="CP12" s="16"/>
     </row>
-    <row r="13" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AF13" s="1" t="s">
+    <row r="13" spans="2:94" ht="42" customHeight="1">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
+      <c r="AE13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AG13" s="1" t="s">
+      <c r="AF13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AH13" s="1" t="str">
-        <f>AG13</f>
+      <c r="AG13" s="15" t="str">
+        <f>AF13</f>
         <v>joint 5</v>
       </c>
-      <c r="AI13" s="1" t="str">
-        <f t="shared" ref="AI13" si="19">AH13</f>
+      <c r="AH13" s="15" t="str">
+        <f t="shared" ref="AH13" si="34">AG13</f>
         <v>joint 5</v>
       </c>
-      <c r="BJ13" s="1" t="s">
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
+      <c r="AN13" s="15"/>
+      <c r="AO13" s="15"/>
+      <c r="AP13" s="15"/>
+      <c r="AQ13" s="15"/>
+      <c r="AR13" s="15"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="15"/>
+      <c r="AU13" s="15"/>
+      <c r="AV13" s="15"/>
+      <c r="AW13" s="15"/>
+      <c r="AX13" s="15"/>
+      <c r="AY13" s="15"/>
+      <c r="AZ13" s="15"/>
+      <c r="BA13" s="15"/>
+      <c r="BB13" s="15"/>
+      <c r="BC13" s="15"/>
+      <c r="BD13" s="15"/>
+      <c r="BE13" s="15"/>
+      <c r="BF13" s="15"/>
+      <c r="BG13" s="15"/>
+      <c r="BH13" s="15"/>
+      <c r="BI13" s="15"/>
+      <c r="BJ13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BK13" s="1" t="s">
+      <c r="BK13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BL13" s="1" t="s">
+      <c r="BL13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BM13" s="1" t="s">
+      <c r="BM13" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="BN13" s="15"/>
+      <c r="BO13" s="15"/>
+      <c r="BP13" s="15"/>
+      <c r="BQ13" s="15"/>
+      <c r="BR13" s="15"/>
+      <c r="BS13" s="15"/>
+      <c r="BT13" s="15"/>
+      <c r="BU13" s="15"/>
+      <c r="BV13" s="15"/>
+      <c r="BW13" s="15"/>
+      <c r="BX13" s="15"/>
+      <c r="BY13" s="15"/>
+      <c r="BZ13" s="15"/>
+      <c r="CA13" s="15"/>
+      <c r="CB13" s="15"/>
+      <c r="CC13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CH13" s="15"/>
+      <c r="CI13" s="15"/>
+      <c r="CJ13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="15"/>
+      <c r="CO13" s="15"/>
+      <c r="CP13" s="16"/>
     </row>
-    <row r="14" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AG14" s="1" t="s">
+    <row r="14" spans="2:94" ht="42" customHeight="1">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="2" t="s">
+      <c r="AG14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AH14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AI14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BP14" s="1" t="s">
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="15"/>
+      <c r="BL14" s="15"/>
+      <c r="BM14" s="15"/>
+      <c r="BN14" s="15"/>
+      <c r="BO14" s="15"/>
+      <c r="BP14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BQ14" s="1" t="s">
+      <c r="BQ14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BR14" s="1" t="s">
+      <c r="BR14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BS14" s="1" t="s">
+      <c r="BS14" s="15" t="s">
         <v>66</v>
       </c>
+      <c r="BT14" s="15"/>
+      <c r="BU14" s="15"/>
+      <c r="BV14" s="15"/>
+      <c r="BW14" s="15"/>
+      <c r="BX14" s="15"/>
+      <c r="BY14" s="15"/>
+      <c r="BZ14" s="15"/>
+      <c r="CA14" s="15"/>
+      <c r="CB14" s="15"/>
+      <c r="CC14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="15"/>
+      <c r="CF14" s="15"/>
+      <c r="CG14" s="15"/>
+      <c r="CH14" s="15"/>
+      <c r="CI14" s="15"/>
+      <c r="CJ14" s="15"/>
+      <c r="CK14" s="15"/>
+      <c r="CL14" s="15"/>
+      <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
+      <c r="CO14" s="15"/>
+      <c r="CP14" s="16"/>
     </row>
-    <row r="15" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="2:94" ht="42" customHeight="1">
+      <c r="B15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="14">
         <v>36</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AP15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="15"/>
+      <c r="BQ15" s="15"/>
+      <c r="BR15" s="15"/>
+      <c r="BS15" s="15"/>
+      <c r="BT15" s="15"/>
+      <c r="BU15" s="15"/>
+      <c r="BV15" s="15"/>
+      <c r="BW15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="CA15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CB15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC15" s="15"/>
+      <c r="CD15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="CE15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="CF15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="CH15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="CI15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="CJ15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="CM15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="CP15" s="16"/>
+    </row>
+    <row r="16" spans="2:94" ht="42" customHeight="1">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="15"/>
+      <c r="BQ16" s="15"/>
+      <c r="BR16" s="15"/>
+      <c r="BS16" s="15"/>
+      <c r="BT16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="15"/>
+      <c r="BX16" s="15"/>
+      <c r="BY16" s="15"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="15"/>
+      <c r="CI16" s="15"/>
+      <c r="CJ16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
+      <c r="CP16" s="16"/>
+    </row>
+    <row r="17" spans="2:117" ht="42" customHeight="1">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="15"/>
+      <c r="BQ17" s="15"/>
+      <c r="BR17" s="15"/>
+      <c r="BS17" s="15"/>
+      <c r="BT17" s="15"/>
+      <c r="BU17" s="15"/>
+      <c r="BV17" s="15"/>
+      <c r="BW17" s="15"/>
+      <c r="BX17" s="15"/>
+      <c r="BY17" s="15"/>
+      <c r="BZ17" s="15"/>
+      <c r="CA17" s="15"/>
+      <c r="CB17" s="15"/>
+      <c r="CC17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CH17" s="15"/>
+      <c r="CI17" s="15"/>
+      <c r="CJ17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
+      <c r="CO17" s="15"/>
+      <c r="CP17" s="16"/>
+    </row>
+    <row r="18" spans="2:117" ht="42" customHeight="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="15"/>
+      <c r="BQ18" s="15"/>
+      <c r="BR18" s="15"/>
+      <c r="BS18" s="15"/>
+      <c r="BT18" s="15"/>
+      <c r="BU18" s="15"/>
+      <c r="BV18" s="15"/>
+      <c r="BW18" s="15"/>
+      <c r="BX18" s="15"/>
+      <c r="BY18" s="15"/>
+      <c r="BZ18" s="15"/>
+      <c r="CA18" s="15"/>
+      <c r="CB18" s="15"/>
+      <c r="CC18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="15"/>
+      <c r="CF18" s="15"/>
+      <c r="CG18" s="15"/>
+      <c r="CH18" s="15"/>
+      <c r="CI18" s="15"/>
+      <c r="CJ18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
+      <c r="CO18" s="15"/>
+      <c r="CP18" s="16"/>
+    </row>
+    <row r="19" spans="2:117" ht="42" customHeight="1">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AD19" s="15"/>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BL19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP19" s="15"/>
+      <c r="BQ19" s="15"/>
+      <c r="BR19" s="15"/>
+      <c r="BS19" s="15"/>
+      <c r="BT19" s="15"/>
+      <c r="BU19" s="15"/>
+      <c r="BV19" s="15"/>
+      <c r="BW19" s="15"/>
+      <c r="BX19" s="15"/>
+      <c r="BY19" s="15"/>
+      <c r="BZ19" s="15"/>
+      <c r="CA19" s="15"/>
+      <c r="CB19" s="15"/>
+      <c r="CC19" s="15"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CH19" s="15"/>
+      <c r="CI19" s="15"/>
+      <c r="CJ19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="15"/>
+      <c r="CO19" s="15"/>
+      <c r="CP19" s="16"/>
+    </row>
+    <row r="20" spans="2:117" ht="42" customHeight="1" thickBot="1">
+      <c r="B20" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="21">
+        <v>36</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AQ20" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR20" s="22"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX20" s="22"/>
+      <c r="AY20" s="22"/>
+      <c r="AZ20" s="22"/>
+      <c r="BA20" s="22"/>
+      <c r="BB20" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC20" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD20" s="22"/>
+      <c r="BE20" s="22"/>
+      <c r="BF20" s="22"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI20" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
+      <c r="BL20" s="22"/>
+      <c r="BM20" s="22"/>
+      <c r="BN20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO20" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BP20" s="22"/>
+      <c r="BQ20" s="22"/>
+      <c r="BR20" s="22"/>
+      <c r="BS20" s="22"/>
+      <c r="BT20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU20" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BV20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="BW20" s="22"/>
+      <c r="BX20" s="22"/>
+      <c r="BY20" s="22"/>
+      <c r="BZ20" s="22"/>
+      <c r="CA20" s="22"/>
+      <c r="CB20" s="22"/>
+      <c r="CC20" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD20" s="22"/>
+      <c r="CE20" s="22"/>
+      <c r="CF20" s="22"/>
+      <c r="CG20" s="22"/>
+      <c r="CH20" s="22"/>
+      <c r="CI20" s="22"/>
+      <c r="CJ20" s="22"/>
+      <c r="CK20" s="22"/>
+      <c r="CL20" s="22"/>
+      <c r="CM20" s="22"/>
+      <c r="CN20" s="22"/>
+      <c r="CO20" s="22"/>
+      <c r="CP20" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:117" ht="42" customHeight="1" thickBot="1"/>
+    <row r="22" spans="2:117" s="12" customFormat="1" ht="42" customHeight="1">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="25"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
+      <c r="BU22" s="25"/>
+      <c r="BV22" s="25"/>
+      <c r="BW22" s="25"/>
+      <c r="BX22" s="25"/>
+      <c r="BY22" s="25"/>
+      <c r="BZ22" s="25"/>
+      <c r="CA22" s="25"/>
+      <c r="CB22" s="25"/>
+      <c r="CC22" s="25"/>
+      <c r="CD22" s="25"/>
+      <c r="CE22" s="25"/>
+      <c r="CF22" s="25"/>
+      <c r="CG22" s="25"/>
+      <c r="CH22" s="25"/>
+      <c r="CI22" s="25"/>
+      <c r="CJ22" s="25"/>
+      <c r="CK22" s="25"/>
+      <c r="CL22" s="25"/>
+      <c r="CM22" s="25"/>
+      <c r="CN22" s="25"/>
+      <c r="CO22" s="25"/>
+      <c r="CP22" s="25"/>
+      <c r="CQ22" s="25"/>
+      <c r="CR22" s="25"/>
+      <c r="CS22" s="25"/>
+      <c r="CT22" s="25"/>
+      <c r="CU22" s="25"/>
+      <c r="CV22" s="25"/>
+      <c r="CW22" s="25"/>
+      <c r="CX22" s="25"/>
+      <c r="CY22" s="25"/>
+      <c r="CZ22" s="25"/>
+      <c r="DA22" s="25"/>
+      <c r="DB22" s="25"/>
+      <c r="DC22" s="25"/>
+      <c r="DD22" s="25"/>
+      <c r="DE22" s="25"/>
+      <c r="DF22" s="25"/>
+      <c r="DG22" s="25"/>
+      <c r="DH22" s="25"/>
+      <c r="DI22" s="25"/>
+      <c r="DJ22" s="25"/>
+      <c r="DK22" s="25"/>
+      <c r="DL22" s="25"/>
+      <c r="DM22" s="26"/>
+    </row>
+    <row r="23" spans="2:117" s="12" customFormat="1" ht="42" customHeight="1">
+      <c r="B23" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="27">
+        <v>91</v>
+      </c>
+      <c r="F23" s="27">
+        <f t="shared" ref="F23" si="35">E23+1</f>
+        <v>92</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" ref="G23" si="36">F23+1</f>
+        <v>93</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" ref="H23" si="37">G23+1</f>
+        <v>94</v>
+      </c>
+      <c r="I23" s="27">
+        <f t="shared" ref="I23" si="38">H23+1</f>
+        <v>95</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" ref="J23" si="39">I23+1</f>
+        <v>96</v>
+      </c>
+      <c r="K23" s="27">
+        <f t="shared" ref="K23" si="40">J23+1</f>
+        <v>97</v>
+      </c>
+      <c r="L23" s="27">
+        <f t="shared" ref="L23" si="41">K23+1</f>
+        <v>98</v>
+      </c>
+      <c r="M23" s="27">
+        <f t="shared" ref="M23" si="42">L23+1</f>
+        <v>99</v>
+      </c>
+      <c r="N23" s="27">
+        <f t="shared" ref="N23" si="43">M23+1</f>
+        <v>100</v>
+      </c>
+      <c r="O23" s="27">
+        <f t="shared" ref="O23" si="44">N23+1</f>
+        <v>101</v>
+      </c>
+      <c r="P23" s="27">
+        <f t="shared" ref="P23" si="45">O23+1</f>
+        <v>102</v>
+      </c>
+      <c r="Q23" s="27">
+        <f t="shared" ref="Q23" si="46">P23+1</f>
+        <v>103</v>
+      </c>
+      <c r="R23" s="27">
+        <f t="shared" ref="R23" si="47">Q23+1</f>
+        <v>104</v>
+      </c>
+      <c r="S23" s="27">
+        <f t="shared" ref="S23" si="48">R23+1</f>
+        <v>105</v>
+      </c>
+      <c r="T23" s="27">
+        <f t="shared" ref="T23" si="49">S23+1</f>
+        <v>106</v>
+      </c>
+      <c r="U23" s="27">
+        <f t="shared" ref="U23" si="50">T23+1</f>
+        <v>107</v>
+      </c>
+      <c r="V23" s="27">
+        <f t="shared" ref="V23" si="51">U23+1</f>
+        <v>108</v>
+      </c>
+      <c r="W23" s="27">
+        <f t="shared" ref="W23" si="52">V23+1</f>
+        <v>109</v>
+      </c>
+      <c r="X23" s="27">
+        <f t="shared" ref="X23" si="53">W23+1</f>
+        <v>110</v>
+      </c>
+      <c r="Y23" s="27">
+        <f t="shared" ref="Y23" si="54">X23+1</f>
+        <v>111</v>
+      </c>
+      <c r="Z23" s="27">
+        <f t="shared" ref="Z23" si="55">Y23+1</f>
+        <v>112</v>
+      </c>
+      <c r="AA23" s="27">
+        <f t="shared" ref="AA23" si="56">Z23+1</f>
+        <v>113</v>
+      </c>
+      <c r="AB23" s="27">
+        <f t="shared" ref="AB23" si="57">AA23+1</f>
+        <v>114</v>
+      </c>
+      <c r="AC23" s="27">
+        <f t="shared" ref="AC23" si="58">AB23+1</f>
+        <v>115</v>
+      </c>
+      <c r="AD23" s="27">
+        <f t="shared" ref="AD23" si="59">AC23+1</f>
+        <v>116</v>
+      </c>
+      <c r="AE23" s="27">
+        <f t="shared" ref="AE23" si="60">AD23+1</f>
+        <v>117</v>
+      </c>
+      <c r="AF23" s="27">
+        <f t="shared" ref="AF23" si="61">AE23+1</f>
+        <v>118</v>
+      </c>
+      <c r="AG23" s="27">
+        <f t="shared" ref="AG23" si="62">AF23+1</f>
+        <v>119</v>
+      </c>
+      <c r="AH23" s="27">
+        <f t="shared" ref="AH23" si="63">AG23+1</f>
+        <v>120</v>
+      </c>
+      <c r="AI23" s="27">
+        <f t="shared" ref="AI23" si="64">AH23+1</f>
+        <v>121</v>
+      </c>
+      <c r="AJ23" s="27">
+        <f t="shared" ref="AJ23" si="65">AI23+1</f>
+        <v>122</v>
+      </c>
+      <c r="AK23" s="27">
+        <f t="shared" ref="AK23" si="66">AJ23+1</f>
+        <v>123</v>
+      </c>
+      <c r="AL23" s="27">
+        <f t="shared" ref="AL23" si="67">AK23+1</f>
+        <v>124</v>
+      </c>
+      <c r="AM23" s="27">
+        <f t="shared" ref="AM23" si="68">AL23+1</f>
+        <v>125</v>
+      </c>
+      <c r="AN23" s="27">
+        <f t="shared" ref="AN23" si="69">AM23+1</f>
+        <v>126</v>
+      </c>
+      <c r="AO23" s="27">
+        <f t="shared" ref="AO23" si="70">AN23+1</f>
+        <v>127</v>
+      </c>
+      <c r="AP23" s="27">
+        <f t="shared" ref="AP23" si="71">AO23+1</f>
+        <v>128</v>
+      </c>
+      <c r="AQ23" s="27">
+        <f t="shared" ref="AQ23" si="72">AP23+1</f>
         <v>129</v>
       </c>
-      <c r="BW15" s="1" t="s">
+      <c r="AR23" s="27">
+        <f t="shared" ref="AR23" si="73">AQ23+1</f>
+        <v>130</v>
+      </c>
+      <c r="AS23" s="27">
+        <f t="shared" ref="AS23" si="74">AR23+1</f>
+        <v>131</v>
+      </c>
+      <c r="AT23" s="27">
+        <f t="shared" ref="AT23" si="75">AS23+1</f>
+        <v>132</v>
+      </c>
+      <c r="AU23" s="27">
+        <f t="shared" ref="AU23" si="76">AT23+1</f>
+        <v>133</v>
+      </c>
+      <c r="AV23" s="27">
+        <f t="shared" ref="AV23" si="77">AU23+1</f>
+        <v>134</v>
+      </c>
+      <c r="AW23" s="27">
+        <f t="shared" ref="AW23" si="78">AV23+1</f>
+        <v>135</v>
+      </c>
+      <c r="AX23" s="27">
+        <f t="shared" ref="AX23" si="79">AW23+1</f>
+        <v>136</v>
+      </c>
+      <c r="AY23" s="27">
+        <f t="shared" ref="AY23" si="80">AX23+1</f>
+        <v>137</v>
+      </c>
+      <c r="AZ23" s="27">
+        <f t="shared" ref="AZ23" si="81">AY23+1</f>
+        <v>138</v>
+      </c>
+      <c r="BA23" s="27">
+        <f t="shared" ref="BA23" si="82">AZ23+1</f>
+        <v>139</v>
+      </c>
+      <c r="BB23" s="27">
+        <f t="shared" ref="BB23" si="83">BA23+1</f>
+        <v>140</v>
+      </c>
+      <c r="BC23" s="27">
+        <f t="shared" ref="BC23" si="84">BB23+1</f>
+        <v>141</v>
+      </c>
+      <c r="BD23" s="27">
+        <f t="shared" ref="BD23" si="85">BC23+1</f>
+        <v>142</v>
+      </c>
+      <c r="BE23" s="27">
+        <f t="shared" ref="BE23" si="86">BD23+1</f>
+        <v>143</v>
+      </c>
+      <c r="BF23" s="27">
+        <f t="shared" ref="BF23" si="87">BE23+1</f>
+        <v>144</v>
+      </c>
+      <c r="BG23" s="27">
+        <f t="shared" ref="BG23" si="88">BF23+1</f>
+        <v>145</v>
+      </c>
+      <c r="BH23" s="27">
+        <f t="shared" ref="BH23" si="89">BG23+1</f>
+        <v>146</v>
+      </c>
+      <c r="BI23" s="27">
+        <f t="shared" ref="BI23" si="90">BH23+1</f>
+        <v>147</v>
+      </c>
+      <c r="BJ23" s="27">
+        <f t="shared" ref="BJ23" si="91">BI23+1</f>
+        <v>148</v>
+      </c>
+      <c r="BK23" s="27">
+        <f t="shared" ref="BK23" si="92">BJ23+1</f>
+        <v>149</v>
+      </c>
+      <c r="BL23" s="27">
+        <f t="shared" ref="BL23" si="93">BK23+1</f>
+        <v>150</v>
+      </c>
+      <c r="BM23" s="27">
+        <f t="shared" ref="BM23" si="94">BL23+1</f>
+        <v>151</v>
+      </c>
+      <c r="BN23" s="27">
+        <f t="shared" ref="BN23" si="95">BM23+1</f>
+        <v>152</v>
+      </c>
+      <c r="BO23" s="27">
+        <f t="shared" ref="BO23" si="96">BN23+1</f>
+        <v>153</v>
+      </c>
+      <c r="BP23" s="27">
+        <f t="shared" ref="BP23" si="97">BO23+1</f>
+        <v>154</v>
+      </c>
+      <c r="BQ23" s="27">
+        <f t="shared" ref="BQ23" si="98">BP23+1</f>
+        <v>155</v>
+      </c>
+      <c r="BR23" s="27">
+        <f t="shared" ref="BR23" si="99">BQ23+1</f>
+        <v>156</v>
+      </c>
+      <c r="BS23" s="27">
+        <f t="shared" ref="BS23" si="100">BR23+1</f>
+        <v>157</v>
+      </c>
+      <c r="BT23" s="27">
+        <f t="shared" ref="BT23" si="101">BS23+1</f>
+        <v>158</v>
+      </c>
+      <c r="BU23" s="27">
+        <f t="shared" ref="BU23" si="102">BT23+1</f>
+        <v>159</v>
+      </c>
+      <c r="BV23" s="27">
+        <f t="shared" ref="BV23" si="103">BU23+1</f>
+        <v>160</v>
+      </c>
+      <c r="BW23" s="27">
+        <f t="shared" ref="BW23" si="104">BV23+1</f>
+        <v>161</v>
+      </c>
+      <c r="BX23" s="27">
+        <f t="shared" ref="BX23" si="105">BW23+1</f>
+        <v>162</v>
+      </c>
+      <c r="BY23" s="27">
+        <f t="shared" ref="BY23" si="106">BX23+1</f>
+        <v>163</v>
+      </c>
+      <c r="BZ23" s="27">
+        <f t="shared" ref="BZ23" si="107">BY23+1</f>
+        <v>164</v>
+      </c>
+      <c r="CA23" s="27">
+        <f t="shared" ref="CA23" si="108">BZ23+1</f>
+        <v>165</v>
+      </c>
+      <c r="CB23" s="27">
+        <f t="shared" ref="CB23" si="109">CA23+1</f>
+        <v>166</v>
+      </c>
+      <c r="CC23" s="27">
+        <f t="shared" ref="CC23" si="110">CB23+1</f>
+        <v>167</v>
+      </c>
+      <c r="CD23" s="27">
+        <f t="shared" ref="CD23" si="111">CC23+1</f>
+        <v>168</v>
+      </c>
+      <c r="CE23" s="27">
+        <f t="shared" ref="CE23" si="112">CD23+1</f>
+        <v>169</v>
+      </c>
+      <c r="CF23" s="27">
+        <f t="shared" ref="CF23" si="113">CE23+1</f>
+        <v>170</v>
+      </c>
+      <c r="CG23" s="27">
+        <f t="shared" ref="CG23" si="114">CF23+1</f>
+        <v>171</v>
+      </c>
+      <c r="CH23" s="27">
+        <f t="shared" ref="CH23" si="115">CG23+1</f>
+        <v>172</v>
+      </c>
+      <c r="CI23" s="27">
+        <f t="shared" ref="CI23" si="116">CH23+1</f>
+        <v>173</v>
+      </c>
+      <c r="CJ23" s="27">
+        <f t="shared" ref="CJ23" si="117">CI23+1</f>
+        <v>174</v>
+      </c>
+      <c r="CK23" s="27">
+        <f t="shared" ref="CK23" si="118">CJ23+1</f>
+        <v>175</v>
+      </c>
+      <c r="CL23" s="27">
+        <f t="shared" ref="CL23" si="119">CK23+1</f>
+        <v>176</v>
+      </c>
+      <c r="CM23" s="27">
+        <f t="shared" ref="CM23" si="120">CL23+1</f>
+        <v>177</v>
+      </c>
+      <c r="CN23" s="27">
+        <f t="shared" ref="CN23" si="121">CM23+1</f>
+        <v>178</v>
+      </c>
+      <c r="CO23" s="27">
+        <f t="shared" ref="CO23" si="122">CN23+1</f>
+        <v>179</v>
+      </c>
+      <c r="CP23" s="27">
+        <f t="shared" ref="CP23" si="123">CO23+1</f>
+        <v>180</v>
+      </c>
+      <c r="CQ23" s="27">
+        <f t="shared" ref="CQ23" si="124">CP23+1</f>
+        <v>181</v>
+      </c>
+      <c r="CR23" s="27">
+        <f>CQ23+1</f>
+        <v>182</v>
+      </c>
+      <c r="CS23" s="27">
+        <f t="shared" ref="CS23" si="125">CR23+1</f>
+        <v>183</v>
+      </c>
+      <c r="CT23" s="27">
+        <f t="shared" ref="CT23" si="126">CS23+1</f>
+        <v>184</v>
+      </c>
+      <c r="CU23" s="27">
+        <f t="shared" ref="CU23" si="127">CT23+1</f>
+        <v>185</v>
+      </c>
+      <c r="CV23" s="27">
+        <f t="shared" ref="CV23" si="128">CU23+1</f>
+        <v>186</v>
+      </c>
+      <c r="CW23" s="27">
+        <f t="shared" ref="CW23" si="129">CV23+1</f>
+        <v>187</v>
+      </c>
+      <c r="CX23" s="27">
+        <f t="shared" ref="CX23" si="130">CW23+1</f>
+        <v>188</v>
+      </c>
+      <c r="CY23" s="27">
+        <f t="shared" ref="CY23" si="131">CX23+1</f>
+        <v>189</v>
+      </c>
+      <c r="CZ23" s="27">
+        <f t="shared" ref="CZ23" si="132">CY23+1</f>
+        <v>190</v>
+      </c>
+      <c r="DA23" s="27">
+        <f t="shared" ref="DA23" si="133">CZ23+1</f>
+        <v>191</v>
+      </c>
+      <c r="DB23" s="27">
+        <f t="shared" ref="DB23" si="134">DA23+1</f>
+        <v>192</v>
+      </c>
+      <c r="DC23" s="27">
+        <f t="shared" ref="DC23" si="135">DB23+1</f>
+        <v>193</v>
+      </c>
+      <c r="DD23" s="27">
+        <f t="shared" ref="DD23" si="136">DC23+1</f>
+        <v>194</v>
+      </c>
+      <c r="DE23" s="27">
+        <f t="shared" ref="DE23" si="137">DD23+1</f>
+        <v>195</v>
+      </c>
+      <c r="DF23" s="27">
+        <f t="shared" ref="DF23" si="138">DE23+1</f>
+        <v>196</v>
+      </c>
+      <c r="DG23" s="27">
+        <f t="shared" ref="DG23" si="139">DF23+1</f>
+        <v>197</v>
+      </c>
+      <c r="DH23" s="27">
+        <f t="shared" ref="DH23" si="140">DG23+1</f>
+        <v>198</v>
+      </c>
+      <c r="DI23" s="27">
+        <f t="shared" ref="DI23" si="141">DH23+1</f>
+        <v>199</v>
+      </c>
+      <c r="DJ23" s="27">
+        <f t="shared" ref="DJ23" si="142">DI23+1</f>
+        <v>200</v>
+      </c>
+      <c r="DK23" s="27">
+        <f t="shared" ref="DK23" si="143">DJ23+1</f>
+        <v>201</v>
+      </c>
+      <c r="DL23" s="27">
+        <f t="shared" ref="DL23" si="144">DK23+1</f>
+        <v>202</v>
+      </c>
+      <c r="DM23" s="28">
+        <f t="shared" ref="DM23" si="145">DL23+1</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="2:117" ht="42" customHeight="1">
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG24" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV24" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW24" s="15"/>
+      <c r="AX24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA24" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
+      <c r="BF24" s="15"/>
+      <c r="BG24" s="15"/>
+      <c r="BH24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BI24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK24" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL24" s="15"/>
+      <c r="BM24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP24" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ24" s="15"/>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
+      <c r="BU24" s="15"/>
+      <c r="BV24" s="15"/>
+      <c r="BW24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BY24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="BZ24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="CA24" s="15"/>
+      <c r="CB24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CE24" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CF24" s="15"/>
+      <c r="CG24" s="15"/>
+      <c r="CH24" s="15"/>
+      <c r="CI24" s="15"/>
+      <c r="CJ24" s="15"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="15"/>
+      <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
+      <c r="CO24" s="15"/>
+      <c r="CP24" s="15"/>
+      <c r="CQ24" s="15"/>
+      <c r="CR24" s="15"/>
+      <c r="CS24" s="15"/>
+      <c r="CT24" s="15"/>
+      <c r="CU24" s="15"/>
+      <c r="CV24" s="15"/>
+      <c r="CW24" s="15"/>
+      <c r="CX24" s="15"/>
+      <c r="CY24" s="15"/>
+      <c r="CZ24" s="15"/>
+      <c r="DA24" s="15"/>
+      <c r="DB24" s="15"/>
+      <c r="DC24" s="15"/>
+      <c r="DD24" s="15"/>
+      <c r="DE24" s="15"/>
+      <c r="DF24" s="15"/>
+      <c r="DG24" s="15"/>
+      <c r="DH24" s="15"/>
+      <c r="DI24" s="15"/>
+      <c r="DJ24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="DK24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="DL24" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="DM24" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:117" ht="42" customHeight="1">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10">
+        <v>36</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="15"/>
+      <c r="AH25" s="15"/>
+      <c r="AI25" s="15"/>
+      <c r="AJ25" s="15"/>
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
+      <c r="AR25" s="15"/>
+      <c r="AS25" s="15"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
+      <c r="AV25" s="15"/>
+      <c r="AW25" s="15"/>
+      <c r="AX25" s="15"/>
+      <c r="AY25" s="15"/>
+      <c r="AZ25" s="15"/>
+      <c r="BA25" s="15"/>
+      <c r="BB25" s="15"/>
+      <c r="BC25" s="15"/>
+      <c r="BD25" s="15"/>
+      <c r="BE25" s="15"/>
+      <c r="BF25" s="15"/>
+      <c r="BG25" s="15"/>
+      <c r="BH25" s="15"/>
+      <c r="BI25" s="15"/>
+      <c r="BJ25" s="15"/>
+      <c r="BK25" s="15"/>
+      <c r="BL25" s="15"/>
+      <c r="BM25" s="15"/>
+      <c r="BN25" s="15"/>
+      <c r="BO25" s="15"/>
+      <c r="BP25" s="15"/>
+      <c r="BQ25" s="15"/>
+      <c r="BR25" s="15"/>
+      <c r="BS25" s="15"/>
+      <c r="BT25" s="15"/>
+      <c r="BU25" s="15"/>
+      <c r="BV25" s="15"/>
+      <c r="BW25" s="15"/>
+      <c r="BX25" s="15"/>
+      <c r="BY25" s="15"/>
+      <c r="BZ25" s="15"/>
+      <c r="CA25" s="15"/>
+      <c r="CB25" s="15"/>
+      <c r="CC25" s="15"/>
+      <c r="CD25" s="15"/>
+      <c r="CE25" s="15"/>
+      <c r="CF25" s="15"/>
+      <c r="CG25" s="15"/>
+      <c r="CH25" s="15"/>
+      <c r="CI25" s="15"/>
+      <c r="CJ25" s="15"/>
+      <c r="CK25" s="15"/>
+      <c r="CL25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CM25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CO25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CP25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CQ25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CR25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CS25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CT25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CU25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CV25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CW25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CX25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CY25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CZ25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="DA25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="DB25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="DC25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="DD25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DF25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="DG25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="DH25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DI25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ25" s="15"/>
+      <c r="DK25" s="15"/>
+      <c r="DL25" s="15"/>
+      <c r="DM25" s="16"/>
+    </row>
+    <row r="26" spans="2:117" ht="42" customHeight="1">
+      <c r="B26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10">
+        <v>36</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="15"/>
+      <c r="AV26" s="15"/>
+      <c r="AW26" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX26" s="15"/>
+      <c r="AY26" s="15"/>
+      <c r="AZ26" s="15"/>
+      <c r="BA26" s="15"/>
+      <c r="BB26" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC26" s="15"/>
+      <c r="BD26" s="15"/>
+      <c r="BE26" s="15"/>
+      <c r="BF26" s="15"/>
+      <c r="BG26" s="15"/>
+      <c r="BH26" s="15"/>
+      <c r="BI26" s="15"/>
+      <c r="BJ26" s="15"/>
+      <c r="BK26" s="15"/>
+      <c r="BL26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM26" s="15"/>
+      <c r="BN26" s="15"/>
+      <c r="BO26" s="15"/>
+      <c r="BP26" s="15"/>
+      <c r="BQ26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR26" s="15"/>
+      <c r="BS26" s="15"/>
+      <c r="BT26" s="15"/>
+      <c r="BU26" s="15"/>
+      <c r="BV26" s="15"/>
+      <c r="BW26" s="15"/>
+      <c r="BX26" s="15"/>
+      <c r="BY26" s="15"/>
+      <c r="BZ26" s="15"/>
+      <c r="CA26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB26" s="15"/>
+      <c r="CC26" s="15"/>
+      <c r="CD26" s="15"/>
+      <c r="CE26" s="15"/>
+      <c r="CF26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG26" s="15"/>
+      <c r="CH26" s="15"/>
+      <c r="CI26" s="15"/>
+      <c r="CJ26" s="15"/>
+      <c r="CK26" s="15"/>
+      <c r="CL26" s="15"/>
+      <c r="CM26" s="15"/>
+      <c r="CN26" s="15"/>
+      <c r="CO26" s="15"/>
+      <c r="CP26" s="15"/>
+      <c r="CQ26" s="15"/>
+      <c r="CR26" s="15"/>
+      <c r="CS26" s="15"/>
+      <c r="CT26" s="15"/>
+      <c r="CU26" s="15"/>
+      <c r="CV26" s="15"/>
+      <c r="CW26" s="15"/>
+      <c r="CX26" s="15"/>
+      <c r="CY26" s="15"/>
+      <c r="CZ26" s="15"/>
+      <c r="DA26" s="15"/>
+      <c r="DB26" s="15"/>
+      <c r="DC26" s="15"/>
+      <c r="DD26" s="15"/>
+      <c r="DE26" s="15"/>
+      <c r="DF26" s="15"/>
+      <c r="DG26" s="15"/>
+      <c r="DH26" s="15"/>
+      <c r="DI26" s="15"/>
+      <c r="DJ26" s="15"/>
+      <c r="DK26" s="15"/>
+      <c r="DL26" s="15"/>
+      <c r="DM26" s="16"/>
+    </row>
+    <row r="27" spans="2:117" ht="42" customHeight="1">
+      <c r="B27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="W27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="AJ27" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="BY15" s="1" t="s">
+      <c r="AK27" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="AL27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM27" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="15"/>
+      <c r="AW27" s="15"/>
+      <c r="AX27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC27" s="15"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
+      <c r="BK27" s="15"/>
+      <c r="BL27" s="15"/>
+      <c r="BM27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BN27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BR27" s="15"/>
+      <c r="BS27" s="15"/>
+      <c r="BT27" s="15"/>
+      <c r="BU27" s="15"/>
+      <c r="BV27" s="15"/>
+      <c r="BW27" s="15"/>
+      <c r="BX27" s="15"/>
+      <c r="BY27" s="15"/>
+      <c r="BZ27" s="15"/>
+      <c r="CA27" s="15"/>
+      <c r="CB27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CC27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CD27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CF27" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG27" s="15"/>
+      <c r="CH27" s="15"/>
+      <c r="CI27" s="15"/>
+      <c r="CJ27" s="15"/>
+      <c r="CK27" s="15"/>
+      <c r="CL27" s="15"/>
+      <c r="CM27" s="15"/>
+      <c r="CN27" s="15"/>
+      <c r="CO27" s="15"/>
+      <c r="CP27" s="15"/>
+      <c r="CQ27" s="15"/>
+      <c r="CR27" s="15"/>
+      <c r="CS27" s="15"/>
+      <c r="CT27" s="15"/>
+      <c r="CU27" s="15"/>
+      <c r="CV27" s="15"/>
+      <c r="CW27" s="15"/>
+      <c r="CX27" s="15"/>
+      <c r="CY27" s="15"/>
+      <c r="CZ27" s="15"/>
+      <c r="DA27" s="15"/>
+      <c r="DB27" s="15"/>
+      <c r="DC27" s="15"/>
+      <c r="DD27" s="15"/>
+      <c r="DE27" s="15"/>
+      <c r="DF27" s="15"/>
+      <c r="DG27" s="15"/>
+      <c r="DH27" s="15"/>
+      <c r="DI27" s="15"/>
+      <c r="DJ27" s="15"/>
+      <c r="DK27" s="15"/>
+      <c r="DL27" s="15"/>
+      <c r="DM27" s="16"/>
     </row>
-    <row r="16" spans="2:78" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AM16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AW16" s="1" t="s">
+    <row r="28" spans="2:117" ht="42" customHeight="1" thickBot="1">
+      <c r="B28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="21">
+        <v>6</v>
+      </c>
+      <c r="D28" s="21">
+        <v>5</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AS17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AW17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BB17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BC17" s="1" t="s">
+      <c r="K28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="AY18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI18" s="1" t="s">
+      <c r="Z28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC28" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="BE19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BN19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BO19" s="1" t="s">
+      <c r="AO28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW28" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="1">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BB20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BI20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BT20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BU20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BV20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BZ20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA20" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B23" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="1">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" ref="F23" si="20">E23+1</f>
-        <v>76</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" ref="G23" si="21">F23+1</f>
-        <v>77</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ref="H23" si="22">G23+1</f>
-        <v>78</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23" si="23">H23+1</f>
-        <v>79</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J23" si="24">I23+1</f>
-        <v>80</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" ref="K23" si="25">J23+1</f>
-        <v>81</v>
-      </c>
-      <c r="L23" s="1">
-        <f t="shared" ref="L23" si="26">K23+1</f>
-        <v>82</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="shared" ref="M23" si="27">L23+1</f>
-        <v>83</v>
-      </c>
-      <c r="N23" s="1">
-        <f t="shared" ref="N23" si="28">M23+1</f>
-        <v>84</v>
-      </c>
-      <c r="O23" s="1">
-        <f t="shared" ref="O23" si="29">N23+1</f>
-        <v>85</v>
-      </c>
-      <c r="P23" s="1">
-        <f t="shared" ref="P23" si="30">O23+1</f>
-        <v>86</v>
-      </c>
-      <c r="Q23" s="1">
-        <f t="shared" ref="Q23" si="31">P23+1</f>
-        <v>87</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" ref="R23" si="32">Q23+1</f>
-        <v>88</v>
-      </c>
-      <c r="S23" s="1">
-        <f t="shared" ref="S23" si="33">R23+1</f>
-        <v>89</v>
-      </c>
-      <c r="T23" s="1">
-        <f t="shared" ref="T23" si="34">S23+1</f>
-        <v>90</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="shared" ref="U23" si="35">T23+1</f>
-        <v>91</v>
-      </c>
-      <c r="V23" s="1">
-        <f t="shared" ref="V23" si="36">U23+1</f>
-        <v>92</v>
-      </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23" si="37">V23+1</f>
-        <v>93</v>
-      </c>
-      <c r="X23" s="1">
-        <f t="shared" ref="X23" si="38">W23+1</f>
-        <v>94</v>
-      </c>
-      <c r="Y23" s="1">
-        <f t="shared" ref="Y23" si="39">X23+1</f>
-        <v>95</v>
-      </c>
-      <c r="Z23" s="1">
-        <f t="shared" ref="Z23" si="40">Y23+1</f>
-        <v>96</v>
-      </c>
-      <c r="AA23" s="1">
-        <f t="shared" ref="AA23" si="41">Z23+1</f>
-        <v>97</v>
-      </c>
-      <c r="AB23" s="1">
-        <f t="shared" ref="AB23" si="42">AA23+1</f>
-        <v>98</v>
-      </c>
-      <c r="AC23" s="1">
-        <f t="shared" ref="AC23" si="43">AB23+1</f>
-        <v>99</v>
-      </c>
-      <c r="AD23" s="1">
-        <f t="shared" ref="AD23" si="44">AC23+1</f>
-        <v>100</v>
-      </c>
-      <c r="AE23" s="1">
-        <f t="shared" ref="AE23" si="45">AD23+1</f>
-        <v>101</v>
-      </c>
-      <c r="AF23" s="1">
-        <f t="shared" ref="AF23" si="46">AE23+1</f>
-        <v>102</v>
-      </c>
-      <c r="AG23" s="1">
-        <f t="shared" ref="AG23" si="47">AF23+1</f>
-        <v>103</v>
-      </c>
-      <c r="AH23" s="1">
-        <f t="shared" ref="AH23" si="48">AG23+1</f>
-        <v>104</v>
-      </c>
-      <c r="AI23" s="1">
-        <f t="shared" ref="AI23" si="49">AH23+1</f>
-        <v>105</v>
-      </c>
-      <c r="AJ23" s="1">
-        <f t="shared" ref="AJ23" si="50">AI23+1</f>
-        <v>106</v>
-      </c>
-      <c r="AK23" s="1">
-        <f t="shared" ref="AK23" si="51">AJ23+1</f>
-        <v>107</v>
-      </c>
-      <c r="AL23" s="1">
-        <f t="shared" ref="AL23" si="52">AK23+1</f>
-        <v>108</v>
-      </c>
-      <c r="AM23" s="1">
-        <f t="shared" ref="AM23" si="53">AL23+1</f>
-        <v>109</v>
-      </c>
-      <c r="AN23" s="1">
-        <f t="shared" ref="AN23" si="54">AM23+1</f>
-        <v>110</v>
-      </c>
-      <c r="AO23" s="1">
-        <f t="shared" ref="AO23" si="55">AN23+1</f>
-        <v>111</v>
-      </c>
-      <c r="AP23" s="1">
-        <f t="shared" ref="AP23" si="56">AO23+1</f>
-        <v>112</v>
-      </c>
-      <c r="AQ23" s="1">
-        <f t="shared" ref="AQ23" si="57">AP23+1</f>
-        <v>113</v>
-      </c>
-      <c r="AR23" s="1">
-        <f t="shared" ref="AR23" si="58">AQ23+1</f>
-        <v>114</v>
-      </c>
-      <c r="AS23" s="1">
-        <f t="shared" ref="AS23" si="59">AR23+1</f>
-        <v>115</v>
-      </c>
-      <c r="AT23" s="1">
-        <f t="shared" ref="AT23" si="60">AS23+1</f>
-        <v>116</v>
-      </c>
-      <c r="AU23" s="1">
-        <f t="shared" ref="AU23" si="61">AT23+1</f>
-        <v>117</v>
-      </c>
-      <c r="AV23" s="1">
-        <f t="shared" ref="AV23" si="62">AU23+1</f>
-        <v>118</v>
-      </c>
-      <c r="AW23" s="1">
-        <f t="shared" ref="AW23" si="63">AV23+1</f>
-        <v>119</v>
-      </c>
-      <c r="AX23" s="1">
-        <f t="shared" ref="AX23" si="64">AW23+1</f>
-        <v>120</v>
-      </c>
-      <c r="AY23" s="1">
-        <f t="shared" ref="AY23" si="65">AX23+1</f>
-        <v>121</v>
-      </c>
-      <c r="AZ23" s="1">
-        <f t="shared" ref="AZ23" si="66">AY23+1</f>
-        <v>122</v>
-      </c>
-      <c r="BA23" s="1">
-        <f t="shared" ref="BA23" si="67">AZ23+1</f>
-        <v>123</v>
-      </c>
-      <c r="BB23" s="1">
-        <f t="shared" ref="BB23" si="68">BA23+1</f>
-        <v>124</v>
-      </c>
-      <c r="BC23" s="1">
-        <f t="shared" ref="BC23" si="69">BB23+1</f>
-        <v>125</v>
-      </c>
-      <c r="BD23" s="1">
-        <f t="shared" ref="BD23" si="70">BC23+1</f>
-        <v>126</v>
-      </c>
-      <c r="BE23" s="1">
-        <f t="shared" ref="BE23" si="71">BD23+1</f>
-        <v>127</v>
-      </c>
-      <c r="BF23" s="1">
-        <f t="shared" ref="BF23" si="72">BE23+1</f>
-        <v>128</v>
-      </c>
-      <c r="BG23" s="1">
-        <f t="shared" ref="BG23" si="73">BF23+1</f>
-        <v>129</v>
-      </c>
-      <c r="BH23" s="1">
-        <f t="shared" ref="BH23" si="74">BG23+1</f>
-        <v>130</v>
-      </c>
-      <c r="BI23" s="1">
-        <f t="shared" ref="BI23" si="75">BH23+1</f>
-        <v>131</v>
-      </c>
-      <c r="BJ23" s="1">
-        <f t="shared" ref="BJ23" si="76">BI23+1</f>
-        <v>132</v>
-      </c>
-      <c r="BK23" s="1">
-        <f t="shared" ref="BK23" si="77">BJ23+1</f>
+      <c r="BD28" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="BL23" s="1">
-        <f t="shared" ref="BL23" si="78">BK23+1</f>
+      <c r="BE28" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF28" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG28" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="BH28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BL28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="22"/>
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="BM23" s="1">
-        <f t="shared" ref="BM23" si="79">BL23+1</f>
-        <v>135</v>
-      </c>
-      <c r="BN23" s="1">
-        <f t="shared" ref="BN23" si="80">BM23+1</f>
-        <v>136</v>
-      </c>
-      <c r="BO23" s="1">
-        <f t="shared" ref="BO23" si="81">BN23+1</f>
-        <v>137</v>
-      </c>
-      <c r="BP23" s="1">
-        <f t="shared" ref="BP23" si="82">BO23+1</f>
-        <v>138</v>
-      </c>
-      <c r="BQ23" s="1">
-        <f t="shared" ref="BQ23" si="83">BP23+1</f>
-        <v>139</v>
-      </c>
-      <c r="BR23" s="1">
-        <f t="shared" ref="BR23" si="84">BQ23+1</f>
-        <v>140</v>
-      </c>
-      <c r="BS23" s="1">
-        <f t="shared" ref="BS23" si="85">BR23+1</f>
-        <v>141</v>
-      </c>
-      <c r="BT23" s="1">
-        <f t="shared" ref="BT23" si="86">BS23+1</f>
-        <v>142</v>
-      </c>
-      <c r="BU23" s="1">
-        <f t="shared" ref="BU23" si="87">BT23+1</f>
-        <v>143</v>
-      </c>
-      <c r="BV23" s="1">
-        <f t="shared" ref="BV23" si="88">BU23+1</f>
-        <v>144</v>
-      </c>
-      <c r="BW23" s="1">
-        <f t="shared" ref="BW23" si="89">BV23+1</f>
-        <v>145</v>
-      </c>
-      <c r="BX23" s="1">
-        <f t="shared" ref="BX23" si="90">BW23+1</f>
-        <v>146</v>
-      </c>
-      <c r="BY23" s="1">
-        <f t="shared" ref="BY23" si="91">BX23+1</f>
-        <v>147</v>
-      </c>
-      <c r="BZ23" s="1">
-        <f t="shared" ref="BZ23" si="92">BY23+1</f>
-        <v>148</v>
-      </c>
-      <c r="CA23" s="1">
-        <f t="shared" ref="CA23" si="93">BZ23+1</f>
-        <v>149</v>
-      </c>
-      <c r="CB23" s="1">
-        <f t="shared" ref="CB23" si="94">CA23+1</f>
-        <v>150</v>
-      </c>
-      <c r="CC23" s="1">
-        <f t="shared" ref="CC23" si="95">CB23+1</f>
-        <v>151</v>
-      </c>
-      <c r="CD23" s="1">
-        <f t="shared" ref="CD23" si="96">CC23+1</f>
-        <v>152</v>
-      </c>
-      <c r="CE23" s="1">
-        <f t="shared" ref="CE23" si="97">CD23+1</f>
-        <v>153</v>
-      </c>
-      <c r="CF23" s="1">
-        <f t="shared" ref="CF23" si="98">CE23+1</f>
-        <v>154</v>
-      </c>
-      <c r="CG23" s="1">
-        <f t="shared" ref="CG23" si="99">CF23+1</f>
-        <v>155</v>
-      </c>
-      <c r="CH23" s="1">
-        <f t="shared" ref="CH23" si="100">CG23+1</f>
-        <v>156</v>
-      </c>
-      <c r="CI23" s="1">
-        <f t="shared" ref="CI23" si="101">CH23+1</f>
+      <c r="BS28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV28" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="BW28" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="CJ23" s="1">
-        <f t="shared" ref="CJ23" si="102">CI23+1</f>
-        <v>158</v>
-      </c>
-      <c r="CK23" s="1">
-        <f t="shared" ref="CK23" si="103">CJ23+1</f>
-        <v>159</v>
-      </c>
-      <c r="CL23" s="1">
-        <f t="shared" ref="CL23" si="104">CK23+1</f>
+      <c r="BX28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="BY28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="BZ28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA28" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="22"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="CM23" s="1">
-        <f t="shared" ref="CM23" si="105">CL23+1</f>
-        <v>161</v>
-      </c>
-      <c r="CN23" s="1">
-        <f t="shared" ref="CN23" si="106">CM23+1</f>
-        <v>162</v>
-      </c>
-      <c r="CO23" s="1">
-        <f t="shared" ref="CO23" si="107">CN23+1</f>
-        <v>163</v>
-      </c>
-      <c r="CP23" s="1">
-        <f t="shared" ref="CP23" si="108">CO23+1</f>
-        <v>164</v>
-      </c>
-      <c r="CQ23" s="1">
-        <f t="shared" ref="CQ23" si="109">CP23+1</f>
-        <v>165</v>
-      </c>
-      <c r="CR23" s="1">
-        <f t="shared" ref="CR23" si="110">CQ23+1</f>
-        <v>166</v>
-      </c>
-      <c r="CS23" s="1">
-        <f t="shared" ref="CS23" si="111">CR23+1</f>
-        <v>167</v>
-      </c>
-      <c r="CT23" s="1">
-        <f t="shared" ref="CT23" si="112">CS23+1</f>
-        <v>168</v>
-      </c>
-      <c r="CU23" s="1">
-        <f t="shared" ref="CU23" si="113">CT23+1</f>
-        <v>169</v>
-      </c>
-      <c r="CV23" s="1">
-        <f t="shared" ref="CV23" si="114">CU23+1</f>
-        <v>170</v>
-      </c>
-      <c r="CW23" s="1">
-        <f t="shared" ref="CW23" si="115">CV23+1</f>
-        <v>171</v>
-      </c>
-      <c r="CX23" s="1">
-        <f t="shared" ref="CX23" si="116">CW23+1</f>
-        <v>172</v>
-      </c>
-      <c r="CY23" s="1">
-        <f t="shared" ref="CY23" si="117">CX23+1</f>
-        <v>173</v>
-      </c>
-      <c r="CZ23" s="1">
-        <f t="shared" ref="CZ23" si="118">CY23+1</f>
-        <v>174</v>
-      </c>
-      <c r="DA23" s="1">
-        <f t="shared" ref="DA23" si="119">CZ23+1</f>
-        <v>175</v>
-      </c>
-      <c r="DB23" s="1">
-        <f t="shared" ref="DB23" si="120">DA23+1</f>
-        <v>176</v>
-      </c>
-      <c r="DC23" s="1">
-        <f t="shared" ref="DC23" si="121">DB23+1</f>
-        <v>177</v>
-      </c>
-      <c r="DD23" s="1">
-        <f t="shared" ref="DD23" si="122">DC23+1</f>
-        <v>178</v>
-      </c>
-      <c r="DE23" s="1">
-        <f t="shared" ref="DE23" si="123">DD23+1</f>
-        <v>179</v>
-      </c>
-      <c r="DF23" s="1">
-        <f t="shared" ref="DF23" si="124">DE23+1</f>
-        <v>180</v>
-      </c>
-      <c r="DG23" s="1">
-        <f t="shared" ref="DG23" si="125">DF23+1</f>
-        <v>181</v>
-      </c>
-      <c r="DH23" s="1">
-        <f t="shared" ref="DH23" si="126">DG23+1</f>
-        <v>182</v>
-      </c>
-      <c r="DI23" s="1">
-        <f t="shared" ref="DI23" si="127">DH23+1</f>
-        <v>183</v>
-      </c>
-      <c r="DJ23" s="1">
-        <f t="shared" ref="DJ23" si="128">DI23+1</f>
-        <v>184</v>
-      </c>
-      <c r="DK23" s="1">
-        <f t="shared" ref="DK23" si="129">DJ23+1</f>
-        <v>185</v>
-      </c>
-      <c r="DL23" s="1">
-        <f t="shared" ref="DL23" si="130">DK23+1</f>
-        <v>186</v>
-      </c>
-      <c r="DM23" s="1">
-        <f t="shared" ref="DM23" si="131">DL23+1</f>
-        <v>187</v>
-      </c>
-      <c r="DN23" s="1">
-        <f t="shared" ref="DN23" si="132">DM23+1</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="DL24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DM24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DN24" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1">
-        <v>20</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BP25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BQ25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BR25" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CE25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CF25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CS25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CT25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CU25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="CV25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CX25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="CY25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="CZ25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DA25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DB25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DC25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DD25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DE25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DF25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DG25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DH25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DI25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DJ25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DK25" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="1">
-        <v>36</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BS26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG26" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AV27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BU27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BW27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BX27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CH27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CI27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CJ27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CK27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CL27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="B28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1">
-        <v>5</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BA28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BO28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BY28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BZ28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CA28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CC28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CM28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CN28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CO28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CP28" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CQ28" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C31" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="2:118" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C32" s="1">
-        <f>100000000</f>
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C33" s="1">
-        <f>1/C32</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C34" s="1">
-        <f>C31*C33</f>
-        <v>1.88E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="C35" s="1">
-        <f>C34*1000000</f>
-        <v>1.88</v>
-      </c>
+      <c r="CH28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="CJ28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="CK28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL28" s="22"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
+      <c r="CP28" s="22"/>
+      <c r="CQ28" s="22"/>
+      <c r="CR28" s="22"/>
+      <c r="CS28" s="22"/>
+      <c r="CT28" s="22"/>
+      <c r="CU28" s="22"/>
+      <c r="CV28" s="22"/>
+      <c r="CW28" s="22"/>
+      <c r="CX28" s="22"/>
+      <c r="CY28" s="22"/>
+      <c r="CZ28" s="22"/>
+      <c r="DA28" s="22"/>
+      <c r="DB28" s="22"/>
+      <c r="DC28" s="22"/>
+      <c r="DD28" s="22"/>
+      <c r="DE28" s="22"/>
+      <c r="DF28" s="22"/>
+      <c r="DG28" s="22"/>
+      <c r="DH28" s="22"/>
+      <c r="DI28" s="22"/>
+      <c r="DJ28" s="22"/>
+      <c r="DK28" s="22"/>
+      <c r="DL28" s="22"/>
+      <c r="DM28" s="24"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E1:CP1"/>
+    <mergeCell ref="E22:DM22"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="24" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -579,7 +579,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,13 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +725,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="599">
+  <cellStyleXfs count="607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1319,16 +1325,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1339,12 +1350,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1358,12 +1363,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,9 +1370,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,23 +1390,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="599">
+  <cellStyles count="607">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1710,6 +1730,10 @@
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2009,6 +2033,10 @@
     <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2344,4336 +2372,4336 @@
   <dimension ref="A1:DM28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT27" sqref="AT27"/>
+      <selection pane="bottomRight" activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="12" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="3.83203125" style="17"/>
+    <col min="1" max="1" width="10.33203125" style="9" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="3.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:94" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="7" t="s">
+    <row r="1" spans="2:94" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7"/>
-      <c r="CD1" s="7"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7"/>
-      <c r="CI1" s="7"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="7"/>
-      <c r="CL1" s="7"/>
-      <c r="CM1" s="7"/>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="7"/>
-      <c r="CP1" s="8"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="26"/>
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+      <c r="BF1" s="26"/>
+      <c r="BG1" s="26"/>
+      <c r="BH1" s="26"/>
+      <c r="BI1" s="26"/>
+      <c r="BJ1" s="26"/>
+      <c r="BK1" s="26"/>
+      <c r="BL1" s="26"/>
+      <c r="BM1" s="26"/>
+      <c r="BN1" s="26"/>
+      <c r="BO1" s="26"/>
+      <c r="BP1" s="26"/>
+      <c r="BQ1" s="26"/>
+      <c r="BR1" s="26"/>
+      <c r="BS1" s="26"/>
+      <c r="BT1" s="26"/>
+      <c r="BU1" s="26"/>
+      <c r="BV1" s="26"/>
+      <c r="BW1" s="26"/>
+      <c r="BX1" s="26"/>
+      <c r="BY1" s="26"/>
+      <c r="BZ1" s="26"/>
+      <c r="CA1" s="26"/>
+      <c r="CB1" s="26"/>
+      <c r="CC1" s="26"/>
+      <c r="CD1" s="26"/>
+      <c r="CE1" s="26"/>
+      <c r="CF1" s="26"/>
+      <c r="CG1" s="26"/>
+      <c r="CH1" s="26"/>
+      <c r="CI1" s="26"/>
+      <c r="CJ1" s="26"/>
+      <c r="CK1" s="26"/>
+      <c r="CL1" s="26"/>
+      <c r="CM1" s="26"/>
+      <c r="CN1" s="26"/>
+      <c r="CO1" s="26"/>
+      <c r="CP1" s="27"/>
     </row>
-    <row r="2" spans="2:94" s="4" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:94" s="3" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="7">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="7">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="7">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="7">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="7">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="7">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="7">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AJ2" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AO2" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AQ2" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AR2" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="10">
+      <c r="AS2" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="10">
+      <c r="AT2" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="10">
+      <c r="AU2" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="10">
+      <c r="AV2" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="10">
+      <c r="AW2" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="10">
+      <c r="AX2" s="7">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="10">
+      <c r="AY2" s="7">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="10">
+      <c r="AZ2" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="10">
+      <c r="BA2" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="10">
+      <c r="BB2" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="10">
+      <c r="BC2" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="10">
+      <c r="BD2" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="10">
+      <c r="BE2" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="10">
+      <c r="BF2" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="10">
+      <c r="BG2" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="10">
+      <c r="BH2" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="10">
+      <c r="BI2" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="10">
+      <c r="BJ2" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="10">
+      <c r="BK2" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="10">
+      <c r="BL2" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="10">
+      <c r="BM2" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="10">
+      <c r="BN2" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="10">
+      <c r="BO2" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="10">
+      <c r="BP2" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="10">
+      <c r="BQ2" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="10">
+      <c r="BR2" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="10">
+      <c r="BS2" s="7">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="10">
+      <c r="BT2" s="7">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="10">
+      <c r="BU2" s="7">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="10">
+      <c r="BV2" s="7">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="10">
+      <c r="BW2" s="7">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="10">
+      <c r="BX2" s="7">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="10">
+      <c r="BY2" s="7">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="10">
+      <c r="BZ2" s="7">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="10">
+      <c r="CA2" s="7">
         <f t="shared" ref="CA2" si="2">BZ2+1</f>
         <v>75</v>
       </c>
-      <c r="CB2" s="10">
+      <c r="CB2" s="7">
         <f t="shared" ref="CB2" si="3">CA2+1</f>
         <v>76</v>
       </c>
-      <c r="CC2" s="10">
+      <c r="CC2" s="7">
         <f t="shared" ref="CC2" si="4">CB2+1</f>
         <v>77</v>
       </c>
-      <c r="CD2" s="10">
+      <c r="CD2" s="7">
         <f t="shared" ref="CD2" si="5">CC2+1</f>
         <v>78</v>
       </c>
-      <c r="CE2" s="10">
+      <c r="CE2" s="7">
         <f t="shared" ref="CE2" si="6">CD2+1</f>
         <v>79</v>
       </c>
-      <c r="CF2" s="10">
+      <c r="CF2" s="7">
         <f t="shared" ref="CF2" si="7">CE2+1</f>
         <v>80</v>
       </c>
-      <c r="CG2" s="10">
+      <c r="CG2" s="7">
         <f t="shared" ref="CG2" si="8">CF2+1</f>
         <v>81</v>
       </c>
-      <c r="CH2" s="10">
+      <c r="CH2" s="7">
         <f t="shared" ref="CH2" si="9">CG2+1</f>
         <v>82</v>
       </c>
-      <c r="CI2" s="10">
+      <c r="CI2" s="7">
         <f t="shared" ref="CI2" si="10">CH2+1</f>
         <v>83</v>
       </c>
-      <c r="CJ2" s="10">
+      <c r="CJ2" s="7">
         <f t="shared" ref="CJ2" si="11">CI2+1</f>
         <v>84</v>
       </c>
-      <c r="CK2" s="10">
+      <c r="CK2" s="7">
         <f t="shared" ref="CK2" si="12">CJ2+1</f>
         <v>85</v>
       </c>
-      <c r="CL2" s="10">
+      <c r="CL2" s="7">
         <f t="shared" ref="CL2" si="13">CK2+1</f>
         <v>86</v>
       </c>
-      <c r="CM2" s="10">
+      <c r="CM2" s="7">
         <f t="shared" ref="CM2" si="14">CL2+1</f>
         <v>87</v>
       </c>
-      <c r="CN2" s="10">
+      <c r="CN2" s="7">
         <f t="shared" ref="CN2" si="15">CM2+1</f>
         <v>88</v>
       </c>
-      <c r="CO2" s="10">
+      <c r="CO2" s="7">
         <f t="shared" ref="CO2" si="16">CN2+1</f>
         <v>89</v>
       </c>
-      <c r="CP2" s="11">
+      <c r="CP2" s="8">
         <f t="shared" ref="CP2" si="17">CO2+1</f>
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:94" ht="42" customHeight="1">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="31">
         <v>22</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="str">
+      <c r="F3" s="10" t="str">
         <f>E3</f>
         <v>joint 1</v>
       </c>
-      <c r="G3" s="15" t="str">
+      <c r="G3" s="10" t="str">
         <f t="shared" ref="G3:K3" si="18">F3</f>
         <v>joint 1</v>
       </c>
-      <c r="H3" s="15" t="str">
+      <c r="H3" s="10" t="str">
         <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="I3" s="15" t="str">
+      <c r="I3" s="10" t="str">
         <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="J3" s="15" t="str">
+      <c r="J3" s="10" t="str">
         <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="K3" s="15" t="str">
+      <c r="K3" s="10" t="str">
         <f t="shared" si="18"/>
         <v>joint 1</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="15" t="str">
+      <c r="M3" s="10" t="str">
         <f>L3</f>
         <v>joint 1</v>
       </c>
-      <c r="N3" s="15" t="str">
+      <c r="N3" s="10" t="str">
         <f t="shared" ref="N3" si="19">M3</f>
         <v>joint 1</v>
       </c>
-      <c r="O3" s="15" t="str">
+      <c r="O3" s="10" t="str">
         <f t="shared" ref="O3" si="20">N3</f>
         <v>joint 1</v>
       </c>
-      <c r="P3" s="15" t="str">
+      <c r="P3" s="10" t="str">
         <f t="shared" ref="P3" si="21">O3</f>
         <v>joint 1</v>
       </c>
-      <c r="Q3" s="15" t="str">
+      <c r="Q3" s="10" t="str">
         <f t="shared" ref="Q3" si="22">P3</f>
         <v>joint 1</v>
       </c>
-      <c r="R3" s="15" t="str">
+      <c r="R3" s="10" t="str">
         <f t="shared" ref="R3" si="23">Q3</f>
         <v>joint 1</v>
       </c>
-      <c r="S3" s="15" t="str">
+      <c r="S3" s="10" t="str">
         <f t="shared" ref="S3" si="24">R3</f>
         <v>joint 1</v>
       </c>
-      <c r="T3" s="15" t="str">
+      <c r="T3" s="10" t="str">
         <f t="shared" ref="T3" si="25">S3</f>
         <v>joint 1</v>
       </c>
-      <c r="U3" s="15" t="str">
+      <c r="U3" s="10" t="str">
         <f t="shared" ref="U3" si="26">T3</f>
         <v>joint 1</v>
       </c>
-      <c r="V3" s="15" t="str">
+      <c r="V3" s="10" t="str">
         <f t="shared" ref="V3" si="27">U3</f>
         <v>joint 1</v>
       </c>
-      <c r="W3" s="15" t="str">
+      <c r="W3" s="10" t="str">
         <f t="shared" ref="W3" si="28">V3</f>
         <v>joint 1</v>
       </c>
-      <c r="X3" s="15" t="str">
+      <c r="X3" s="10" t="str">
         <f t="shared" ref="X3" si="29">W3</f>
         <v>joint 1</v>
       </c>
-      <c r="Y3" s="15" t="str">
+      <c r="Y3" s="10" t="str">
         <f t="shared" ref="Y3" si="30">X3</f>
         <v>joint 1</v>
       </c>
-      <c r="Z3" s="15" t="str">
+      <c r="Z3" s="10" t="str">
         <f t="shared" ref="Z3" si="31">Y3</f>
         <v>joint 1</v>
       </c>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
-      <c r="AI3" s="15"/>
-      <c r="AJ3" s="15"/>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="15"/>
-      <c r="AN3" s="15"/>
-      <c r="AO3" s="15"/>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="15"/>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="15"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="15"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="15"/>
-      <c r="BE3" s="15"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="15"/>
-      <c r="BH3" s="15"/>
-      <c r="BI3" s="15"/>
-      <c r="BJ3" s="15"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="15"/>
-      <c r="BM3" s="15"/>
-      <c r="BN3" s="15"/>
-      <c r="BO3" s="15"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="15"/>
-      <c r="BR3" s="15"/>
-      <c r="BS3" s="15"/>
-      <c r="BT3" s="15"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="15"/>
-      <c r="BW3" s="15"/>
-      <c r="BX3" s="15"/>
-      <c r="BY3" s="15"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="15"/>
-      <c r="CB3" s="15"/>
-      <c r="CC3" s="15"/>
-      <c r="CD3" s="15"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="15"/>
-      <c r="CG3" s="15"/>
-      <c r="CH3" s="15"/>
-      <c r="CI3" s="15"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="15"/>
-      <c r="CL3" s="15"/>
-      <c r="CM3" s="15"/>
-      <c r="CN3" s="15"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="16"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="11"/>
     </row>
     <row r="4" spans="2:94" ht="42" customHeight="1">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="str">
+      <c r="G4" s="10" t="str">
         <f t="shared" ref="G4:L4" si="32">F4</f>
         <v>joint 2</v>
       </c>
-      <c r="H4" s="15" t="str">
+      <c r="H4" s="10" t="str">
         <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="I4" s="15" t="str">
+      <c r="I4" s="10" t="str">
         <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="J4" s="15" t="str">
+      <c r="J4" s="10" t="str">
         <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="K4" s="15" t="str">
+      <c r="K4" s="10" t="str">
         <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="L4" s="10" t="str">
         <f t="shared" si="32"/>
         <v>joint 2</v>
       </c>
-      <c r="M4" s="15" t="str">
+      <c r="M4" s="10" t="str">
         <f>L4</f>
         <v>joint 2</v>
       </c>
-      <c r="N4" s="15" t="str">
+      <c r="N4" s="10" t="str">
         <f t="shared" ref="N4:P5" si="33">M4</f>
         <v>joint 2</v>
       </c>
-      <c r="O4" s="15" t="str">
+      <c r="O4" s="10" t="str">
         <f t="shared" si="33"/>
         <v>joint 2</v>
       </c>
-      <c r="P4" s="15" t="str">
+      <c r="P4" s="10" t="str">
         <f t="shared" si="33"/>
         <v>joint 2</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="15" t="s">
+      <c r="V4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="15"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="15"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="15"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="15"/>
-      <c r="BB4" s="15"/>
-      <c r="BC4" s="15"/>
-      <c r="BD4" s="15"/>
-      <c r="BE4" s="15"/>
-      <c r="BF4" s="15"/>
-      <c r="BG4" s="15"/>
-      <c r="BH4" s="15"/>
-      <c r="BI4" s="15"/>
-      <c r="BJ4" s="15"/>
-      <c r="BK4" s="15"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
-      <c r="BP4" s="15"/>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="15"/>
-      <c r="BS4" s="15"/>
-      <c r="BT4" s="15"/>
-      <c r="BU4" s="15"/>
-      <c r="BV4" s="15"/>
-      <c r="BW4" s="15"/>
-      <c r="BX4" s="15"/>
-      <c r="BY4" s="15"/>
-      <c r="BZ4" s="15"/>
-      <c r="CA4" s="15"/>
-      <c r="CB4" s="15"/>
-      <c r="CC4" s="15"/>
-      <c r="CD4" s="15"/>
-      <c r="CE4" s="15"/>
-      <c r="CF4" s="15"/>
-      <c r="CG4" s="15"/>
-      <c r="CH4" s="15"/>
-      <c r="CI4" s="15"/>
-      <c r="CJ4" s="15"/>
-      <c r="CK4" s="15"/>
-      <c r="CL4" s="15"/>
-      <c r="CM4" s="15"/>
-      <c r="CN4" s="15"/>
-      <c r="CO4" s="15"/>
-      <c r="CP4" s="16"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
+      <c r="BS4" s="10"/>
+      <c r="BT4" s="10"/>
+      <c r="BU4" s="10"/>
+      <c r="BV4" s="10"/>
+      <c r="BW4" s="10"/>
+      <c r="BX4" s="10"/>
+      <c r="BY4" s="10"/>
+      <c r="BZ4" s="10"/>
+      <c r="CA4" s="10"/>
+      <c r="CB4" s="10"/>
+      <c r="CC4" s="10"/>
+      <c r="CD4" s="10"/>
+      <c r="CE4" s="10"/>
+      <c r="CF4" s="10"/>
+      <c r="CG4" s="10"/>
+      <c r="CH4" s="10"/>
+      <c r="CI4" s="10"/>
+      <c r="CJ4" s="10"/>
+      <c r="CK4" s="10"/>
+      <c r="CL4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
+      <c r="CP4" s="11"/>
     </row>
     <row r="5" spans="2:94" ht="42" customHeight="1">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="10" t="str">
         <f>G5</f>
         <v>joint 3</v>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="10" t="str">
         <f>H5</f>
         <v>joint 3</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="J5" s="10" t="str">
         <f>I5</f>
         <v>joint 3</v>
       </c>
-      <c r="K5" s="15" t="str">
+      <c r="K5" s="10" t="str">
         <f>J5</f>
         <v>joint 3</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="10" t="str">
         <f>K5</f>
         <v>joint 3</v>
       </c>
-      <c r="M5" s="15" t="str">
+      <c r="M5" s="10" t="str">
         <f>L5</f>
         <v>joint 3</v>
       </c>
-      <c r="N5" s="15" t="str">
+      <c r="N5" s="10" t="str">
         <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="O5" s="15" t="str">
+      <c r="O5" s="10" t="str">
         <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="P5" s="15" t="str">
+      <c r="P5" s="10" t="str">
         <f t="shared" si="33"/>
         <v>joint 3</v>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="10" t="str">
         <f>P5</f>
         <v>joint 3</v>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="10" t="str">
         <f>Q5</f>
         <v>joint 3</v>
       </c>
-      <c r="S5" s="15" t="str">
+      <c r="S5" s="10" t="str">
         <f>R5</f>
         <v>joint 3</v>
       </c>
-      <c r="T5" s="15" t="str">
+      <c r="T5" s="10" t="str">
         <f>S5</f>
         <v>joint 3</v>
       </c>
-      <c r="U5" s="15" t="str">
+      <c r="U5" s="10" t="str">
         <f>T5</f>
         <v>joint 3</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
-      <c r="AM5" s="15"/>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="15"/>
-      <c r="AP5" s="15"/>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="15"/>
-      <c r="BC5" s="15"/>
-      <c r="BD5" s="15"/>
-      <c r="BE5" s="15"/>
-      <c r="BF5" s="15"/>
-      <c r="BG5" s="15"/>
-      <c r="BH5" s="15"/>
-      <c r="BI5" s="15"/>
-      <c r="BJ5" s="15"/>
-      <c r="BK5" s="15"/>
-      <c r="BL5" s="15"/>
-      <c r="BM5" s="15"/>
-      <c r="BN5" s="15"/>
-      <c r="BO5" s="15"/>
-      <c r="BP5" s="15"/>
-      <c r="BQ5" s="15"/>
-      <c r="BR5" s="15"/>
-      <c r="BS5" s="15"/>
-      <c r="BT5" s="15"/>
-      <c r="BU5" s="15"/>
-      <c r="BV5" s="15"/>
-      <c r="BW5" s="15"/>
-      <c r="BX5" s="15"/>
-      <c r="BY5" s="15"/>
-      <c r="BZ5" s="15"/>
-      <c r="CA5" s="15"/>
-      <c r="CB5" s="15"/>
-      <c r="CC5" s="15"/>
-      <c r="CD5" s="15"/>
-      <c r="CE5" s="15"/>
-      <c r="CF5" s="15"/>
-      <c r="CG5" s="15"/>
-      <c r="CH5" s="15"/>
-      <c r="CI5" s="15"/>
-      <c r="CJ5" s="15"/>
-      <c r="CK5" s="15"/>
-      <c r="CL5" s="15"/>
-      <c r="CM5" s="15"/>
-      <c r="CN5" s="15"/>
-      <c r="CO5" s="15"/>
-      <c r="CP5" s="16"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
+      <c r="BH5" s="10"/>
+      <c r="BI5" s="10"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="10"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="10"/>
+      <c r="CL5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
+      <c r="CP5" s="11"/>
     </row>
     <row r="6" spans="2:94" ht="42" customHeight="1">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="15" t="str">
+      <c r="I6" s="10" t="str">
         <f>H6</f>
         <v>joint 4</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="15" t="s">
+      <c r="U6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="15" t="s">
+      <c r="V6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="15" t="s">
+      <c r="X6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="15" t="s">
+      <c r="Y6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="15" t="s">
+      <c r="Z6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="15" t="s">
+      <c r="AB6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="15" t="s">
+      <c r="AC6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15"/>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15"/>
-      <c r="BC6" s="15"/>
-      <c r="BD6" s="15"/>
-      <c r="BE6" s="15"/>
-      <c r="BF6" s="15"/>
-      <c r="BG6" s="15"/>
-      <c r="BH6" s="15"/>
-      <c r="BI6" s="15"/>
-      <c r="BJ6" s="15"/>
-      <c r="BK6" s="15"/>
-      <c r="BL6" s="15"/>
-      <c r="BM6" s="15"/>
-      <c r="BN6" s="15"/>
-      <c r="BO6" s="15"/>
-      <c r="BP6" s="15"/>
-      <c r="BQ6" s="15"/>
-      <c r="BR6" s="15"/>
-      <c r="BS6" s="15"/>
-      <c r="BT6" s="15"/>
-      <c r="BU6" s="15"/>
-      <c r="BV6" s="15"/>
-      <c r="BW6" s="15"/>
-      <c r="BX6" s="15"/>
-      <c r="BY6" s="15"/>
-      <c r="BZ6" s="15"/>
-      <c r="CA6" s="15"/>
-      <c r="CB6" s="15"/>
-      <c r="CC6" s="15"/>
-      <c r="CD6" s="15"/>
-      <c r="CE6" s="15"/>
-      <c r="CF6" s="15"/>
-      <c r="CG6" s="15"/>
-      <c r="CH6" s="15"/>
-      <c r="CI6" s="15"/>
-      <c r="CJ6" s="15"/>
-      <c r="CK6" s="15"/>
-      <c r="CL6" s="15"/>
-      <c r="CM6" s="15"/>
-      <c r="CN6" s="15"/>
-      <c r="CO6" s="15"/>
-      <c r="CP6" s="16"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+      <c r="AX6" s="10"/>
+      <c r="AY6" s="10"/>
+      <c r="AZ6" s="10"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10"/>
+      <c r="BK6" s="10"/>
+      <c r="BL6" s="10"/>
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="10"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="10"/>
+      <c r="BS6" s="10"/>
+      <c r="BT6" s="10"/>
+      <c r="BU6" s="10"/>
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10"/>
+      <c r="BX6" s="10"/>
+      <c r="BY6" s="10"/>
+      <c r="BZ6" s="10"/>
+      <c r="CA6" s="10"/>
+      <c r="CB6" s="10"/>
+      <c r="CC6" s="10"/>
+      <c r="CD6" s="10"/>
+      <c r="CE6" s="10"/>
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="10"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="10"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="10"/>
+      <c r="CL6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
+      <c r="CP6" s="11"/>
     </row>
     <row r="7" spans="2:94" ht="42" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="15" t="s">
+      <c r="S7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="15" t="s">
+      <c r="U7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="15" t="s">
+      <c r="V7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="15" t="s">
+      <c r="X7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="15" t="s">
+      <c r="Y7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="15" t="s">
+      <c r="Z7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="15" t="s">
+      <c r="AB7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="15" t="s">
+      <c r="AC7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="15" t="s">
+      <c r="AD7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="15"/>
-      <c r="BH7" s="15"/>
-      <c r="BI7" s="15"/>
-      <c r="BJ7" s="15"/>
-      <c r="BK7" s="15"/>
-      <c r="BL7" s="15"/>
-      <c r="BM7" s="15"/>
-      <c r="BN7" s="15"/>
-      <c r="BO7" s="15"/>
-      <c r="BP7" s="15"/>
-      <c r="BQ7" s="15"/>
-      <c r="BR7" s="15"/>
-      <c r="BS7" s="15"/>
-      <c r="BT7" s="15"/>
-      <c r="BU7" s="15"/>
-      <c r="BV7" s="15"/>
-      <c r="BW7" s="15"/>
-      <c r="BX7" s="15"/>
-      <c r="BY7" s="15"/>
-      <c r="BZ7" s="15"/>
-      <c r="CA7" s="15"/>
-      <c r="CB7" s="15"/>
-      <c r="CC7" s="15"/>
-      <c r="CD7" s="15"/>
-      <c r="CE7" s="15"/>
-      <c r="CF7" s="15"/>
-      <c r="CG7" s="15"/>
-      <c r="CH7" s="15"/>
-      <c r="CI7" s="15"/>
-      <c r="CJ7" s="15"/>
-      <c r="CK7" s="15"/>
-      <c r="CL7" s="15"/>
-      <c r="CM7" s="15"/>
-      <c r="CN7" s="15"/>
-      <c r="CO7" s="15"/>
-      <c r="CP7" s="16"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+      <c r="AX7" s="10"/>
+      <c r="AY7" s="10"/>
+      <c r="AZ7" s="10"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10"/>
+      <c r="BK7" s="10"/>
+      <c r="BL7" s="10"/>
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="10"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="10"/>
+      <c r="BS7" s="10"/>
+      <c r="BT7" s="10"/>
+      <c r="BU7" s="10"/>
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10"/>
+      <c r="BX7" s="10"/>
+      <c r="BY7" s="10"/>
+      <c r="BZ7" s="10"/>
+      <c r="CA7" s="10"/>
+      <c r="CB7" s="10"/>
+      <c r="CC7" s="10"/>
+      <c r="CD7" s="10"/>
+      <c r="CE7" s="10"/>
+      <c r="CF7" s="10"/>
+      <c r="CG7" s="10"/>
+      <c r="CH7" s="10"/>
+      <c r="CI7" s="10"/>
+      <c r="CJ7" s="10"/>
+      <c r="CK7" s="10"/>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
+      <c r="CP7" s="11"/>
     </row>
     <row r="8" spans="2:94" ht="42" customHeight="1">
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="str">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="str">
         <f>AA7</f>
         <v>joint 5</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="P8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="15" t="s">
+      <c r="T8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="15" t="s">
+      <c r="U8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="15" t="s">
+      <c r="V8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="15" t="s">
+      <c r="X8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="15" t="s">
+      <c r="Y8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="15" t="s">
+      <c r="Z8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="15" t="s">
+      <c r="AB8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="15" t="s">
+      <c r="AC8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="15" t="s">
+      <c r="AD8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" s="15" t="s">
+      <c r="AE8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
-      <c r="AQ8" s="15"/>
-      <c r="AR8" s="15"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
-      <c r="AZ8" s="15"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15"/>
-      <c r="BC8" s="15"/>
-      <c r="BD8" s="15"/>
-      <c r="BE8" s="15"/>
-      <c r="BF8" s="15"/>
-      <c r="BG8" s="15"/>
-      <c r="BH8" s="15"/>
-      <c r="BI8" s="15"/>
-      <c r="BJ8" s="15"/>
-      <c r="BK8" s="15"/>
-      <c r="BL8" s="15"/>
-      <c r="BM8" s="15"/>
-      <c r="BN8" s="15"/>
-      <c r="BO8" s="15"/>
-      <c r="BP8" s="15"/>
-      <c r="BQ8" s="15"/>
-      <c r="BR8" s="15"/>
-      <c r="BS8" s="15"/>
-      <c r="BT8" s="15"/>
-      <c r="BU8" s="15"/>
-      <c r="BV8" s="15"/>
-      <c r="BW8" s="15"/>
-      <c r="BX8" s="15"/>
-      <c r="BY8" s="15"/>
-      <c r="BZ8" s="15"/>
-      <c r="CA8" s="15"/>
-      <c r="CB8" s="15"/>
-      <c r="CC8" s="15"/>
-      <c r="CD8" s="15"/>
-      <c r="CE8" s="15"/>
-      <c r="CF8" s="15"/>
-      <c r="CG8" s="15"/>
-      <c r="CH8" s="15"/>
-      <c r="CI8" s="15"/>
-      <c r="CJ8" s="15"/>
-      <c r="CK8" s="15"/>
-      <c r="CL8" s="15"/>
-      <c r="CM8" s="15"/>
-      <c r="CN8" s="15"/>
-      <c r="CO8" s="15"/>
-      <c r="CP8" s="16"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+      <c r="AX8" s="10"/>
+      <c r="AY8" s="10"/>
+      <c r="AZ8" s="10"/>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10"/>
+      <c r="BC8" s="10"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10"/>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10"/>
+      <c r="BL8" s="10"/>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="10"/>
+      <c r="BS8" s="10"/>
+      <c r="BT8" s="10"/>
+      <c r="BU8" s="10"/>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10"/>
+      <c r="BX8" s="10"/>
+      <c r="BY8" s="10"/>
+      <c r="BZ8" s="10"/>
+      <c r="CA8" s="10"/>
+      <c r="CB8" s="10"/>
+      <c r="CC8" s="10"/>
+      <c r="CD8" s="10"/>
+      <c r="CE8" s="10"/>
+      <c r="CF8" s="10"/>
+      <c r="CG8" s="10"/>
+      <c r="CH8" s="10"/>
+      <c r="CI8" s="10"/>
+      <c r="CJ8" s="10"/>
+      <c r="CK8" s="10"/>
+      <c r="CL8" s="10"/>
+      <c r="CM8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
+      <c r="CP8" s="11"/>
     </row>
     <row r="9" spans="2:94" ht="42" customHeight="1">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="31">
         <v>9</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="31">
         <v>4</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB9" s="15" t="str">
+      <c r="AB9" s="21" t="str">
         <f>AA9</f>
         <v>joint 1</v>
       </c>
-      <c r="AC9" s="15" t="str">
+      <c r="AC9" s="21" t="str">
         <f>AB9</f>
         <v>joint 1</v>
       </c>
-      <c r="AD9" s="15" t="s">
+      <c r="AD9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15" t="s">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AM9" s="15" t="s">
+      <c r="AM9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AN9" s="15" t="s">
+      <c r="AN9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AO9" s="15" t="s">
+      <c r="AO9" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="15"/>
-      <c r="AW9" s="15"/>
-      <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
-      <c r="AZ9" s="15"/>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="15"/>
-      <c r="BD9" s="15"/>
-      <c r="BE9" s="15"/>
-      <c r="BF9" s="15"/>
-      <c r="BG9" s="15"/>
-      <c r="BH9" s="15"/>
-      <c r="BI9" s="15"/>
-      <c r="BJ9" s="15"/>
-      <c r="BK9" s="15"/>
-      <c r="BL9" s="15"/>
-      <c r="BM9" s="15"/>
-      <c r="BN9" s="15"/>
-      <c r="BO9" s="15"/>
-      <c r="BP9" s="15"/>
-      <c r="BQ9" s="15"/>
-      <c r="BR9" s="15"/>
-      <c r="BS9" s="15"/>
-      <c r="BT9" s="15"/>
-      <c r="BU9" s="15"/>
-      <c r="BV9" s="15"/>
-      <c r="BW9" s="15"/>
-      <c r="BX9" s="15"/>
-      <c r="BY9" s="15"/>
-      <c r="BZ9" s="15"/>
-      <c r="CA9" s="15"/>
-      <c r="CB9" s="15"/>
-      <c r="CC9" s="15"/>
-      <c r="CP9" s="16"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21"/>
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21"/>
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21"/>
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21"/>
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21"/>
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21"/>
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21"/>
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="10"/>
+      <c r="BU9" s="10"/>
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10"/>
+      <c r="BX9" s="10"/>
+      <c r="BY9" s="10"/>
+      <c r="BZ9" s="10"/>
+      <c r="CA9" s="10"/>
+      <c r="CB9" s="10"/>
+      <c r="CC9" s="10"/>
+      <c r="CP9" s="11"/>
     </row>
     <row r="10" spans="2:94" ht="42" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="15" t="str">
+      <c r="AC10" s="21" t="str">
         <f>AB10</f>
         <v>joint 2</v>
       </c>
-      <c r="AD10" s="15" t="s">
+      <c r="AD10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="15" t="s">
+      <c r="AE10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
-      <c r="AQ10" s="15"/>
-      <c r="AR10" s="15" t="s">
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AS10" s="15" t="s">
+      <c r="AS10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AT10" s="15" t="s">
+      <c r="AT10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AU10" s="15" t="s">
+      <c r="AU10" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AV10" s="15"/>
-      <c r="AW10" s="15"/>
-      <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
-      <c r="AZ10" s="15"/>
-      <c r="BA10" s="15"/>
-      <c r="BB10" s="15"/>
-      <c r="BC10" s="15"/>
-      <c r="BD10" s="15"/>
-      <c r="BE10" s="15"/>
-      <c r="BF10" s="15"/>
-      <c r="BG10" s="15"/>
-      <c r="BH10" s="15"/>
-      <c r="BI10" s="15"/>
-      <c r="BJ10" s="15"/>
-      <c r="BK10" s="15"/>
-      <c r="BL10" s="15"/>
-      <c r="BM10" s="15"/>
-      <c r="BN10" s="15"/>
-      <c r="BO10" s="15"/>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15"/>
-      <c r="BR10" s="15"/>
-      <c r="BS10" s="15"/>
-      <c r="BT10" s="15"/>
-      <c r="BU10" s="15"/>
-      <c r="BV10" s="15"/>
-      <c r="BW10" s="15"/>
-      <c r="BX10" s="15"/>
-      <c r="BY10" s="15"/>
-      <c r="BZ10" s="15"/>
-      <c r="CA10" s="15"/>
-      <c r="CB10" s="15"/>
-      <c r="CC10" s="15"/>
-      <c r="CD10" s="15"/>
-      <c r="CE10" s="15"/>
-      <c r="CF10" s="15"/>
-      <c r="CG10" s="15"/>
-      <c r="CH10" s="15"/>
-      <c r="CI10" s="15"/>
-      <c r="CJ10" s="15"/>
-      <c r="CK10" s="15"/>
-      <c r="CL10" s="15"/>
-      <c r="CM10" s="15"/>
-      <c r="CN10" s="15"/>
-      <c r="CO10" s="15"/>
-      <c r="CP10" s="16"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="10"/>
+      <c r="BU10" s="10"/>
+      <c r="BV10" s="10"/>
+      <c r="BW10" s="10"/>
+      <c r="BX10" s="10"/>
+      <c r="BY10" s="10"/>
+      <c r="BZ10" s="10"/>
+      <c r="CA10" s="10"/>
+      <c r="CB10" s="10"/>
+      <c r="CC10" s="10"/>
+      <c r="CD10" s="10"/>
+      <c r="CE10" s="10"/>
+      <c r="CF10" s="10"/>
+      <c r="CG10" s="10"/>
+      <c r="CH10" s="10"/>
+      <c r="CI10" s="10"/>
+      <c r="CJ10" s="10"/>
+      <c r="CK10" s="10"/>
+      <c r="CL10" s="10"/>
+      <c r="CM10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
+      <c r="CP10" s="11"/>
     </row>
     <row r="11" spans="2:94" ht="42" customHeight="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AD11" s="15" t="str">
+      <c r="AD11" s="21" t="str">
         <f>AC11</f>
         <v>joint 3</v>
       </c>
-      <c r="AE11" s="15" t="str">
+      <c r="AE11" s="21" t="str">
         <f>AD11</f>
         <v>joint 3</v>
       </c>
-      <c r="AF11" s="15" t="str">
+      <c r="AF11" s="21" t="str">
         <f>AE11</f>
         <v>joint 3</v>
       </c>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
-      <c r="AQ11" s="15"/>
-      <c r="AR11" s="15"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="15"/>
-      <c r="AW11" s="15"/>
-      <c r="AX11" s="15" t="s">
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AY11" s="15" t="s">
+      <c r="AY11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AZ11" s="15" t="s">
+      <c r="AZ11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BA11" s="15" t="s">
+      <c r="BA11" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BB11" s="15"/>
-      <c r="BC11" s="15"/>
-      <c r="BD11" s="15"/>
-      <c r="BE11" s="15"/>
-      <c r="BF11" s="15"/>
-      <c r="BG11" s="15"/>
-      <c r="BH11" s="15"/>
-      <c r="BI11" s="15"/>
-      <c r="BJ11" s="15"/>
-      <c r="BK11" s="15"/>
-      <c r="BL11" s="15"/>
-      <c r="BM11" s="15"/>
-      <c r="BN11" s="15"/>
-      <c r="BO11" s="15"/>
-      <c r="BP11" s="15"/>
-      <c r="BQ11" s="15"/>
-      <c r="BR11" s="15"/>
-      <c r="BS11" s="15"/>
-      <c r="BT11" s="15"/>
-      <c r="BU11" s="15"/>
-      <c r="BV11" s="15"/>
-      <c r="BW11" s="15"/>
-      <c r="BX11" s="15"/>
-      <c r="BY11" s="15"/>
-      <c r="BZ11" s="15"/>
-      <c r="CA11" s="15"/>
-      <c r="CB11" s="15"/>
-      <c r="CC11" s="15"/>
-      <c r="CD11" s="15"/>
-      <c r="CE11" s="15"/>
-      <c r="CF11" s="15"/>
-      <c r="CG11" s="15"/>
-      <c r="CH11" s="15"/>
-      <c r="CI11" s="15"/>
-      <c r="CJ11" s="15"/>
-      <c r="CK11" s="15"/>
-      <c r="CL11" s="15"/>
-      <c r="CM11" s="15"/>
-      <c r="CN11" s="15"/>
-      <c r="CO11" s="15"/>
-      <c r="CP11" s="16"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="21"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="21"/>
+      <c r="BJ11" s="21"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="21"/>
+      <c r="BO11" s="21"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="21"/>
+      <c r="BT11" s="10"/>
+      <c r="BU11" s="10"/>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10"/>
+      <c r="BX11" s="10"/>
+      <c r="BY11" s="10"/>
+      <c r="BZ11" s="10"/>
+      <c r="CA11" s="10"/>
+      <c r="CB11" s="10"/>
+      <c r="CC11" s="10"/>
+      <c r="CD11" s="10"/>
+      <c r="CE11" s="10"/>
+      <c r="CF11" s="10"/>
+      <c r="CG11" s="10"/>
+      <c r="CH11" s="10"/>
+      <c r="CI11" s="10"/>
+      <c r="CJ11" s="10"/>
+      <c r="CK11" s="10"/>
+      <c r="CL11" s="10"/>
+      <c r="CM11" s="10"/>
+      <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
+      <c r="CP11" s="11"/>
     </row>
     <row r="12" spans="2:94" ht="42" customHeight="1">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="18" t="s">
+      <c r="AF12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AG12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="15"/>
-      <c r="AI12" s="15"/>
-      <c r="AJ12" s="15"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
-      <c r="AM12" s="15"/>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
-      <c r="AQ12" s="15"/>
-      <c r="AR12" s="15"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="15"/>
-      <c r="AW12" s="15"/>
-      <c r="AX12" s="15"/>
-      <c r="AY12" s="15"/>
-      <c r="AZ12" s="15"/>
-      <c r="BA12" s="15"/>
-      <c r="BB12" s="15"/>
-      <c r="BC12" s="15"/>
-      <c r="BD12" s="15" t="s">
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="21"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="21"/>
+      <c r="AV12" s="21"/>
+      <c r="AW12" s="21"/>
+      <c r="AX12" s="21"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="21"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="21"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BE12" s="15" t="s">
+      <c r="BE12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BF12" s="15" t="s">
+      <c r="BF12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BG12" s="15" t="s">
+      <c r="BG12" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BH12" s="15"/>
-      <c r="BI12" s="15"/>
-      <c r="BJ12" s="15"/>
-      <c r="BK12" s="15"/>
-      <c r="BL12" s="15"/>
-      <c r="BM12" s="15"/>
-      <c r="BN12" s="15"/>
-      <c r="BO12" s="15"/>
-      <c r="BP12" s="15"/>
-      <c r="BQ12" s="15"/>
-      <c r="BR12" s="15"/>
-      <c r="BS12" s="15"/>
-      <c r="BT12" s="15"/>
-      <c r="BU12" s="15"/>
-      <c r="BV12" s="15"/>
-      <c r="BW12" s="15"/>
-      <c r="BX12" s="15"/>
-      <c r="BY12" s="15"/>
-      <c r="BZ12" s="15"/>
-      <c r="CA12" s="15"/>
-      <c r="CB12" s="15"/>
-      <c r="CC12" s="15"/>
-      <c r="CD12" s="15"/>
-      <c r="CE12" s="15"/>
-      <c r="CF12" s="15"/>
-      <c r="CG12" s="15"/>
-      <c r="CH12" s="15"/>
-      <c r="CI12" s="15"/>
-      <c r="CJ12" s="15"/>
-      <c r="CK12" s="15"/>
-      <c r="CL12" s="15"/>
-      <c r="CM12" s="15"/>
-      <c r="CN12" s="15"/>
-      <c r="CO12" s="15"/>
-      <c r="CP12" s="16"/>
+      <c r="BH12" s="21"/>
+      <c r="BI12" s="21"/>
+      <c r="BJ12" s="21"/>
+      <c r="BK12" s="21"/>
+      <c r="BL12" s="21"/>
+      <c r="BM12" s="21"/>
+      <c r="BN12" s="21"/>
+      <c r="BO12" s="21"/>
+      <c r="BP12" s="21"/>
+      <c r="BQ12" s="21"/>
+      <c r="BR12" s="21"/>
+      <c r="BS12" s="21"/>
+      <c r="BT12" s="10"/>
+      <c r="BU12" s="10"/>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10"/>
+      <c r="BX12" s="10"/>
+      <c r="BY12" s="10"/>
+      <c r="BZ12" s="10"/>
+      <c r="CA12" s="10"/>
+      <c r="CB12" s="10"/>
+      <c r="CC12" s="10"/>
+      <c r="CD12" s="10"/>
+      <c r="CE12" s="10"/>
+      <c r="CF12" s="10"/>
+      <c r="CG12" s="10"/>
+      <c r="CH12" s="10"/>
+      <c r="CI12" s="10"/>
+      <c r="CJ12" s="10"/>
+      <c r="CK12" s="10"/>
+      <c r="CL12" s="10"/>
+      <c r="CM12" s="10"/>
+      <c r="CN12" s="10"/>
+      <c r="CO12" s="10"/>
+      <c r="CP12" s="11"/>
     </row>
     <row r="13" spans="2:94" ht="42" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AF13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AG13" s="15" t="str">
+      <c r="AG13" s="21" t="str">
         <f>AF13</f>
         <v>joint 5</v>
       </c>
-      <c r="AH13" s="15" t="str">
+      <c r="AH13" s="21" t="str">
         <f t="shared" ref="AH13" si="34">AG13</f>
         <v>joint 5</v>
       </c>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
-      <c r="AM13" s="15"/>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
-      <c r="AQ13" s="15"/>
-      <c r="AR13" s="15"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="15"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="15"/>
-      <c r="AY13" s="15"/>
-      <c r="AZ13" s="15"/>
-      <c r="BA13" s="15"/>
-      <c r="BB13" s="15"/>
-      <c r="BC13" s="15"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="15"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="15"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="15"/>
-      <c r="BJ13" s="15" t="s">
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="21"/>
+      <c r="AT13" s="21"/>
+      <c r="AU13" s="21"/>
+      <c r="AV13" s="21"/>
+      <c r="AW13" s="21"/>
+      <c r="AX13" s="21"/>
+      <c r="AY13" s="21"/>
+      <c r="AZ13" s="21"/>
+      <c r="BA13" s="21"/>
+      <c r="BB13" s="21"/>
+      <c r="BC13" s="21"/>
+      <c r="BD13" s="21"/>
+      <c r="BE13" s="21"/>
+      <c r="BF13" s="21"/>
+      <c r="BG13" s="21"/>
+      <c r="BH13" s="21"/>
+      <c r="BI13" s="21"/>
+      <c r="BJ13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BK13" s="15" t="s">
+      <c r="BK13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BL13" s="15" t="s">
+      <c r="BL13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BM13" s="15" t="s">
+      <c r="BM13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BN13" s="15"/>
-      <c r="BO13" s="15"/>
-      <c r="BP13" s="15"/>
-      <c r="BQ13" s="15"/>
-      <c r="BR13" s="15"/>
-      <c r="BS13" s="15"/>
-      <c r="BT13" s="15"/>
-      <c r="BU13" s="15"/>
-      <c r="BV13" s="15"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="15"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="15"/>
-      <c r="CA13" s="15"/>
-      <c r="CB13" s="15"/>
-      <c r="CC13" s="15"/>
-      <c r="CD13" s="15"/>
-      <c r="CE13" s="15"/>
-      <c r="CF13" s="15"/>
-      <c r="CG13" s="15"/>
-      <c r="CH13" s="15"/>
-      <c r="CI13" s="15"/>
-      <c r="CJ13" s="15"/>
-      <c r="CK13" s="15"/>
-      <c r="CL13" s="15"/>
-      <c r="CM13" s="15"/>
-      <c r="CN13" s="15"/>
-      <c r="CO13" s="15"/>
-      <c r="CP13" s="16"/>
+      <c r="BN13" s="21"/>
+      <c r="BO13" s="21"/>
+      <c r="BP13" s="21"/>
+      <c r="BQ13" s="21"/>
+      <c r="BR13" s="21"/>
+      <c r="BS13" s="21"/>
+      <c r="BT13" s="10"/>
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="10"/>
+      <c r="BZ13" s="10"/>
+      <c r="CA13" s="10"/>
+      <c r="CB13" s="10"/>
+      <c r="CC13" s="10"/>
+      <c r="CD13" s="10"/>
+      <c r="CE13" s="10"/>
+      <c r="CF13" s="10"/>
+      <c r="CG13" s="10"/>
+      <c r="CH13" s="10"/>
+      <c r="CI13" s="10"/>
+      <c r="CJ13" s="10"/>
+      <c r="CK13" s="10"/>
+      <c r="CL13" s="10"/>
+      <c r="CM13" s="10"/>
+      <c r="CN13" s="10"/>
+      <c r="CO13" s="10"/>
+      <c r="CP13" s="11"/>
     </row>
     <row r="14" spans="2:94" ht="42" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="AG14" s="18" t="s">
+      <c r="AG14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="18" t="s">
+      <c r="AH14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="18" t="s">
+      <c r="AI14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="15"/>
-      <c r="AR14" s="15"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="15"/>
-      <c r="AW14" s="15"/>
-      <c r="AX14" s="15"/>
-      <c r="AY14" s="15"/>
-      <c r="AZ14" s="15"/>
-      <c r="BA14" s="15"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="15"/>
-      <c r="BD14" s="15"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="15"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="15"/>
-      <c r="BK14" s="15"/>
-      <c r="BL14" s="15"/>
-      <c r="BM14" s="15"/>
-      <c r="BN14" s="15"/>
-      <c r="BO14" s="15"/>
-      <c r="BP14" s="15" t="s">
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="21"/>
+      <c r="AT14" s="21"/>
+      <c r="AU14" s="21"/>
+      <c r="AV14" s="21"/>
+      <c r="AW14" s="21"/>
+      <c r="AX14" s="21"/>
+      <c r="AY14" s="21"/>
+      <c r="AZ14" s="21"/>
+      <c r="BA14" s="21"/>
+      <c r="BB14" s="21"/>
+      <c r="BC14" s="21"/>
+      <c r="BD14" s="21"/>
+      <c r="BE14" s="21"/>
+      <c r="BF14" s="21"/>
+      <c r="BG14" s="21"/>
+      <c r="BH14" s="21"/>
+      <c r="BI14" s="21"/>
+      <c r="BJ14" s="21"/>
+      <c r="BK14" s="21"/>
+      <c r="BL14" s="21"/>
+      <c r="BM14" s="21"/>
+      <c r="BN14" s="21"/>
+      <c r="BO14" s="21"/>
+      <c r="BP14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BQ14" s="15" t="s">
+      <c r="BQ14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BR14" s="15" t="s">
+      <c r="BR14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BS14" s="15" t="s">
+      <c r="BS14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BT14" s="15"/>
-      <c r="BU14" s="15"/>
-      <c r="BV14" s="15"/>
-      <c r="BW14" s="15"/>
-      <c r="BX14" s="15"/>
-      <c r="BY14" s="15"/>
-      <c r="BZ14" s="15"/>
-      <c r="CA14" s="15"/>
-      <c r="CB14" s="15"/>
-      <c r="CC14" s="15"/>
-      <c r="CD14" s="15"/>
-      <c r="CE14" s="15"/>
-      <c r="CF14" s="15"/>
-      <c r="CG14" s="15"/>
-      <c r="CH14" s="15"/>
-      <c r="CI14" s="15"/>
-      <c r="CJ14" s="15"/>
-      <c r="CK14" s="15"/>
-      <c r="CL14" s="15"/>
-      <c r="CM14" s="15"/>
-      <c r="CN14" s="15"/>
-      <c r="CO14" s="15"/>
-      <c r="CP14" s="16"/>
+      <c r="BT14" s="10"/>
+      <c r="BU14" s="10"/>
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10"/>
+      <c r="BX14" s="10"/>
+      <c r="BY14" s="10"/>
+      <c r="BZ14" s="10"/>
+      <c r="CA14" s="10"/>
+      <c r="CB14" s="10"/>
+      <c r="CC14" s="10"/>
+      <c r="CD14" s="10"/>
+      <c r="CE14" s="10"/>
+      <c r="CF14" s="10"/>
+      <c r="CG14" s="10"/>
+      <c r="CH14" s="10"/>
+      <c r="CI14" s="10"/>
+      <c r="CJ14" s="10"/>
+      <c r="CK14" s="10"/>
+      <c r="CL14" s="10"/>
+      <c r="CM14" s="10"/>
+      <c r="CN14" s="10"/>
+      <c r="CO14" s="10"/>
+      <c r="CP14" s="11"/>
     </row>
     <row r="15" spans="2:94" ht="42" customHeight="1">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="31">
         <v>36</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="2" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AG15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AH15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AI15" s="2" t="s">
+      <c r="AI15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AJ15" s="2" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AK15" s="2" t="s">
+      <c r="AK15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AL15" s="2" t="s">
+      <c r="AL15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AM15" s="2" t="s">
+      <c r="AM15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AO15" s="2" t="s">
+      <c r="AO15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AP15" s="2" t="s">
+      <c r="AP15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ15" s="2" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="2"/>
-      <c r="AV15" s="2"/>
-      <c r="AW15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="2"/>
-      <c r="AZ15" s="2"/>
-      <c r="BA15" s="2"/>
-      <c r="BB15" s="2"/>
-      <c r="BC15" s="2"/>
-      <c r="BD15" s="2"/>
-      <c r="BE15" s="2"/>
-      <c r="BF15" s="2"/>
-      <c r="BG15" s="2"/>
-      <c r="BH15" s="2"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="2"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="15"/>
-      <c r="BQ15" s="15"/>
-      <c r="BR15" s="15"/>
-      <c r="BS15" s="15"/>
-      <c r="BT15" s="15"/>
-      <c r="BU15" s="15"/>
-      <c r="BV15" s="15"/>
-      <c r="BW15" s="1" t="s">
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+      <c r="BH15" s="1"/>
+      <c r="BI15" s="1"/>
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="1"/>
+      <c r="BL15" s="1"/>
+      <c r="BM15" s="1"/>
+      <c r="BN15" s="1"/>
+      <c r="BO15" s="1"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BX15" s="1" t="s">
+      <c r="BX15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BY15" s="1" t="s">
+      <c r="BY15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="BZ15" s="1" t="s">
+      <c r="BZ15" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="CA15" s="29" t="s">
+      <c r="CA15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="CB15" s="29" t="s">
+      <c r="CB15" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="CC15" s="15"/>
-      <c r="CD15" s="2" t="s">
+      <c r="CC15" s="10"/>
+      <c r="CD15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="CE15" s="2" t="s">
+      <c r="CE15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="CF15" s="2" t="s">
+      <c r="CF15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="CG15" s="2" t="s">
+      <c r="CG15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="CH15" s="2" t="s">
+      <c r="CH15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="CI15" s="2" t="s">
+      <c r="CI15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CJ15" s="2" t="s">
+      <c r="CJ15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CK15" s="2" t="s">
+      <c r="CK15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="CL15" s="2" t="s">
+      <c r="CL15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="CM15" s="2" t="s">
+      <c r="CM15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="CN15" s="3" t="s">
+      <c r="CN15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="CO15" s="3" t="s">
+      <c r="CO15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="CP15" s="16"/>
+      <c r="CP15" s="11"/>
     </row>
     <row r="16" spans="2:94" ht="42" customHeight="1">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="2"/>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
-      <c r="AL16" s="2" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AM16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AO16" s="2" t="s">
+      <c r="AO16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AP16" s="2" t="s">
+      <c r="AP16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AQ16" s="2" t="s">
+      <c r="AQ16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AR16" s="2" t="s">
+      <c r="AR16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AS16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AT16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="AU16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AV16" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AW16" s="3" t="s">
+      <c r="AW16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="2"/>
-      <c r="AZ16" s="2"/>
-      <c r="BA16" s="2"/>
-      <c r="BB16" s="2"/>
-      <c r="BC16" s="2"/>
-      <c r="BD16" s="2"/>
-      <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
-      <c r="BH16" s="2"/>
-      <c r="BI16" s="2"/>
-      <c r="BJ16" s="2"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="15"/>
-      <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="15"/>
-      <c r="CP16" s="16"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+      <c r="BH16" s="1"/>
+      <c r="BI16" s="1"/>
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="1"/>
+      <c r="BL16" s="1"/>
+      <c r="BM16" s="1"/>
+      <c r="BN16" s="1"/>
+      <c r="BO16" s="1"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10"/>
+      <c r="BR16" s="10"/>
+      <c r="BS16" s="10"/>
+      <c r="BT16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="10"/>
+      <c r="BY16" s="10"/>
+      <c r="BZ16" s="10"/>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="10"/>
+      <c r="CC16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="10"/>
+      <c r="CF16" s="10"/>
+      <c r="CG16" s="10"/>
+      <c r="CH16" s="10"/>
+      <c r="CI16" s="10"/>
+      <c r="CJ16" s="10"/>
+      <c r="CK16" s="10"/>
+      <c r="CL16" s="10"/>
+      <c r="CM16" s="10"/>
+      <c r="CN16" s="10"/>
+      <c r="CO16" s="10"/>
+      <c r="CP16" s="11"/>
     </row>
     <row r="17" spans="2:117" ht="42" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
-      <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
-      <c r="AL17" s="2"/>
-      <c r="AM17" s="2"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
-      <c r="AP17" s="2"/>
-      <c r="AQ17" s="2"/>
-      <c r="AR17" s="2" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AS17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AT17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AU17" s="2" t="s">
+      <c r="AU17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AV17" s="2" t="s">
+      <c r="AV17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AW17" s="2" t="s">
+      <c r="AW17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX17" s="2" t="s">
+      <c r="AX17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AY17" s="2" t="s">
+      <c r="AY17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AZ17" s="2" t="s">
+      <c r="AZ17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BA17" s="2" t="s">
+      <c r="BA17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BB17" s="2" t="s">
+      <c r="BB17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BC17" s="2" t="s">
+      <c r="BC17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BD17" s="2"/>
-      <c r="BE17" s="2"/>
-      <c r="BF17" s="2"/>
-      <c r="BG17" s="2"/>
-      <c r="BH17" s="2"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="15"/>
-      <c r="BQ17" s="15"/>
-      <c r="BR17" s="15"/>
-      <c r="BS17" s="15"/>
-      <c r="BT17" s="15"/>
-      <c r="BU17" s="15"/>
-      <c r="BV17" s="15"/>
-      <c r="BW17" s="15"/>
-      <c r="BX17" s="15"/>
-      <c r="BY17" s="15"/>
-      <c r="BZ17" s="15"/>
-      <c r="CA17" s="15"/>
-      <c r="CB17" s="15"/>
-      <c r="CC17" s="15"/>
-      <c r="CD17" s="15"/>
-      <c r="CE17" s="15"/>
-      <c r="CF17" s="15"/>
-      <c r="CG17" s="15"/>
-      <c r="CH17" s="15"/>
-      <c r="CI17" s="15"/>
-      <c r="CJ17" s="15"/>
-      <c r="CK17" s="15"/>
-      <c r="CL17" s="15"/>
-      <c r="CM17" s="15"/>
-      <c r="CN17" s="15"/>
-      <c r="CO17" s="15"/>
-      <c r="CP17" s="16"/>
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+      <c r="BH17" s="1"/>
+      <c r="BI17" s="1"/>
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="1"/>
+      <c r="BL17" s="1"/>
+      <c r="BM17" s="1"/>
+      <c r="BN17" s="1"/>
+      <c r="BO17" s="1"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
+      <c r="BY17" s="10"/>
+      <c r="BZ17" s="10"/>
+      <c r="CA17" s="10"/>
+      <c r="CB17" s="10"/>
+      <c r="CC17" s="10"/>
+      <c r="CD17" s="10"/>
+      <c r="CE17" s="10"/>
+      <c r="CF17" s="10"/>
+      <c r="CG17" s="10"/>
+      <c r="CH17" s="10"/>
+      <c r="CI17" s="10"/>
+      <c r="CJ17" s="10"/>
+      <c r="CK17" s="10"/>
+      <c r="CL17" s="10"/>
+      <c r="CM17" s="10"/>
+      <c r="CN17" s="10"/>
+      <c r="CO17" s="10"/>
+      <c r="CP17" s="11"/>
     </row>
     <row r="18" spans="2:117" ht="42" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
-      <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
-      <c r="AL18" s="2"/>
-      <c r="AM18" s="2"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
-      <c r="AP18" s="2"/>
-      <c r="AQ18" s="2"/>
-      <c r="AR18" s="2"/>
-      <c r="AS18" s="2"/>
-      <c r="AT18" s="2"/>
-      <c r="AU18" s="2"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
-      <c r="AX18" s="2" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AY18" s="2" t="s">
+      <c r="AY18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AZ18" s="2" t="s">
+      <c r="AZ18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BA18" s="2" t="s">
+      <c r="BA18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BB18" s="2" t="s">
+      <c r="BB18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BC18" s="2" t="s">
+      <c r="BC18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BD18" s="2" t="s">
+      <c r="BD18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BE18" s="2" t="s">
+      <c r="BE18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="2" t="s">
+      <c r="BF18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BG18" s="2" t="s">
+      <c r="BG18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BH18" s="2" t="s">
+      <c r="BH18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BI18" s="2" t="s">
+      <c r="BI18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BJ18" s="2"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="15"/>
-      <c r="BQ18" s="15"/>
-      <c r="BR18" s="15"/>
-      <c r="BS18" s="15"/>
-      <c r="BT18" s="15"/>
-      <c r="BU18" s="15"/>
-      <c r="BV18" s="15"/>
-      <c r="BW18" s="15"/>
-      <c r="BX18" s="15"/>
-      <c r="BY18" s="15"/>
-      <c r="BZ18" s="15"/>
-      <c r="CA18" s="15"/>
-      <c r="CB18" s="15"/>
-      <c r="CC18" s="15"/>
-      <c r="CD18" s="15"/>
-      <c r="CE18" s="15"/>
-      <c r="CF18" s="15"/>
-      <c r="CG18" s="15"/>
-      <c r="CH18" s="15"/>
-      <c r="CI18" s="15"/>
-      <c r="CJ18" s="15"/>
-      <c r="CK18" s="15"/>
-      <c r="CL18" s="15"/>
-      <c r="CM18" s="15"/>
-      <c r="CN18" s="15"/>
-      <c r="CO18" s="15"/>
-      <c r="CP18" s="16"/>
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="1"/>
+      <c r="BL18" s="1"/>
+      <c r="BM18" s="1"/>
+      <c r="BN18" s="1"/>
+      <c r="BO18" s="1"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10"/>
+      <c r="BR18" s="10"/>
+      <c r="BS18" s="10"/>
+      <c r="BT18" s="10"/>
+      <c r="BU18" s="10"/>
+      <c r="BV18" s="10"/>
+      <c r="BW18" s="10"/>
+      <c r="BX18" s="10"/>
+      <c r="BY18" s="10"/>
+      <c r="BZ18" s="10"/>
+      <c r="CA18" s="10"/>
+      <c r="CB18" s="10"/>
+      <c r="CC18" s="10"/>
+      <c r="CD18" s="10"/>
+      <c r="CE18" s="10"/>
+      <c r="CF18" s="10"/>
+      <c r="CG18" s="10"/>
+      <c r="CH18" s="10"/>
+      <c r="CI18" s="10"/>
+      <c r="CJ18" s="10"/>
+      <c r="CK18" s="10"/>
+      <c r="CL18" s="10"/>
+      <c r="CM18" s="10"/>
+      <c r="CN18" s="10"/>
+      <c r="CO18" s="10"/>
+      <c r="CP18" s="11"/>
     </row>
     <row r="19" spans="2:117" ht="42" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
-      <c r="AQ19" s="2"/>
-      <c r="AR19" s="2"/>
-      <c r="AS19" s="2"/>
-      <c r="AT19" s="2"/>
-      <c r="AU19" s="2"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+      <c r="BD19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BE19" s="2" t="s">
+      <c r="BE19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BF19" s="2" t="s">
+      <c r="BF19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BG19" s="2" t="s">
+      <c r="BG19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BH19" s="2" t="s">
+      <c r="BH19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BI19" s="2" t="s">
+      <c r="BI19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BJ19" s="2" t="s">
+      <c r="BJ19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BK19" s="2" t="s">
+      <c r="BK19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BL19" s="2" t="s">
+      <c r="BL19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BM19" s="2" t="s">
+      <c r="BM19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BN19" s="2" t="s">
+      <c r="BN19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BO19" s="2" t="s">
+      <c r="BO19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BP19" s="15"/>
-      <c r="BQ19" s="15"/>
-      <c r="BR19" s="15"/>
-      <c r="BS19" s="15"/>
-      <c r="BT19" s="15"/>
-      <c r="BU19" s="15"/>
-      <c r="BV19" s="15"/>
-      <c r="BW19" s="15"/>
-      <c r="BX19" s="15"/>
-      <c r="BY19" s="15"/>
-      <c r="BZ19" s="15"/>
-      <c r="CA19" s="15"/>
-      <c r="CB19" s="15"/>
-      <c r="CC19" s="15"/>
-      <c r="CD19" s="15"/>
-      <c r="CE19" s="15"/>
-      <c r="CF19" s="15"/>
-      <c r="CG19" s="15"/>
-      <c r="CH19" s="15"/>
-      <c r="CI19" s="15"/>
-      <c r="CJ19" s="15"/>
-      <c r="CK19" s="15"/>
-      <c r="CL19" s="15"/>
-      <c r="CM19" s="15"/>
-      <c r="CN19" s="15"/>
-      <c r="CO19" s="15"/>
-      <c r="CP19" s="16"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10"/>
+      <c r="BR19" s="10"/>
+      <c r="BS19" s="10"/>
+      <c r="BT19" s="10"/>
+      <c r="BU19" s="10"/>
+      <c r="BV19" s="10"/>
+      <c r="BW19" s="10"/>
+      <c r="BX19" s="10"/>
+      <c r="BY19" s="10"/>
+      <c r="BZ19" s="10"/>
+      <c r="CA19" s="10"/>
+      <c r="CB19" s="10"/>
+      <c r="CC19" s="10"/>
+      <c r="CD19" s="10"/>
+      <c r="CE19" s="10"/>
+      <c r="CF19" s="10"/>
+      <c r="CG19" s="10"/>
+      <c r="CH19" s="10"/>
+      <c r="CI19" s="10"/>
+      <c r="CJ19" s="10"/>
+      <c r="CK19" s="10"/>
+      <c r="CL19" s="10"/>
+      <c r="CM19" s="10"/>
+      <c r="CN19" s="10"/>
+      <c r="CO19" s="10"/>
+      <c r="CP19" s="11"/>
     </row>
     <row r="20" spans="2:117" ht="42" customHeight="1" thickBot="1">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="15">
         <v>36</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="15">
         <v>1</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="16"/>
+      <c r="AF20" s="16"/>
+      <c r="AG20" s="16"/>
+      <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
+      <c r="AJ20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="16"/>
+      <c r="AM20" s="16"/>
+      <c r="AN20" s="16"/>
+      <c r="AO20" s="16"/>
+      <c r="AP20" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AQ20" s="22" t="s">
+      <c r="AQ20" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="AR20" s="22"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
-      <c r="AV20" s="22" t="s">
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AW20" s="22" t="s">
+      <c r="AW20" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AX20" s="22"/>
-      <c r="AY20" s="22"/>
-      <c r="AZ20" s="22"/>
-      <c r="BA20" s="22"/>
-      <c r="BB20" s="23" t="s">
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BC20" s="23" t="s">
+      <c r="BC20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="BD20" s="22"/>
-      <c r="BE20" s="22"/>
-      <c r="BF20" s="22"/>
-      <c r="BG20" s="22"/>
-      <c r="BH20" s="23" t="s">
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="BI20" s="23" t="s">
+      <c r="BI20" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="22"/>
-      <c r="BL20" s="22"/>
-      <c r="BM20" s="22"/>
-      <c r="BN20" s="23" t="s">
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="BO20" s="23" t="s">
+      <c r="BO20" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="BP20" s="22"/>
-      <c r="BQ20" s="22"/>
-      <c r="BR20" s="22"/>
-      <c r="BS20" s="22"/>
-      <c r="BT20" s="23" t="s">
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BU20" s="23" t="s">
+      <c r="BU20" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="BV20" s="22" t="s">
+      <c r="BV20" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="BW20" s="22"/>
-      <c r="BX20" s="22"/>
-      <c r="BY20" s="22"/>
-      <c r="BZ20" s="22"/>
-      <c r="CA20" s="22"/>
-      <c r="CB20" s="22"/>
-      <c r="CC20" s="22" t="s">
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
+      <c r="BZ20" s="16"/>
+      <c r="CA20" s="16"/>
+      <c r="CB20" s="16"/>
+      <c r="CC20" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="CD20" s="22"/>
-      <c r="CE20" s="22"/>
-      <c r="CF20" s="22"/>
-      <c r="CG20" s="22"/>
-      <c r="CH20" s="22"/>
-      <c r="CI20" s="22"/>
-      <c r="CJ20" s="22"/>
-      <c r="CK20" s="22"/>
-      <c r="CL20" s="22"/>
-      <c r="CM20" s="22"/>
-      <c r="CN20" s="22"/>
-      <c r="CO20" s="22"/>
-      <c r="CP20" s="24" t="s">
+      <c r="CD20" s="16"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+      <c r="CG20" s="16"/>
+      <c r="CH20" s="16"/>
+      <c r="CI20" s="16"/>
+      <c r="CJ20" s="16"/>
+      <c r="CK20" s="16"/>
+      <c r="CL20" s="16"/>
+      <c r="CM20" s="16"/>
+      <c r="CN20" s="16"/>
+      <c r="CO20" s="16"/>
+      <c r="CP20" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:117" ht="42" customHeight="1" thickBot="1"/>
-    <row r="22" spans="2:117" s="12" customFormat="1" ht="42" customHeight="1">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="25" t="s">
+    <row r="22" spans="2:117" s="9" customFormat="1" ht="42" customHeight="1">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
-      <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25"/>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="25"/>
-      <c r="AV22" s="25"/>
-      <c r="AW22" s="25"/>
-      <c r="AX22" s="25"/>
-      <c r="AY22" s="25"/>
-      <c r="AZ22" s="25"/>
-      <c r="BA22" s="25"/>
-      <c r="BB22" s="25"/>
-      <c r="BC22" s="25"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="25"/>
-      <c r="BG22" s="25"/>
-      <c r="BH22" s="25"/>
-      <c r="BI22" s="25"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="25"/>
-      <c r="BL22" s="25"/>
-      <c r="BM22" s="25"/>
-      <c r="BN22" s="25"/>
-      <c r="BO22" s="25"/>
-      <c r="BP22" s="25"/>
-      <c r="BQ22" s="25"/>
-      <c r="BR22" s="25"/>
-      <c r="BS22" s="25"/>
-      <c r="BT22" s="25"/>
-      <c r="BU22" s="25"/>
-      <c r="BV22" s="25"/>
-      <c r="BW22" s="25"/>
-      <c r="BX22" s="25"/>
-      <c r="BY22" s="25"/>
-      <c r="BZ22" s="25"/>
-      <c r="CA22" s="25"/>
-      <c r="CB22" s="25"/>
-      <c r="CC22" s="25"/>
-      <c r="CD22" s="25"/>
-      <c r="CE22" s="25"/>
-      <c r="CF22" s="25"/>
-      <c r="CG22" s="25"/>
-      <c r="CH22" s="25"/>
-      <c r="CI22" s="25"/>
-      <c r="CJ22" s="25"/>
-      <c r="CK22" s="25"/>
-      <c r="CL22" s="25"/>
-      <c r="CM22" s="25"/>
-      <c r="CN22" s="25"/>
-      <c r="CO22" s="25"/>
-      <c r="CP22" s="25"/>
-      <c r="CQ22" s="25"/>
-      <c r="CR22" s="25"/>
-      <c r="CS22" s="25"/>
-      <c r="CT22" s="25"/>
-      <c r="CU22" s="25"/>
-      <c r="CV22" s="25"/>
-      <c r="CW22" s="25"/>
-      <c r="CX22" s="25"/>
-      <c r="CY22" s="25"/>
-      <c r="CZ22" s="25"/>
-      <c r="DA22" s="25"/>
-      <c r="DB22" s="25"/>
-      <c r="DC22" s="25"/>
-      <c r="DD22" s="25"/>
-      <c r="DE22" s="25"/>
-      <c r="DF22" s="25"/>
-      <c r="DG22" s="25"/>
-      <c r="DH22" s="25"/>
-      <c r="DI22" s="25"/>
-      <c r="DJ22" s="25"/>
-      <c r="DK22" s="25"/>
-      <c r="DL22" s="25"/>
-      <c r="DM22" s="26"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="28"/>
+      <c r="BE22" s="28"/>
+      <c r="BF22" s="28"/>
+      <c r="BG22" s="28"/>
+      <c r="BH22" s="28"/>
+      <c r="BI22" s="28"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="28"/>
+      <c r="BL22" s="28"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="28"/>
+      <c r="BO22" s="28"/>
+      <c r="BP22" s="28"/>
+      <c r="BQ22" s="28"/>
+      <c r="BR22" s="28"/>
+      <c r="BS22" s="28"/>
+      <c r="BT22" s="28"/>
+      <c r="BU22" s="28"/>
+      <c r="BV22" s="28"/>
+      <c r="BW22" s="28"/>
+      <c r="BX22" s="28"/>
+      <c r="BY22" s="28"/>
+      <c r="BZ22" s="28"/>
+      <c r="CA22" s="28"/>
+      <c r="CB22" s="28"/>
+      <c r="CC22" s="28"/>
+      <c r="CD22" s="28"/>
+      <c r="CE22" s="28"/>
+      <c r="CF22" s="28"/>
+      <c r="CG22" s="28"/>
+      <c r="CH22" s="28"/>
+      <c r="CI22" s="28"/>
+      <c r="CJ22" s="28"/>
+      <c r="CK22" s="28"/>
+      <c r="CL22" s="28"/>
+      <c r="CM22" s="28"/>
+      <c r="CN22" s="28"/>
+      <c r="CO22" s="28"/>
+      <c r="CP22" s="28"/>
+      <c r="CQ22" s="28"/>
+      <c r="CR22" s="28"/>
+      <c r="CS22" s="28"/>
+      <c r="CT22" s="28"/>
+      <c r="CU22" s="28"/>
+      <c r="CV22" s="28"/>
+      <c r="CW22" s="28"/>
+      <c r="CX22" s="28"/>
+      <c r="CY22" s="28"/>
+      <c r="CZ22" s="28"/>
+      <c r="DA22" s="28"/>
+      <c r="DB22" s="28"/>
+      <c r="DC22" s="28"/>
+      <c r="DD22" s="28"/>
+      <c r="DE22" s="28"/>
+      <c r="DF22" s="28"/>
+      <c r="DG22" s="28"/>
+      <c r="DH22" s="28"/>
+      <c r="DI22" s="28"/>
+      <c r="DJ22" s="28"/>
+      <c r="DK22" s="28"/>
+      <c r="DL22" s="28"/>
+      <c r="DM22" s="29"/>
     </row>
-    <row r="23" spans="2:117" s="12" customFormat="1" ht="42" customHeight="1">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:117" s="9" customFormat="1" ht="42" customHeight="1">
+      <c r="B23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="19">
         <v>91</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="19">
         <f t="shared" ref="F23" si="35">E23+1</f>
         <v>92</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="19">
         <f t="shared" ref="G23" si="36">F23+1</f>
         <v>93</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H23" s="19">
         <f t="shared" ref="H23" si="37">G23+1</f>
         <v>94</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="19">
         <f t="shared" ref="I23" si="38">H23+1</f>
         <v>95</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="19">
         <f t="shared" ref="J23" si="39">I23+1</f>
         <v>96</v>
       </c>
-      <c r="K23" s="27">
+      <c r="K23" s="19">
         <f t="shared" ref="K23" si="40">J23+1</f>
         <v>97</v>
       </c>
-      <c r="L23" s="27">
+      <c r="L23" s="19">
         <f t="shared" ref="L23" si="41">K23+1</f>
         <v>98</v>
       </c>
-      <c r="M23" s="27">
+      <c r="M23" s="19">
         <f t="shared" ref="M23" si="42">L23+1</f>
         <v>99</v>
       </c>
-      <c r="N23" s="27">
+      <c r="N23" s="19">
         <f t="shared" ref="N23" si="43">M23+1</f>
         <v>100</v>
       </c>
-      <c r="O23" s="27">
+      <c r="O23" s="19">
         <f t="shared" ref="O23" si="44">N23+1</f>
         <v>101</v>
       </c>
-      <c r="P23" s="27">
+      <c r="P23" s="19">
         <f t="shared" ref="P23" si="45">O23+1</f>
         <v>102</v>
       </c>
-      <c r="Q23" s="27">
+      <c r="Q23" s="19">
         <f t="shared" ref="Q23" si="46">P23+1</f>
         <v>103</v>
       </c>
-      <c r="R23" s="27">
+      <c r="R23" s="19">
         <f t="shared" ref="R23" si="47">Q23+1</f>
         <v>104</v>
       </c>
-      <c r="S23" s="27">
+      <c r="S23" s="19">
         <f t="shared" ref="S23" si="48">R23+1</f>
         <v>105</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="19">
         <f t="shared" ref="T23" si="49">S23+1</f>
         <v>106</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="19">
         <f t="shared" ref="U23" si="50">T23+1</f>
         <v>107</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="19">
         <f t="shared" ref="V23" si="51">U23+1</f>
         <v>108</v>
       </c>
-      <c r="W23" s="27">
+      <c r="W23" s="19">
         <f t="shared" ref="W23" si="52">V23+1</f>
         <v>109</v>
       </c>
-      <c r="X23" s="27">
+      <c r="X23" s="19">
         <f t="shared" ref="X23" si="53">W23+1</f>
         <v>110</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="Y23" s="19">
         <f t="shared" ref="Y23" si="54">X23+1</f>
         <v>111</v>
       </c>
-      <c r="Z23" s="27">
+      <c r="Z23" s="19">
         <f t="shared" ref="Z23" si="55">Y23+1</f>
         <v>112</v>
       </c>
-      <c r="AA23" s="27">
+      <c r="AA23" s="19">
         <f t="shared" ref="AA23" si="56">Z23+1</f>
         <v>113</v>
       </c>
-      <c r="AB23" s="27">
+      <c r="AB23" s="19">
         <f t="shared" ref="AB23" si="57">AA23+1</f>
         <v>114</v>
       </c>
-      <c r="AC23" s="27">
+      <c r="AC23" s="19">
         <f t="shared" ref="AC23" si="58">AB23+1</f>
         <v>115</v>
       </c>
-      <c r="AD23" s="27">
+      <c r="AD23" s="19">
         <f t="shared" ref="AD23" si="59">AC23+1</f>
         <v>116</v>
       </c>
-      <c r="AE23" s="27">
+      <c r="AE23" s="19">
         <f t="shared" ref="AE23" si="60">AD23+1</f>
         <v>117</v>
       </c>
-      <c r="AF23" s="27">
+      <c r="AF23" s="19">
         <f t="shared" ref="AF23" si="61">AE23+1</f>
         <v>118</v>
       </c>
-      <c r="AG23" s="27">
+      <c r="AG23" s="19">
         <f t="shared" ref="AG23" si="62">AF23+1</f>
         <v>119</v>
       </c>
-      <c r="AH23" s="27">
+      <c r="AH23" s="19">
         <f t="shared" ref="AH23" si="63">AG23+1</f>
         <v>120</v>
       </c>
-      <c r="AI23" s="27">
+      <c r="AI23" s="19">
         <f t="shared" ref="AI23" si="64">AH23+1</f>
         <v>121</v>
       </c>
-      <c r="AJ23" s="27">
+      <c r="AJ23" s="19">
         <f t="shared" ref="AJ23" si="65">AI23+1</f>
         <v>122</v>
       </c>
-      <c r="AK23" s="27">
+      <c r="AK23" s="19">
         <f t="shared" ref="AK23" si="66">AJ23+1</f>
         <v>123</v>
       </c>
-      <c r="AL23" s="27">
+      <c r="AL23" s="19">
         <f t="shared" ref="AL23" si="67">AK23+1</f>
         <v>124</v>
       </c>
-      <c r="AM23" s="27">
+      <c r="AM23" s="19">
         <f t="shared" ref="AM23" si="68">AL23+1</f>
         <v>125</v>
       </c>
-      <c r="AN23" s="27">
+      <c r="AN23" s="19">
         <f t="shared" ref="AN23" si="69">AM23+1</f>
         <v>126</v>
       </c>
-      <c r="AO23" s="27">
+      <c r="AO23" s="19">
         <f t="shared" ref="AO23" si="70">AN23+1</f>
         <v>127</v>
       </c>
-      <c r="AP23" s="27">
+      <c r="AP23" s="19">
         <f t="shared" ref="AP23" si="71">AO23+1</f>
         <v>128</v>
       </c>
-      <c r="AQ23" s="27">
+      <c r="AQ23" s="19">
         <f t="shared" ref="AQ23" si="72">AP23+1</f>
         <v>129</v>
       </c>
-      <c r="AR23" s="27">
+      <c r="AR23" s="19">
         <f t="shared" ref="AR23" si="73">AQ23+1</f>
         <v>130</v>
       </c>
-      <c r="AS23" s="27">
+      <c r="AS23" s="19">
         <f t="shared" ref="AS23" si="74">AR23+1</f>
         <v>131</v>
       </c>
-      <c r="AT23" s="27">
+      <c r="AT23" s="19">
         <f t="shared" ref="AT23" si="75">AS23+1</f>
         <v>132</v>
       </c>
-      <c r="AU23" s="27">
+      <c r="AU23" s="19">
         <f t="shared" ref="AU23" si="76">AT23+1</f>
         <v>133</v>
       </c>
-      <c r="AV23" s="27">
+      <c r="AV23" s="19">
         <f t="shared" ref="AV23" si="77">AU23+1</f>
         <v>134</v>
       </c>
-      <c r="AW23" s="27">
+      <c r="AW23" s="19">
         <f t="shared" ref="AW23" si="78">AV23+1</f>
         <v>135</v>
       </c>
-      <c r="AX23" s="27">
+      <c r="AX23" s="19">
         <f t="shared" ref="AX23" si="79">AW23+1</f>
         <v>136</v>
       </c>
-      <c r="AY23" s="27">
+      <c r="AY23" s="19">
         <f t="shared" ref="AY23" si="80">AX23+1</f>
         <v>137</v>
       </c>
-      <c r="AZ23" s="27">
+      <c r="AZ23" s="19">
         <f t="shared" ref="AZ23" si="81">AY23+1</f>
         <v>138</v>
       </c>
-      <c r="BA23" s="27">
+      <c r="BA23" s="19">
         <f t="shared" ref="BA23" si="82">AZ23+1</f>
         <v>139</v>
       </c>
-      <c r="BB23" s="27">
+      <c r="BB23" s="19">
         <f t="shared" ref="BB23" si="83">BA23+1</f>
         <v>140</v>
       </c>
-      <c r="BC23" s="27">
+      <c r="BC23" s="19">
         <f t="shared" ref="BC23" si="84">BB23+1</f>
         <v>141</v>
       </c>
-      <c r="BD23" s="27">
+      <c r="BD23" s="19">
         <f t="shared" ref="BD23" si="85">BC23+1</f>
         <v>142</v>
       </c>
-      <c r="BE23" s="27">
+      <c r="BE23" s="19">
         <f t="shared" ref="BE23" si="86">BD23+1</f>
         <v>143</v>
       </c>
-      <c r="BF23" s="27">
+      <c r="BF23" s="19">
         <f t="shared" ref="BF23" si="87">BE23+1</f>
         <v>144</v>
       </c>
-      <c r="BG23" s="27">
+      <c r="BG23" s="19">
         <f t="shared" ref="BG23" si="88">BF23+1</f>
         <v>145</v>
       </c>
-      <c r="BH23" s="27">
+      <c r="BH23" s="19">
         <f t="shared" ref="BH23" si="89">BG23+1</f>
         <v>146</v>
       </c>
-      <c r="BI23" s="27">
+      <c r="BI23" s="19">
         <f t="shared" ref="BI23" si="90">BH23+1</f>
         <v>147</v>
       </c>
-      <c r="BJ23" s="27">
+      <c r="BJ23" s="19">
         <f t="shared" ref="BJ23" si="91">BI23+1</f>
         <v>148</v>
       </c>
-      <c r="BK23" s="27">
+      <c r="BK23" s="19">
         <f t="shared" ref="BK23" si="92">BJ23+1</f>
         <v>149</v>
       </c>
-      <c r="BL23" s="27">
+      <c r="BL23" s="19">
         <f t="shared" ref="BL23" si="93">BK23+1</f>
         <v>150</v>
       </c>
-      <c r="BM23" s="27">
+      <c r="BM23" s="19">
         <f t="shared" ref="BM23" si="94">BL23+1</f>
         <v>151</v>
       </c>
-      <c r="BN23" s="27">
+      <c r="BN23" s="19">
         <f t="shared" ref="BN23" si="95">BM23+1</f>
         <v>152</v>
       </c>
-      <c r="BO23" s="27">
+      <c r="BO23" s="19">
         <f t="shared" ref="BO23" si="96">BN23+1</f>
         <v>153</v>
       </c>
-      <c r="BP23" s="27">
+      <c r="BP23" s="19">
         <f t="shared" ref="BP23" si="97">BO23+1</f>
         <v>154</v>
       </c>
-      <c r="BQ23" s="27">
+      <c r="BQ23" s="19">
         <f t="shared" ref="BQ23" si="98">BP23+1</f>
         <v>155</v>
       </c>
-      <c r="BR23" s="27">
+      <c r="BR23" s="19">
         <f t="shared" ref="BR23" si="99">BQ23+1</f>
         <v>156</v>
       </c>
-      <c r="BS23" s="27">
+      <c r="BS23" s="19">
         <f t="shared" ref="BS23" si="100">BR23+1</f>
         <v>157</v>
       </c>
-      <c r="BT23" s="27">
+      <c r="BT23" s="19">
         <f t="shared" ref="BT23" si="101">BS23+1</f>
         <v>158</v>
       </c>
-      <c r="BU23" s="27">
+      <c r="BU23" s="19">
         <f t="shared" ref="BU23" si="102">BT23+1</f>
         <v>159</v>
       </c>
-      <c r="BV23" s="27">
+      <c r="BV23" s="19">
         <f t="shared" ref="BV23" si="103">BU23+1</f>
         <v>160</v>
       </c>
-      <c r="BW23" s="27">
+      <c r="BW23" s="19">
         <f t="shared" ref="BW23" si="104">BV23+1</f>
         <v>161</v>
       </c>
-      <c r="BX23" s="27">
+      <c r="BX23" s="19">
         <f t="shared" ref="BX23" si="105">BW23+1</f>
         <v>162</v>
       </c>
-      <c r="BY23" s="27">
+      <c r="BY23" s="19">
         <f t="shared" ref="BY23" si="106">BX23+1</f>
         <v>163</v>
       </c>
-      <c r="BZ23" s="27">
+      <c r="BZ23" s="19">
         <f t="shared" ref="BZ23" si="107">BY23+1</f>
         <v>164</v>
       </c>
-      <c r="CA23" s="27">
+      <c r="CA23" s="19">
         <f t="shared" ref="CA23" si="108">BZ23+1</f>
         <v>165</v>
       </c>
-      <c r="CB23" s="27">
+      <c r="CB23" s="19">
         <f t="shared" ref="CB23" si="109">CA23+1</f>
         <v>166</v>
       </c>
-      <c r="CC23" s="27">
+      <c r="CC23" s="19">
         <f t="shared" ref="CC23" si="110">CB23+1</f>
         <v>167</v>
       </c>
-      <c r="CD23" s="27">
+      <c r="CD23" s="19">
         <f t="shared" ref="CD23" si="111">CC23+1</f>
         <v>168</v>
       </c>
-      <c r="CE23" s="27">
+      <c r="CE23" s="19">
         <f t="shared" ref="CE23" si="112">CD23+1</f>
         <v>169</v>
       </c>
-      <c r="CF23" s="27">
+      <c r="CF23" s="19">
         <f t="shared" ref="CF23" si="113">CE23+1</f>
         <v>170</v>
       </c>
-      <c r="CG23" s="27">
+      <c r="CG23" s="19">
         <f t="shared" ref="CG23" si="114">CF23+1</f>
         <v>171</v>
       </c>
-      <c r="CH23" s="27">
+      <c r="CH23" s="19">
         <f t="shared" ref="CH23" si="115">CG23+1</f>
         <v>172</v>
       </c>
-      <c r="CI23" s="27">
+      <c r="CI23" s="19">
         <f t="shared" ref="CI23" si="116">CH23+1</f>
         <v>173</v>
       </c>
-      <c r="CJ23" s="27">
+      <c r="CJ23" s="19">
         <f t="shared" ref="CJ23" si="117">CI23+1</f>
         <v>174</v>
       </c>
-      <c r="CK23" s="27">
+      <c r="CK23" s="19">
         <f t="shared" ref="CK23" si="118">CJ23+1</f>
         <v>175</v>
       </c>
-      <c r="CL23" s="27">
+      <c r="CL23" s="19">
         <f t="shared" ref="CL23" si="119">CK23+1</f>
         <v>176</v>
       </c>
-      <c r="CM23" s="27">
+      <c r="CM23" s="19">
         <f t="shared" ref="CM23" si="120">CL23+1</f>
         <v>177</v>
       </c>
-      <c r="CN23" s="27">
+      <c r="CN23" s="19">
         <f t="shared" ref="CN23" si="121">CM23+1</f>
         <v>178</v>
       </c>
-      <c r="CO23" s="27">
+      <c r="CO23" s="19">
         <f t="shared" ref="CO23" si="122">CN23+1</f>
         <v>179</v>
       </c>
-      <c r="CP23" s="27">
+      <c r="CP23" s="19">
         <f t="shared" ref="CP23" si="123">CO23+1</f>
         <v>180</v>
       </c>
-      <c r="CQ23" s="27">
+      <c r="CQ23" s="19">
         <f t="shared" ref="CQ23" si="124">CP23+1</f>
         <v>181</v>
       </c>
-      <c r="CR23" s="27">
+      <c r="CR23" s="19">
         <f>CQ23+1</f>
         <v>182</v>
       </c>
-      <c r="CS23" s="27">
+      <c r="CS23" s="19">
         <f t="shared" ref="CS23" si="125">CR23+1</f>
         <v>183</v>
       </c>
-      <c r="CT23" s="27">
+      <c r="CT23" s="19">
         <f t="shared" ref="CT23" si="126">CS23+1</f>
         <v>184</v>
       </c>
-      <c r="CU23" s="27">
+      <c r="CU23" s="19">
         <f t="shared" ref="CU23" si="127">CT23+1</f>
         <v>185</v>
       </c>
-      <c r="CV23" s="27">
+      <c r="CV23" s="19">
         <f t="shared" ref="CV23" si="128">CU23+1</f>
         <v>186</v>
       </c>
-      <c r="CW23" s="27">
+      <c r="CW23" s="19">
         <f t="shared" ref="CW23" si="129">CV23+1</f>
         <v>187</v>
       </c>
-      <c r="CX23" s="27">
+      <c r="CX23" s="19">
         <f t="shared" ref="CX23" si="130">CW23+1</f>
         <v>188</v>
       </c>
-      <c r="CY23" s="27">
+      <c r="CY23" s="19">
         <f t="shared" ref="CY23" si="131">CX23+1</f>
         <v>189</v>
       </c>
-      <c r="CZ23" s="27">
+      <c r="CZ23" s="19">
         <f t="shared" ref="CZ23" si="132">CY23+1</f>
         <v>190</v>
       </c>
-      <c r="DA23" s="27">
+      <c r="DA23" s="19">
         <f t="shared" ref="DA23" si="133">CZ23+1</f>
         <v>191</v>
       </c>
-      <c r="DB23" s="27">
+      <c r="DB23" s="19">
         <f t="shared" ref="DB23" si="134">DA23+1</f>
         <v>192</v>
       </c>
-      <c r="DC23" s="27">
+      <c r="DC23" s="19">
         <f t="shared" ref="DC23" si="135">DB23+1</f>
         <v>193</v>
       </c>
-      <c r="DD23" s="27">
+      <c r="DD23" s="19">
         <f t="shared" ref="DD23" si="136">DC23+1</f>
         <v>194</v>
       </c>
-      <c r="DE23" s="27">
+      <c r="DE23" s="19">
         <f t="shared" ref="DE23" si="137">DD23+1</f>
         <v>195</v>
       </c>
-      <c r="DF23" s="27">
+      <c r="DF23" s="19">
         <f t="shared" ref="DF23" si="138">DE23+1</f>
         <v>196</v>
       </c>
-      <c r="DG23" s="27">
+      <c r="DG23" s="19">
         <f t="shared" ref="DG23" si="139">DF23+1</f>
         <v>197</v>
       </c>
-      <c r="DH23" s="27">
+      <c r="DH23" s="19">
         <f t="shared" ref="DH23" si="140">DG23+1</f>
         <v>198</v>
       </c>
-      <c r="DI23" s="27">
+      <c r="DI23" s="19">
         <f t="shared" ref="DI23" si="141">DH23+1</f>
         <v>199</v>
       </c>
-      <c r="DJ23" s="27">
+      <c r="DJ23" s="19">
         <f t="shared" ref="DJ23" si="142">DI23+1</f>
         <v>200</v>
       </c>
-      <c r="DK23" s="27">
+      <c r="DK23" s="19">
         <f t="shared" ref="DK23" si="143">DJ23+1</f>
         <v>201</v>
       </c>
-      <c r="DL23" s="27">
+      <c r="DL23" s="19">
         <f t="shared" ref="DL23" si="144">DK23+1</f>
         <v>202</v>
       </c>
-      <c r="DM23" s="28">
+      <c r="DM23" s="20">
         <f t="shared" ref="DM23" si="145">DL23+1</f>
         <v>203</v>
       </c>
     </row>
     <row r="24" spans="2:117" ht="42" customHeight="1">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="7">
         <v>9</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <v>4</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15" t="s">
+      <c r="S24" s="21"/>
+      <c r="T24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="W24" s="15" t="s">
+      <c r="W24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15" t="s">
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AE24" s="15" t="s">
+      <c r="AE24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AF24" s="15" t="s">
+      <c r="AF24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AG24" s="15" t="s">
+      <c r="AG24" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AH24" s="15"/>
-      <c r="AI24" s="15" t="s">
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AJ24" s="15" t="s">
+      <c r="AJ24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AK24" s="15" t="s">
+      <c r="AK24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AL24" s="15" t="s">
+      <c r="AL24" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15"/>
-      <c r="AR24" s="15"/>
-      <c r="AS24" s="15" t="s">
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AT24" s="15" t="s">
+      <c r="AT24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AU24" s="15" t="s">
+      <c r="AU24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AV24" s="15" t="s">
+      <c r="AV24" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AW24" s="15"/>
-      <c r="AX24" s="19" t="s">
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AY24" s="19" t="s">
+      <c r="AY24" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="AZ24" s="19" t="s">
+      <c r="AZ24" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="BA24" s="19" t="s">
+      <c r="BA24" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="15"/>
-      <c r="BG24" s="15"/>
-      <c r="BH24" s="19" t="s">
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BI24" s="19" t="s">
+      <c r="BI24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BJ24" s="19" t="s">
+      <c r="BJ24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BK24" s="19" t="s">
+      <c r="BK24" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BL24" s="15"/>
-      <c r="BM24" s="19" t="s">
+      <c r="BL24" s="21"/>
+      <c r="BM24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="BN24" s="19" t="s">
+      <c r="BN24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="BO24" s="19" t="s">
+      <c r="BO24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="BP24" s="19" t="s">
+      <c r="BP24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="BQ24" s="15"/>
-      <c r="BR24" s="15"/>
-      <c r="BS24" s="15"/>
-      <c r="BT24" s="15"/>
-      <c r="BU24" s="15"/>
-      <c r="BV24" s="15"/>
-      <c r="BW24" s="19" t="s">
+      <c r="BQ24" s="21"/>
+      <c r="BR24" s="21"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="21"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="21"/>
+      <c r="BW24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="BX24" s="19" t="s">
+      <c r="BX24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="BY24" s="19" t="s">
+      <c r="BY24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="BZ24" s="19" t="s">
+      <c r="BZ24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="CA24" s="15"/>
-      <c r="CB24" s="19" t="s">
+      <c r="CA24" s="21"/>
+      <c r="CB24" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="CC24" s="19" t="s">
+      <c r="CC24" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="CD24" s="19" t="s">
+      <c r="CD24" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="CE24" s="19" t="s">
+      <c r="CE24" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="CF24" s="15"/>
-      <c r="CG24" s="15"/>
-      <c r="CH24" s="15"/>
-      <c r="CI24" s="15"/>
-      <c r="CJ24" s="15"/>
-      <c r="CK24" s="15"/>
-      <c r="CL24" s="15"/>
-      <c r="CM24" s="15"/>
-      <c r="CN24" s="15"/>
-      <c r="CO24" s="15"/>
-      <c r="CP24" s="15"/>
-      <c r="CQ24" s="15"/>
-      <c r="CR24" s="15"/>
-      <c r="CS24" s="15"/>
-      <c r="CT24" s="15"/>
-      <c r="CU24" s="15"/>
-      <c r="CV24" s="15"/>
-      <c r="CW24" s="15"/>
-      <c r="CX24" s="15"/>
-      <c r="CY24" s="15"/>
-      <c r="CZ24" s="15"/>
-      <c r="DA24" s="15"/>
-      <c r="DB24" s="15"/>
-      <c r="DC24" s="15"/>
-      <c r="DD24" s="15"/>
-      <c r="DE24" s="15"/>
-      <c r="DF24" s="15"/>
-      <c r="DG24" s="15"/>
-      <c r="DH24" s="15"/>
-      <c r="DI24" s="15"/>
-      <c r="DJ24" s="15" t="s">
+      <c r="CF24" s="10"/>
+      <c r="CG24" s="10"/>
+      <c r="CH24" s="10"/>
+      <c r="CI24" s="10"/>
+      <c r="CJ24" s="10"/>
+      <c r="CK24" s="10"/>
+      <c r="CL24" s="10"/>
+      <c r="CM24" s="10"/>
+      <c r="CN24" s="10"/>
+      <c r="CO24" s="10"/>
+      <c r="CP24" s="10"/>
+      <c r="CQ24" s="10"/>
+      <c r="CR24" s="10"/>
+      <c r="CS24" s="10"/>
+      <c r="CT24" s="10"/>
+      <c r="CU24" s="10"/>
+      <c r="CV24" s="10"/>
+      <c r="CW24" s="10"/>
+      <c r="CX24" s="10"/>
+      <c r="CY24" s="10"/>
+      <c r="CZ24" s="10"/>
+      <c r="DA24" s="10"/>
+      <c r="DB24" s="10"/>
+      <c r="DC24" s="10"/>
+      <c r="DD24" s="10"/>
+      <c r="DE24" s="10"/>
+      <c r="DF24" s="10"/>
+      <c r="DG24" s="10"/>
+      <c r="DH24" s="10"/>
+      <c r="DI24" s="10"/>
+      <c r="DJ24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="DK24" s="15" t="s">
+      <c r="DK24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="DL24" s="15" t="s">
+      <c r="DL24" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="DM24" s="16" t="s">
+      <c r="DM24" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:117" ht="42" customHeight="1">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="7">
         <v>36</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="15"/>
-      <c r="Z25" s="15"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
-      <c r="AF25" s="15"/>
-      <c r="AG25" s="15"/>
-      <c r="AH25" s="15"/>
-      <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
-      <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
-      <c r="AQ25" s="15"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="15"/>
-      <c r="AW25" s="15"/>
-      <c r="AX25" s="15"/>
-      <c r="AY25" s="15"/>
-      <c r="AZ25" s="15"/>
-      <c r="BA25" s="15"/>
-      <c r="BB25" s="15"/>
-      <c r="BC25" s="15"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="15"/>
-      <c r="BI25" s="15"/>
-      <c r="BJ25" s="15"/>
-      <c r="BK25" s="15"/>
-      <c r="BL25" s="15"/>
-      <c r="BM25" s="15"/>
-      <c r="BN25" s="15"/>
-      <c r="BO25" s="15"/>
-      <c r="BP25" s="15"/>
-      <c r="BQ25" s="15"/>
-      <c r="BR25" s="15"/>
-      <c r="BS25" s="15"/>
-      <c r="BT25" s="15"/>
-      <c r="BU25" s="15"/>
-      <c r="BV25" s="15"/>
-      <c r="BW25" s="15"/>
-      <c r="BX25" s="15"/>
-      <c r="BY25" s="15"/>
-      <c r="BZ25" s="15"/>
-      <c r="CA25" s="15"/>
-      <c r="CB25" s="15"/>
-      <c r="CC25" s="15"/>
-      <c r="CD25" s="15"/>
-      <c r="CE25" s="15"/>
-      <c r="CF25" s="15"/>
-      <c r="CG25" s="15"/>
-      <c r="CH25" s="15"/>
-      <c r="CI25" s="15"/>
-      <c r="CJ25" s="15"/>
-      <c r="CK25" s="15"/>
-      <c r="CL25" s="2" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="10"/>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="10"/>
+      <c r="BF25" s="10"/>
+      <c r="BG25" s="10"/>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
+      <c r="BK25" s="10"/>
+      <c r="BL25" s="10"/>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
+      <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
+      <c r="BS25" s="10"/>
+      <c r="BT25" s="10"/>
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
+      <c r="BY25" s="10"/>
+      <c r="BZ25" s="10"/>
+      <c r="CA25" s="10"/>
+      <c r="CB25" s="10"/>
+      <c r="CC25" s="10"/>
+      <c r="CD25" s="10"/>
+      <c r="CE25" s="10"/>
+      <c r="CF25" s="10"/>
+      <c r="CG25" s="10"/>
+      <c r="CH25" s="10"/>
+      <c r="CI25" s="10"/>
+      <c r="CJ25" s="10"/>
+      <c r="CK25" s="10"/>
+      <c r="CL25" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CM25" s="2" t="s">
+      <c r="CM25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CN25" s="2" t="s">
+      <c r="CN25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CO25" s="2" t="s">
+      <c r="CO25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CP25" s="2" t="s">
+      <c r="CP25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CQ25" s="2" t="s">
+      <c r="CQ25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CR25" s="2" t="s">
+      <c r="CR25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CS25" s="2" t="s">
+      <c r="CS25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CT25" s="2" t="s">
+      <c r="CT25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CU25" s="2" t="s">
+      <c r="CU25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CV25" s="2" t="s">
+      <c r="CV25" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CW25" s="2" t="s">
+      <c r="CW25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CX25" s="2" t="s">
+      <c r="CX25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CY25" s="2" t="s">
+      <c r="CY25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CZ25" s="2" t="s">
+      <c r="CZ25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DA25" s="2" t="s">
+      <c r="DA25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DB25" s="2" t="s">
+      <c r="DB25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DC25" s="2" t="s">
+      <c r="DC25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DD25" s="2" t="s">
+      <c r="DD25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DE25" s="2" t="s">
+      <c r="DE25" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DF25" s="2" t="s">
+      <c r="DF25" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DG25" s="2" t="s">
+      <c r="DG25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="DH25" s="2" t="s">
+      <c r="DH25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="DI25" s="2" t="s">
+      <c r="DI25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="DJ25" s="15"/>
-      <c r="DK25" s="15"/>
-      <c r="DL25" s="15"/>
-      <c r="DM25" s="16"/>
+      <c r="DJ25" s="10"/>
+      <c r="DK25" s="10"/>
+      <c r="DL25" s="10"/>
+      <c r="DM25" s="11"/>
     </row>
     <row r="26" spans="2:117" ht="42" customHeight="1">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="7">
         <v>36</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15" t="s">
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15" t="s">
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15" t="s">
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
-      <c r="AQ26" s="15"/>
-      <c r="AR26" s="15"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="15"/>
-      <c r="AW26" s="15" t="s">
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AX26" s="15"/>
-      <c r="AY26" s="15"/>
-      <c r="AZ26" s="15"/>
-      <c r="BA26" s="15"/>
-      <c r="BB26" s="19" t="s">
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="BC26" s="15"/>
-      <c r="BD26" s="15"/>
-      <c r="BE26" s="15"/>
-      <c r="BF26" s="15"/>
-      <c r="BG26" s="15"/>
-      <c r="BH26" s="15"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="15"/>
-      <c r="BL26" s="19" t="s">
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="BM26" s="15"/>
-      <c r="BN26" s="15"/>
-      <c r="BO26" s="15"/>
-      <c r="BP26" s="15"/>
-      <c r="BQ26" s="19" t="s">
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BR26" s="15"/>
-      <c r="BS26" s="15"/>
-      <c r="BT26" s="15"/>
-      <c r="BU26" s="15"/>
-      <c r="BV26" s="15"/>
-      <c r="BW26" s="15"/>
-      <c r="BX26" s="15"/>
-      <c r="BY26" s="15"/>
-      <c r="BZ26" s="15"/>
-      <c r="CA26" s="19" t="s">
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="CB26" s="15"/>
-      <c r="CC26" s="15"/>
-      <c r="CD26" s="15"/>
-      <c r="CE26" s="15"/>
-      <c r="CF26" s="19" t="s">
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="10"/>
+      <c r="CD26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="CG26" s="15"/>
-      <c r="CH26" s="15"/>
-      <c r="CI26" s="15"/>
-      <c r="CJ26" s="15"/>
-      <c r="CK26" s="15"/>
-      <c r="CL26" s="15"/>
-      <c r="CM26" s="15"/>
-      <c r="CN26" s="15"/>
-      <c r="CO26" s="15"/>
-      <c r="CP26" s="15"/>
-      <c r="CQ26" s="15"/>
-      <c r="CR26" s="15"/>
-      <c r="CS26" s="15"/>
-      <c r="CT26" s="15"/>
-      <c r="CU26" s="15"/>
-      <c r="CV26" s="15"/>
-      <c r="CW26" s="15"/>
-      <c r="CX26" s="15"/>
-      <c r="CY26" s="15"/>
-      <c r="CZ26" s="15"/>
-      <c r="DA26" s="15"/>
-      <c r="DB26" s="15"/>
-      <c r="DC26" s="15"/>
-      <c r="DD26" s="15"/>
-      <c r="DE26" s="15"/>
-      <c r="DF26" s="15"/>
-      <c r="DG26" s="15"/>
-      <c r="DH26" s="15"/>
-      <c r="DI26" s="15"/>
-      <c r="DJ26" s="15"/>
-      <c r="DK26" s="15"/>
-      <c r="DL26" s="15"/>
-      <c r="DM26" s="16"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="10"/>
+      <c r="CJ26" s="10"/>
+      <c r="CK26" s="10"/>
+      <c r="CL26" s="10"/>
+      <c r="CM26" s="10"/>
+      <c r="CN26" s="10"/>
+      <c r="CO26" s="10"/>
+      <c r="CP26" s="10"/>
+      <c r="CQ26" s="10"/>
+      <c r="CR26" s="10"/>
+      <c r="CS26" s="10"/>
+      <c r="CT26" s="10"/>
+      <c r="CU26" s="10"/>
+      <c r="CV26" s="10"/>
+      <c r="CW26" s="10"/>
+      <c r="CX26" s="10"/>
+      <c r="CY26" s="10"/>
+      <c r="CZ26" s="10"/>
+      <c r="DA26" s="10"/>
+      <c r="DB26" s="10"/>
+      <c r="DC26" s="10"/>
+      <c r="DD26" s="10"/>
+      <c r="DE26" s="10"/>
+      <c r="DF26" s="10"/>
+      <c r="DG26" s="10"/>
+      <c r="DH26" s="10"/>
+      <c r="DI26" s="10"/>
+      <c r="DJ26" s="10"/>
+      <c r="DK26" s="10"/>
+      <c r="DL26" s="10"/>
+      <c r="DM26" s="11"/>
     </row>
     <row r="27" spans="2:117" ht="42" customHeight="1">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <v>5</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15" t="s">
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="U27" s="15" t="s">
+      <c r="U27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="V27" s="15" t="s">
+      <c r="V27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="W27" s="15" t="s">
+      <c r="W27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15" t="s">
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AJ27" s="15" t="s">
+      <c r="AJ27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AK27" s="15" t="s">
+      <c r="AK27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AL27" s="15" t="s">
+      <c r="AL27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AM27" s="15" t="s">
+      <c r="AM27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="15"/>
-      <c r="AP27" s="15"/>
-      <c r="AQ27" s="15"/>
-      <c r="AR27" s="15"/>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="15"/>
-      <c r="AW27" s="15"/>
-      <c r="AX27" s="19" t="s">
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AY27" s="19" t="s">
+      <c r="AY27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="AZ27" s="19" t="s">
+      <c r="AZ27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BA27" s="19" t="s">
+      <c r="BA27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BB27" s="19" t="s">
+      <c r="BB27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="BC27" s="15"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
-      <c r="BI27" s="15"/>
-      <c r="BJ27" s="15"/>
-      <c r="BK27" s="15"/>
-      <c r="BL27" s="15"/>
-      <c r="BM27" s="19" t="s">
+      <c r="BC27" s="10"/>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="10"/>
+      <c r="BF27" s="10"/>
+      <c r="BG27" s="10"/>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
+      <c r="BK27" s="10"/>
+      <c r="BL27" s="10"/>
+      <c r="BM27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BN27" s="19" t="s">
+      <c r="BN27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BO27" s="19" t="s">
+      <c r="BO27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BP27" s="19" t="s">
+      <c r="BP27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BQ27" s="19" t="s">
+      <c r="BQ27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="BR27" s="15"/>
-      <c r="BS27" s="15"/>
-      <c r="BT27" s="15"/>
-      <c r="BU27" s="15"/>
-      <c r="BV27" s="15"/>
-      <c r="BW27" s="15"/>
-      <c r="BX27" s="15"/>
-      <c r="BY27" s="15"/>
-      <c r="BZ27" s="15"/>
-      <c r="CA27" s="15"/>
-      <c r="CB27" s="19" t="s">
+      <c r="BR27" s="10"/>
+      <c r="BS27" s="10"/>
+      <c r="BT27" s="10"/>
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
+      <c r="BY27" s="10"/>
+      <c r="BZ27" s="10"/>
+      <c r="CA27" s="10"/>
+      <c r="CB27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="CC27" s="19" t="s">
+      <c r="CC27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="CD27" s="19" t="s">
+      <c r="CD27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="CE27" s="19" t="s">
+      <c r="CE27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="CF27" s="19" t="s">
+      <c r="CF27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="CG27" s="15"/>
-      <c r="CH27" s="15"/>
-      <c r="CI27" s="15"/>
-      <c r="CJ27" s="15"/>
-      <c r="CK27" s="15"/>
-      <c r="CL27" s="15"/>
-      <c r="CM27" s="15"/>
-      <c r="CN27" s="15"/>
-      <c r="CO27" s="15"/>
-      <c r="CP27" s="15"/>
-      <c r="CQ27" s="15"/>
-      <c r="CR27" s="15"/>
-      <c r="CS27" s="15"/>
-      <c r="CT27" s="15"/>
-      <c r="CU27" s="15"/>
-      <c r="CV27" s="15"/>
-      <c r="CW27" s="15"/>
-      <c r="CX27" s="15"/>
-      <c r="CY27" s="15"/>
-      <c r="CZ27" s="15"/>
-      <c r="DA27" s="15"/>
-      <c r="DB27" s="15"/>
-      <c r="DC27" s="15"/>
-      <c r="DD27" s="15"/>
-      <c r="DE27" s="15"/>
-      <c r="DF27" s="15"/>
-      <c r="DG27" s="15"/>
-      <c r="DH27" s="15"/>
-      <c r="DI27" s="15"/>
-      <c r="DJ27" s="15"/>
-      <c r="DK27" s="15"/>
-      <c r="DL27" s="15"/>
-      <c r="DM27" s="16"/>
+      <c r="CG27" s="10"/>
+      <c r="CH27" s="10"/>
+      <c r="CI27" s="10"/>
+      <c r="CJ27" s="10"/>
+      <c r="CK27" s="10"/>
+      <c r="CL27" s="10"/>
+      <c r="CM27" s="10"/>
+      <c r="CN27" s="10"/>
+      <c r="CO27" s="10"/>
+      <c r="CP27" s="10"/>
+      <c r="CQ27" s="10"/>
+      <c r="CR27" s="10"/>
+      <c r="CS27" s="10"/>
+      <c r="CT27" s="10"/>
+      <c r="CU27" s="10"/>
+      <c r="CV27" s="10"/>
+      <c r="CW27" s="10"/>
+      <c r="CX27" s="10"/>
+      <c r="CY27" s="10"/>
+      <c r="CZ27" s="10"/>
+      <c r="DA27" s="10"/>
+      <c r="DB27" s="10"/>
+      <c r="DC27" s="10"/>
+      <c r="DD27" s="10"/>
+      <c r="DE27" s="10"/>
+      <c r="DF27" s="10"/>
+      <c r="DG27" s="10"/>
+      <c r="DH27" s="10"/>
+      <c r="DI27" s="10"/>
+      <c r="DJ27" s="10"/>
+      <c r="DK27" s="10"/>
+      <c r="DL27" s="10"/>
+      <c r="DM27" s="11"/>
     </row>
     <row r="28" spans="2:117" ht="42" customHeight="1" thickBot="1">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="15">
         <v>6</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="15">
         <v>5</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="22" t="s">
+      <c r="K28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="L28" s="22" t="s">
+      <c r="L28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M28" s="22" t="s">
+      <c r="M28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="P28" s="22" t="s">
+      <c r="P28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="Q28" s="22" t="s">
+      <c r="Q28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="R28" s="22" t="s">
+      <c r="R28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S28" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22" t="s">
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="Z28" s="22" t="s">
+      <c r="Z28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AA28" s="22" t="s">
+      <c r="AA28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AB28" s="22" t="s">
+      <c r="AB28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AC28" s="22" t="s">
+      <c r="AC28" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="AD28" s="22" t="s">
+      <c r="AD28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AE28" s="22" t="s">
+      <c r="AE28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AF28" s="22" t="s">
+      <c r="AF28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AG28" s="22" t="s">
+      <c r="AG28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AH28" s="22" t="s">
+      <c r="AH28" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="22"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22" t="s">
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AO28" s="22" t="s">
+      <c r="AO28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AP28" s="22" t="s">
+      <c r="AP28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AQ28" s="22" t="s">
+      <c r="AQ28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AR28" s="22" t="s">
+      <c r="AR28" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="AS28" s="23" t="s">
+      <c r="AS28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AT28" s="23" t="s">
+      <c r="AT28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AU28" s="23" t="s">
+      <c r="AU28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AV28" s="23" t="s">
+      <c r="AV28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AW28" s="23" t="s">
+      <c r="AW28" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22" t="s">
+      <c r="AX28" s="16"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="16"/>
+      <c r="BA28" s="16"/>
+      <c r="BB28" s="16"/>
+      <c r="BC28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BD28" s="22" t="s">
+      <c r="BD28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BE28" s="22" t="s">
+      <c r="BE28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BF28" s="22" t="s">
+      <c r="BF28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BG28" s="22" t="s">
+      <c r="BG28" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BH28" s="23" t="s">
+      <c r="BH28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="BI28" s="23" t="s">
+      <c r="BI28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="BJ28" s="23" t="s">
+      <c r="BJ28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="BK28" s="23" t="s">
+      <c r="BK28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="BL28" s="23" t="s">
+      <c r="BL28" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="22"/>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="22" t="s">
+      <c r="BM28" s="16"/>
+      <c r="BN28" s="16"/>
+      <c r="BO28" s="16"/>
+      <c r="BP28" s="16"/>
+      <c r="BQ28" s="16"/>
+      <c r="BR28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BS28" s="22" t="s">
+      <c r="BS28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BT28" s="22" t="s">
+      <c r="BT28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BU28" s="22" t="s">
+      <c r="BU28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BV28" s="22" t="s">
+      <c r="BV28" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="BW28" s="23" t="s">
+      <c r="BW28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BX28" s="23" t="s">
+      <c r="BX28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BY28" s="23" t="s">
+      <c r="BY28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="BZ28" s="23" t="s">
+      <c r="BZ28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CA28" s="23" t="s">
+      <c r="CA28" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22"/>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="23" t="s">
+      <c r="CB28" s="16"/>
+      <c r="CC28" s="16"/>
+      <c r="CD28" s="16"/>
+      <c r="CE28" s="16"/>
+      <c r="CF28" s="16"/>
+      <c r="CG28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="CH28" s="23" t="s">
+      <c r="CH28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="CI28" s="23" t="s">
+      <c r="CI28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="CJ28" s="23" t="s">
+      <c r="CJ28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="CK28" s="23" t="s">
+      <c r="CK28" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="CL28" s="22"/>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
-      <c r="CP28" s="22"/>
-      <c r="CQ28" s="22"/>
-      <c r="CR28" s="22"/>
-      <c r="CS28" s="22"/>
-      <c r="CT28" s="22"/>
-      <c r="CU28" s="22"/>
-      <c r="CV28" s="22"/>
-      <c r="CW28" s="22"/>
-      <c r="CX28" s="22"/>
-      <c r="CY28" s="22"/>
-      <c r="CZ28" s="22"/>
-      <c r="DA28" s="22"/>
-      <c r="DB28" s="22"/>
-      <c r="DC28" s="22"/>
-      <c r="DD28" s="22"/>
-      <c r="DE28" s="22"/>
-      <c r="DF28" s="22"/>
-      <c r="DG28" s="22"/>
-      <c r="DH28" s="22"/>
-      <c r="DI28" s="22"/>
-      <c r="DJ28" s="22"/>
-      <c r="DK28" s="22"/>
-      <c r="DL28" s="22"/>
-      <c r="DM28" s="24"/>
+      <c r="CL28" s="16"/>
+      <c r="CM28" s="16"/>
+      <c r="CN28" s="16"/>
+      <c r="CO28" s="16"/>
+      <c r="CP28" s="16"/>
+      <c r="CQ28" s="16"/>
+      <c r="CR28" s="16"/>
+      <c r="CS28" s="16"/>
+      <c r="CT28" s="16"/>
+      <c r="CU28" s="16"/>
+      <c r="CV28" s="16"/>
+      <c r="CW28" s="16"/>
+      <c r="CX28" s="16"/>
+      <c r="CY28" s="16"/>
+      <c r="CZ28" s="16"/>
+      <c r="DA28" s="16"/>
+      <c r="DB28" s="16"/>
+      <c r="DC28" s="16"/>
+      <c r="DD28" s="16"/>
+      <c r="DE28" s="16"/>
+      <c r="DF28" s="16"/>
+      <c r="DG28" s="16"/>
+      <c r="DH28" s="16"/>
+      <c r="DI28" s="16"/>
+      <c r="DJ28" s="16"/>
+      <c r="DK28" s="16"/>
+      <c r="DL28" s="16"/>
+      <c r="DM28" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -1498,18 +1498,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1523,6 +1511,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2555,7 +2555,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AO26" sqref="AO26"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
@@ -2569,123 +2569,123 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
-      <c r="BG1" s="26"/>
-      <c r="BH1" s="26"/>
-      <c r="BI1" s="26"/>
-      <c r="BJ1" s="26"/>
-      <c r="BK1" s="26"/>
-      <c r="BL1" s="26"/>
-      <c r="BM1" s="26"/>
-      <c r="BN1" s="26"/>
-      <c r="BO1" s="26"/>
-      <c r="BP1" s="26"/>
-      <c r="BQ1" s="26"/>
-      <c r="BR1" s="26"/>
-      <c r="BS1" s="26"/>
-      <c r="BT1" s="26"/>
-      <c r="BU1" s="26"/>
-      <c r="BV1" s="26"/>
-      <c r="BW1" s="26"/>
-      <c r="BX1" s="26"/>
-      <c r="BY1" s="26"/>
-      <c r="BZ1" s="26"/>
-      <c r="CA1" s="26"/>
-      <c r="CB1" s="26"/>
-      <c r="CC1" s="26"/>
-      <c r="CD1" s="26"/>
-      <c r="CE1" s="26"/>
-      <c r="CF1" s="26"/>
-      <c r="CG1" s="26"/>
-      <c r="CH1" s="26"/>
-      <c r="CI1" s="26"/>
-      <c r="CJ1" s="26"/>
-      <c r="CK1" s="26"/>
-      <c r="CL1" s="26"/>
-      <c r="CM1" s="26"/>
-      <c r="CN1" s="26"/>
-      <c r="CO1" s="26"/>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26"/>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
-      <c r="CW1" s="26"/>
-      <c r="CX1" s="26"/>
-      <c r="CY1" s="26"/>
-      <c r="CZ1" s="26"/>
-      <c r="DA1" s="26"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26"/>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26"/>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="26"/>
-      <c r="DO1" s="27"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
+      <c r="BE1" s="31"/>
+      <c r="BF1" s="31"/>
+      <c r="BG1" s="31"/>
+      <c r="BH1" s="31"/>
+      <c r="BI1" s="31"/>
+      <c r="BJ1" s="31"/>
+      <c r="BK1" s="31"/>
+      <c r="BL1" s="31"/>
+      <c r="BM1" s="31"/>
+      <c r="BN1" s="31"/>
+      <c r="BO1" s="31"/>
+      <c r="BP1" s="31"/>
+      <c r="BQ1" s="31"/>
+      <c r="BR1" s="31"/>
+      <c r="BS1" s="31"/>
+      <c r="BT1" s="31"/>
+      <c r="BU1" s="31"/>
+      <c r="BV1" s="31"/>
+      <c r="BW1" s="31"/>
+      <c r="BX1" s="31"/>
+      <c r="BY1" s="31"/>
+      <c r="BZ1" s="31"/>
+      <c r="CA1" s="31"/>
+      <c r="CB1" s="31"/>
+      <c r="CC1" s="31"/>
+      <c r="CD1" s="31"/>
+      <c r="CE1" s="31"/>
+      <c r="CF1" s="31"/>
+      <c r="CG1" s="31"/>
+      <c r="CH1" s="31"/>
+      <c r="CI1" s="31"/>
+      <c r="CJ1" s="31"/>
+      <c r="CK1" s="31"/>
+      <c r="CL1" s="31"/>
+      <c r="CM1" s="31"/>
+      <c r="CN1" s="31"/>
+      <c r="CO1" s="31"/>
+      <c r="CP1" s="31"/>
+      <c r="CQ1" s="31"/>
+      <c r="CR1" s="31"/>
+      <c r="CS1" s="31"/>
+      <c r="CT1" s="31"/>
+      <c r="CU1" s="31"/>
+      <c r="CV1" s="31"/>
+      <c r="CW1" s="31"/>
+      <c r="CX1" s="31"/>
+      <c r="CY1" s="31"/>
+      <c r="CZ1" s="31"/>
+      <c r="DA1" s="31"/>
+      <c r="DB1" s="31"/>
+      <c r="DC1" s="31"/>
+      <c r="DD1" s="31"/>
+      <c r="DE1" s="31"/>
+      <c r="DF1" s="31"/>
+      <c r="DG1" s="31"/>
+      <c r="DH1" s="31"/>
+      <c r="DI1" s="31"/>
+      <c r="DJ1" s="31"/>
+      <c r="DK1" s="31"/>
+      <c r="DL1" s="31"/>
+      <c r="DM1" s="31"/>
+      <c r="DN1" s="31"/>
+      <c r="DO1" s="32"/>
       <c r="DP1" s="22"/>
       <c r="DQ1" s="22"/>
       <c r="DR1" s="22"/>
@@ -3164,13 +3164,13 @@
       <c r="DR2" s="22"/>
     </row>
     <row r="3" spans="2:122" ht="42" customHeight="1">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="34">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="34">
         <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3360,9 +3360,9 @@
       <c r="DR3" s="23"/>
     </row>
     <row r="4" spans="2:122" ht="42" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
@@ -3539,9 +3539,9 @@
       <c r="DR4" s="23"/>
     </row>
     <row r="5" spans="2:122" ht="42" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -3722,9 +3722,9 @@
       <c r="DR5" s="23"/>
     </row>
     <row r="6" spans="2:122" ht="42" customHeight="1">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -3892,9 +3892,9 @@
       <c r="DR6" s="23"/>
     </row>
     <row r="7" spans="2:122" ht="42" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4061,9 +4061,9 @@
       <c r="DR7" s="23"/>
     </row>
     <row r="8" spans="2:122" ht="42" customHeight="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -4231,13 +4231,13 @@
       <c r="DR8" s="23"/>
     </row>
     <row r="9" spans="2:122" ht="42" customHeight="1">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="29">
-        <v>9</v>
-      </c>
-      <c r="D9" s="29">
+      <c r="C9" s="34">
+        <v>15</v>
+      </c>
+      <c r="D9" s="34">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
@@ -4418,9 +4418,9 @@
       <c r="DR9" s="23"/>
     </row>
     <row r="10" spans="2:122" ht="42" customHeight="1">
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4550,9 +4550,9 @@
       <c r="DR10" s="23"/>
     </row>
     <row r="11" spans="2:122" ht="42" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4684,9 +4684,9 @@
       <c r="DR11" s="23"/>
     </row>
     <row r="12" spans="2:122" ht="42" customHeight="1">
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4716,13 +4716,13 @@
       <c r="AE12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="33" t="s">
+      <c r="AF12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="33" t="s">
+      <c r="AG12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="33" t="s">
+      <c r="AH12" s="29" t="s">
         <v>6</v>
       </c>
       <c r="AI12" s="18"/>
@@ -4815,9 +4815,9 @@
       <c r="DR12" s="23"/>
     </row>
     <row r="13" spans="2:122" ht="42" customHeight="1">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4948,9 +4948,9 @@
       <c r="DR13" s="23"/>
     </row>
     <row r="14" spans="2:122" ht="42" customHeight="1">
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4982,13 +4982,13 @@
       <c r="AG14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="33" t="s">
+      <c r="AH14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="33" t="s">
+      <c r="AI14" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="33" t="s">
+      <c r="AJ14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="AK14" s="18"/>
@@ -5185,7 +5185,7 @@
       <c r="BC15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BD15" s="30" t="s">
+      <c r="BD15" s="26" t="s">
         <v>166</v>
       </c>
       <c r="BE15" s="1" t="s">
@@ -5303,22 +5303,22 @@
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
-      <c r="CV15" s="31" t="s">
+      <c r="CV15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="CW15" s="31" t="s">
+      <c r="CW15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="CX15" s="31" t="s">
+      <c r="CX15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="CY15" s="31" t="s">
+      <c r="CY15" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="CZ15" s="32" t="s">
+      <c r="CZ15" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="DA15" s="32" t="s">
+      <c r="DA15" s="28" t="s">
         <v>104</v>
       </c>
       <c r="DB15" s="9"/>
@@ -5352,10 +5352,10 @@
       <c r="DL15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="DM15" s="30" t="s">
+      <c r="DM15" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="DN15" s="30" t="s">
+      <c r="DN15" s="26" t="s">
         <v>123</v>
       </c>
       <c r="DO15" s="10"/>
@@ -5527,121 +5527,121 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="26"/>
-      <c r="BA18" s="26"/>
-      <c r="BB18" s="26"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="26"/>
-      <c r="BE18" s="26"/>
-      <c r="BF18" s="26"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
-      <c r="BL18" s="26"/>
-      <c r="BM18" s="26"/>
-      <c r="BN18" s="26"/>
-      <c r="BO18" s="26"/>
-      <c r="BP18" s="26"/>
-      <c r="BQ18" s="26"/>
-      <c r="BR18" s="26"/>
-      <c r="BS18" s="26"/>
-      <c r="BT18" s="26"/>
-      <c r="BU18" s="26"/>
-      <c r="BV18" s="26"/>
-      <c r="BW18" s="26"/>
-      <c r="BX18" s="26"/>
-      <c r="BY18" s="26"/>
-      <c r="BZ18" s="26"/>
-      <c r="CA18" s="26"/>
-      <c r="CB18" s="26"/>
-      <c r="CC18" s="26"/>
-      <c r="CD18" s="26"/>
-      <c r="CE18" s="26"/>
-      <c r="CF18" s="26"/>
-      <c r="CG18" s="26"/>
-      <c r="CH18" s="26"/>
-      <c r="CI18" s="26"/>
-      <c r="CJ18" s="26"/>
-      <c r="CK18" s="26"/>
-      <c r="CL18" s="26"/>
-      <c r="CM18" s="26"/>
-      <c r="CN18" s="26"/>
-      <c r="CO18" s="26"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="26"/>
-      <c r="CR18" s="26"/>
-      <c r="CS18" s="26"/>
-      <c r="CT18" s="26"/>
-      <c r="CU18" s="26"/>
-      <c r="CV18" s="26"/>
-      <c r="CW18" s="26"/>
-      <c r="CX18" s="26"/>
-      <c r="CY18" s="26"/>
-      <c r="CZ18" s="26"/>
-      <c r="DA18" s="26"/>
-      <c r="DB18" s="26"/>
-      <c r="DC18" s="26"/>
-      <c r="DD18" s="26"/>
-      <c r="DE18" s="26"/>
-      <c r="DF18" s="26"/>
-      <c r="DG18" s="26"/>
-      <c r="DH18" s="26"/>
-      <c r="DI18" s="26"/>
-      <c r="DJ18" s="26"/>
-      <c r="DK18" s="26"/>
-      <c r="DL18" s="26"/>
-      <c r="DM18" s="27"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="31"/>
+      <c r="AB18" s="31"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="31"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="31"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="31"/>
+      <c r="AO18" s="31"/>
+      <c r="AP18" s="31"/>
+      <c r="AQ18" s="31"/>
+      <c r="AR18" s="31"/>
+      <c r="AS18" s="31"/>
+      <c r="AT18" s="31"/>
+      <c r="AU18" s="31"/>
+      <c r="AV18" s="31"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="31"/>
+      <c r="AY18" s="31"/>
+      <c r="AZ18" s="31"/>
+      <c r="BA18" s="31"/>
+      <c r="BB18" s="31"/>
+      <c r="BC18" s="31"/>
+      <c r="BD18" s="31"/>
+      <c r="BE18" s="31"/>
+      <c r="BF18" s="31"/>
+      <c r="BG18" s="31"/>
+      <c r="BH18" s="31"/>
+      <c r="BI18" s="31"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="31"/>
+      <c r="BL18" s="31"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="31"/>
+      <c r="BO18" s="31"/>
+      <c r="BP18" s="31"/>
+      <c r="BQ18" s="31"/>
+      <c r="BR18" s="31"/>
+      <c r="BS18" s="31"/>
+      <c r="BT18" s="31"/>
+      <c r="BU18" s="31"/>
+      <c r="BV18" s="31"/>
+      <c r="BW18" s="31"/>
+      <c r="BX18" s="31"/>
+      <c r="BY18" s="31"/>
+      <c r="BZ18" s="31"/>
+      <c r="CA18" s="31"/>
+      <c r="CB18" s="31"/>
+      <c r="CC18" s="31"/>
+      <c r="CD18" s="31"/>
+      <c r="CE18" s="31"/>
+      <c r="CF18" s="31"/>
+      <c r="CG18" s="31"/>
+      <c r="CH18" s="31"/>
+      <c r="CI18" s="31"/>
+      <c r="CJ18" s="31"/>
+      <c r="CK18" s="31"/>
+      <c r="CL18" s="31"/>
+      <c r="CM18" s="31"/>
+      <c r="CN18" s="31"/>
+      <c r="CO18" s="31"/>
+      <c r="CP18" s="31"/>
+      <c r="CQ18" s="31"/>
+      <c r="CR18" s="31"/>
+      <c r="CS18" s="31"/>
+      <c r="CT18" s="31"/>
+      <c r="CU18" s="31"/>
+      <c r="CV18" s="31"/>
+      <c r="CW18" s="31"/>
+      <c r="CX18" s="31"/>
+      <c r="CY18" s="31"/>
+      <c r="CZ18" s="31"/>
+      <c r="DA18" s="31"/>
+      <c r="DB18" s="31"/>
+      <c r="DC18" s="31"/>
+      <c r="DD18" s="31"/>
+      <c r="DE18" s="31"/>
+      <c r="DF18" s="31"/>
+      <c r="DG18" s="31"/>
+      <c r="DH18" s="31"/>
+      <c r="DI18" s="31"/>
+      <c r="DJ18" s="31"/>
+      <c r="DK18" s="31"/>
+      <c r="DL18" s="31"/>
+      <c r="DM18" s="32"/>
     </row>
     <row r="19" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B19" s="20" t="s">
@@ -6111,7 +6111,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6">
         <v>4</v>
@@ -6314,7 +6314,7 @@
       <c r="DL20" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="DM20" s="34" t="s">
+      <c r="DM20" s="30" t="s">
         <v>100</v>
       </c>
     </row>
@@ -7054,6 +7054,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E1:DO1"/>
     <mergeCell ref="E18:DM18"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
@@ -7061,7 +7062,6 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E1:DO1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
   <si>
     <t>sincos</t>
   </si>
@@ -219,9 +219,6 @@
     <t>T05 x Z0</t>
   </si>
   <si>
-    <t>T06 x Z0</t>
-  </si>
-  <si>
     <t>JJT cyc 1</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
   </si>
   <si>
     <t>T05 x Z0 accum</t>
-  </si>
-  <si>
-    <t>T06 x Z0 accum</t>
   </si>
   <si>
     <t>JJT cyc 11</t>
@@ -728,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="691">
+  <cellStyleXfs count="781">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1420,8 +1414,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1492,12 +1576,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1525,8 +1603,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="691">
+  <cellStyles count="781">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1872,6 +1965,51 @@
     <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2217,6 +2355,51 @@
     <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2549,628 +2732,610 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DR24"/>
+  <dimension ref="A1:DM24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="4.1640625" style="11"/>
+    <col min="5" max="5" width="4.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="4.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:122" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="1" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31"/>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
-      <c r="BS1" s="31"/>
-      <c r="BT1" s="31"/>
-      <c r="BU1" s="31"/>
-      <c r="BV1" s="31"/>
-      <c r="BW1" s="31"/>
-      <c r="BX1" s="31"/>
-      <c r="BY1" s="31"/>
-      <c r="BZ1" s="31"/>
-      <c r="CA1" s="31"/>
-      <c r="CB1" s="31"/>
-      <c r="CC1" s="31"/>
-      <c r="CD1" s="31"/>
-      <c r="CE1" s="31"/>
-      <c r="CF1" s="31"/>
-      <c r="CG1" s="31"/>
-      <c r="CH1" s="31"/>
-      <c r="CI1" s="31"/>
-      <c r="CJ1" s="31"/>
-      <c r="CK1" s="31"/>
-      <c r="CL1" s="31"/>
-      <c r="CM1" s="31"/>
-      <c r="CN1" s="31"/>
-      <c r="CO1" s="31"/>
-      <c r="CP1" s="31"/>
-      <c r="CQ1" s="31"/>
-      <c r="CR1" s="31"/>
-      <c r="CS1" s="31"/>
-      <c r="CT1" s="31"/>
-      <c r="CU1" s="31"/>
-      <c r="CV1" s="31"/>
-      <c r="CW1" s="31"/>
-      <c r="CX1" s="31"/>
-      <c r="CY1" s="31"/>
-      <c r="CZ1" s="31"/>
-      <c r="DA1" s="31"/>
-      <c r="DB1" s="31"/>
-      <c r="DC1" s="31"/>
-      <c r="DD1" s="31"/>
-      <c r="DE1" s="31"/>
-      <c r="DF1" s="31"/>
-      <c r="DG1" s="31"/>
-      <c r="DH1" s="31"/>
-      <c r="DI1" s="31"/>
-      <c r="DJ1" s="31"/>
-      <c r="DK1" s="31"/>
-      <c r="DL1" s="31"/>
-      <c r="DM1" s="31"/>
-      <c r="DN1" s="31"/>
-      <c r="DO1" s="32"/>
-      <c r="DP1" s="22"/>
-      <c r="DQ1" s="22"/>
-      <c r="DR1" s="22"/>
+      <c r="E1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="29"/>
+      <c r="DD1" s="29"/>
+      <c r="DE1" s="29"/>
+      <c r="DF1" s="29"/>
+      <c r="DG1" s="29"/>
+      <c r="DH1" s="29"/>
+      <c r="DI1" s="29"/>
+      <c r="DJ1" s="29"/>
+      <c r="DK1" s="29"/>
+      <c r="DL1" s="30"/>
+      <c r="DM1" s="37"/>
     </row>
-    <row r="2" spans="2:122" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="25" t="s">
+    <row r="2" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="B2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="32">
         <v>1</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="32">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="32">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2" s="32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2" s="32">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="32">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="32">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="32">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2" s="32">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2" s="32">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2" s="32">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2" s="32">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2" s="32">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2" s="32">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="25">
+      <c r="AA2" s="32">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="25">
+      <c r="AB2" s="32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="32">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="25">
+      <c r="AD2" s="32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="25">
+      <c r="AE2" s="32">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="25">
+      <c r="AF2" s="32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="25">
+      <c r="AG2" s="32">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="25">
+      <c r="AH2" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="25">
+      <c r="AI2" s="32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="25">
+      <c r="AJ2" s="32">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="25">
+      <c r="AK2" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="25">
+      <c r="AL2" s="32">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="25">
+      <c r="AM2" s="32">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="25">
+      <c r="AN2" s="32">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="25">
+      <c r="AO2" s="32">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="25">
+      <c r="AP2" s="32">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="25">
+      <c r="AQ2" s="32">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="25">
+      <c r="AR2" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="25">
+      <c r="AS2" s="32">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="25">
+      <c r="AT2" s="32">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="25">
+      <c r="AU2" s="32">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="25">
+      <c r="AV2" s="32">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="25">
+      <c r="AW2" s="32">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="25">
+      <c r="AX2" s="32">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="25">
+      <c r="AY2" s="32">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="25">
+      <c r="AZ2" s="32">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="25">
+      <c r="BA2" s="32">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="25">
+      <c r="BB2" s="32">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="25">
+      <c r="BC2" s="32">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="25">
+      <c r="BD2" s="32">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="25">
+      <c r="BE2" s="32">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="25">
+      <c r="BF2" s="32">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="25">
+      <c r="BG2" s="32">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="25">
+      <c r="BH2" s="32">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="25">
+      <c r="BI2" s="32">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="25">
+      <c r="BJ2" s="32">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="25">
+      <c r="BK2" s="32">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="25">
+      <c r="BL2" s="32">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="25">
+      <c r="BM2" s="32">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="25">
+      <c r="BN2" s="32">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="25">
+      <c r="BO2" s="32">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="25">
+      <c r="BP2" s="32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="25">
+      <c r="BQ2" s="32">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="25">
+      <c r="BR2" s="32">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="25">
+      <c r="BS2" s="32">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="25">
+      <c r="BT2" s="32">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="25">
+      <c r="BU2" s="32">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="25">
+      <c r="BV2" s="32">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="25">
+      <c r="BW2" s="32">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="25">
+      <c r="BX2" s="32">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="25">
+      <c r="BY2" s="32">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="25">
+      <c r="BZ2" s="32">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="25">
+      <c r="CA2" s="32">
         <f t="shared" ref="CA2" si="2">BZ2+1</f>
         <v>75</v>
       </c>
-      <c r="CB2" s="25">
+      <c r="CB2" s="32">
         <f t="shared" ref="CB2" si="3">CA2+1</f>
         <v>76</v>
       </c>
-      <c r="CC2" s="25">
+      <c r="CC2" s="32">
         <f t="shared" ref="CC2" si="4">CB2+1</f>
         <v>77</v>
       </c>
-      <c r="CD2" s="25">
+      <c r="CD2" s="32">
         <f t="shared" ref="CD2" si="5">CC2+1</f>
         <v>78</v>
       </c>
-      <c r="CE2" s="25">
+      <c r="CE2" s="32">
         <f t="shared" ref="CE2" si="6">CD2+1</f>
         <v>79</v>
       </c>
-      <c r="CF2" s="25">
+      <c r="CF2" s="32">
         <f t="shared" ref="CF2" si="7">CE2+1</f>
         <v>80</v>
       </c>
-      <c r="CG2" s="25">
+      <c r="CG2" s="32">
         <f t="shared" ref="CG2" si="8">CF2+1</f>
         <v>81</v>
       </c>
-      <c r="CH2" s="25">
+      <c r="CH2" s="32">
         <f t="shared" ref="CH2" si="9">CG2+1</f>
         <v>82</v>
       </c>
-      <c r="CI2" s="25">
+      <c r="CI2" s="32">
         <f t="shared" ref="CI2" si="10">CH2+1</f>
         <v>83</v>
       </c>
-      <c r="CJ2" s="25">
+      <c r="CJ2" s="32">
         <f t="shared" ref="CJ2" si="11">CI2+1</f>
         <v>84</v>
       </c>
-      <c r="CK2" s="25">
+      <c r="CK2" s="32">
         <f t="shared" ref="CK2" si="12">CJ2+1</f>
         <v>85</v>
       </c>
-      <c r="CL2" s="25">
+      <c r="CL2" s="32">
         <f t="shared" ref="CL2" si="13">CK2+1</f>
         <v>86</v>
       </c>
-      <c r="CM2" s="25">
+      <c r="CM2" s="32">
         <f t="shared" ref="CM2" si="14">CL2+1</f>
         <v>87</v>
       </c>
-      <c r="CN2" s="25">
+      <c r="CN2" s="32">
         <f t="shared" ref="CN2" si="15">CM2+1</f>
         <v>88</v>
       </c>
-      <c r="CO2" s="25">
+      <c r="CO2" s="32">
         <f t="shared" ref="CO2" si="16">CN2+1</f>
         <v>89</v>
       </c>
-      <c r="CP2" s="25">
+      <c r="CP2" s="32">
         <f t="shared" ref="CP2" si="17">CO2+1</f>
         <v>90</v>
       </c>
-      <c r="CQ2" s="25">
+      <c r="CQ2" s="32">
         <f t="shared" ref="CQ2" si="18">CP2+1</f>
         <v>91</v>
       </c>
-      <c r="CR2" s="25">
+      <c r="CR2" s="32">
         <f t="shared" ref="CR2" si="19">CQ2+1</f>
         <v>92</v>
       </c>
-      <c r="CS2" s="25">
+      <c r="CS2" s="32">
         <f t="shared" ref="CS2" si="20">CR2+1</f>
         <v>93</v>
       </c>
-      <c r="CT2" s="25">
+      <c r="CT2" s="32">
         <f t="shared" ref="CT2" si="21">CS2+1</f>
         <v>94</v>
       </c>
-      <c r="CU2" s="25">
+      <c r="CU2" s="32">
         <f t="shared" ref="CU2" si="22">CT2+1</f>
         <v>95</v>
       </c>
-      <c r="CV2" s="25">
+      <c r="CV2" s="32">
         <f t="shared" ref="CV2" si="23">CU2+1</f>
         <v>96</v>
       </c>
-      <c r="CW2" s="25">
+      <c r="CW2" s="32">
         <f t="shared" ref="CW2" si="24">CV2+1</f>
         <v>97</v>
       </c>
-      <c r="CX2" s="25">
+      <c r="CX2" s="32">
         <f t="shared" ref="CX2" si="25">CW2+1</f>
         <v>98</v>
       </c>
-      <c r="CY2" s="25">
+      <c r="CY2" s="32">
         <f t="shared" ref="CY2" si="26">CX2+1</f>
         <v>99</v>
       </c>
-      <c r="CZ2" s="25">
+      <c r="CZ2" s="32">
         <f t="shared" ref="CZ2" si="27">CY2+1</f>
         <v>100</v>
       </c>
-      <c r="DA2" s="25">
+      <c r="DA2" s="32">
         <f t="shared" ref="DA2" si="28">CZ2+1</f>
         <v>101</v>
       </c>
-      <c r="DB2" s="25">
+      <c r="DB2" s="32">
         <f t="shared" ref="DB2" si="29">DA2+1</f>
         <v>102</v>
       </c>
-      <c r="DC2" s="25">
+      <c r="DC2" s="32">
         <f t="shared" ref="DC2" si="30">DB2+1</f>
         <v>103</v>
       </c>
-      <c r="DD2" s="25">
+      <c r="DD2" s="32">
         <f t="shared" ref="DD2" si="31">DC2+1</f>
         <v>104</v>
       </c>
-      <c r="DE2" s="25">
+      <c r="DE2" s="32">
         <f t="shared" ref="DE2" si="32">DD2+1</f>
         <v>105</v>
       </c>
-      <c r="DF2" s="25">
+      <c r="DF2" s="32">
         <f t="shared" ref="DF2" si="33">DE2+1</f>
         <v>106</v>
       </c>
-      <c r="DG2" s="25">
+      <c r="DG2" s="32">
         <f t="shared" ref="DG2" si="34">DF2+1</f>
         <v>107</v>
       </c>
-      <c r="DH2" s="25">
+      <c r="DH2" s="32">
         <f t="shared" ref="DH2" si="35">DG2+1</f>
         <v>108</v>
       </c>
-      <c r="DI2" s="25">
+      <c r="DI2" s="32">
         <f t="shared" ref="DI2" si="36">DH2+1</f>
         <v>109</v>
       </c>
-      <c r="DJ2" s="25">
+      <c r="DJ2" s="32">
         <f t="shared" ref="DJ2" si="37">DI2+1</f>
         <v>110</v>
       </c>
-      <c r="DK2" s="25">
+      <c r="DK2" s="32">
         <f t="shared" ref="DK2" si="38">DJ2+1</f>
         <v>111</v>
       </c>
-      <c r="DL2" s="25">
+      <c r="DL2" s="7">
         <f t="shared" ref="DL2" si="39">DK2+1</f>
         <v>112</v>
       </c>
-      <c r="DM2" s="25">
-        <f t="shared" ref="DM2" si="40">DL2+1</f>
-        <v>113</v>
-      </c>
-      <c r="DN2" s="25">
-        <f t="shared" ref="DN2" si="41">DM2+1</f>
-        <v>114</v>
-      </c>
-      <c r="DO2" s="7">
-        <f t="shared" ref="DO2" si="42">DN2+1</f>
-        <v>115</v>
-      </c>
-      <c r="DP2" s="22"/>
-      <c r="DQ2" s="22"/>
-      <c r="DR2" s="22"/>
+      <c r="DM2" s="22"/>
     </row>
-    <row r="3" spans="2:122" ht="42" customHeight="1">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:117" ht="42" customHeight="1">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="36">
         <v>2</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="36">
         <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3181,23 +3346,23 @@
         <v>joint 1</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:K3" si="43">F3</f>
+        <f t="shared" ref="G3:K3" si="40">F3</f>
         <v>joint 1</v>
       </c>
       <c r="H3" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
       <c r="I3" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
       <c r="J3" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
       <c r="K3" s="9" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
       <c r="L3" s="9" t="s">
@@ -3208,59 +3373,59 @@
         <v>joint 1</v>
       </c>
       <c r="N3" s="9" t="str">
-        <f t="shared" ref="N3" si="44">M3</f>
+        <f t="shared" ref="N3" si="41">M3</f>
         <v>joint 1</v>
       </c>
       <c r="O3" s="9" t="str">
-        <f t="shared" ref="O3" si="45">N3</f>
+        <f t="shared" ref="O3" si="42">N3</f>
         <v>joint 1</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3" si="46">O3</f>
+        <f t="shared" ref="P3" si="43">O3</f>
         <v>joint 1</v>
       </c>
       <c r="Q3" s="9" t="str">
-        <f t="shared" ref="Q3" si="47">P3</f>
+        <f t="shared" ref="Q3" si="44">P3</f>
         <v>joint 1</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f t="shared" ref="R3" si="48">Q3</f>
+        <f t="shared" ref="R3" si="45">Q3</f>
         <v>joint 1</v>
       </c>
       <c r="S3" s="9" t="str">
-        <f t="shared" ref="S3" si="49">R3</f>
+        <f t="shared" ref="S3" si="46">R3</f>
         <v>joint 1</v>
       </c>
       <c r="T3" s="9" t="str">
-        <f t="shared" ref="T3" si="50">S3</f>
+        <f t="shared" ref="T3" si="47">S3</f>
         <v>joint 1</v>
       </c>
       <c r="U3" s="9" t="str">
-        <f t="shared" ref="U3" si="51">T3</f>
+        <f t="shared" ref="U3" si="48">T3</f>
         <v>joint 1</v>
       </c>
       <c r="V3" s="9" t="str">
-        <f t="shared" ref="V3" si="52">U3</f>
+        <f t="shared" ref="V3" si="49">U3</f>
         <v>joint 1</v>
       </c>
       <c r="W3" s="9" t="str">
-        <f t="shared" ref="W3" si="53">V3</f>
+        <f t="shared" ref="W3" si="50">V3</f>
         <v>joint 1</v>
       </c>
       <c r="X3" s="9" t="str">
-        <f t="shared" ref="X3" si="54">W3</f>
+        <f t="shared" ref="X3" si="51">W3</f>
         <v>joint 1</v>
       </c>
       <c r="Y3" s="9" t="str">
-        <f t="shared" ref="Y3" si="55">X3</f>
+        <f t="shared" ref="Y3" si="52">X3</f>
         <v>joint 1</v>
       </c>
       <c r="Z3" s="9" t="str">
-        <f t="shared" ref="Z3:AA3" si="56">Y3</f>
+        <f t="shared" ref="Z3:AA3" si="53">Y3</f>
         <v>joint 1</v>
       </c>
       <c r="AA3" s="9" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>joint 1</v>
       </c>
       <c r="AB3" s="9"/>
@@ -3351,44 +3516,39 @@
       <c r="DI3" s="9"/>
       <c r="DJ3" s="9"/>
       <c r="DK3" s="9"/>
-      <c r="DL3" s="9"/>
-      <c r="DM3" s="9"/>
-      <c r="DN3" s="9"/>
-      <c r="DO3" s="10"/>
-      <c r="DP3" s="23"/>
-      <c r="DQ3" s="23"/>
-      <c r="DR3" s="23"/>
+      <c r="DL3" s="10"/>
+      <c r="DM3" s="23"/>
     </row>
-    <row r="4" spans="2:122" ht="42" customHeight="1">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
+    <row r="4" spans="2:117" ht="42" customHeight="1">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="shared" ref="G4:L4" si="57">F4</f>
+        <f t="shared" ref="G4:L4" si="54">F4</f>
         <v>joint 2</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
       <c r="L4" s="9" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
       <c r="M4" s="9" t="str">
@@ -3396,15 +3556,15 @@
         <v>joint 2</v>
       </c>
       <c r="N4" s="9" t="str">
-        <f t="shared" ref="N4:P5" si="58">M4</f>
+        <f t="shared" ref="N4:P5" si="55">M4</f>
         <v>joint 2</v>
       </c>
       <c r="O4" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>joint 2</v>
       </c>
       <c r="P4" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>joint 2</v>
       </c>
       <c r="Q4" s="9" t="s">
@@ -3530,18 +3690,13 @@
       <c r="DI4" s="9"/>
       <c r="DJ4" s="9"/>
       <c r="DK4" s="9"/>
-      <c r="DL4" s="9"/>
-      <c r="DM4" s="9"/>
-      <c r="DN4" s="9"/>
-      <c r="DO4" s="10"/>
-      <c r="DP4" s="23"/>
-      <c r="DQ4" s="23"/>
-      <c r="DR4" s="23"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="23"/>
     </row>
-    <row r="5" spans="2:122" ht="42" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+    <row r="5" spans="2:117" ht="42" customHeight="1">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -3572,15 +3727,15 @@
         <v>joint 3</v>
       </c>
       <c r="N5" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
       <c r="O5" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
       <c r="P5" s="9" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
       <c r="Q5" s="9" t="str">
@@ -3713,18 +3868,13 @@
       <c r="DI5" s="9"/>
       <c r="DJ5" s="9"/>
       <c r="DK5" s="9"/>
-      <c r="DL5" s="9"/>
-      <c r="DM5" s="9"/>
-      <c r="DN5" s="9"/>
-      <c r="DO5" s="10"/>
-      <c r="DP5" s="23"/>
-      <c r="DQ5" s="23"/>
-      <c r="DR5" s="23"/>
+      <c r="DL5" s="10"/>
+      <c r="DM5" s="23"/>
     </row>
-    <row r="6" spans="2:122" ht="42" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+    <row r="6" spans="2:117" ht="42" customHeight="1">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -3883,18 +4033,13 @@
       <c r="DI6" s="9"/>
       <c r="DJ6" s="9"/>
       <c r="DK6" s="9"/>
-      <c r="DL6" s="9"/>
-      <c r="DM6" s="9"/>
-      <c r="DN6" s="9"/>
-      <c r="DO6" s="10"/>
-      <c r="DP6" s="23"/>
-      <c r="DQ6" s="23"/>
-      <c r="DR6" s="23"/>
+      <c r="DL6" s="10"/>
+      <c r="DM6" s="23"/>
     </row>
-    <row r="7" spans="2:122" ht="42" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+    <row r="7" spans="2:117" ht="42" customHeight="1">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4052,18 +4197,13 @@
       <c r="DI7" s="9"/>
       <c r="DJ7" s="9"/>
       <c r="DK7" s="9"/>
-      <c r="DL7" s="9"/>
-      <c r="DM7" s="9"/>
-      <c r="DN7" s="9"/>
-      <c r="DO7" s="10"/>
-      <c r="DP7" s="23"/>
-      <c r="DQ7" s="23"/>
-      <c r="DR7" s="23"/>
+      <c r="DL7" s="10"/>
+      <c r="DM7" s="23"/>
     </row>
-    <row r="8" spans="2:122" ht="42" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+    <row r="8" spans="2:117" ht="42" customHeight="1">
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -4222,22 +4362,17 @@
       <c r="DI8" s="9"/>
       <c r="DJ8" s="9"/>
       <c r="DK8" s="9"/>
-      <c r="DL8" s="9"/>
-      <c r="DM8" s="9"/>
-      <c r="DN8" s="9"/>
-      <c r="DO8" s="10"/>
-      <c r="DP8" s="23"/>
-      <c r="DQ8" s="23"/>
-      <c r="DR8" s="23"/>
+      <c r="DL8" s="10"/>
+      <c r="DM8" s="23"/>
     </row>
-    <row r="9" spans="2:122" ht="42" customHeight="1">
-      <c r="B9" s="33" t="s">
+    <row r="9" spans="2:117" ht="42" customHeight="1">
+      <c r="B9" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="36">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
@@ -4266,18 +4401,20 @@
       <c r="AB9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="18" t="str">
-        <f>AB9</f>
-        <v>joint 1</v>
+      <c r="AC9" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="AD9" s="18" t="str">
         <f>AC9</f>
         <v>joint 1</v>
       </c>
-      <c r="AE9" s="18" t="s">
+      <c r="AE9" s="18" t="str">
+        <f>AD9</f>
+        <v>joint 1</v>
+      </c>
+      <c r="AF9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF9" s="18"/>
       <c r="AG9" s="18"/>
       <c r="AH9" s="18" t="s">
         <v>61</v>
@@ -4291,105 +4428,107 @@
       <c r="AK9" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="AL9" s="18"/>
+      <c r="AL9" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="AM9" s="18"/>
       <c r="AN9" s="18"/>
       <c r="AO9" s="18"/>
       <c r="AP9" s="18"/>
       <c r="AQ9" s="18"/>
       <c r="AR9" s="18"/>
-      <c r="AS9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT9" s="18" t="s">
-        <v>62</v>
-      </c>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
       <c r="AU9" s="18" t="s">
         <v>62</v>
       </c>
       <c r="AV9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18"/>
-      <c r="AY9" s="18"/>
+      <c r="AW9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AY9" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="AZ9" s="18"/>
       <c r="BA9" s="18"/>
       <c r="BB9" s="18"/>
       <c r="BC9" s="18"/>
       <c r="BD9" s="18"/>
-      <c r="BE9" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="BF9" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
       <c r="BG9" s="18" t="s">
         <v>63</v>
       </c>
       <c r="BH9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18"/>
-      <c r="BK9" s="18"/>
+      <c r="BI9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ9" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK9" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="BL9" s="18"/>
       <c r="BM9" s="18"/>
       <c r="BN9" s="18"/>
       <c r="BO9" s="18"/>
       <c r="BP9" s="18"/>
-      <c r="BQ9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR9" s="18" t="s">
-        <v>64</v>
-      </c>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
       <c r="BS9" s="18" t="s">
         <v>64</v>
       </c>
       <c r="BT9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18"/>
-      <c r="BW9" s="18"/>
+      <c r="BU9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="BW9" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="BX9" s="18"/>
       <c r="BY9" s="18"/>
       <c r="BZ9" s="18"/>
       <c r="CA9" s="18"/>
       <c r="CB9" s="18"/>
-      <c r="CC9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="CD9" s="18" t="s">
-        <v>65</v>
-      </c>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18"/>
       <c r="CE9" s="18" t="s">
         <v>65</v>
       </c>
       <c r="CF9" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18"/>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18"/>
-      <c r="CM9" s="18"/>
-      <c r="CN9" s="18"/>
-      <c r="CO9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="CP9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="CQ9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="CR9" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="CG9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="CH9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="CI9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="CJ9" s="9"/>
+      <c r="CK9" s="9"/>
+      <c r="CL9" s="9"/>
+      <c r="CM9" s="9"/>
+      <c r="CN9" s="9"/>
+      <c r="CO9" s="9"/>
+      <c r="CP9" s="9"/>
+      <c r="CQ9" s="9"/>
+      <c r="CR9" s="9"/>
       <c r="CS9" s="9"/>
       <c r="CT9" s="9"/>
       <c r="CU9" s="9"/>
@@ -4409,18 +4548,13 @@
       <c r="DI9" s="9"/>
       <c r="DJ9" s="9"/>
       <c r="DK9" s="9"/>
-      <c r="DL9" s="9"/>
-      <c r="DM9" s="9"/>
-      <c r="DN9" s="9"/>
-      <c r="DO9" s="10"/>
-      <c r="DP9" s="23"/>
-      <c r="DQ9" s="23"/>
-      <c r="DR9" s="23"/>
+      <c r="DL9" s="10"/>
+      <c r="DM9" s="23"/>
     </row>
-    <row r="10" spans="2:122" ht="42" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
+    <row r="10" spans="2:117" ht="42" customHeight="1">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4448,17 +4582,19 @@
       <c r="AC10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="18" t="str">
-        <f>AC10</f>
+      <c r="AD10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="18" t="str">
+        <f>AD10</f>
         <v>joint 2</v>
-      </c>
-      <c r="AE10" s="18" t="s">
-        <v>4</v>
       </c>
       <c r="AF10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AG10" s="18"/>
+      <c r="AG10" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="AH10" s="18"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
@@ -4513,15 +4649,15 @@
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="18"/>
-      <c r="CK10" s="18"/>
-      <c r="CL10" s="18"/>
-      <c r="CM10" s="18"/>
-      <c r="CN10" s="18"/>
-      <c r="CO10" s="18"/>
-      <c r="CP10" s="18"/>
-      <c r="CQ10" s="18"/>
-      <c r="CR10" s="18"/>
+      <c r="CJ10" s="9"/>
+      <c r="CK10" s="9"/>
+      <c r="CL10" s="9"/>
+      <c r="CM10" s="9"/>
+      <c r="CN10" s="9"/>
+      <c r="CO10" s="9"/>
+      <c r="CP10" s="9"/>
+      <c r="CQ10" s="9"/>
+      <c r="CR10" s="9"/>
       <c r="CS10" s="9"/>
       <c r="CT10" s="9"/>
       <c r="CU10" s="9"/>
@@ -4541,18 +4677,13 @@
       <c r="DI10" s="9"/>
       <c r="DJ10" s="9"/>
       <c r="DK10" s="9"/>
-      <c r="DL10" s="9"/>
-      <c r="DM10" s="9"/>
-      <c r="DN10" s="9"/>
-      <c r="DO10" s="10"/>
-      <c r="DP10" s="23"/>
-      <c r="DQ10" s="23"/>
-      <c r="DR10" s="23"/>
+      <c r="DL10" s="10"/>
+      <c r="DM10" s="23"/>
     </row>
-    <row r="11" spans="2:122" ht="42" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+    <row r="11" spans="2:117" ht="42" customHeight="1">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4581,9 +4712,8 @@
       <c r="AD11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="18" t="str">
-        <f>AD11</f>
-        <v>joint 3</v>
+      <c r="AE11" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="AF11" s="18" t="str">
         <f>AE11</f>
@@ -4593,7 +4723,10 @@
         <f>AF11</f>
         <v>joint 3</v>
       </c>
-      <c r="AH11" s="18"/>
+      <c r="AH11" s="18" t="str">
+        <f>AG11</f>
+        <v>joint 3</v>
+      </c>
       <c r="AI11" s="18"/>
       <c r="AJ11" s="18"/>
       <c r="AK11" s="18"/>
@@ -4647,15 +4780,15 @@
       <c r="CG11" s="18"/>
       <c r="CH11" s="18"/>
       <c r="CI11" s="18"/>
-      <c r="CJ11" s="18"/>
-      <c r="CK11" s="18"/>
-      <c r="CL11" s="18"/>
-      <c r="CM11" s="18"/>
-      <c r="CN11" s="18"/>
-      <c r="CO11" s="18"/>
-      <c r="CP11" s="18"/>
-      <c r="CQ11" s="18"/>
-      <c r="CR11" s="18"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
+      <c r="CM11" s="9"/>
+      <c r="CN11" s="9"/>
+      <c r="CO11" s="9"/>
+      <c r="CP11" s="9"/>
+      <c r="CQ11" s="9"/>
+      <c r="CR11" s="9"/>
       <c r="CS11" s="9"/>
       <c r="CT11" s="9"/>
       <c r="CU11" s="9"/>
@@ -4675,18 +4808,13 @@
       <c r="DI11" s="9"/>
       <c r="DJ11" s="9"/>
       <c r="DK11" s="9"/>
-      <c r="DL11" s="9"/>
-      <c r="DM11" s="9"/>
-      <c r="DN11" s="9"/>
-      <c r="DO11" s="10"/>
-      <c r="DP11" s="23"/>
-      <c r="DQ11" s="23"/>
-      <c r="DR11" s="23"/>
+      <c r="DL11" s="10"/>
+      <c r="DM11" s="23"/>
     </row>
-    <row r="12" spans="2:122" ht="42" customHeight="1">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
+    <row r="12" spans="2:117" ht="42" customHeight="1">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4716,16 +4844,18 @@
       <c r="AE12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="29" t="s">
+      <c r="AF12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="29" t="s">
+      <c r="AG12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="29" t="s">
+      <c r="AH12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AI12" s="18"/>
+      <c r="AI12" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="AJ12" s="18"/>
       <c r="AK12" s="18"/>
       <c r="AL12" s="18"/>
@@ -4778,15 +4908,15 @@
       <c r="CG12" s="18"/>
       <c r="CH12" s="18"/>
       <c r="CI12" s="18"/>
-      <c r="CJ12" s="18"/>
-      <c r="CK12" s="18"/>
-      <c r="CL12" s="18"/>
-      <c r="CM12" s="18"/>
-      <c r="CN12" s="18"/>
-      <c r="CO12" s="18"/>
-      <c r="CP12" s="18"/>
-      <c r="CQ12" s="18"/>
-      <c r="CR12" s="18"/>
+      <c r="CJ12" s="9"/>
+      <c r="CK12" s="9"/>
+      <c r="CL12" s="9"/>
+      <c r="CM12" s="9"/>
+      <c r="CN12" s="9"/>
+      <c r="CO12" s="9"/>
+      <c r="CP12" s="9"/>
+      <c r="CQ12" s="9"/>
+      <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -4806,18 +4936,13 @@
       <c r="DI12" s="9"/>
       <c r="DJ12" s="9"/>
       <c r="DK12" s="9"/>
-      <c r="DL12" s="9"/>
-      <c r="DM12" s="9"/>
-      <c r="DN12" s="9"/>
-      <c r="DO12" s="10"/>
-      <c r="DP12" s="23"/>
-      <c r="DQ12" s="23"/>
-      <c r="DR12" s="23"/>
+      <c r="DL12" s="10"/>
+      <c r="DM12" s="23"/>
     </row>
-    <row r="13" spans="2:122" ht="42" customHeight="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+    <row r="13" spans="2:117" ht="42" customHeight="1">
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -4851,15 +4976,17 @@
       <c r="AG13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH13" s="18" t="str">
-        <f>AG13</f>
-        <v>joint 5</v>
+      <c r="AH13" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="AI13" s="18" t="str">
         <f>AH13</f>
         <v>joint 5</v>
       </c>
-      <c r="AJ13" s="18"/>
+      <c r="AJ13" s="18" t="str">
+        <f>AI13</f>
+        <v>joint 5</v>
+      </c>
       <c r="AK13" s="18"/>
       <c r="AL13" s="18"/>
       <c r="AM13" s="18"/>
@@ -4911,15 +5038,15 @@
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
-      <c r="CJ13" s="18"/>
-      <c r="CK13" s="18"/>
-      <c r="CL13" s="18"/>
-      <c r="CM13" s="18"/>
-      <c r="CN13" s="18"/>
-      <c r="CO13" s="18"/>
-      <c r="CP13" s="18"/>
-      <c r="CQ13" s="18"/>
-      <c r="CR13" s="18"/>
+      <c r="CJ13" s="9"/>
+      <c r="CK13" s="9"/>
+      <c r="CL13" s="9"/>
+      <c r="CM13" s="9"/>
+      <c r="CN13" s="9"/>
+      <c r="CO13" s="9"/>
+      <c r="CP13" s="9"/>
+      <c r="CQ13" s="9"/>
+      <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -4939,18 +5066,13 @@
       <c r="DI13" s="9"/>
       <c r="DJ13" s="9"/>
       <c r="DK13" s="9"/>
-      <c r="DL13" s="9"/>
-      <c r="DM13" s="9"/>
-      <c r="DN13" s="9"/>
-      <c r="DO13" s="10"/>
-      <c r="DP13" s="23"/>
-      <c r="DQ13" s="23"/>
-      <c r="DR13" s="23"/>
+      <c r="DL13" s="10"/>
+      <c r="DM13" s="23"/>
     </row>
-    <row r="14" spans="2:122" ht="42" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
+    <row r="14" spans="2:117" ht="42" customHeight="1">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -4982,16 +5104,18 @@
       <c r="AG14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="29" t="s">
+      <c r="AH14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="29" t="s">
+      <c r="AI14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="29" t="s">
+      <c r="AJ14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK14" s="18"/>
+      <c r="AK14" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="AL14" s="18"/>
       <c r="AM14" s="18"/>
       <c r="AN14" s="18"/>
@@ -5042,15 +5166,15 @@
       <c r="CG14" s="18"/>
       <c r="CH14" s="18"/>
       <c r="CI14" s="18"/>
-      <c r="CJ14" s="18"/>
-      <c r="CK14" s="18"/>
-      <c r="CL14" s="18"/>
-      <c r="CM14" s="18"/>
-      <c r="CN14" s="18"/>
-      <c r="CO14" s="18"/>
-      <c r="CP14" s="18"/>
-      <c r="CQ14" s="18"/>
-      <c r="CR14" s="18"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -5070,23 +5194,18 @@
       <c r="DI14" s="9"/>
       <c r="DJ14" s="9"/>
       <c r="DK14" s="9"/>
-      <c r="DL14" s="9"/>
-      <c r="DM14" s="9"/>
-      <c r="DN14" s="9"/>
-      <c r="DO14" s="10"/>
-      <c r="DP14" s="23"/>
-      <c r="DQ14" s="23"/>
-      <c r="DR14" s="23"/>
+      <c r="DL14" s="10"/>
+      <c r="DM14" s="23"/>
     </row>
-    <row r="15" spans="2:122" ht="42" customHeight="1">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="2:117" ht="42" customHeight="1">
+      <c r="B15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="32">
         <v>36</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>165</v>
+      <c r="D15" s="32" t="s">
+        <v>163</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -5116,256 +5235,253 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="9"/>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AK15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AL15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AN15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AP15" s="1" t="s">
+      <c r="AQ15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AQ15" s="1" t="s">
+      <c r="AR15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BC15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AR15" s="1" t="s">
+      <c r="BE15" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="BH15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="BJ15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BK15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BN15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BQ15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AS15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AW15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BC15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD15" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BF15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BH15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BI15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BJ15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BM15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BO15" s="1" t="s">
+      <c r="BR15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BS15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BU15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BV15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="BW15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="BX15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BY15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BZ15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="CA15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BP15" s="1" t="s">
+      <c r="CC15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BQ15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BV15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BY15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BZ15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CA15" s="1" t="s">
+      <c r="CD15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="CE15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="CF15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="CG15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="CH15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="CI15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="CJ15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CK15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CL15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CM15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CN15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="CB15" s="1" t="s">
+      <c r="CO15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CC15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CD15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CE15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CF15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CG15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CH15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CI15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CJ15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CK15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CL15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CM15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="CN15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
-      <c r="CR15" s="9"/>
-      <c r="CS15" s="9"/>
-      <c r="CT15" s="9"/>
-      <c r="CU15" s="9"/>
-      <c r="CV15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="CW15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="CX15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="CY15" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="DA15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="DB15" s="9"/>
+      <c r="CR15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CS15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CT15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CU15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="CV15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="CW15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="CX15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="CY15" s="9"/>
+      <c r="CZ15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="DA15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="DB15" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="DC15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="DD15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="DE15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="DF15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="DG15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="DH15" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="DI15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="DJ15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="DK15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="DL15" s="1" t="s">
+      <c r="DJ15" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="DK15" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="DL15" s="10"/>
+      <c r="DM15" s="23"/>
+    </row>
+    <row r="16" spans="2:117" ht="42" customHeight="1" thickBot="1">
+      <c r="B16" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="DM15" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="DN15" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="DO15" s="10"/>
-      <c r="DP15" s="23"/>
-      <c r="DQ15" s="23"/>
-      <c r="DR15" s="23"/>
-    </row>
-    <row r="16" spans="2:122" ht="42" customHeight="1" thickBot="1">
-      <c r="B16" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="C16" s="14">
         <v>36</v>
@@ -5407,10 +5523,10 @@
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM16" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
@@ -5421,14 +5537,14 @@
       <c r="AT16" s="15"/>
       <c r="AU16" s="15"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AX16" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY16" s="15"/>
-      <c r="AZ16" s="15"/>
+      <c r="AW16" s="15"/>
+      <c r="AX16" s="15"/>
+      <c r="AY16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AZ16" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="BA16" s="15"/>
       <c r="BB16" s="15"/>
       <c r="BC16" s="15"/>
@@ -5437,14 +5553,14 @@
       <c r="BF16" s="15"/>
       <c r="BG16" s="15"/>
       <c r="BH16" s="15"/>
-      <c r="BI16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BJ16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="BK16" s="15"/>
-      <c r="BL16" s="15"/>
+      <c r="BI16" s="15"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL16" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="BM16" s="15"/>
       <c r="BN16" s="15"/>
       <c r="BO16" s="15"/>
@@ -5453,14 +5569,14 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="15"/>
       <c r="BT16" s="15"/>
-      <c r="BU16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="BV16" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW16" s="15"/>
-      <c r="BX16" s="15"/>
+      <c r="BU16" s="15"/>
+      <c r="BV16" s="15"/>
+      <c r="BW16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="BX16" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="BY16" s="15"/>
       <c r="BZ16" s="15"/>
       <c r="CA16" s="15"/>
@@ -5469,40 +5585,36 @@
       <c r="CD16" s="15"/>
       <c r="CE16" s="15"/>
       <c r="CF16" s="15"/>
-      <c r="CG16" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH16" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="CI16" s="15"/>
-      <c r="CJ16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="15"/>
+      <c r="CI16" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ16" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
-      <c r="CP16" s="15"/>
+      <c r="CP16" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="CQ16" s="15"/>
       <c r="CR16" s="15"/>
-      <c r="CS16" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="CT16" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="CU16" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="CS16" s="15"/>
+      <c r="CT16" s="16"/>
+      <c r="CU16" s="16"/>
       <c r="CV16" s="15"/>
       <c r="CW16" s="15"/>
-      <c r="CX16" s="15"/>
+      <c r="CX16" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="CY16" s="15"/>
       <c r="CZ16" s="15"/>
       <c r="DA16" s="15"/>
-      <c r="DB16" s="15" t="s">
-        <v>105</v>
-      </c>
+      <c r="DB16" s="15"/>
       <c r="DC16" s="15"/>
       <c r="DD16" s="15"/>
       <c r="DE16" s="15"/>
@@ -5512,140 +5624,135 @@
       <c r="DI16" s="15"/>
       <c r="DJ16" s="15"/>
       <c r="DK16" s="15"/>
-      <c r="DL16" s="15"/>
-      <c r="DM16" s="15"/>
-      <c r="DN16" s="15"/>
-      <c r="DO16" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="DP16" s="23"/>
-      <c r="DQ16" s="23"/>
-      <c r="DR16" s="23"/>
+      <c r="DL16" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="DM16" s="23"/>
     </row>
     <row r="17" spans="2:117" ht="42" customHeight="1" thickBot="1"/>
     <row r="18" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-      <c r="AS18" s="31"/>
-      <c r="AT18" s="31"/>
-      <c r="AU18" s="31"/>
-      <c r="AV18" s="31"/>
-      <c r="AW18" s="31"/>
-      <c r="AX18" s="31"/>
-      <c r="AY18" s="31"/>
-      <c r="AZ18" s="31"/>
-      <c r="BA18" s="31"/>
-      <c r="BB18" s="31"/>
-      <c r="BC18" s="31"/>
-      <c r="BD18" s="31"/>
-      <c r="BE18" s="31"/>
-      <c r="BF18" s="31"/>
-      <c r="BG18" s="31"/>
-      <c r="BH18" s="31"/>
-      <c r="BI18" s="31"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="31"/>
-      <c r="BL18" s="31"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="31"/>
-      <c r="BO18" s="31"/>
-      <c r="BP18" s="31"/>
-      <c r="BQ18" s="31"/>
-      <c r="BR18" s="31"/>
-      <c r="BS18" s="31"/>
-      <c r="BT18" s="31"/>
-      <c r="BU18" s="31"/>
-      <c r="BV18" s="31"/>
-      <c r="BW18" s="31"/>
-      <c r="BX18" s="31"/>
-      <c r="BY18" s="31"/>
-      <c r="BZ18" s="31"/>
-      <c r="CA18" s="31"/>
-      <c r="CB18" s="31"/>
-      <c r="CC18" s="31"/>
-      <c r="CD18" s="31"/>
-      <c r="CE18" s="31"/>
-      <c r="CF18" s="31"/>
-      <c r="CG18" s="31"/>
-      <c r="CH18" s="31"/>
-      <c r="CI18" s="31"/>
-      <c r="CJ18" s="31"/>
-      <c r="CK18" s="31"/>
-      <c r="CL18" s="31"/>
-      <c r="CM18" s="31"/>
-      <c r="CN18" s="31"/>
-      <c r="CO18" s="31"/>
-      <c r="CP18" s="31"/>
-      <c r="CQ18" s="31"/>
-      <c r="CR18" s="31"/>
-      <c r="CS18" s="31"/>
-      <c r="CT18" s="31"/>
-      <c r="CU18" s="31"/>
-      <c r="CV18" s="31"/>
-      <c r="CW18" s="31"/>
-      <c r="CX18" s="31"/>
-      <c r="CY18" s="31"/>
-      <c r="CZ18" s="31"/>
-      <c r="DA18" s="31"/>
-      <c r="DB18" s="31"/>
-      <c r="DC18" s="31"/>
-      <c r="DD18" s="31"/>
-      <c r="DE18" s="31"/>
-      <c r="DF18" s="31"/>
-      <c r="DG18" s="31"/>
-      <c r="DH18" s="31"/>
-      <c r="DI18" s="31"/>
-      <c r="DJ18" s="31"/>
-      <c r="DK18" s="31"/>
-      <c r="DL18" s="31"/>
-      <c r="DM18" s="32"/>
+      <c r="E18" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="33"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="33"/>
+      <c r="AY18" s="33"/>
+      <c r="AZ18" s="33"/>
+      <c r="BA18" s="33"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33"/>
+      <c r="BD18" s="33"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="33"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="33"/>
+      <c r="CC18" s="33"/>
+      <c r="CD18" s="33"/>
+      <c r="CE18" s="33"/>
+      <c r="CF18" s="33"/>
+      <c r="CG18" s="33"/>
+      <c r="CH18" s="33"/>
+      <c r="CI18" s="33"/>
+      <c r="CJ18" s="33"/>
+      <c r="CK18" s="33"/>
+      <c r="CL18" s="33"/>
+      <c r="CM18" s="33"/>
+      <c r="CN18" s="33"/>
+      <c r="CO18" s="33"/>
+      <c r="CP18" s="33"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
+      <c r="CW18" s="33"/>
+      <c r="CX18" s="33"/>
+      <c r="CY18" s="33"/>
+      <c r="CZ18" s="33"/>
+      <c r="DA18" s="33"/>
+      <c r="DB18" s="33"/>
+      <c r="DC18" s="33"/>
+      <c r="DD18" s="33"/>
+      <c r="DE18" s="33"/>
+      <c r="DF18" s="33"/>
+      <c r="DG18" s="33"/>
+      <c r="DH18" s="33"/>
+      <c r="DI18" s="33"/>
+      <c r="DJ18" s="33"/>
+      <c r="DK18" s="33"/>
+      <c r="DL18" s="33"/>
+      <c r="DM18" s="34"/>
     </row>
     <row r="19" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B19" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>1</v>
@@ -5654,456 +5761,456 @@
         <v>10</v>
       </c>
       <c r="E19" s="21">
-        <f>DO2+1</f>
+        <f>MAX(2:2)</f>
+        <v>112</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" ref="F19" si="56">E19+1</f>
+        <v>113</v>
+      </c>
+      <c r="G19" s="21">
+        <f t="shared" ref="G19" si="57">F19+1</f>
+        <v>114</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" ref="H19" si="58">G19+1</f>
+        <v>115</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" ref="I19" si="59">H19+1</f>
         <v>116</v>
       </c>
-      <c r="F19" s="21">
-        <f t="shared" ref="F19" si="59">E19+1</f>
+      <c r="J19" s="21">
+        <f t="shared" ref="J19" si="60">I19+1</f>
         <v>117</v>
       </c>
-      <c r="G19" s="21">
-        <f t="shared" ref="G19" si="60">F19+1</f>
+      <c r="K19" s="21">
+        <f t="shared" ref="K19" si="61">J19+1</f>
         <v>118</v>
       </c>
-      <c r="H19" s="21">
-        <f t="shared" ref="H19" si="61">G19+1</f>
+      <c r="L19" s="21">
+        <f t="shared" ref="L19" si="62">K19+1</f>
         <v>119</v>
       </c>
-      <c r="I19" s="21">
-        <f t="shared" ref="I19" si="62">H19+1</f>
+      <c r="M19" s="21">
+        <f t="shared" ref="M19" si="63">L19+1</f>
         <v>120</v>
       </c>
-      <c r="J19" s="21">
-        <f t="shared" ref="J19" si="63">I19+1</f>
+      <c r="N19" s="21">
+        <f t="shared" ref="N19" si="64">M19+1</f>
         <v>121</v>
       </c>
-      <c r="K19" s="21">
-        <f t="shared" ref="K19" si="64">J19+1</f>
+      <c r="O19" s="21">
+        <f t="shared" ref="O19" si="65">N19+1</f>
         <v>122</v>
       </c>
-      <c r="L19" s="21">
-        <f t="shared" ref="L19" si="65">K19+1</f>
+      <c r="P19" s="21">
+        <f t="shared" ref="P19" si="66">O19+1</f>
         <v>123</v>
       </c>
-      <c r="M19" s="21">
-        <f t="shared" ref="M19" si="66">L19+1</f>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19" si="67">P19+1</f>
         <v>124</v>
       </c>
-      <c r="N19" s="21">
-        <f t="shared" ref="N19" si="67">M19+1</f>
+      <c r="R19" s="21">
+        <f t="shared" ref="R19" si="68">Q19+1</f>
         <v>125</v>
       </c>
-      <c r="O19" s="21">
-        <f t="shared" ref="O19" si="68">N19+1</f>
+      <c r="S19" s="21">
+        <f t="shared" ref="S19" si="69">R19+1</f>
         <v>126</v>
       </c>
-      <c r="P19" s="21">
-        <f t="shared" ref="P19" si="69">O19+1</f>
+      <c r="T19" s="21">
+        <f t="shared" ref="T19" si="70">S19+1</f>
         <v>127</v>
       </c>
-      <c r="Q19" s="21">
-        <f t="shared" ref="Q19" si="70">P19+1</f>
+      <c r="U19" s="21">
+        <f t="shared" ref="U19" si="71">T19+1</f>
         <v>128</v>
       </c>
-      <c r="R19" s="21">
-        <f t="shared" ref="R19" si="71">Q19+1</f>
+      <c r="V19" s="21">
+        <f t="shared" ref="V19" si="72">U19+1</f>
         <v>129</v>
       </c>
-      <c r="S19" s="21">
-        <f t="shared" ref="S19" si="72">R19+1</f>
+      <c r="W19" s="21">
+        <f t="shared" ref="W19" si="73">V19+1</f>
         <v>130</v>
       </c>
-      <c r="T19" s="21">
-        <f t="shared" ref="T19" si="73">S19+1</f>
+      <c r="X19" s="21">
+        <f t="shared" ref="X19" si="74">W19+1</f>
         <v>131</v>
       </c>
-      <c r="U19" s="21">
-        <f t="shared" ref="U19" si="74">T19+1</f>
+      <c r="Y19" s="21">
+        <f t="shared" ref="Y19" si="75">X19+1</f>
         <v>132</v>
       </c>
-      <c r="V19" s="21">
-        <f t="shared" ref="V19" si="75">U19+1</f>
+      <c r="Z19" s="21">
+        <f t="shared" ref="Z19" si="76">Y19+1</f>
         <v>133</v>
       </c>
-      <c r="W19" s="21">
-        <f t="shared" ref="W19" si="76">V19+1</f>
+      <c r="AA19" s="21">
+        <f t="shared" ref="AA19" si="77">Z19+1</f>
         <v>134</v>
       </c>
-      <c r="X19" s="21">
-        <f t="shared" ref="X19" si="77">W19+1</f>
+      <c r="AB19" s="21">
+        <f t="shared" ref="AB19" si="78">AA19+1</f>
         <v>135</v>
       </c>
-      <c r="Y19" s="21">
-        <f t="shared" ref="Y19" si="78">X19+1</f>
+      <c r="AC19" s="21">
+        <f t="shared" ref="AC19" si="79">AB19+1</f>
         <v>136</v>
       </c>
-      <c r="Z19" s="21">
-        <f t="shared" ref="Z19" si="79">Y19+1</f>
+      <c r="AD19" s="21">
+        <f t="shared" ref="AD19" si="80">AC19+1</f>
         <v>137</v>
       </c>
-      <c r="AA19" s="21">
-        <f t="shared" ref="AA19" si="80">Z19+1</f>
+      <c r="AE19" s="21">
+        <f t="shared" ref="AE19" si="81">AD19+1</f>
         <v>138</v>
       </c>
-      <c r="AB19" s="21">
-        <f t="shared" ref="AB19" si="81">AA19+1</f>
+      <c r="AF19" s="21">
+        <f t="shared" ref="AF19" si="82">AE19+1</f>
         <v>139</v>
       </c>
-      <c r="AC19" s="21">
-        <f t="shared" ref="AC19" si="82">AB19+1</f>
+      <c r="AG19" s="21">
+        <f t="shared" ref="AG19" si="83">AF19+1</f>
         <v>140</v>
       </c>
-      <c r="AD19" s="21">
-        <f t="shared" ref="AD19" si="83">AC19+1</f>
+      <c r="AH19" s="21">
+        <f t="shared" ref="AH19" si="84">AG19+1</f>
         <v>141</v>
       </c>
-      <c r="AE19" s="21">
-        <f t="shared" ref="AE19" si="84">AD19+1</f>
+      <c r="AI19" s="21">
+        <f t="shared" ref="AI19" si="85">AH19+1</f>
         <v>142</v>
       </c>
-      <c r="AF19" s="21">
-        <f t="shared" ref="AF19" si="85">AE19+1</f>
+      <c r="AJ19" s="21">
+        <f t="shared" ref="AJ19" si="86">AI19+1</f>
         <v>143</v>
       </c>
-      <c r="AG19" s="21">
-        <f t="shared" ref="AG19" si="86">AF19+1</f>
+      <c r="AK19" s="21">
+        <f t="shared" ref="AK19" si="87">AJ19+1</f>
         <v>144</v>
       </c>
-      <c r="AH19" s="21">
-        <f t="shared" ref="AH19" si="87">AG19+1</f>
+      <c r="AL19" s="21">
+        <f t="shared" ref="AL19" si="88">AK19+1</f>
         <v>145</v>
       </c>
-      <c r="AI19" s="21">
-        <f t="shared" ref="AI19" si="88">AH19+1</f>
+      <c r="AM19" s="21">
+        <f t="shared" ref="AM19" si="89">AL19+1</f>
         <v>146</v>
       </c>
-      <c r="AJ19" s="21">
-        <f t="shared" ref="AJ19" si="89">AI19+1</f>
+      <c r="AN19" s="21">
+        <f t="shared" ref="AN19" si="90">AM19+1</f>
         <v>147</v>
       </c>
-      <c r="AK19" s="21">
-        <f t="shared" ref="AK19" si="90">AJ19+1</f>
+      <c r="AO19" s="21">
+        <f t="shared" ref="AO19" si="91">AN19+1</f>
         <v>148</v>
       </c>
-      <c r="AL19" s="21">
-        <f t="shared" ref="AL19" si="91">AK19+1</f>
+      <c r="AP19" s="21">
+        <f t="shared" ref="AP19" si="92">AO19+1</f>
         <v>149</v>
       </c>
-      <c r="AM19" s="21">
-        <f t="shared" ref="AM19" si="92">AL19+1</f>
+      <c r="AQ19" s="21">
+        <f t="shared" ref="AQ19" si="93">AP19+1</f>
         <v>150</v>
       </c>
-      <c r="AN19" s="21">
-        <f t="shared" ref="AN19" si="93">AM19+1</f>
+      <c r="AR19" s="21">
+        <f t="shared" ref="AR19" si="94">AQ19+1</f>
         <v>151</v>
       </c>
-      <c r="AO19" s="21">
-        <f t="shared" ref="AO19" si="94">AN19+1</f>
+      <c r="AS19" s="21">
+        <f t="shared" ref="AS19" si="95">AR19+1</f>
         <v>152</v>
       </c>
-      <c r="AP19" s="21">
-        <f t="shared" ref="AP19" si="95">AO19+1</f>
+      <c r="AT19" s="21">
+        <f t="shared" ref="AT19" si="96">AS19+1</f>
         <v>153</v>
       </c>
-      <c r="AQ19" s="21">
-        <f t="shared" ref="AQ19" si="96">AP19+1</f>
+      <c r="AU19" s="21">
+        <f t="shared" ref="AU19" si="97">AT19+1</f>
         <v>154</v>
       </c>
-      <c r="AR19" s="21">
-        <f t="shared" ref="AR19" si="97">AQ19+1</f>
+      <c r="AV19" s="21">
+        <f t="shared" ref="AV19" si="98">AU19+1</f>
         <v>155</v>
       </c>
-      <c r="AS19" s="21">
-        <f t="shared" ref="AS19" si="98">AR19+1</f>
+      <c r="AW19" s="21">
+        <f t="shared" ref="AW19" si="99">AV19+1</f>
         <v>156</v>
       </c>
-      <c r="AT19" s="21">
-        <f t="shared" ref="AT19" si="99">AS19+1</f>
+      <c r="AX19" s="21">
+        <f t="shared" ref="AX19" si="100">AW19+1</f>
         <v>157</v>
       </c>
-      <c r="AU19" s="21">
-        <f t="shared" ref="AU19" si="100">AT19+1</f>
+      <c r="AY19" s="21">
+        <f t="shared" ref="AY19" si="101">AX19+1</f>
         <v>158</v>
       </c>
-      <c r="AV19" s="21">
-        <f t="shared" ref="AV19" si="101">AU19+1</f>
+      <c r="AZ19" s="21">
+        <f t="shared" ref="AZ19" si="102">AY19+1</f>
         <v>159</v>
       </c>
-      <c r="AW19" s="21">
-        <f t="shared" ref="AW19" si="102">AV19+1</f>
+      <c r="BA19" s="21">
+        <f t="shared" ref="BA19" si="103">AZ19+1</f>
         <v>160</v>
       </c>
-      <c r="AX19" s="21">
-        <f t="shared" ref="AX19" si="103">AW19+1</f>
+      <c r="BB19" s="21">
+        <f t="shared" ref="BB19" si="104">BA19+1</f>
         <v>161</v>
       </c>
-      <c r="AY19" s="21">
-        <f t="shared" ref="AY19" si="104">AX19+1</f>
+      <c r="BC19" s="21">
+        <f t="shared" ref="BC19" si="105">BB19+1</f>
         <v>162</v>
       </c>
-      <c r="AZ19" s="21">
-        <f t="shared" ref="AZ19" si="105">AY19+1</f>
+      <c r="BD19" s="21">
+        <f t="shared" ref="BD19" si="106">BC19+1</f>
         <v>163</v>
       </c>
-      <c r="BA19" s="21">
-        <f t="shared" ref="BA19" si="106">AZ19+1</f>
+      <c r="BE19" s="21">
+        <f t="shared" ref="BE19" si="107">BD19+1</f>
         <v>164</v>
       </c>
-      <c r="BB19" s="21">
-        <f t="shared" ref="BB19" si="107">BA19+1</f>
+      <c r="BF19" s="21">
+        <f t="shared" ref="BF19" si="108">BE19+1</f>
         <v>165</v>
       </c>
-      <c r="BC19" s="21">
-        <f t="shared" ref="BC19" si="108">BB19+1</f>
+      <c r="BG19" s="21">
+        <f t="shared" ref="BG19" si="109">BF19+1</f>
         <v>166</v>
       </c>
-      <c r="BD19" s="21">
-        <f t="shared" ref="BD19" si="109">BC19+1</f>
+      <c r="BH19" s="21">
+        <f t="shared" ref="BH19" si="110">BG19+1</f>
         <v>167</v>
       </c>
-      <c r="BE19" s="21">
-        <f t="shared" ref="BE19" si="110">BD19+1</f>
+      <c r="BI19" s="21">
+        <f t="shared" ref="BI19" si="111">BH19+1</f>
         <v>168</v>
       </c>
-      <c r="BF19" s="21">
-        <f t="shared" ref="BF19" si="111">BE19+1</f>
+      <c r="BJ19" s="21">
+        <f t="shared" ref="BJ19" si="112">BI19+1</f>
         <v>169</v>
       </c>
-      <c r="BG19" s="21">
-        <f t="shared" ref="BG19" si="112">BF19+1</f>
+      <c r="BK19" s="21">
+        <f t="shared" ref="BK19" si="113">BJ19+1</f>
         <v>170</v>
       </c>
-      <c r="BH19" s="21">
-        <f t="shared" ref="BH19" si="113">BG19+1</f>
+      <c r="BL19" s="21">
+        <f t="shared" ref="BL19" si="114">BK19+1</f>
         <v>171</v>
       </c>
-      <c r="BI19" s="21">
-        <f t="shared" ref="BI19" si="114">BH19+1</f>
+      <c r="BM19" s="21">
+        <f t="shared" ref="BM19" si="115">BL19+1</f>
         <v>172</v>
       </c>
-      <c r="BJ19" s="21">
-        <f t="shared" ref="BJ19" si="115">BI19+1</f>
+      <c r="BN19" s="21">
+        <f t="shared" ref="BN19" si="116">BM19+1</f>
         <v>173</v>
       </c>
-      <c r="BK19" s="21">
-        <f t="shared" ref="BK19" si="116">BJ19+1</f>
+      <c r="BO19" s="21">
+        <f t="shared" ref="BO19" si="117">BN19+1</f>
         <v>174</v>
       </c>
-      <c r="BL19" s="21">
-        <f t="shared" ref="BL19" si="117">BK19+1</f>
+      <c r="BP19" s="21">
+        <f t="shared" ref="BP19" si="118">BO19+1</f>
         <v>175</v>
       </c>
-      <c r="BM19" s="21">
-        <f t="shared" ref="BM19" si="118">BL19+1</f>
+      <c r="BQ19" s="21">
+        <f t="shared" ref="BQ19" si="119">BP19+1</f>
         <v>176</v>
       </c>
-      <c r="BN19" s="21">
-        <f t="shared" ref="BN19" si="119">BM19+1</f>
+      <c r="BR19" s="21">
+        <f t="shared" ref="BR19" si="120">BQ19+1</f>
         <v>177</v>
       </c>
-      <c r="BO19" s="21">
-        <f t="shared" ref="BO19" si="120">BN19+1</f>
+      <c r="BS19" s="21">
+        <f t="shared" ref="BS19" si="121">BR19+1</f>
         <v>178</v>
       </c>
-      <c r="BP19" s="21">
-        <f t="shared" ref="BP19" si="121">BO19+1</f>
+      <c r="BT19" s="21">
+        <f t="shared" ref="BT19" si="122">BS19+1</f>
         <v>179</v>
       </c>
-      <c r="BQ19" s="21">
-        <f t="shared" ref="BQ19" si="122">BP19+1</f>
+      <c r="BU19" s="21">
+        <f t="shared" ref="BU19" si="123">BT19+1</f>
         <v>180</v>
       </c>
-      <c r="BR19" s="21">
-        <f t="shared" ref="BR19" si="123">BQ19+1</f>
+      <c r="BV19" s="21">
+        <f t="shared" ref="BV19" si="124">BU19+1</f>
         <v>181</v>
       </c>
-      <c r="BS19" s="21">
-        <f t="shared" ref="BS19" si="124">BR19+1</f>
+      <c r="BW19" s="21">
+        <f t="shared" ref="BW19" si="125">BV19+1</f>
         <v>182</v>
       </c>
-      <c r="BT19" s="21">
-        <f t="shared" ref="BT19" si="125">BS19+1</f>
+      <c r="BX19" s="21">
+        <f t="shared" ref="BX19" si="126">BW19+1</f>
         <v>183</v>
       </c>
-      <c r="BU19" s="21">
-        <f t="shared" ref="BU19" si="126">BT19+1</f>
+      <c r="BY19" s="21">
+        <f t="shared" ref="BY19" si="127">BX19+1</f>
         <v>184</v>
       </c>
-      <c r="BV19" s="21">
-        <f t="shared" ref="BV19" si="127">BU19+1</f>
+      <c r="BZ19" s="21">
+        <f t="shared" ref="BZ19" si="128">BY19+1</f>
         <v>185</v>
       </c>
-      <c r="BW19" s="21">
-        <f t="shared" ref="BW19" si="128">BV19+1</f>
+      <c r="CA19" s="21">
+        <f t="shared" ref="CA19" si="129">BZ19+1</f>
         <v>186</v>
       </c>
-      <c r="BX19" s="21">
-        <f t="shared" ref="BX19" si="129">BW19+1</f>
+      <c r="CB19" s="21">
+        <f t="shared" ref="CB19" si="130">CA19+1</f>
         <v>187</v>
       </c>
-      <c r="BY19" s="21">
-        <f t="shared" ref="BY19" si="130">BX19+1</f>
+      <c r="CC19" s="21">
+        <f t="shared" ref="CC19" si="131">CB19+1</f>
         <v>188</v>
       </c>
-      <c r="BZ19" s="21">
-        <f t="shared" ref="BZ19" si="131">BY19+1</f>
+      <c r="CD19" s="21">
+        <f t="shared" ref="CD19" si="132">CC19+1</f>
         <v>189</v>
       </c>
-      <c r="CA19" s="21">
-        <f t="shared" ref="CA19" si="132">BZ19+1</f>
+      <c r="CE19" s="21">
+        <f t="shared" ref="CE19" si="133">CD19+1</f>
         <v>190</v>
       </c>
-      <c r="CB19" s="21">
-        <f t="shared" ref="CB19" si="133">CA19+1</f>
+      <c r="CF19" s="21">
+        <f t="shared" ref="CF19" si="134">CE19+1</f>
         <v>191</v>
       </c>
-      <c r="CC19" s="21">
-        <f t="shared" ref="CC19" si="134">CB19+1</f>
+      <c r="CG19" s="21">
+        <f t="shared" ref="CG19" si="135">CF19+1</f>
         <v>192</v>
       </c>
-      <c r="CD19" s="21">
-        <f t="shared" ref="CD19" si="135">CC19+1</f>
+      <c r="CH19" s="21">
+        <f t="shared" ref="CH19" si="136">CG19+1</f>
         <v>193</v>
       </c>
-      <c r="CE19" s="21">
-        <f t="shared" ref="CE19" si="136">CD19+1</f>
+      <c r="CI19" s="21">
+        <f t="shared" ref="CI19" si="137">CH19+1</f>
         <v>194</v>
       </c>
-      <c r="CF19" s="21">
-        <f t="shared" ref="CF19" si="137">CE19+1</f>
+      <c r="CJ19" s="21">
+        <f t="shared" ref="CJ19" si="138">CI19+1</f>
         <v>195</v>
       </c>
-      <c r="CG19" s="21">
-        <f t="shared" ref="CG19" si="138">CF19+1</f>
+      <c r="CK19" s="21">
+        <f t="shared" ref="CK19" si="139">CJ19+1</f>
         <v>196</v>
       </c>
-      <c r="CH19" s="21">
-        <f t="shared" ref="CH19" si="139">CG19+1</f>
+      <c r="CL19" s="21">
+        <f t="shared" ref="CL19" si="140">CK19+1</f>
         <v>197</v>
       </c>
-      <c r="CI19" s="21">
-        <f t="shared" ref="CI19" si="140">CH19+1</f>
+      <c r="CM19" s="21">
+        <f t="shared" ref="CM19" si="141">CL19+1</f>
         <v>198</v>
       </c>
-      <c r="CJ19" s="21">
-        <f t="shared" ref="CJ19" si="141">CI19+1</f>
+      <c r="CN19" s="21">
+        <f t="shared" ref="CN19" si="142">CM19+1</f>
         <v>199</v>
       </c>
-      <c r="CK19" s="21">
-        <f t="shared" ref="CK19" si="142">CJ19+1</f>
+      <c r="CO19" s="21">
+        <f t="shared" ref="CO19" si="143">CN19+1</f>
         <v>200</v>
       </c>
-      <c r="CL19" s="21">
-        <f t="shared" ref="CL19" si="143">CK19+1</f>
+      <c r="CP19" s="21">
+        <f t="shared" ref="CP19" si="144">CO19+1</f>
         <v>201</v>
       </c>
-      <c r="CM19" s="21">
-        <f t="shared" ref="CM19" si="144">CL19+1</f>
+      <c r="CQ19" s="21">
+        <f t="shared" ref="CQ19" si="145">CP19+1</f>
         <v>202</v>
-      </c>
-      <c r="CN19" s="21">
-        <f t="shared" ref="CN19" si="145">CM19+1</f>
-        <v>203</v>
-      </c>
-      <c r="CO19" s="21">
-        <f t="shared" ref="CO19" si="146">CN19+1</f>
-        <v>204</v>
-      </c>
-      <c r="CP19" s="21">
-        <f t="shared" ref="CP19" si="147">CO19+1</f>
-        <v>205</v>
-      </c>
-      <c r="CQ19" s="21">
-        <f t="shared" ref="CQ19" si="148">CP19+1</f>
-        <v>206</v>
       </c>
       <c r="CR19" s="21">
         <f>CQ19+1</f>
+        <v>203</v>
+      </c>
+      <c r="CS19" s="21">
+        <f t="shared" ref="CS19" si="146">CR19+1</f>
+        <v>204</v>
+      </c>
+      <c r="CT19" s="21">
+        <f t="shared" ref="CT19" si="147">CS19+1</f>
+        <v>205</v>
+      </c>
+      <c r="CU19" s="21">
+        <f t="shared" ref="CU19" si="148">CT19+1</f>
+        <v>206</v>
+      </c>
+      <c r="CV19" s="21">
+        <f t="shared" ref="CV19" si="149">CU19+1</f>
         <v>207</v>
       </c>
-      <c r="CS19" s="21">
-        <f t="shared" ref="CS19" si="149">CR19+1</f>
+      <c r="CW19" s="21">
+        <f t="shared" ref="CW19" si="150">CV19+1</f>
         <v>208</v>
       </c>
-      <c r="CT19" s="21">
-        <f t="shared" ref="CT19" si="150">CS19+1</f>
+      <c r="CX19" s="21">
+        <f t="shared" ref="CX19" si="151">CW19+1</f>
         <v>209</v>
       </c>
-      <c r="CU19" s="21">
-        <f t="shared" ref="CU19" si="151">CT19+1</f>
+      <c r="CY19" s="21">
+        <f t="shared" ref="CY19" si="152">CX19+1</f>
         <v>210</v>
       </c>
-      <c r="CV19" s="21">
-        <f t="shared" ref="CV19" si="152">CU19+1</f>
+      <c r="CZ19" s="21">
+        <f t="shared" ref="CZ19" si="153">CY19+1</f>
         <v>211</v>
       </c>
-      <c r="CW19" s="21">
-        <f t="shared" ref="CW19" si="153">CV19+1</f>
+      <c r="DA19" s="21">
+        <f t="shared" ref="DA19" si="154">CZ19+1</f>
         <v>212</v>
       </c>
-      <c r="CX19" s="21">
-        <f t="shared" ref="CX19" si="154">CW19+1</f>
+      <c r="DB19" s="21">
+        <f t="shared" ref="DB19" si="155">DA19+1</f>
         <v>213</v>
       </c>
-      <c r="CY19" s="21">
-        <f t="shared" ref="CY19" si="155">CX19+1</f>
+      <c r="DC19" s="21">
+        <f t="shared" ref="DC19" si="156">DB19+1</f>
         <v>214</v>
       </c>
-      <c r="CZ19" s="21">
-        <f t="shared" ref="CZ19" si="156">CY19+1</f>
+      <c r="DD19" s="21">
+        <f t="shared" ref="DD19" si="157">DC19+1</f>
         <v>215</v>
       </c>
-      <c r="DA19" s="21">
-        <f t="shared" ref="DA19" si="157">CZ19+1</f>
+      <c r="DE19" s="21">
+        <f t="shared" ref="DE19" si="158">DD19+1</f>
         <v>216</v>
       </c>
-      <c r="DB19" s="21">
-        <f t="shared" ref="DB19" si="158">DA19+1</f>
+      <c r="DF19" s="21">
+        <f t="shared" ref="DF19" si="159">DE19+1</f>
         <v>217</v>
       </c>
-      <c r="DC19" s="21">
-        <f t="shared" ref="DC19" si="159">DB19+1</f>
+      <c r="DG19" s="21">
+        <f t="shared" ref="DG19" si="160">DF19+1</f>
         <v>218</v>
       </c>
-      <c r="DD19" s="21">
-        <f t="shared" ref="DD19" si="160">DC19+1</f>
+      <c r="DH19" s="21">
+        <f t="shared" ref="DH19" si="161">DG19+1</f>
         <v>219</v>
       </c>
-      <c r="DE19" s="21">
-        <f t="shared" ref="DE19" si="161">DD19+1</f>
+      <c r="DI19" s="21">
+        <f t="shared" ref="DI19" si="162">DH19+1</f>
         <v>220</v>
       </c>
-      <c r="DF19" s="21">
-        <f t="shared" ref="DF19" si="162">DE19+1</f>
+      <c r="DJ19" s="21">
+        <f t="shared" ref="DJ19" si="163">DI19+1</f>
         <v>221</v>
       </c>
-      <c r="DG19" s="21">
-        <f t="shared" ref="DG19" si="163">DF19+1</f>
+      <c r="DK19" s="21">
+        <f t="shared" ref="DK19" si="164">DJ19+1</f>
         <v>222</v>
       </c>
-      <c r="DH19" s="21">
-        <f t="shared" ref="DH19" si="164">DG19+1</f>
+      <c r="DL19" s="21">
+        <f t="shared" ref="DL19" si="165">DK19+1</f>
         <v>223</v>
       </c>
-      <c r="DI19" s="21">
-        <f t="shared" ref="DI19" si="165">DH19+1</f>
+      <c r="DM19" s="7">
+        <f t="shared" ref="DM19" si="166">DL19+1</f>
         <v>224</v>
-      </c>
-      <c r="DJ19" s="21">
-        <f t="shared" ref="DJ19" si="166">DI19+1</f>
-        <v>225</v>
-      </c>
-      <c r="DK19" s="21">
-        <f t="shared" ref="DK19" si="167">DJ19+1</f>
-        <v>226</v>
-      </c>
-      <c r="DL19" s="21">
-        <f t="shared" ref="DL19" si="168">DK19+1</f>
-        <v>227</v>
-      </c>
-      <c r="DM19" s="7">
-        <f t="shared" ref="DM19" si="169">DL19+1</f>
-        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:117" ht="42" customHeight="1">
@@ -6127,29 +6234,29 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R20" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S20" s="18"/>
       <c r="T20" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V20" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X20" s="18"/>
       <c r="Y20" s="18"/>
@@ -6158,29 +6265,29 @@
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
       <c r="AD20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AE20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG20" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH20" s="18"/>
       <c r="AI20" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AJ20" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AK20" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AL20" s="18" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AM20" s="18"/>
       <c r="AN20" s="18"/>
@@ -6189,29 +6296,29 @@
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
       <c r="AS20" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AT20" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AU20" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AV20" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AW20" s="18"/>
       <c r="AX20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AY20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AZ20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BA20" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="BB20" s="18"/>
       <c r="BC20" s="18"/>
@@ -6220,29 +6327,29 @@
       <c r="BF20" s="18"/>
       <c r="BG20" s="18"/>
       <c r="BH20" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BI20" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BJ20" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BK20" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="BL20" s="18"/>
       <c r="BM20" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BN20" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BO20" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BP20" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BQ20" s="18"/>
       <c r="BR20" s="18"/>
@@ -6251,29 +6358,29 @@
       <c r="BU20" s="18"/>
       <c r="BV20" s="18"/>
       <c r="BW20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BX20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BY20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BZ20" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="CA20" s="18"/>
       <c r="CB20" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CC20" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CD20" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CE20" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="CF20" s="9"/>
       <c r="CG20" s="9"/>
@@ -6306,16 +6413,16 @@
       <c r="DH20" s="9"/>
       <c r="DI20" s="9"/>
       <c r="DJ20" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="DK20" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="DL20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="DM20" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+      <c r="DM20" s="28" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:117" ht="42" customHeight="1">
@@ -6326,7 +6433,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -6414,76 +6521,76 @@
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
       <c r="CL21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CM21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CM21" s="1" t="s">
+      <c r="CN21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CN21" s="1" t="s">
+      <c r="CO21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CO21" s="1" t="s">
+      <c r="CP21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CP21" s="1" t="s">
+      <c r="CQ21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CQ21" s="1" t="s">
+      <c r="CR21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CR21" s="1" t="s">
+      <c r="CS21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CS21" s="1" t="s">
+      <c r="CT21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CT21" s="1" t="s">
+      <c r="CU21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CU21" s="1" t="s">
+      <c r="CV21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CW21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="CX21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CV21" s="1" t="s">
+      <c r="CY21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CZ21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DA21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DB21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DC21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DE21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DF21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DG21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="DH21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="CW21" s="1" t="s">
+      <c r="DI21" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="CX21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CY21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CZ21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DA21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DB21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DC21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DD21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="DE21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DF21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="DG21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DH21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DI21" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="DJ21" s="9"/>
       <c r="DK21" s="9"/>
@@ -6492,7 +6599,7 @@
     </row>
     <row r="22" spans="2:117" ht="42" customHeight="1">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="6">
         <v>36</v>
@@ -6515,14 +6622,14 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="9"/>
       <c r="X22" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -6534,14 +6641,14 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
       <c r="AH22" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="9"/>
       <c r="AM22" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
@@ -6553,14 +6660,14 @@
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
       <c r="AW22" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AX22" s="9"/>
       <c r="AY22" s="9"/>
       <c r="AZ22" s="9"/>
       <c r="BA22" s="9"/>
       <c r="BB22" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
@@ -6572,14 +6679,14 @@
       <c r="BJ22" s="9"/>
       <c r="BK22" s="9"/>
       <c r="BL22" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BM22" s="9"/>
       <c r="BN22" s="9"/>
       <c r="BO22" s="9"/>
       <c r="BP22" s="9"/>
       <c r="BQ22" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BR22" s="9"/>
       <c r="BS22" s="9"/>
@@ -6591,14 +6698,14 @@
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
       <c r="CA22" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CB22" s="9"/>
       <c r="CC22" s="9"/>
       <c r="CD22" s="9"/>
       <c r="CE22" s="9"/>
       <c r="CF22" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CG22" s="9"/>
       <c r="CH22" s="9"/>
@@ -6636,7 +6743,7 @@
     </row>
     <row r="23" spans="2:117" ht="42" customHeight="1">
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
@@ -6645,19 +6752,19 @@
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -6670,19 +6777,19 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
       <c r="T23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -6695,19 +6802,19 @@
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AK23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AM23" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
@@ -6720,19 +6827,19 @@
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
       <c r="AX23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AY23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AZ23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BA23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BB23" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BC23" s="9"/>
       <c r="BD23" s="9"/>
@@ -6745,19 +6852,19 @@
       <c r="BK23" s="9"/>
       <c r="BL23" s="9"/>
       <c r="BM23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BN23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BO23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BP23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BQ23" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BR23" s="9"/>
       <c r="BS23" s="9"/>
@@ -6770,19 +6877,19 @@
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
       <c r="CB23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CC23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CD23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CE23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CF23" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="CG23" s="9"/>
       <c r="CH23" s="9"/>
@@ -6820,7 +6927,7 @@
     </row>
     <row r="24" spans="2:117" ht="42" customHeight="1" thickBot="1">
       <c r="B24" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="14">
         <v>6</v>
@@ -6834,34 +6941,34 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
@@ -6869,34 +6976,34 @@
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z24" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AA24" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB24" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AC24" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AE24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AG24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AH24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI24" s="15"/>
       <c r="AJ24" s="15"/>
@@ -6904,34 +7011,34 @@
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
       <c r="AN24" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AO24" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AP24" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AQ24" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AR24" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AS24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AT24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AV24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AW24" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AX24" s="15"/>
       <c r="AY24" s="15"/>
@@ -6939,34 +7046,34 @@
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
       <c r="BC24" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BD24" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BE24" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BF24" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BG24" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="BH24" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BI24" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BJ24" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BK24" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BL24" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="BM24" s="15"/>
       <c r="BN24" s="15"/>
@@ -6974,34 +7081,34 @@
       <c r="BP24" s="15"/>
       <c r="BQ24" s="15"/>
       <c r="BR24" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BS24" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BT24" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BU24" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BV24" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BW24" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BX24" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BY24" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BZ24" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CA24" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="CB24" s="15"/>
       <c r="CC24" s="15"/>
@@ -7009,19 +7116,19 @@
       <c r="CE24" s="15"/>
       <c r="CF24" s="15"/>
       <c r="CG24" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CH24" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CI24" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CJ24" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CK24" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CL24" s="15"/>
       <c r="CM24" s="15"/>
@@ -7053,8 +7160,7 @@
       <c r="DM24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E1:DO1"/>
+  <mergeCells count="7">
     <mergeCell ref="E18:DM18"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1505,7 +1504,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1591,17 +1590,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1614,9 +1610,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="781">
@@ -2734,11 +2727,11 @@
   </sheetPr>
   <dimension ref="A1:DM24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:DL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
@@ -2753,572 +2746,572 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="29"/>
-      <c r="AW1" s="29"/>
-      <c r="AX1" s="29"/>
-      <c r="AY1" s="29"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="29"/>
-      <c r="BB1" s="29"/>
-      <c r="BC1" s="29"/>
-      <c r="BD1" s="29"/>
-      <c r="BE1" s="29"/>
-      <c r="BF1" s="29"/>
-      <c r="BG1" s="29"/>
-      <c r="BH1" s="29"/>
-      <c r="BI1" s="29"/>
-      <c r="BJ1" s="29"/>
-      <c r="BK1" s="29"/>
-      <c r="BL1" s="29"/>
-      <c r="BM1" s="29"/>
-      <c r="BN1" s="29"/>
-      <c r="BO1" s="29"/>
-      <c r="BP1" s="29"/>
-      <c r="BQ1" s="29"/>
-      <c r="BR1" s="29"/>
-      <c r="BS1" s="29"/>
-      <c r="BT1" s="29"/>
-      <c r="BU1" s="29"/>
-      <c r="BV1" s="29"/>
-      <c r="BW1" s="29"/>
-      <c r="BX1" s="29"/>
-      <c r="BY1" s="29"/>
-      <c r="BZ1" s="29"/>
-      <c r="CA1" s="29"/>
-      <c r="CB1" s="29"/>
-      <c r="CC1" s="29"/>
-      <c r="CD1" s="29"/>
-      <c r="CE1" s="29"/>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="29"/>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="29"/>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="29"/>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="29"/>
-      <c r="CW1" s="29"/>
-      <c r="CX1" s="29"/>
-      <c r="CY1" s="29"/>
-      <c r="CZ1" s="29"/>
-      <c r="DA1" s="29"/>
-      <c r="DB1" s="29"/>
-      <c r="DC1" s="29"/>
-      <c r="DD1" s="29"/>
-      <c r="DE1" s="29"/>
-      <c r="DF1" s="29"/>
-      <c r="DG1" s="29"/>
-      <c r="DH1" s="29"/>
-      <c r="DI1" s="29"/>
-      <c r="DJ1" s="29"/>
-      <c r="DK1" s="29"/>
-      <c r="DL1" s="30"/>
-      <c r="DM1" s="37"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
+      <c r="AW1" s="32"/>
+      <c r="AX1" s="32"/>
+      <c r="AY1" s="32"/>
+      <c r="AZ1" s="32"/>
+      <c r="BA1" s="32"/>
+      <c r="BB1" s="32"/>
+      <c r="BC1" s="32"/>
+      <c r="BD1" s="32"/>
+      <c r="BE1" s="32"/>
+      <c r="BF1" s="32"/>
+      <c r="BG1" s="32"/>
+      <c r="BH1" s="32"/>
+      <c r="BI1" s="32"/>
+      <c r="BJ1" s="32"/>
+      <c r="BK1" s="32"/>
+      <c r="BL1" s="32"/>
+      <c r="BM1" s="32"/>
+      <c r="BN1" s="32"/>
+      <c r="BO1" s="32"/>
+      <c r="BP1" s="32"/>
+      <c r="BQ1" s="32"/>
+      <c r="BR1" s="32"/>
+      <c r="BS1" s="32"/>
+      <c r="BT1" s="32"/>
+      <c r="BU1" s="32"/>
+      <c r="BV1" s="32"/>
+      <c r="BW1" s="32"/>
+      <c r="BX1" s="32"/>
+      <c r="BY1" s="32"/>
+      <c r="BZ1" s="32"/>
+      <c r="CA1" s="32"/>
+      <c r="CB1" s="32"/>
+      <c r="CC1" s="32"/>
+      <c r="CD1" s="32"/>
+      <c r="CE1" s="32"/>
+      <c r="CF1" s="32"/>
+      <c r="CG1" s="32"/>
+      <c r="CH1" s="32"/>
+      <c r="CI1" s="32"/>
+      <c r="CJ1" s="32"/>
+      <c r="CK1" s="32"/>
+      <c r="CL1" s="32"/>
+      <c r="CM1" s="32"/>
+      <c r="CN1" s="32"/>
+      <c r="CO1" s="32"/>
+      <c r="CP1" s="32"/>
+      <c r="CQ1" s="32"/>
+      <c r="CR1" s="32"/>
+      <c r="CS1" s="32"/>
+      <c r="CT1" s="32"/>
+      <c r="CU1" s="32"/>
+      <c r="CV1" s="32"/>
+      <c r="CW1" s="32"/>
+      <c r="CX1" s="32"/>
+      <c r="CY1" s="32"/>
+      <c r="CZ1" s="32"/>
+      <c r="DA1" s="32"/>
+      <c r="DB1" s="32"/>
+      <c r="DC1" s="32"/>
+      <c r="DD1" s="32"/>
+      <c r="DE1" s="32"/>
+      <c r="DF1" s="32"/>
+      <c r="DG1" s="32"/>
+      <c r="DH1" s="32"/>
+      <c r="DI1" s="32"/>
+      <c r="DJ1" s="32"/>
+      <c r="DK1" s="32"/>
+      <c r="DL1" s="33"/>
+      <c r="DM1" s="31"/>
     </row>
     <row r="2" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="30">
         <v>1</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="30">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="30">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="30">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="32">
+      <c r="Y2" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="32">
+      <c r="Z2" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="32">
+      <c r="AB2" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="32">
+      <c r="AE2" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="32">
+      <c r="AF2" s="30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="32">
+      <c r="AI2" s="30">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="32">
+      <c r="AJ2" s="30">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="32">
+      <c r="AK2" s="30">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="32">
+      <c r="AL2" s="30">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="32">
+      <c r="AM2" s="30">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="32">
+      <c r="AN2" s="30">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="32">
+      <c r="AO2" s="30">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="32">
+      <c r="AP2" s="30">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="32">
+      <c r="AQ2" s="30">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="32">
+      <c r="AR2" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="32">
+      <c r="AS2" s="30">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="32">
+      <c r="AT2" s="30">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="32">
+      <c r="AU2" s="30">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="32">
+      <c r="AV2" s="30">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="32">
+      <c r="AW2" s="30">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="32">
+      <c r="AX2" s="30">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="32">
+      <c r="AY2" s="30">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="32">
+      <c r="AZ2" s="30">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="32">
+      <c r="BA2" s="30">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="32">
+      <c r="BB2" s="30">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="32">
+      <c r="BC2" s="30">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="32">
+      <c r="BD2" s="30">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="32">
+      <c r="BE2" s="30">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="32">
+      <c r="BF2" s="30">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="32">
+      <c r="BG2" s="30">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="32">
+      <c r="BH2" s="30">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="32">
+      <c r="BI2" s="30">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="32">
+      <c r="BJ2" s="30">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="32">
+      <c r="BK2" s="30">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="32">
+      <c r="BL2" s="30">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="32">
+      <c r="BM2" s="30">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="32">
+      <c r="BN2" s="30">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="32">
+      <c r="BO2" s="30">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="32">
+      <c r="BP2" s="30">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="32">
+      <c r="BQ2" s="30">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="32">
+      <c r="BR2" s="30">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="32">
+      <c r="BS2" s="30">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="32">
+      <c r="BT2" s="30">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="32">
+      <c r="BU2" s="30">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="32">
+      <c r="BV2" s="30">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="32">
+      <c r="BW2" s="30">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="32">
+      <c r="BX2" s="30">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="32">
+      <c r="BY2" s="30">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="32">
+      <c r="BZ2" s="30">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="32">
+      <c r="CA2" s="30">
         <f t="shared" ref="CA2" si="2">BZ2+1</f>
         <v>75</v>
       </c>
-      <c r="CB2" s="32">
+      <c r="CB2" s="30">
         <f t="shared" ref="CB2" si="3">CA2+1</f>
         <v>76</v>
       </c>
-      <c r="CC2" s="32">
+      <c r="CC2" s="30">
         <f t="shared" ref="CC2" si="4">CB2+1</f>
         <v>77</v>
       </c>
-      <c r="CD2" s="32">
+      <c r="CD2" s="30">
         <f t="shared" ref="CD2" si="5">CC2+1</f>
         <v>78</v>
       </c>
-      <c r="CE2" s="32">
+      <c r="CE2" s="30">
         <f t="shared" ref="CE2" si="6">CD2+1</f>
         <v>79</v>
       </c>
-      <c r="CF2" s="32">
+      <c r="CF2" s="30">
         <f t="shared" ref="CF2" si="7">CE2+1</f>
         <v>80</v>
       </c>
-      <c r="CG2" s="32">
+      <c r="CG2" s="30">
         <f t="shared" ref="CG2" si="8">CF2+1</f>
         <v>81</v>
       </c>
-      <c r="CH2" s="32">
+      <c r="CH2" s="30">
         <f t="shared" ref="CH2" si="9">CG2+1</f>
         <v>82</v>
       </c>
-      <c r="CI2" s="32">
+      <c r="CI2" s="30">
         <f t="shared" ref="CI2" si="10">CH2+1</f>
         <v>83</v>
       </c>
-      <c r="CJ2" s="32">
+      <c r="CJ2" s="30">
         <f t="shared" ref="CJ2" si="11">CI2+1</f>
         <v>84</v>
       </c>
-      <c r="CK2" s="32">
+      <c r="CK2" s="30">
         <f t="shared" ref="CK2" si="12">CJ2+1</f>
         <v>85</v>
       </c>
-      <c r="CL2" s="32">
+      <c r="CL2" s="30">
         <f t="shared" ref="CL2" si="13">CK2+1</f>
         <v>86</v>
       </c>
-      <c r="CM2" s="32">
+      <c r="CM2" s="30">
         <f t="shared" ref="CM2" si="14">CL2+1</f>
         <v>87</v>
       </c>
-      <c r="CN2" s="32">
+      <c r="CN2" s="30">
         <f t="shared" ref="CN2" si="15">CM2+1</f>
         <v>88</v>
       </c>
-      <c r="CO2" s="32">
+      <c r="CO2" s="30">
         <f t="shared" ref="CO2" si="16">CN2+1</f>
         <v>89</v>
       </c>
-      <c r="CP2" s="32">
+      <c r="CP2" s="30">
         <f t="shared" ref="CP2" si="17">CO2+1</f>
         <v>90</v>
       </c>
-      <c r="CQ2" s="32">
+      <c r="CQ2" s="30">
         <f t="shared" ref="CQ2" si="18">CP2+1</f>
         <v>91</v>
       </c>
-      <c r="CR2" s="32">
+      <c r="CR2" s="30">
         <f t="shared" ref="CR2" si="19">CQ2+1</f>
         <v>92</v>
       </c>
-      <c r="CS2" s="32">
+      <c r="CS2" s="30">
         <f t="shared" ref="CS2" si="20">CR2+1</f>
         <v>93</v>
       </c>
-      <c r="CT2" s="32">
+      <c r="CT2" s="30">
         <f t="shared" ref="CT2" si="21">CS2+1</f>
         <v>94</v>
       </c>
-      <c r="CU2" s="32">
+      <c r="CU2" s="30">
         <f t="shared" ref="CU2" si="22">CT2+1</f>
         <v>95</v>
       </c>
-      <c r="CV2" s="32">
+      <c r="CV2" s="30">
         <f t="shared" ref="CV2" si="23">CU2+1</f>
         <v>96</v>
       </c>
-      <c r="CW2" s="32">
+      <c r="CW2" s="30">
         <f t="shared" ref="CW2" si="24">CV2+1</f>
         <v>97</v>
       </c>
-      <c r="CX2" s="32">
+      <c r="CX2" s="30">
         <f t="shared" ref="CX2" si="25">CW2+1</f>
         <v>98</v>
       </c>
-      <c r="CY2" s="32">
+      <c r="CY2" s="30">
         <f t="shared" ref="CY2" si="26">CX2+1</f>
         <v>99</v>
       </c>
-      <c r="CZ2" s="32">
+      <c r="CZ2" s="30">
         <f t="shared" ref="CZ2" si="27">CY2+1</f>
         <v>100</v>
       </c>
-      <c r="DA2" s="32">
+      <c r="DA2" s="30">
         <f t="shared" ref="DA2" si="28">CZ2+1</f>
         <v>101</v>
       </c>
-      <c r="DB2" s="32">
+      <c r="DB2" s="30">
         <f t="shared" ref="DB2" si="29">DA2+1</f>
         <v>102</v>
       </c>
-      <c r="DC2" s="32">
+      <c r="DC2" s="30">
         <f t="shared" ref="DC2" si="30">DB2+1</f>
         <v>103</v>
       </c>
-      <c r="DD2" s="32">
+      <c r="DD2" s="30">
         <f t="shared" ref="DD2" si="31">DC2+1</f>
         <v>104</v>
       </c>
-      <c r="DE2" s="32">
+      <c r="DE2" s="30">
         <f t="shared" ref="DE2" si="32">DD2+1</f>
         <v>105</v>
       </c>
-      <c r="DF2" s="32">
+      <c r="DF2" s="30">
         <f t="shared" ref="DF2" si="33">DE2+1</f>
         <v>106</v>
       </c>
-      <c r="DG2" s="32">
+      <c r="DG2" s="30">
         <f t="shared" ref="DG2" si="34">DF2+1</f>
         <v>107</v>
       </c>
-      <c r="DH2" s="32">
+      <c r="DH2" s="30">
         <f t="shared" ref="DH2" si="35">DG2+1</f>
         <v>108</v>
       </c>
-      <c r="DI2" s="32">
+      <c r="DI2" s="30">
         <f t="shared" ref="DI2" si="36">DH2+1</f>
         <v>109</v>
       </c>
-      <c r="DJ2" s="32">
+      <c r="DJ2" s="30">
         <f t="shared" ref="DJ2" si="37">DI2+1</f>
         <v>110</v>
       </c>
-      <c r="DK2" s="32">
+      <c r="DK2" s="30">
         <f t="shared" ref="DK2" si="38">DJ2+1</f>
         <v>111</v>
       </c>
@@ -3329,13 +3322,13 @@
       <c r="DM2" s="22"/>
     </row>
     <row r="3" spans="2:117" ht="42" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>2</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>23</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -3520,9 +3513,9 @@
       <c r="DM3" s="23"/>
     </row>
     <row r="4" spans="2:117" ht="42" customHeight="1">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
         <v>4</v>
@@ -3694,9 +3687,9 @@
       <c r="DM4" s="23"/>
     </row>
     <row r="5" spans="2:117" ht="42" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9" t="s">
@@ -3872,9 +3865,9 @@
       <c r="DM5" s="23"/>
     </row>
     <row r="6" spans="2:117" ht="42" customHeight="1">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -4037,9 +4030,9 @@
       <c r="DM6" s="23"/>
     </row>
     <row r="7" spans="2:117" ht="42" customHeight="1">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -4201,9 +4194,9 @@
       <c r="DM7" s="23"/>
     </row>
     <row r="8" spans="2:117" ht="42" customHeight="1">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -4366,13 +4359,13 @@
       <c r="DM8" s="23"/>
     </row>
     <row r="9" spans="2:117" ht="42" customHeight="1">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>15</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>4</v>
       </c>
       <c r="E9" s="9"/>
@@ -4552,9 +4545,9 @@
       <c r="DM9" s="23"/>
     </row>
     <row r="10" spans="2:117" ht="42" customHeight="1">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -4681,9 +4674,9 @@
       <c r="DM10" s="23"/>
     </row>
     <row r="11" spans="2:117" ht="42" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -4812,9 +4805,9 @@
       <c r="DM11" s="23"/>
     </row>
     <row r="12" spans="2:117" ht="42" customHeight="1">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4940,9 +4933,9 @@
       <c r="DM12" s="23"/>
     </row>
     <row r="13" spans="2:117" ht="42" customHeight="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -5070,9 +5063,9 @@
       <c r="DM13" s="23"/>
     </row>
     <row r="14" spans="2:117" ht="42" customHeight="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -5198,13 +5191,13 @@
       <c r="DM14" s="23"/>
     </row>
     <row r="15" spans="2:117" ht="42" customHeight="1">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="30">
         <v>36</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="9"/>
@@ -5634,121 +5627,121 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
-      <c r="AX18" s="33"/>
-      <c r="AY18" s="33"/>
-      <c r="AZ18" s="33"/>
-      <c r="BA18" s="33"/>
-      <c r="BB18" s="33"/>
-      <c r="BC18" s="33"/>
-      <c r="BD18" s="33"/>
-      <c r="BE18" s="33"/>
-      <c r="BF18" s="33"/>
-      <c r="BG18" s="33"/>
-      <c r="BH18" s="33"/>
-      <c r="BI18" s="33"/>
-      <c r="BJ18" s="33"/>
-      <c r="BK18" s="33"/>
-      <c r="BL18" s="33"/>
-      <c r="BM18" s="33"/>
-      <c r="BN18" s="33"/>
-      <c r="BO18" s="33"/>
-      <c r="BP18" s="33"/>
-      <c r="BQ18" s="33"/>
-      <c r="BR18" s="33"/>
-      <c r="BS18" s="33"/>
-      <c r="BT18" s="33"/>
-      <c r="BU18" s="33"/>
-      <c r="BV18" s="33"/>
-      <c r="BW18" s="33"/>
-      <c r="BX18" s="33"/>
-      <c r="BY18" s="33"/>
-      <c r="BZ18" s="33"/>
-      <c r="CA18" s="33"/>
-      <c r="CB18" s="33"/>
-      <c r="CC18" s="33"/>
-      <c r="CD18" s="33"/>
-      <c r="CE18" s="33"/>
-      <c r="CF18" s="33"/>
-      <c r="CG18" s="33"/>
-      <c r="CH18" s="33"/>
-      <c r="CI18" s="33"/>
-      <c r="CJ18" s="33"/>
-      <c r="CK18" s="33"/>
-      <c r="CL18" s="33"/>
-      <c r="CM18" s="33"/>
-      <c r="CN18" s="33"/>
-      <c r="CO18" s="33"/>
-      <c r="CP18" s="33"/>
-      <c r="CQ18" s="33"/>
-      <c r="CR18" s="33"/>
-      <c r="CS18" s="33"/>
-      <c r="CT18" s="33"/>
-      <c r="CU18" s="33"/>
-      <c r="CV18" s="33"/>
-      <c r="CW18" s="33"/>
-      <c r="CX18" s="33"/>
-      <c r="CY18" s="33"/>
-      <c r="CZ18" s="33"/>
-      <c r="DA18" s="33"/>
-      <c r="DB18" s="33"/>
-      <c r="DC18" s="33"/>
-      <c r="DD18" s="33"/>
-      <c r="DE18" s="33"/>
-      <c r="DF18" s="33"/>
-      <c r="DG18" s="33"/>
-      <c r="DH18" s="33"/>
-      <c r="DI18" s="33"/>
-      <c r="DJ18" s="33"/>
-      <c r="DK18" s="33"/>
-      <c r="DL18" s="33"/>
-      <c r="DM18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="32"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="32"/>
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="32"/>
+      <c r="BQ18" s="32"/>
+      <c r="BR18" s="32"/>
+      <c r="BS18" s="32"/>
+      <c r="BT18" s="32"/>
+      <c r="BU18" s="32"/>
+      <c r="BV18" s="32"/>
+      <c r="BW18" s="32"/>
+      <c r="BX18" s="32"/>
+      <c r="BY18" s="32"/>
+      <c r="BZ18" s="32"/>
+      <c r="CA18" s="32"/>
+      <c r="CB18" s="32"/>
+      <c r="CC18" s="32"/>
+      <c r="CD18" s="32"/>
+      <c r="CE18" s="32"/>
+      <c r="CF18" s="32"/>
+      <c r="CG18" s="32"/>
+      <c r="CH18" s="32"/>
+      <c r="CI18" s="32"/>
+      <c r="CJ18" s="32"/>
+      <c r="CK18" s="32"/>
+      <c r="CL18" s="32"/>
+      <c r="CM18" s="32"/>
+      <c r="CN18" s="32"/>
+      <c r="CO18" s="32"/>
+      <c r="CP18" s="32"/>
+      <c r="CQ18" s="32"/>
+      <c r="CR18" s="32"/>
+      <c r="CS18" s="32"/>
+      <c r="CT18" s="32"/>
+      <c r="CU18" s="32"/>
+      <c r="CV18" s="32"/>
+      <c r="CW18" s="32"/>
+      <c r="CX18" s="32"/>
+      <c r="CY18" s="32"/>
+      <c r="CZ18" s="32"/>
+      <c r="DA18" s="32"/>
+      <c r="DB18" s="32"/>
+      <c r="DC18" s="32"/>
+      <c r="DD18" s="32"/>
+      <c r="DE18" s="32"/>
+      <c r="DF18" s="32"/>
+      <c r="DG18" s="32"/>
+      <c r="DH18" s="32"/>
+      <c r="DI18" s="32"/>
+      <c r="DJ18" s="32"/>
+      <c r="DK18" s="32"/>
+      <c r="DL18" s="32"/>
+      <c r="DM18" s="33"/>
     </row>
     <row r="19" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B19" s="20" t="s">
@@ -7160,7 +7153,8 @@
       <c r="DM24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="E1:DL1"/>
     <mergeCell ref="E18:DM18"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
   <si>
     <t>sincos</t>
   </si>
@@ -721,8 +721,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="781">
+  <cellStyleXfs count="801">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1612,7 +1632,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="781">
+  <cellStyles count="801">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2003,6 +2023,16 @@
     <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2393,6 +2423,16 @@
     <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2725,21 +2765,20 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DM24"/>
+  <dimension ref="A1:DP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:DL1"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="4.1640625" style="11"/>
+    <col min="5" max="16384" width="4.33203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
@@ -4366,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -5622,8 +5661,8 @@
       </c>
       <c r="DM16" s="23"/>
     </row>
-    <row r="17" spans="2:117" ht="42" customHeight="1" thickBot="1"/>
-    <row r="18" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="17" spans="2:120" ht="42" customHeight="1" thickBot="1"/>
+    <row r="18" spans="2:120" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5743,7 +5782,7 @@
       <c r="DL18" s="32"/>
       <c r="DM18" s="33"/>
     </row>
-    <row r="19" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="19" spans="2:120" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B19" s="20" t="s">
         <v>100</v>
       </c>
@@ -6206,7 +6245,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="2:117" ht="42" customHeight="1">
+    <row r="20" spans="2:120" ht="42" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>2</v>
       </c>
@@ -6214,170 +6253,170 @@
         <v>15</v>
       </c>
       <c r="D20" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
-      <c r="O20" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>133</v>
-      </c>
+      <c r="O20" s="9"/>
       <c r="Q20" s="18" t="s">
         <v>133</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="18"/>
+      <c r="S20" s="18" t="s">
+        <v>133</v>
+      </c>
       <c r="T20" s="18" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="V20" s="18" t="s">
-        <v>144</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="V20" s="18"/>
       <c r="W20" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
+      <c r="X20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>144</v>
+      </c>
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE20" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF20" s="18" t="s">
-        <v>134</v>
-      </c>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
       <c r="AG20" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AH20" s="18"/>
+      <c r="AH20" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="AI20" s="18" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="AJ20" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="AK20" s="18" t="s">
-        <v>147</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AK20" s="18"/>
       <c r="AL20" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
+      <c r="AM20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO20" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="18"/>
-      <c r="AS20" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT20" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU20" s="18" t="s">
-        <v>137</v>
-      </c>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="18"/>
       <c r="AV20" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="AW20" s="18"/>
-      <c r="AX20" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AY20" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="AZ20" s="19" t="s">
-        <v>150</v>
-      </c>
+      <c r="AW20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY20" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ20" s="18"/>
       <c r="BA20" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="18"/>
-      <c r="BD20" s="18"/>
+      <c r="BB20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC20" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD20" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="BE20" s="18"/>
       <c r="BF20" s="18"/>
       <c r="BG20" s="18"/>
-      <c r="BH20" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="BI20" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="BJ20" s="19" t="s">
-        <v>139</v>
-      </c>
+      <c r="BH20" s="18"/>
+      <c r="BI20" s="18"/>
+      <c r="BJ20" s="18"/>
       <c r="BK20" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="BL20" s="18"/>
+      <c r="BL20" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="BM20" s="19" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="BN20" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="BO20" s="19" t="s">
-        <v>153</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="BO20" s="18"/>
       <c r="BP20" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="BQ20" s="18"/>
-      <c r="BR20" s="18"/>
-      <c r="BS20" s="18"/>
+      <c r="BQ20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BR20" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS20" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="BT20" s="18"/>
       <c r="BU20" s="18"/>
       <c r="BV20" s="18"/>
-      <c r="BW20" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX20" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="BY20" s="19" t="s">
-        <v>141</v>
-      </c>
+      <c r="BW20" s="18"/>
+      <c r="BX20" s="18"/>
+      <c r="BY20" s="18"/>
       <c r="BZ20" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="CA20" s="18"/>
+      <c r="CA20" s="19" t="s">
+        <v>141</v>
+      </c>
       <c r="CB20" s="19" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="CC20" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD20" s="19" t="s">
-        <v>156</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="CD20" s="18"/>
       <c r="CE20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="CF20" s="9"/>
-      <c r="CG20" s="9"/>
-      <c r="CH20" s="9"/>
+      <c r="CF20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH20" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
@@ -6405,20 +6444,23 @@
       <c r="DG20" s="9"/>
       <c r="DH20" s="9"/>
       <c r="DI20" s="9"/>
-      <c r="DJ20" s="18" t="s">
+      <c r="DJ20" s="9"/>
+      <c r="DK20" s="9"/>
+      <c r="DL20" s="9"/>
+      <c r="DM20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="DK20" s="18" t="s">
+      <c r="DN20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="DL20" s="18" t="s">
+      <c r="DO20" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="DM20" s="28" t="s">
+      <c r="DP20" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:117" ht="42" customHeight="1">
+    <row r="21" spans="2:120" ht="42" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
@@ -6433,17 +6475,14 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
@@ -6513,84 +6552,87 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="1" t="s">
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CM21" s="1" t="s">
+      <c r="CP21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CN21" s="1" t="s">
+      <c r="CQ21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CO21" s="1" t="s">
+      <c r="CR21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CP21" s="1" t="s">
+      <c r="CS21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CQ21" s="1" t="s">
+      <c r="CT21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CR21" s="1" t="s">
+      <c r="CU21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CS21" s="1" t="s">
+      <c r="CV21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CT21" s="1" t="s">
+      <c r="CW21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CU21" s="1" t="s">
+      <c r="CX21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CV21" s="1" t="s">
+      <c r="CY21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="CW21" s="1" t="s">
+      <c r="CZ21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="CX21" s="1" t="s">
+      <c r="DA21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CY21" s="1" t="s">
+      <c r="DB21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CZ21" s="1" t="s">
+      <c r="DC21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DA21" s="1" t="s">
+      <c r="DD21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DB21" s="1" t="s">
+      <c r="DE21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DC21" s="1" t="s">
+      <c r="DF21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DD21" s="1" t="s">
+      <c r="DG21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DE21" s="1" t="s">
+      <c r="DH21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DF21" s="1" t="s">
+      <c r="DI21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DG21" s="1" t="s">
+      <c r="DJ21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DH21" s="1" t="s">
+      <c r="DK21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DI21" s="1" t="s">
+      <c r="DL21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="DJ21" s="9"/>
-      <c r="DK21" s="9"/>
-      <c r="DL21" s="9"/>
-      <c r="DM21" s="10"/>
+      <c r="DM21" s="9"/>
+      <c r="DN21" s="9"/>
+      <c r="DO21" s="9"/>
+      <c r="DP21" s="10"/>
     </row>
-    <row r="22" spans="2:117" ht="42" customHeight="1">
+    <row r="22" spans="2:120" ht="42" customHeight="1">
       <c r="B22" s="5" t="s">
         <v>76</v>
       </c>
@@ -6605,104 +6647,101 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="9" t="s">
-        <v>145</v>
-      </c>
+      <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
-      <c r="AH22" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="AH22" s="9"/>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
+      <c r="AK22" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="AL22" s="9"/>
-      <c r="AM22" s="9" t="s">
-        <v>148</v>
-      </c>
+      <c r="AM22" s="9"/>
       <c r="AN22" s="9"/>
       <c r="AO22" s="9"/>
-      <c r="AP22" s="9"/>
+      <c r="AP22" s="9" t="s">
+        <v>148</v>
+      </c>
       <c r="AQ22" s="9"/>
       <c r="AR22" s="9"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="9"/>
       <c r="AU22" s="9"/>
       <c r="AV22" s="9"/>
-      <c r="AW22" s="9" t="s">
-        <v>138</v>
-      </c>
+      <c r="AW22" s="9"/>
       <c r="AX22" s="9"/>
       <c r="AY22" s="9"/>
-      <c r="AZ22" s="9"/>
+      <c r="AZ22" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="BA22" s="9"/>
-      <c r="BB22" s="12" t="s">
-        <v>151</v>
-      </c>
+      <c r="BB22" s="9"/>
       <c r="BC22" s="9"/>
       <c r="BD22" s="9"/>
-      <c r="BE22" s="9"/>
+      <c r="BE22" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="BF22" s="9"/>
       <c r="BG22" s="9"/>
       <c r="BH22" s="9"/>
       <c r="BI22" s="9"/>
       <c r="BJ22" s="9"/>
       <c r="BK22" s="9"/>
-      <c r="BL22" s="12" t="s">
-        <v>140</v>
-      </c>
+      <c r="BL22" s="9"/>
       <c r="BM22" s="9"/>
       <c r="BN22" s="9"/>
-      <c r="BO22" s="9"/>
+      <c r="BO22" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="BP22" s="9"/>
-      <c r="BQ22" s="12" t="s">
-        <v>154</v>
-      </c>
+      <c r="BQ22" s="9"/>
       <c r="BR22" s="9"/>
       <c r="BS22" s="9"/>
-      <c r="BT22" s="9"/>
+      <c r="BT22" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="BU22" s="9"/>
       <c r="BV22" s="9"/>
       <c r="BW22" s="9"/>
       <c r="BX22" s="9"/>
       <c r="BY22" s="9"/>
       <c r="BZ22" s="9"/>
-      <c r="CA22" s="12" t="s">
-        <v>142</v>
-      </c>
+      <c r="CA22" s="9"/>
       <c r="CB22" s="9"/>
       <c r="CC22" s="9"/>
-      <c r="CD22" s="9"/>
+      <c r="CD22" s="12" t="s">
+        <v>142</v>
+      </c>
       <c r="CE22" s="9"/>
-      <c r="CF22" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="CF22" s="9"/>
       <c r="CG22" s="9"/>
       <c r="CH22" s="9"/>
-      <c r="CI22" s="9"/>
+      <c r="CI22" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="CJ22" s="9"/>
       <c r="CK22" s="9"/>
       <c r="CL22" s="9"/>
@@ -6732,9 +6771,12 @@
       <c r="DJ22" s="9"/>
       <c r="DK22" s="9"/>
       <c r="DL22" s="9"/>
-      <c r="DM22" s="10"/>
+      <c r="DM22" s="9"/>
+      <c r="DN22" s="9"/>
+      <c r="DO22" s="9"/>
+      <c r="DP22" s="10"/>
     </row>
-    <row r="23" spans="2:117" ht="42" customHeight="1">
+    <row r="23" spans="2:120" ht="42" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
@@ -6742,7 +6784,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>122</v>
@@ -6759,34 +6801,34 @@
       <c r="I23" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
       <c r="W23" s="9" t="s">
         <v>123</v>
       </c>
       <c r="X23" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
+      <c r="Y23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>123</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -6794,24 +6836,24 @@
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
-      <c r="AI23" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ23" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK23" s="9" t="s">
-        <v>124</v>
-      </c>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
       <c r="AL23" s="9" t="s">
         <v>124</v>
       </c>
       <c r="AM23" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
+      <c r="AN23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP23" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="AQ23" s="9"/>
       <c r="AR23" s="9"/>
       <c r="AS23" s="9"/>
@@ -6819,24 +6861,24 @@
       <c r="AU23" s="9"/>
       <c r="AV23" s="9"/>
       <c r="AW23" s="9"/>
-      <c r="AX23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY23" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ23" s="12" t="s">
-        <v>125</v>
-      </c>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
       <c r="BA23" s="12" t="s">
         <v>125</v>
       </c>
       <c r="BB23" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
+      <c r="BC23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD23" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE23" s="12" t="s">
+        <v>125</v>
+      </c>
       <c r="BF23" s="9"/>
       <c r="BG23" s="9"/>
       <c r="BH23" s="9"/>
@@ -6844,24 +6886,24 @@
       <c r="BJ23" s="9"/>
       <c r="BK23" s="9"/>
       <c r="BL23" s="9"/>
-      <c r="BM23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="BN23" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="BO23" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
       <c r="BP23" s="12" t="s">
         <v>126</v>
       </c>
       <c r="BQ23" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="BR23" s="9"/>
-      <c r="BS23" s="9"/>
-      <c r="BT23" s="9"/>
+      <c r="BR23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT23" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="BU23" s="9"/>
       <c r="BV23" s="9"/>
       <c r="BW23" s="9"/>
@@ -6869,24 +6911,24 @@
       <c r="BY23" s="9"/>
       <c r="BZ23" s="9"/>
       <c r="CA23" s="9"/>
-      <c r="CB23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD23" s="12" t="s">
-        <v>127</v>
-      </c>
+      <c r="CB23" s="9"/>
+      <c r="CC23" s="9"/>
+      <c r="CD23" s="9"/>
       <c r="CE23" s="12" t="s">
         <v>127</v>
       </c>
       <c r="CF23" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="CG23" s="9"/>
-      <c r="CH23" s="9"/>
-      <c r="CI23" s="9"/>
+      <c r="CG23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="CI23" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="CJ23" s="9"/>
       <c r="CK23" s="9"/>
       <c r="CL23" s="9"/>
@@ -6916,9 +6958,12 @@
       <c r="DJ23" s="9"/>
       <c r="DK23" s="9"/>
       <c r="DL23" s="9"/>
-      <c r="DM23" s="10"/>
+      <c r="DM23" s="9"/>
+      <c r="DN23" s="9"/>
+      <c r="DO23" s="9"/>
+      <c r="DP23" s="10"/>
     </row>
-    <row r="24" spans="2:117" ht="42" customHeight="1" thickBot="1">
+    <row r="24" spans="2:120" ht="42" customHeight="1" thickBot="1">
       <c r="B24" s="13" t="s">
         <v>78</v>
       </c>
@@ -6926,16 +6971,13 @@
         <v>6</v>
       </c>
       <c r="D24" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="K24" s="15" t="s">
         <v>128</v>
       </c>
@@ -6949,10 +6991,10 @@
         <v>128</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="15" t="s">
         <v>143</v>
@@ -6963,20 +7005,20 @@
       <c r="S24" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
+      <c r="T24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
-      <c r="Y24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z24" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA24" s="15" t="s">
-        <v>129</v>
-      </c>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
       <c r="AB24" s="15" t="s">
         <v>129</v>
       </c>
@@ -6984,13 +7026,13 @@
         <v>129</v>
       </c>
       <c r="AD24" s="15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AE24" s="15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AF24" s="15" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="AG24" s="15" t="s">
         <v>146</v>
@@ -6998,34 +7040,34 @@
       <c r="AH24" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
+      <c r="AI24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ24" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK24" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
-      <c r="AN24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO24" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP24" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
       <c r="AQ24" s="15" t="s">
         <v>130</v>
       </c>
       <c r="AR24" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="AS24" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT24" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU24" s="16" t="s">
-        <v>149</v>
+      <c r="AS24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU24" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="AV24" s="16" t="s">
         <v>149</v>
@@ -7033,34 +7075,34 @@
       <c r="AW24" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="AX24" s="15"/>
-      <c r="AY24" s="15"/>
-      <c r="AZ24" s="15"/>
+      <c r="AX24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ24" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="BA24" s="15"/>
       <c r="BB24" s="15"/>
-      <c r="BC24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD24" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE24" s="15" t="s">
-        <v>131</v>
-      </c>
+      <c r="BC24" s="15"/>
+      <c r="BD24" s="15"/>
+      <c r="BE24" s="15"/>
       <c r="BF24" s="15" t="s">
         <v>131</v>
       </c>
       <c r="BG24" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="BH24" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI24" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ24" s="16" t="s">
-        <v>152</v>
+      <c r="BH24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI24" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ24" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="BK24" s="16" t="s">
         <v>152</v>
@@ -7068,34 +7110,34 @@
       <c r="BL24" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="BM24" s="15"/>
-      <c r="BN24" s="15"/>
-      <c r="BO24" s="15"/>
+      <c r="BM24" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BN24" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO24" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="BP24" s="15"/>
       <c r="BQ24" s="15"/>
-      <c r="BR24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="BS24" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="BT24" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="BR24" s="15"/>
+      <c r="BS24" s="15"/>
+      <c r="BT24" s="15"/>
       <c r="BU24" s="15" t="s">
         <v>132</v>
       </c>
       <c r="BV24" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="BW24" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="BX24" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY24" s="16" t="s">
-        <v>155</v>
+      <c r="BW24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BX24" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="BY24" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="BZ24" s="16" t="s">
         <v>155</v>
@@ -7103,29 +7145,35 @@
       <c r="CA24" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="CB24" s="15"/>
-      <c r="CC24" s="15"/>
-      <c r="CD24" s="15"/>
+      <c r="CB24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CC24" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CD24" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="CE24" s="15"/>
       <c r="CF24" s="15"/>
-      <c r="CG24" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="CH24" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="CI24" s="16" t="s">
-        <v>158</v>
-      </c>
+      <c r="CG24" s="15"/>
+      <c r="CH24" s="15"/>
+      <c r="CI24" s="15"/>
       <c r="CJ24" s="16" t="s">
         <v>158</v>
       </c>
       <c r="CK24" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="CL24" s="15"/>
-      <c r="CM24" s="15"/>
-      <c r="CN24" s="15"/>
+      <c r="CL24" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM24" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="CN24" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="CO24" s="15"/>
       <c r="CP24" s="15"/>
       <c r="CQ24" s="15"/>
@@ -7150,7 +7198,10 @@
       <c r="DJ24" s="15"/>
       <c r="DK24" s="15"/>
       <c r="DL24" s="15"/>
-      <c r="DM24" s="17"/>
+      <c r="DM24" s="15"/>
+      <c r="DN24" s="15"/>
+      <c r="DO24" s="15"/>
+      <c r="DP24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="600" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2768,10 +2768,10 @@
   <dimension ref="A1:DP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="L12" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24:T24"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
@@ -5793,456 +5793,456 @@
         <v>10</v>
       </c>
       <c r="E19" s="21">
-        <f>MAX(2:2)</f>
-        <v>112</v>
+        <f>MAX(2:2)+1</f>
+        <v>113</v>
       </c>
       <c r="F19" s="21">
         <f t="shared" ref="F19" si="56">E19+1</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G19" s="21">
         <f t="shared" ref="G19" si="57">F19+1</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H19" s="21">
         <f t="shared" ref="H19" si="58">G19+1</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" ref="I19" si="59">H19+1</f>
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" ref="J19" si="60">I19+1</f>
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" ref="K19" si="61">J19+1</f>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L19" s="21">
         <f t="shared" ref="L19" si="62">K19+1</f>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M19" s="21">
         <f t="shared" ref="M19" si="63">L19+1</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N19" s="21">
         <f t="shared" ref="N19" si="64">M19+1</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" ref="O19" si="65">N19+1</f>
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="21">
         <f t="shared" ref="P19" si="66">O19+1</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="21">
         <f t="shared" ref="Q19" si="67">P19+1</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" ref="R19" si="68">Q19+1</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" ref="S19" si="69">R19+1</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" ref="T19" si="70">S19+1</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" ref="U19" si="71">T19+1</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" ref="V19" si="72">U19+1</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" ref="W19" si="73">V19+1</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" ref="X19" si="74">W19+1</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y19" s="21">
         <f t="shared" ref="Y19" si="75">X19+1</f>
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z19" s="21">
         <f t="shared" ref="Z19" si="76">Y19+1</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA19" s="21">
         <f t="shared" ref="AA19" si="77">Z19+1</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AB19" s="21">
         <f t="shared" ref="AB19" si="78">AA19+1</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC19" s="21">
         <f t="shared" ref="AC19" si="79">AB19+1</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AD19" s="21">
         <f t="shared" ref="AD19" si="80">AC19+1</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AE19" s="21">
         <f t="shared" ref="AE19" si="81">AD19+1</f>
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF19" s="21">
         <f t="shared" ref="AF19" si="82">AE19+1</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG19" s="21">
         <f t="shared" ref="AG19" si="83">AF19+1</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH19" s="21">
         <f t="shared" ref="AH19" si="84">AG19+1</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI19" s="21">
         <f t="shared" ref="AI19" si="85">AH19+1</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ19" s="21">
         <f t="shared" ref="AJ19" si="86">AI19+1</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK19" s="21">
         <f t="shared" ref="AK19" si="87">AJ19+1</f>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AL19" s="21">
         <f t="shared" ref="AL19" si="88">AK19+1</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AM19" s="21">
         <f t="shared" ref="AM19" si="89">AL19+1</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AN19" s="21">
         <f t="shared" ref="AN19" si="90">AM19+1</f>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO19" s="21">
         <f t="shared" ref="AO19" si="91">AN19+1</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AP19" s="21">
         <f t="shared" ref="AP19" si="92">AO19+1</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AQ19" s="21">
         <f t="shared" ref="AQ19" si="93">AP19+1</f>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AR19" s="21">
         <f t="shared" ref="AR19" si="94">AQ19+1</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS19" s="21">
         <f t="shared" ref="AS19" si="95">AR19+1</f>
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT19" s="21">
         <f t="shared" ref="AT19" si="96">AS19+1</f>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AU19" s="21">
         <f t="shared" ref="AU19" si="97">AT19+1</f>
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AV19" s="21">
         <f t="shared" ref="AV19" si="98">AU19+1</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AW19" s="21">
         <f t="shared" ref="AW19" si="99">AV19+1</f>
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AX19" s="21">
         <f t="shared" ref="AX19" si="100">AW19+1</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AY19" s="21">
         <f t="shared" ref="AY19" si="101">AX19+1</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AZ19" s="21">
         <f t="shared" ref="AZ19" si="102">AY19+1</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BA19" s="21">
         <f t="shared" ref="BA19" si="103">AZ19+1</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BB19" s="21">
         <f t="shared" ref="BB19" si="104">BA19+1</f>
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BC19" s="21">
         <f t="shared" ref="BC19" si="105">BB19+1</f>
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BD19" s="21">
         <f t="shared" ref="BD19" si="106">BC19+1</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BE19" s="21">
         <f t="shared" ref="BE19" si="107">BD19+1</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BF19" s="21">
         <f t="shared" ref="BF19" si="108">BE19+1</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BG19" s="21">
         <f t="shared" ref="BG19" si="109">BF19+1</f>
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BH19" s="21">
         <f t="shared" ref="BH19" si="110">BG19+1</f>
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BI19" s="21">
         <f t="shared" ref="BI19" si="111">BH19+1</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BJ19" s="21">
         <f t="shared" ref="BJ19" si="112">BI19+1</f>
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BK19" s="21">
         <f t="shared" ref="BK19" si="113">BJ19+1</f>
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BL19" s="21">
         <f t="shared" ref="BL19" si="114">BK19+1</f>
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BM19" s="21">
         <f t="shared" ref="BM19" si="115">BL19+1</f>
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BN19" s="21">
         <f t="shared" ref="BN19" si="116">BM19+1</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BO19" s="21">
         <f t="shared" ref="BO19" si="117">BN19+1</f>
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BP19" s="21">
         <f t="shared" ref="BP19" si="118">BO19+1</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BQ19" s="21">
         <f t="shared" ref="BQ19" si="119">BP19+1</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BR19" s="21">
         <f t="shared" ref="BR19" si="120">BQ19+1</f>
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="BS19" s="21">
         <f t="shared" ref="BS19" si="121">BR19+1</f>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BT19" s="21">
         <f t="shared" ref="BT19" si="122">BS19+1</f>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BU19" s="21">
         <f t="shared" ref="BU19" si="123">BT19+1</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="BV19" s="21">
         <f t="shared" ref="BV19" si="124">BU19+1</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BW19" s="21">
         <f t="shared" ref="BW19" si="125">BV19+1</f>
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="BX19" s="21">
         <f t="shared" ref="BX19" si="126">BW19+1</f>
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BY19" s="21">
         <f t="shared" ref="BY19" si="127">BX19+1</f>
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BZ19" s="21">
         <f t="shared" ref="BZ19" si="128">BY19+1</f>
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CA19" s="21">
         <f t="shared" ref="CA19" si="129">BZ19+1</f>
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CB19" s="21">
         <f t="shared" ref="CB19" si="130">CA19+1</f>
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CC19" s="21">
         <f t="shared" ref="CC19" si="131">CB19+1</f>
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CD19" s="21">
         <f t="shared" ref="CD19" si="132">CC19+1</f>
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CE19" s="21">
         <f t="shared" ref="CE19" si="133">CD19+1</f>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CF19" s="21">
         <f t="shared" ref="CF19" si="134">CE19+1</f>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CG19" s="21">
         <f t="shared" ref="CG19" si="135">CF19+1</f>
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CH19" s="21">
         <f t="shared" ref="CH19" si="136">CG19+1</f>
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CI19" s="21">
         <f t="shared" ref="CI19" si="137">CH19+1</f>
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CJ19" s="21">
         <f t="shared" ref="CJ19" si="138">CI19+1</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CK19" s="21">
         <f t="shared" ref="CK19" si="139">CJ19+1</f>
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CL19" s="21">
         <f t="shared" ref="CL19" si="140">CK19+1</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CM19" s="21">
         <f t="shared" ref="CM19" si="141">CL19+1</f>
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="CN19" s="21">
         <f t="shared" ref="CN19" si="142">CM19+1</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CO19" s="21">
         <f t="shared" ref="CO19" si="143">CN19+1</f>
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CP19" s="21">
         <f t="shared" ref="CP19" si="144">CO19+1</f>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CQ19" s="21">
         <f t="shared" ref="CQ19" si="145">CP19+1</f>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CR19" s="21">
         <f>CQ19+1</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CS19" s="21">
         <f t="shared" ref="CS19" si="146">CR19+1</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CT19" s="21">
         <f t="shared" ref="CT19" si="147">CS19+1</f>
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CU19" s="21">
         <f t="shared" ref="CU19" si="148">CT19+1</f>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CV19" s="21">
         <f t="shared" ref="CV19" si="149">CU19+1</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CW19" s="21">
         <f t="shared" ref="CW19" si="150">CV19+1</f>
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CX19" s="21">
         <f t="shared" ref="CX19" si="151">CW19+1</f>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CY19" s="21">
         <f t="shared" ref="CY19" si="152">CX19+1</f>
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="CZ19" s="21">
         <f t="shared" ref="CZ19" si="153">CY19+1</f>
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="DA19" s="21">
         <f t="shared" ref="DA19" si="154">CZ19+1</f>
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="DB19" s="21">
         <f t="shared" ref="DB19" si="155">DA19+1</f>
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="DC19" s="21">
         <f t="shared" ref="DC19" si="156">DB19+1</f>
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DD19" s="21">
         <f t="shared" ref="DD19" si="157">DC19+1</f>
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DE19" s="21">
         <f t="shared" ref="DE19" si="158">DD19+1</f>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DF19" s="21">
         <f t="shared" ref="DF19" si="159">DE19+1</f>
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="DG19" s="21">
         <f t="shared" ref="DG19" si="160">DF19+1</f>
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="DH19" s="21">
         <f t="shared" ref="DH19" si="161">DG19+1</f>
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="DI19" s="21">
         <f t="shared" ref="DI19" si="162">DH19+1</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="DJ19" s="21">
         <f t="shared" ref="DJ19" si="163">DI19+1</f>
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="DK19" s="21">
         <f t="shared" ref="DK19" si="164">DJ19+1</f>
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DL19" s="21">
         <f t="shared" ref="DL19" si="165">DK19+1</f>
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="DM19" s="7">
         <f t="shared" ref="DM19" si="166">DL19+1</f>
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="2:120" ht="42" customHeight="1">

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="600" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="165">
   <si>
     <t>sincos</t>
   </si>
@@ -601,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -720,8 +720,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="801">
+  <cellStyleXfs count="851">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1523,8 +1554,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1536,12 +1617,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,15 +1655,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1607,9 +1673,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,6 +1681,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1631,8 +1700,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="801">
+  <cellStyles count="851">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2033,6 +2123,31 @@
     <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2433,6 +2548,31 @@
     <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2765,2509 +2905,2509 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DP24"/>
+  <dimension ref="A1:EE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E17" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="4.33203125" style="11"/>
+    <col min="5" max="16384" width="4.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="32"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
-      <c r="CF1" s="32"/>
-      <c r="CG1" s="32"/>
-      <c r="CH1" s="32"/>
-      <c r="CI1" s="32"/>
-      <c r="CJ1" s="32"/>
-      <c r="CK1" s="32"/>
-      <c r="CL1" s="32"/>
-      <c r="CM1" s="32"/>
-      <c r="CN1" s="32"/>
-      <c r="CO1" s="32"/>
-      <c r="CP1" s="32"/>
-      <c r="CQ1" s="32"/>
-      <c r="CR1" s="32"/>
-      <c r="CS1" s="32"/>
-      <c r="CT1" s="32"/>
-      <c r="CU1" s="32"/>
-      <c r="CV1" s="32"/>
-      <c r="CW1" s="32"/>
-      <c r="CX1" s="32"/>
-      <c r="CY1" s="32"/>
-      <c r="CZ1" s="32"/>
-      <c r="DA1" s="32"/>
-      <c r="DB1" s="32"/>
-      <c r="DC1" s="32"/>
-      <c r="DD1" s="32"/>
-      <c r="DE1" s="32"/>
-      <c r="DF1" s="32"/>
-      <c r="DG1" s="32"/>
-      <c r="DH1" s="32"/>
-      <c r="DI1" s="32"/>
-      <c r="DJ1" s="32"/>
-      <c r="DK1" s="32"/>
-      <c r="DL1" s="33"/>
-      <c r="DM1" s="31"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="28"/>
+      <c r="CD1" s="28"/>
+      <c r="CE1" s="28"/>
+      <c r="CF1" s="28"/>
+      <c r="CG1" s="28"/>
+      <c r="CH1" s="28"/>
+      <c r="CI1" s="28"/>
+      <c r="CJ1" s="28"/>
+      <c r="CK1" s="28"/>
+      <c r="CL1" s="28"/>
+      <c r="CM1" s="28"/>
+      <c r="CN1" s="28"/>
+      <c r="CO1" s="28"/>
+      <c r="CP1" s="28"/>
+      <c r="CQ1" s="28"/>
+      <c r="CR1" s="28"/>
+      <c r="CS1" s="28"/>
+      <c r="CT1" s="28"/>
+      <c r="CU1" s="28"/>
+      <c r="CV1" s="28"/>
+      <c r="CW1" s="28"/>
+      <c r="CX1" s="28"/>
+      <c r="CY1" s="28"/>
+      <c r="CZ1" s="28"/>
+      <c r="DA1" s="28"/>
+      <c r="DB1" s="28"/>
+      <c r="DC1" s="28"/>
+      <c r="DD1" s="28"/>
+      <c r="DE1" s="28"/>
+      <c r="DF1" s="28"/>
+      <c r="DG1" s="28"/>
+      <c r="DH1" s="28"/>
+      <c r="DI1" s="28"/>
+      <c r="DJ1" s="28"/>
+      <c r="DK1" s="28"/>
+      <c r="DL1" s="29"/>
+      <c r="DM1" s="25"/>
     </row>
     <row r="2" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="24">
         <v>1</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="24">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="24">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="30">
+      <c r="P2" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="Q2" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="30">
+      <c r="S2" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="30">
+      <c r="T2" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="30">
+      <c r="U2" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="30">
+      <c r="V2" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="30">
+      <c r="W2" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="30">
+      <c r="X2" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="Y2" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="30">
+      <c r="Z2" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="30">
+      <c r="AA2" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="30">
+      <c r="AB2" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="30">
+      <c r="AC2" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="30">
+      <c r="AD2" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="30">
+      <c r="AE2" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="30">
+      <c r="AF2" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="30">
+      <c r="AG2" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="30">
+      <c r="AH2" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="30">
+      <c r="AI2" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="30">
+      <c r="AJ2" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="30">
+      <c r="AK2" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="30">
+      <c r="AL2" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="30">
+      <c r="AM2" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="30">
+      <c r="AN2" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="30">
+      <c r="AO2" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="30">
+      <c r="AP2" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="30">
+      <c r="AQ2" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="30">
+      <c r="AR2" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="30">
+      <c r="AS2" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="30">
+      <c r="AT2" s="24">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="30">
+      <c r="AU2" s="24">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="30">
+      <c r="AV2" s="24">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="30">
+      <c r="AW2" s="24">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="30">
+      <c r="AX2" s="24">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="30">
+      <c r="AY2" s="24">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="30">
+      <c r="AZ2" s="24">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="30">
+      <c r="BA2" s="24">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="30">
+      <c r="BB2" s="24">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="30">
+      <c r="BC2" s="24">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="30">
+      <c r="BD2" s="24">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="30">
+      <c r="BE2" s="24">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="30">
+      <c r="BF2" s="24">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="30">
+      <c r="BG2" s="24">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="30">
+      <c r="BH2" s="24">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="30">
+      <c r="BI2" s="24">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="30">
+      <c r="BJ2" s="24">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="30">
+      <c r="BK2" s="24">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="30">
+      <c r="BL2" s="24">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="30">
+      <c r="BM2" s="24">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="30">
+      <c r="BN2" s="24">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="30">
+      <c r="BO2" s="24">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="30">
+      <c r="BP2" s="24">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="30">
+      <c r="BQ2" s="24">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="30">
+      <c r="BR2" s="24">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="30">
+      <c r="BS2" s="24">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="30">
+      <c r="BT2" s="24">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="30">
+      <c r="BU2" s="24">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="30">
+      <c r="BV2" s="24">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="30">
+      <c r="BW2" s="24">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="30">
+      <c r="BX2" s="24">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="30">
+      <c r="BY2" s="24">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="30">
+      <c r="BZ2" s="24">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="30">
+      <c r="CA2" s="24">
         <f t="shared" ref="CA2" si="2">BZ2+1</f>
         <v>75</v>
       </c>
-      <c r="CB2" s="30">
+      <c r="CB2" s="24">
         <f t="shared" ref="CB2" si="3">CA2+1</f>
         <v>76</v>
       </c>
-      <c r="CC2" s="30">
+      <c r="CC2" s="24">
         <f t="shared" ref="CC2" si="4">CB2+1</f>
         <v>77</v>
       </c>
-      <c r="CD2" s="30">
+      <c r="CD2" s="24">
         <f t="shared" ref="CD2" si="5">CC2+1</f>
         <v>78</v>
       </c>
-      <c r="CE2" s="30">
+      <c r="CE2" s="24">
         <f t="shared" ref="CE2" si="6">CD2+1</f>
         <v>79</v>
       </c>
-      <c r="CF2" s="30">
+      <c r="CF2" s="24">
         <f t="shared" ref="CF2" si="7">CE2+1</f>
         <v>80</v>
       </c>
-      <c r="CG2" s="30">
+      <c r="CG2" s="24">
         <f t="shared" ref="CG2" si="8">CF2+1</f>
         <v>81</v>
       </c>
-      <c r="CH2" s="30">
+      <c r="CH2" s="24">
         <f t="shared" ref="CH2" si="9">CG2+1</f>
         <v>82</v>
       </c>
-      <c r="CI2" s="30">
+      <c r="CI2" s="24">
         <f t="shared" ref="CI2" si="10">CH2+1</f>
         <v>83</v>
       </c>
-      <c r="CJ2" s="30">
+      <c r="CJ2" s="24">
         <f t="shared" ref="CJ2" si="11">CI2+1</f>
         <v>84</v>
       </c>
-      <c r="CK2" s="30">
+      <c r="CK2" s="24">
         <f t="shared" ref="CK2" si="12">CJ2+1</f>
         <v>85</v>
       </c>
-      <c r="CL2" s="30">
+      <c r="CL2" s="24">
         <f t="shared" ref="CL2" si="13">CK2+1</f>
         <v>86</v>
       </c>
-      <c r="CM2" s="30">
+      <c r="CM2" s="24">
         <f t="shared" ref="CM2" si="14">CL2+1</f>
         <v>87</v>
       </c>
-      <c r="CN2" s="30">
+      <c r="CN2" s="24">
         <f t="shared" ref="CN2" si="15">CM2+1</f>
         <v>88</v>
       </c>
-      <c r="CO2" s="30">
+      <c r="CO2" s="24">
         <f t="shared" ref="CO2" si="16">CN2+1</f>
         <v>89</v>
       </c>
-      <c r="CP2" s="30">
+      <c r="CP2" s="24">
         <f t="shared" ref="CP2" si="17">CO2+1</f>
         <v>90</v>
       </c>
-      <c r="CQ2" s="30">
+      <c r="CQ2" s="24">
         <f t="shared" ref="CQ2" si="18">CP2+1</f>
         <v>91</v>
       </c>
-      <c r="CR2" s="30">
+      <c r="CR2" s="24">
         <f t="shared" ref="CR2" si="19">CQ2+1</f>
         <v>92</v>
       </c>
-      <c r="CS2" s="30">
+      <c r="CS2" s="24">
         <f t="shared" ref="CS2" si="20">CR2+1</f>
         <v>93</v>
       </c>
-      <c r="CT2" s="30">
+      <c r="CT2" s="24">
         <f t="shared" ref="CT2" si="21">CS2+1</f>
         <v>94</v>
       </c>
-      <c r="CU2" s="30">
+      <c r="CU2" s="24">
         <f t="shared" ref="CU2" si="22">CT2+1</f>
         <v>95</v>
       </c>
-      <c r="CV2" s="30">
+      <c r="CV2" s="24">
         <f t="shared" ref="CV2" si="23">CU2+1</f>
         <v>96</v>
       </c>
-      <c r="CW2" s="30">
+      <c r="CW2" s="24">
         <f t="shared" ref="CW2" si="24">CV2+1</f>
         <v>97</v>
       </c>
-      <c r="CX2" s="30">
+      <c r="CX2" s="24">
         <f t="shared" ref="CX2" si="25">CW2+1</f>
         <v>98</v>
       </c>
-      <c r="CY2" s="30">
+      <c r="CY2" s="24">
         <f t="shared" ref="CY2" si="26">CX2+1</f>
         <v>99</v>
       </c>
-      <c r="CZ2" s="30">
+      <c r="CZ2" s="24">
         <f t="shared" ref="CZ2" si="27">CY2+1</f>
         <v>100</v>
       </c>
-      <c r="DA2" s="30">
+      <c r="DA2" s="24">
         <f t="shared" ref="DA2" si="28">CZ2+1</f>
         <v>101</v>
       </c>
-      <c r="DB2" s="30">
+      <c r="DB2" s="24">
         <f t="shared" ref="DB2" si="29">DA2+1</f>
         <v>102</v>
       </c>
-      <c r="DC2" s="30">
+      <c r="DC2" s="24">
         <f t="shared" ref="DC2" si="30">DB2+1</f>
         <v>103</v>
       </c>
-      <c r="DD2" s="30">
+      <c r="DD2" s="24">
         <f t="shared" ref="DD2" si="31">DC2+1</f>
         <v>104</v>
       </c>
-      <c r="DE2" s="30">
+      <c r="DE2" s="24">
         <f t="shared" ref="DE2" si="32">DD2+1</f>
         <v>105</v>
       </c>
-      <c r="DF2" s="30">
+      <c r="DF2" s="24">
         <f t="shared" ref="DF2" si="33">DE2+1</f>
         <v>106</v>
       </c>
-      <c r="DG2" s="30">
+      <c r="DG2" s="24">
         <f t="shared" ref="DG2" si="34">DF2+1</f>
         <v>107</v>
       </c>
-      <c r="DH2" s="30">
+      <c r="DH2" s="24">
         <f t="shared" ref="DH2" si="35">DG2+1</f>
         <v>108</v>
       </c>
-      <c r="DI2" s="30">
+      <c r="DI2" s="24">
         <f t="shared" ref="DI2" si="36">DH2+1</f>
         <v>109</v>
       </c>
-      <c r="DJ2" s="30">
+      <c r="DJ2" s="24">
         <f t="shared" ref="DJ2" si="37">DI2+1</f>
         <v>110</v>
       </c>
-      <c r="DK2" s="30">
+      <c r="DK2" s="24">
         <f t="shared" ref="DK2" si="38">DJ2+1</f>
         <v>111</v>
       </c>
-      <c r="DL2" s="7">
+      <c r="DL2" s="5">
         <f t="shared" ref="DL2" si="39">DK2+1</f>
         <v>112</v>
       </c>
-      <c r="DM2" s="22"/>
+      <c r="DM2" s="17"/>
     </row>
     <row r="3" spans="2:117" ht="42" customHeight="1">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="31">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="str">
+      <c r="F3" s="7" t="str">
         <f>E3</f>
         <v>joint 1</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="7" t="str">
         <f t="shared" ref="G3:K3" si="40">F3</f>
         <v>joint 1</v>
       </c>
-      <c r="H3" s="9" t="str">
+      <c r="H3" s="7" t="str">
         <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
-      <c r="I3" s="9" t="str">
+      <c r="I3" s="7" t="str">
         <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="7" t="str">
         <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
-      <c r="K3" s="9" t="str">
+      <c r="K3" s="7" t="str">
         <f t="shared" si="40"/>
         <v>joint 1</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="7" t="str">
         <f>L3</f>
         <v>joint 1</v>
       </c>
-      <c r="N3" s="9" t="str">
+      <c r="N3" s="7" t="str">
         <f t="shared" ref="N3" si="41">M3</f>
         <v>joint 1</v>
       </c>
-      <c r="O3" s="9" t="str">
+      <c r="O3" s="7" t="str">
         <f t="shared" ref="O3" si="42">N3</f>
         <v>joint 1</v>
       </c>
-      <c r="P3" s="9" t="str">
+      <c r="P3" s="7" t="str">
         <f t="shared" ref="P3" si="43">O3</f>
         <v>joint 1</v>
       </c>
-      <c r="Q3" s="9" t="str">
+      <c r="Q3" s="7" t="str">
         <f t="shared" ref="Q3" si="44">P3</f>
         <v>joint 1</v>
       </c>
-      <c r="R3" s="9" t="str">
+      <c r="R3" s="7" t="str">
         <f t="shared" ref="R3" si="45">Q3</f>
         <v>joint 1</v>
       </c>
-      <c r="S3" s="9" t="str">
+      <c r="S3" s="7" t="str">
         <f t="shared" ref="S3" si="46">R3</f>
         <v>joint 1</v>
       </c>
-      <c r="T3" s="9" t="str">
+      <c r="T3" s="7" t="str">
         <f t="shared" ref="T3" si="47">S3</f>
         <v>joint 1</v>
       </c>
-      <c r="U3" s="9" t="str">
+      <c r="U3" s="7" t="str">
         <f t="shared" ref="U3" si="48">T3</f>
         <v>joint 1</v>
       </c>
-      <c r="V3" s="9" t="str">
+      <c r="V3" s="7" t="str">
         <f t="shared" ref="V3" si="49">U3</f>
         <v>joint 1</v>
       </c>
-      <c r="W3" s="9" t="str">
+      <c r="W3" s="7" t="str">
         <f t="shared" ref="W3" si="50">V3</f>
         <v>joint 1</v>
       </c>
-      <c r="X3" s="9" t="str">
+      <c r="X3" s="7" t="str">
         <f t="shared" ref="X3" si="51">W3</f>
         <v>joint 1</v>
       </c>
-      <c r="Y3" s="9" t="str">
+      <c r="Y3" s="7" t="str">
         <f t="shared" ref="Y3" si="52">X3</f>
         <v>joint 1</v>
       </c>
-      <c r="Z3" s="9" t="str">
+      <c r="Z3" s="7" t="str">
         <f t="shared" ref="Z3:AA3" si="53">Y3</f>
         <v>joint 1</v>
       </c>
-      <c r="AA3" s="9" t="str">
+      <c r="AA3" s="7" t="str">
         <f t="shared" si="53"/>
         <v>joint 1</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
-      <c r="BN3" s="9"/>
-      <c r="BO3" s="9"/>
-      <c r="BP3" s="9"/>
-      <c r="BQ3" s="9"/>
-      <c r="BR3" s="9"/>
-      <c r="BS3" s="9"/>
-      <c r="BT3" s="9"/>
-      <c r="BU3" s="9"/>
-      <c r="BV3" s="9"/>
-      <c r="BW3" s="9"/>
-      <c r="BX3" s="9"/>
-      <c r="BY3" s="9"/>
-      <c r="BZ3" s="9"/>
-      <c r="CA3" s="9"/>
-      <c r="CB3" s="9"/>
-      <c r="CC3" s="9"/>
-      <c r="CD3" s="9"/>
-      <c r="CE3" s="9"/>
-      <c r="CF3" s="9"/>
-      <c r="CG3" s="9"/>
-      <c r="CH3" s="9"/>
-      <c r="CI3" s="9"/>
-      <c r="CJ3" s="9"/>
-      <c r="CK3" s="9"/>
-      <c r="CL3" s="9"/>
-      <c r="CM3" s="9"/>
-      <c r="CN3" s="9"/>
-      <c r="CO3" s="9"/>
-      <c r="CP3" s="9"/>
-      <c r="CQ3" s="9"/>
-      <c r="CR3" s="9"/>
-      <c r="CS3" s="9"/>
-      <c r="CT3" s="9"/>
-      <c r="CU3" s="9"/>
-      <c r="CV3" s="9"/>
-      <c r="CW3" s="9"/>
-      <c r="CX3" s="9"/>
-      <c r="CY3" s="9"/>
-      <c r="CZ3" s="9"/>
-      <c r="DA3" s="9"/>
-      <c r="DB3" s="9"/>
-      <c r="DC3" s="9"/>
-      <c r="DD3" s="9"/>
-      <c r="DE3" s="9"/>
-      <c r="DF3" s="9"/>
-      <c r="DG3" s="9"/>
-      <c r="DH3" s="9"/>
-      <c r="DI3" s="9"/>
-      <c r="DJ3" s="9"/>
-      <c r="DK3" s="9"/>
-      <c r="DL3" s="10"/>
-      <c r="DM3" s="23"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="7"/>
+      <c r="CN3" s="7"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="CQ3" s="7"/>
+      <c r="CR3" s="7"/>
+      <c r="CS3" s="7"/>
+      <c r="CT3" s="7"/>
+      <c r="CU3" s="7"/>
+      <c r="CV3" s="7"/>
+      <c r="CW3" s="7"/>
+      <c r="CX3" s="7"/>
+      <c r="CY3" s="7"/>
+      <c r="CZ3" s="7"/>
+      <c r="DA3" s="7"/>
+      <c r="DB3" s="7"/>
+      <c r="DC3" s="7"/>
+      <c r="DD3" s="7"/>
+      <c r="DE3" s="7"/>
+      <c r="DF3" s="7"/>
+      <c r="DG3" s="7"/>
+      <c r="DH3" s="7"/>
+      <c r="DI3" s="7"/>
+      <c r="DJ3" s="7"/>
+      <c r="DK3" s="7"/>
+      <c r="DL3" s="8"/>
+      <c r="DM3" s="18"/>
     </row>
     <row r="4" spans="2:117" ht="42" customHeight="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="7" t="str">
         <f t="shared" ref="G4:L4" si="54">F4</f>
         <v>joint 2</v>
       </c>
-      <c r="H4" s="9" t="str">
+      <c r="H4" s="7" t="str">
         <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
-      <c r="I4" s="9" t="str">
+      <c r="I4" s="7" t="str">
         <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="7" t="str">
         <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
-      <c r="K4" s="9" t="str">
+      <c r="K4" s="7" t="str">
         <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
-      <c r="L4" s="9" t="str">
+      <c r="L4" s="7" t="str">
         <f t="shared" si="54"/>
         <v>joint 2</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M4" s="7" t="str">
         <f>L4</f>
         <v>joint 2</v>
       </c>
-      <c r="N4" s="9" t="str">
+      <c r="N4" s="7" t="str">
         <f t="shared" ref="N4:P5" si="55">M4</f>
         <v>joint 2</v>
       </c>
-      <c r="O4" s="9" t="str">
+      <c r="O4" s="7" t="str">
         <f t="shared" si="55"/>
         <v>joint 2</v>
       </c>
-      <c r="P4" s="9" t="str">
+      <c r="P4" s="7" t="str">
         <f t="shared" si="55"/>
         <v>joint 2</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-      <c r="BL4" s="9"/>
-      <c r="BM4" s="9"/>
-      <c r="BN4" s="9"/>
-      <c r="BO4" s="9"/>
-      <c r="BP4" s="9"/>
-      <c r="BQ4" s="9"/>
-      <c r="BR4" s="9"/>
-      <c r="BS4" s="9"/>
-      <c r="BT4" s="9"/>
-      <c r="BU4" s="9"/>
-      <c r="BV4" s="9"/>
-      <c r="BW4" s="9"/>
-      <c r="BX4" s="9"/>
-      <c r="BY4" s="9"/>
-      <c r="BZ4" s="9"/>
-      <c r="CA4" s="9"/>
-      <c r="CB4" s="9"/>
-      <c r="CC4" s="9"/>
-      <c r="CD4" s="9"/>
-      <c r="CE4" s="9"/>
-      <c r="CF4" s="9"/>
-      <c r="CG4" s="9"/>
-      <c r="CH4" s="9"/>
-      <c r="CI4" s="9"/>
-      <c r="CJ4" s="9"/>
-      <c r="CK4" s="9"/>
-      <c r="CL4" s="9"/>
-      <c r="CM4" s="9"/>
-      <c r="CN4" s="9"/>
-      <c r="CO4" s="9"/>
-      <c r="CP4" s="9"/>
-      <c r="CQ4" s="9"/>
-      <c r="CR4" s="9"/>
-      <c r="CS4" s="9"/>
-      <c r="CT4" s="9"/>
-      <c r="CU4" s="9"/>
-      <c r="CV4" s="9"/>
-      <c r="CW4" s="9"/>
-      <c r="CX4" s="9"/>
-      <c r="CY4" s="9"/>
-      <c r="CZ4" s="9"/>
-      <c r="DA4" s="9"/>
-      <c r="DB4" s="9"/>
-      <c r="DC4" s="9"/>
-      <c r="DD4" s="9"/>
-      <c r="DE4" s="9"/>
-      <c r="DF4" s="9"/>
-      <c r="DG4" s="9"/>
-      <c r="DH4" s="9"/>
-      <c r="DI4" s="9"/>
-      <c r="DJ4" s="9"/>
-      <c r="DK4" s="9"/>
-      <c r="DL4" s="10"/>
-      <c r="DM4" s="23"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="7"/>
+      <c r="CM4" s="7"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="7"/>
+      <c r="CT4" s="7"/>
+      <c r="CU4" s="7"/>
+      <c r="CV4" s="7"/>
+      <c r="CW4" s="7"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DC4" s="7"/>
+      <c r="DD4" s="7"/>
+      <c r="DE4" s="7"/>
+      <c r="DF4" s="7"/>
+      <c r="DG4" s="7"/>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="7"/>
+      <c r="DK4" s="7"/>
+      <c r="DL4" s="8"/>
+      <c r="DM4" s="18"/>
     </row>
     <row r="5" spans="2:117" ht="42" customHeight="1">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="9" t="str">
+      <c r="H5" s="7" t="str">
         <f>G5</f>
         <v>joint 3</v>
       </c>
-      <c r="I5" s="9" t="str">
+      <c r="I5" s="7" t="str">
         <f>H5</f>
         <v>joint 3</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="7" t="str">
         <f>I5</f>
         <v>joint 3</v>
       </c>
-      <c r="K5" s="9" t="str">
+      <c r="K5" s="7" t="str">
         <f>J5</f>
         <v>joint 3</v>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="7" t="str">
         <f>K5</f>
         <v>joint 3</v>
       </c>
-      <c r="M5" s="9" t="str">
+      <c r="M5" s="7" t="str">
         <f>L5</f>
         <v>joint 3</v>
       </c>
-      <c r="N5" s="9" t="str">
+      <c r="N5" s="7" t="str">
         <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
-      <c r="O5" s="9" t="str">
+      <c r="O5" s="7" t="str">
         <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
-      <c r="P5" s="9" t="str">
+      <c r="P5" s="7" t="str">
         <f t="shared" si="55"/>
         <v>joint 3</v>
       </c>
-      <c r="Q5" s="9" t="str">
+      <c r="Q5" s="7" t="str">
         <f>P5</f>
         <v>joint 3</v>
       </c>
-      <c r="R5" s="9" t="str">
+      <c r="R5" s="7" t="str">
         <f>Q5</f>
         <v>joint 3</v>
       </c>
-      <c r="S5" s="9" t="str">
+      <c r="S5" s="7" t="str">
         <f>R5</f>
         <v>joint 3</v>
       </c>
-      <c r="T5" s="9" t="str">
+      <c r="T5" s="7" t="str">
         <f>S5</f>
         <v>joint 3</v>
       </c>
-      <c r="U5" s="9" t="str">
+      <c r="U5" s="7" t="str">
         <f>T5</f>
         <v>joint 3</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W5" s="9" t="s">
+      <c r="W5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="9" t="s">
+      <c r="X5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="9" t="s">
+      <c r="Z5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="9" t="s">
+      <c r="AB5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AC5" s="9" t="s">
+      <c r="AC5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9"/>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
-      <c r="BA5" s="9"/>
-      <c r="BB5" s="9"/>
-      <c r="BC5" s="9"/>
-      <c r="BD5" s="9"/>
-      <c r="BE5" s="9"/>
-      <c r="BF5" s="9"/>
-      <c r="BG5" s="9"/>
-      <c r="BH5" s="9"/>
-      <c r="BI5" s="9"/>
-      <c r="BJ5" s="9"/>
-      <c r="BK5" s="9"/>
-      <c r="BL5" s="9"/>
-      <c r="BM5" s="9"/>
-      <c r="BN5" s="9"/>
-      <c r="BO5" s="9"/>
-      <c r="BP5" s="9"/>
-      <c r="BQ5" s="9"/>
-      <c r="BR5" s="9"/>
-      <c r="BS5" s="9"/>
-      <c r="BT5" s="9"/>
-      <c r="BU5" s="9"/>
-      <c r="BV5" s="9"/>
-      <c r="BW5" s="9"/>
-      <c r="BX5" s="9"/>
-      <c r="BY5" s="9"/>
-      <c r="BZ5" s="9"/>
-      <c r="CA5" s="9"/>
-      <c r="CB5" s="9"/>
-      <c r="CC5" s="9"/>
-      <c r="CD5" s="9"/>
-      <c r="CE5" s="9"/>
-      <c r="CF5" s="9"/>
-      <c r="CG5" s="9"/>
-      <c r="CH5" s="9"/>
-      <c r="CI5" s="9"/>
-      <c r="CJ5" s="9"/>
-      <c r="CK5" s="9"/>
-      <c r="CL5" s="9"/>
-      <c r="CM5" s="9"/>
-      <c r="CN5" s="9"/>
-      <c r="CO5" s="9"/>
-      <c r="CP5" s="9"/>
-      <c r="CQ5" s="9"/>
-      <c r="CR5" s="9"/>
-      <c r="CS5" s="9"/>
-      <c r="CT5" s="9"/>
-      <c r="CU5" s="9"/>
-      <c r="CV5" s="9"/>
-      <c r="CW5" s="9"/>
-      <c r="CX5" s="9"/>
-      <c r="CY5" s="9"/>
-      <c r="CZ5" s="9"/>
-      <c r="DA5" s="9"/>
-      <c r="DB5" s="9"/>
-      <c r="DC5" s="9"/>
-      <c r="DD5" s="9"/>
-      <c r="DE5" s="9"/>
-      <c r="DF5" s="9"/>
-      <c r="DG5" s="9"/>
-      <c r="DH5" s="9"/>
-      <c r="DI5" s="9"/>
-      <c r="DJ5" s="9"/>
-      <c r="DK5" s="9"/>
-      <c r="DL5" s="10"/>
-      <c r="DM5" s="23"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="7"/>
+      <c r="BC5" s="7"/>
+      <c r="BD5" s="7"/>
+      <c r="BE5" s="7"/>
+      <c r="BF5" s="7"/>
+      <c r="BG5" s="7"/>
+      <c r="BH5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="BR5" s="7"/>
+      <c r="BS5" s="7"/>
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="7"/>
+      <c r="BV5" s="7"/>
+      <c r="BW5" s="7"/>
+      <c r="BX5" s="7"/>
+      <c r="BY5" s="7"/>
+      <c r="BZ5" s="7"/>
+      <c r="CA5" s="7"/>
+      <c r="CB5" s="7"/>
+      <c r="CC5" s="7"/>
+      <c r="CD5" s="7"/>
+      <c r="CE5" s="7"/>
+      <c r="CF5" s="7"/>
+      <c r="CG5" s="7"/>
+      <c r="CH5" s="7"/>
+      <c r="CI5" s="7"/>
+      <c r="CJ5" s="7"/>
+      <c r="CK5" s="7"/>
+      <c r="CL5" s="7"/>
+      <c r="CM5" s="7"/>
+      <c r="CN5" s="7"/>
+      <c r="CO5" s="7"/>
+      <c r="CP5" s="7"/>
+      <c r="CQ5" s="7"/>
+      <c r="CR5" s="7"/>
+      <c r="CS5" s="7"/>
+      <c r="CT5" s="7"/>
+      <c r="CU5" s="7"/>
+      <c r="CV5" s="7"/>
+      <c r="CW5" s="7"/>
+      <c r="CX5" s="7"/>
+      <c r="CY5" s="7"/>
+      <c r="CZ5" s="7"/>
+      <c r="DA5" s="7"/>
+      <c r="DB5" s="7"/>
+      <c r="DC5" s="7"/>
+      <c r="DD5" s="7"/>
+      <c r="DE5" s="7"/>
+      <c r="DF5" s="7"/>
+      <c r="DG5" s="7"/>
+      <c r="DH5" s="7"/>
+      <c r="DI5" s="7"/>
+      <c r="DJ5" s="7"/>
+      <c r="DK5" s="7"/>
+      <c r="DL5" s="8"/>
+      <c r="DM5" s="18"/>
     </row>
     <row r="6" spans="2:117" ht="42" customHeight="1">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="9" t="str">
+      <c r="I6" s="7" t="str">
         <f>H6</f>
         <v>joint 4</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9"/>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9"/>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9"/>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9"/>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9"/>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
-      <c r="BM6" s="9"/>
-      <c r="BN6" s="9"/>
-      <c r="BO6" s="9"/>
-      <c r="BP6" s="9"/>
-      <c r="BQ6" s="9"/>
-      <c r="BR6" s="9"/>
-      <c r="BS6" s="9"/>
-      <c r="BT6" s="9"/>
-      <c r="BU6" s="9"/>
-      <c r="BV6" s="9"/>
-      <c r="BW6" s="9"/>
-      <c r="BX6" s="9"/>
-      <c r="BY6" s="9"/>
-      <c r="BZ6" s="9"/>
-      <c r="CA6" s="9"/>
-      <c r="CB6" s="9"/>
-      <c r="CC6" s="9"/>
-      <c r="CD6" s="9"/>
-      <c r="CE6" s="9"/>
-      <c r="CF6" s="9"/>
-      <c r="CG6" s="9"/>
-      <c r="CH6" s="9"/>
-      <c r="CI6" s="9"/>
-      <c r="CJ6" s="9"/>
-      <c r="CK6" s="9"/>
-      <c r="CL6" s="9"/>
-      <c r="CM6" s="9"/>
-      <c r="CN6" s="9"/>
-      <c r="CO6" s="9"/>
-      <c r="CP6" s="9"/>
-      <c r="CQ6" s="9"/>
-      <c r="CR6" s="9"/>
-      <c r="CS6" s="9"/>
-      <c r="CT6" s="9"/>
-      <c r="CU6" s="9"/>
-      <c r="CV6" s="9"/>
-      <c r="CW6" s="9"/>
-      <c r="CX6" s="9"/>
-      <c r="CY6" s="9"/>
-      <c r="CZ6" s="9"/>
-      <c r="DA6" s="9"/>
-      <c r="DB6" s="9"/>
-      <c r="DC6" s="9"/>
-      <c r="DD6" s="9"/>
-      <c r="DE6" s="9"/>
-      <c r="DF6" s="9"/>
-      <c r="DG6" s="9"/>
-      <c r="DH6" s="9"/>
-      <c r="DI6" s="9"/>
-      <c r="DJ6" s="9"/>
-      <c r="DK6" s="9"/>
-      <c r="DL6" s="10"/>
-      <c r="DM6" s="23"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7"/>
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7"/>
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="BR6" s="7"/>
+      <c r="BS6" s="7"/>
+      <c r="BT6" s="7"/>
+      <c r="BU6" s="7"/>
+      <c r="BV6" s="7"/>
+      <c r="BW6" s="7"/>
+      <c r="BX6" s="7"/>
+      <c r="BY6" s="7"/>
+      <c r="BZ6" s="7"/>
+      <c r="CA6" s="7"/>
+      <c r="CB6" s="7"/>
+      <c r="CC6" s="7"/>
+      <c r="CD6" s="7"/>
+      <c r="CE6" s="7"/>
+      <c r="CF6" s="7"/>
+      <c r="CG6" s="7"/>
+      <c r="CH6" s="7"/>
+      <c r="CI6" s="7"/>
+      <c r="CJ6" s="7"/>
+      <c r="CK6" s="7"/>
+      <c r="CL6" s="7"/>
+      <c r="CM6" s="7"/>
+      <c r="CN6" s="7"/>
+      <c r="CO6" s="7"/>
+      <c r="CP6" s="7"/>
+      <c r="CQ6" s="7"/>
+      <c r="CR6" s="7"/>
+      <c r="CS6" s="7"/>
+      <c r="CT6" s="7"/>
+      <c r="CU6" s="7"/>
+      <c r="CV6" s="7"/>
+      <c r="CW6" s="7"/>
+      <c r="CX6" s="7"/>
+      <c r="CY6" s="7"/>
+      <c r="CZ6" s="7"/>
+      <c r="DA6" s="7"/>
+      <c r="DB6" s="7"/>
+      <c r="DC6" s="7"/>
+      <c r="DD6" s="7"/>
+      <c r="DE6" s="7"/>
+      <c r="DF6" s="7"/>
+      <c r="DG6" s="7"/>
+      <c r="DH6" s="7"/>
+      <c r="DI6" s="7"/>
+      <c r="DJ6" s="7"/>
+      <c r="DK6" s="7"/>
+      <c r="DL6" s="8"/>
+      <c r="DM6" s="18"/>
     </row>
     <row r="7" spans="2:117" ht="42" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="9"/>
-      <c r="AV7" s="9"/>
-      <c r="AW7" s="9"/>
-      <c r="AX7" s="9"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="9"/>
-      <c r="BB7" s="9"/>
-      <c r="BC7" s="9"/>
-      <c r="BD7" s="9"/>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="9"/>
-      <c r="BH7" s="9"/>
-      <c r="BI7" s="9"/>
-      <c r="BJ7" s="9"/>
-      <c r="BK7" s="9"/>
-      <c r="BL7" s="9"/>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
-      <c r="BO7" s="9"/>
-      <c r="BP7" s="9"/>
-      <c r="BQ7" s="9"/>
-      <c r="BR7" s="9"/>
-      <c r="BS7" s="9"/>
-      <c r="BT7" s="9"/>
-      <c r="BU7" s="9"/>
-      <c r="BV7" s="9"/>
-      <c r="BW7" s="9"/>
-      <c r="BX7" s="9"/>
-      <c r="BY7" s="9"/>
-      <c r="BZ7" s="9"/>
-      <c r="CA7" s="9"/>
-      <c r="CB7" s="9"/>
-      <c r="CC7" s="9"/>
-      <c r="CD7" s="9"/>
-      <c r="CE7" s="9"/>
-      <c r="CF7" s="9"/>
-      <c r="CG7" s="9"/>
-      <c r="CH7" s="9"/>
-      <c r="CI7" s="9"/>
-      <c r="CJ7" s="9"/>
-      <c r="CK7" s="9"/>
-      <c r="CL7" s="9"/>
-      <c r="CM7" s="9"/>
-      <c r="CN7" s="9"/>
-      <c r="CO7" s="9"/>
-      <c r="CP7" s="9"/>
-      <c r="CQ7" s="9"/>
-      <c r="CR7" s="9"/>
-      <c r="CS7" s="9"/>
-      <c r="CT7" s="9"/>
-      <c r="CU7" s="9"/>
-      <c r="CV7" s="9"/>
-      <c r="CW7" s="9"/>
-      <c r="CX7" s="9"/>
-      <c r="CY7" s="9"/>
-      <c r="CZ7" s="9"/>
-      <c r="DA7" s="9"/>
-      <c r="DB7" s="9"/>
-      <c r="DC7" s="9"/>
-      <c r="DD7" s="9"/>
-      <c r="DE7" s="9"/>
-      <c r="DF7" s="9"/>
-      <c r="DG7" s="9"/>
-      <c r="DH7" s="9"/>
-      <c r="DI7" s="9"/>
-      <c r="DJ7" s="9"/>
-      <c r="DK7" s="9"/>
-      <c r="DL7" s="10"/>
-      <c r="DM7" s="23"/>
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+      <c r="AK7" s="7"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="AX7" s="7"/>
+      <c r="AY7" s="7"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="7"/>
+      <c r="BC7" s="7"/>
+      <c r="BD7" s="7"/>
+      <c r="BE7" s="7"/>
+      <c r="BF7" s="7"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="BR7" s="7"/>
+      <c r="BS7" s="7"/>
+      <c r="BT7" s="7"/>
+      <c r="BU7" s="7"/>
+      <c r="BV7" s="7"/>
+      <c r="BW7" s="7"/>
+      <c r="BX7" s="7"/>
+      <c r="BY7" s="7"/>
+      <c r="BZ7" s="7"/>
+      <c r="CA7" s="7"/>
+      <c r="CB7" s="7"/>
+      <c r="CC7" s="7"/>
+      <c r="CD7" s="7"/>
+      <c r="CE7" s="7"/>
+      <c r="CF7" s="7"/>
+      <c r="CG7" s="7"/>
+      <c r="CH7" s="7"/>
+      <c r="CI7" s="7"/>
+      <c r="CJ7" s="7"/>
+      <c r="CK7" s="7"/>
+      <c r="CL7" s="7"/>
+      <c r="CM7" s="7"/>
+      <c r="CN7" s="7"/>
+      <c r="CO7" s="7"/>
+      <c r="CP7" s="7"/>
+      <c r="CQ7" s="7"/>
+      <c r="CR7" s="7"/>
+      <c r="CS7" s="7"/>
+      <c r="CT7" s="7"/>
+      <c r="CU7" s="7"/>
+      <c r="CV7" s="7"/>
+      <c r="CW7" s="7"/>
+      <c r="CX7" s="7"/>
+      <c r="CY7" s="7"/>
+      <c r="CZ7" s="7"/>
+      <c r="DA7" s="7"/>
+      <c r="DB7" s="7"/>
+      <c r="DC7" s="7"/>
+      <c r="DD7" s="7"/>
+      <c r="DE7" s="7"/>
+      <c r="DF7" s="7"/>
+      <c r="DG7" s="7"/>
+      <c r="DH7" s="7"/>
+      <c r="DI7" s="7"/>
+      <c r="DJ7" s="7"/>
+      <c r="DK7" s="7"/>
+      <c r="DL7" s="8"/>
+      <c r="DM7" s="18"/>
     </row>
     <row r="8" spans="2:117" ht="42" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="str">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="str">
         <f>AA7</f>
         <v>joint 5</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="9" t="s">
+      <c r="R8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="9" t="s">
+      <c r="T8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V8" s="9" t="s">
+      <c r="V8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W8" s="9" t="s">
+      <c r="W8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="X8" s="9" t="s">
+      <c r="X8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z8" s="9" t="s">
+      <c r="Z8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="9" t="s">
+      <c r="AB8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AC8" s="9" t="s">
+      <c r="AC8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AD8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AE8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="9" t="s">
+      <c r="AF8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="9"/>
-      <c r="AV8" s="9"/>
-      <c r="AW8" s="9"/>
-      <c r="AX8" s="9"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="9"/>
-      <c r="BB8" s="9"/>
-      <c r="BC8" s="9"/>
-      <c r="BD8" s="9"/>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="9"/>
-      <c r="BG8" s="9"/>
-      <c r="BH8" s="9"/>
-      <c r="BI8" s="9"/>
-      <c r="BJ8" s="9"/>
-      <c r="BK8" s="9"/>
-      <c r="BL8" s="9"/>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
-      <c r="BO8" s="9"/>
-      <c r="BP8" s="9"/>
-      <c r="BQ8" s="9"/>
-      <c r="BR8" s="9"/>
-      <c r="BS8" s="9"/>
-      <c r="BT8" s="9"/>
-      <c r="BU8" s="9"/>
-      <c r="BV8" s="9"/>
-      <c r="BW8" s="9"/>
-      <c r="BX8" s="9"/>
-      <c r="BY8" s="9"/>
-      <c r="BZ8" s="9"/>
-      <c r="CA8" s="9"/>
-      <c r="CB8" s="9"/>
-      <c r="CC8" s="9"/>
-      <c r="CD8" s="9"/>
-      <c r="CE8" s="9"/>
-      <c r="CF8" s="9"/>
-      <c r="CG8" s="9"/>
-      <c r="CH8" s="9"/>
-      <c r="CI8" s="9"/>
-      <c r="CJ8" s="9"/>
-      <c r="CK8" s="9"/>
-      <c r="CL8" s="9"/>
-      <c r="CM8" s="9"/>
-      <c r="CN8" s="9"/>
-      <c r="CO8" s="9"/>
-      <c r="CP8" s="9"/>
-      <c r="CQ8" s="9"/>
-      <c r="CR8" s="9"/>
-      <c r="CS8" s="9"/>
-      <c r="CT8" s="9"/>
-      <c r="CU8" s="9"/>
-      <c r="CV8" s="9"/>
-      <c r="CW8" s="9"/>
-      <c r="CX8" s="9"/>
-      <c r="CY8" s="9"/>
-      <c r="CZ8" s="9"/>
-      <c r="DA8" s="9"/>
-      <c r="DB8" s="9"/>
-      <c r="DC8" s="9"/>
-      <c r="DD8" s="9"/>
-      <c r="DE8" s="9"/>
-      <c r="DF8" s="9"/>
-      <c r="DG8" s="9"/>
-      <c r="DH8" s="9"/>
-      <c r="DI8" s="9"/>
-      <c r="DJ8" s="9"/>
-      <c r="DK8" s="9"/>
-      <c r="DL8" s="10"/>
-      <c r="DM8" s="23"/>
+      <c r="AG8" s="7"/>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+      <c r="AK8" s="7"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="AX8" s="7"/>
+      <c r="AY8" s="7"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="7"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="7"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="7"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="7"/>
+      <c r="BS8" s="7"/>
+      <c r="BT8" s="7"/>
+      <c r="BU8" s="7"/>
+      <c r="BV8" s="7"/>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="7"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="7"/>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="7"/>
+      <c r="CC8" s="7"/>
+      <c r="CD8" s="7"/>
+      <c r="CE8" s="7"/>
+      <c r="CF8" s="7"/>
+      <c r="CG8" s="7"/>
+      <c r="CH8" s="7"/>
+      <c r="CI8" s="7"/>
+      <c r="CJ8" s="7"/>
+      <c r="CK8" s="7"/>
+      <c r="CL8" s="7"/>
+      <c r="CM8" s="7"/>
+      <c r="CN8" s="7"/>
+      <c r="CO8" s="7"/>
+      <c r="CP8" s="7"/>
+      <c r="CQ8" s="7"/>
+      <c r="CR8" s="7"/>
+      <c r="CS8" s="7"/>
+      <c r="CT8" s="7"/>
+      <c r="CU8" s="7"/>
+      <c r="CV8" s="7"/>
+      <c r="CW8" s="7"/>
+      <c r="CX8" s="7"/>
+      <c r="CY8" s="7"/>
+      <c r="CZ8" s="7"/>
+      <c r="DA8" s="7"/>
+      <c r="DB8" s="7"/>
+      <c r="DC8" s="7"/>
+      <c r="DD8" s="7"/>
+      <c r="DE8" s="7"/>
+      <c r="DF8" s="7"/>
+      <c r="DG8" s="7"/>
+      <c r="DH8" s="7"/>
+      <c r="DI8" s="7"/>
+      <c r="DJ8" s="7"/>
+      <c r="DK8" s="7"/>
+      <c r="DL8" s="8"/>
+      <c r="DM8" s="18"/>
     </row>
     <row r="9" spans="2:117" ht="42" customHeight="1">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="31">
         <v>15</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="31">
         <v>5</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="18" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AD9" s="18" t="str">
+      <c r="AD9" s="16" t="str">
         <f>AC9</f>
         <v>joint 1</v>
       </c>
-      <c r="AE9" s="18" t="str">
+      <c r="AE9" s="16" t="str">
         <f>AD9</f>
         <v>joint 1</v>
       </c>
-      <c r="AF9" s="18" t="s">
+      <c r="AF9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18" t="s">
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AI9" s="18" t="s">
+      <c r="AI9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AK9" s="18" t="s">
+      <c r="AK9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AL9" s="18" t="s">
+      <c r="AL9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18"/>
-      <c r="AU9" s="18" t="s">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AV9" s="18" t="s">
+      <c r="AV9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AW9" s="18" t="s">
+      <c r="AW9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AX9" s="18" t="s">
+      <c r="AX9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AY9" s="18" t="s">
+      <c r="AY9" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18"/>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18"/>
-      <c r="BG9" s="18" t="s">
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BH9" s="18" t="s">
+      <c r="BH9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BI9" s="18" t="s">
+      <c r="BI9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BJ9" s="18" t="s">
+      <c r="BJ9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BK9" s="18" t="s">
+      <c r="BK9" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18"/>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18"/>
-      <c r="BS9" s="18" t="s">
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BT9" s="18" t="s">
+      <c r="BT9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BU9" s="18" t="s">
+      <c r="BU9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BV9" s="18" t="s">
+      <c r="BV9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BW9" s="18" t="s">
+      <c r="BW9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18"/>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18"/>
-      <c r="CE9" s="18" t="s">
+      <c r="BX9" s="16"/>
+      <c r="BY9" s="16"/>
+      <c r="BZ9" s="16"/>
+      <c r="CA9" s="16"/>
+      <c r="CB9" s="16"/>
+      <c r="CC9" s="16"/>
+      <c r="CD9" s="16"/>
+      <c r="CE9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CF9" s="18" t="s">
+      <c r="CF9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CG9" s="18" t="s">
+      <c r="CG9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CH9" s="18" t="s">
+      <c r="CH9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CI9" s="18" t="s">
+      <c r="CI9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CJ9" s="9"/>
-      <c r="CK9" s="9"/>
-      <c r="CL9" s="9"/>
-      <c r="CM9" s="9"/>
-      <c r="CN9" s="9"/>
-      <c r="CO9" s="9"/>
-      <c r="CP9" s="9"/>
-      <c r="CQ9" s="9"/>
-      <c r="CR9" s="9"/>
-      <c r="CS9" s="9"/>
-      <c r="CT9" s="9"/>
-      <c r="CU9" s="9"/>
-      <c r="CV9" s="9"/>
-      <c r="CW9" s="9"/>
-      <c r="CX9" s="9"/>
-      <c r="CY9" s="9"/>
-      <c r="CZ9" s="9"/>
-      <c r="DA9" s="9"/>
-      <c r="DB9" s="9"/>
-      <c r="DC9" s="9"/>
-      <c r="DD9" s="9"/>
-      <c r="DE9" s="9"/>
-      <c r="DF9" s="9"/>
-      <c r="DG9" s="9"/>
-      <c r="DH9" s="9"/>
-      <c r="DI9" s="9"/>
-      <c r="DJ9" s="9"/>
-      <c r="DK9" s="9"/>
-      <c r="DL9" s="10"/>
-      <c r="DM9" s="23"/>
+      <c r="CJ9" s="7"/>
+      <c r="CK9" s="7"/>
+      <c r="CL9" s="7"/>
+      <c r="CM9" s="7"/>
+      <c r="CN9" s="7"/>
+      <c r="CO9" s="7"/>
+      <c r="CP9" s="7"/>
+      <c r="CQ9" s="7"/>
+      <c r="CR9" s="7"/>
+      <c r="CS9" s="7"/>
+      <c r="CT9" s="7"/>
+      <c r="CU9" s="7"/>
+      <c r="CV9" s="7"/>
+      <c r="CW9" s="7"/>
+      <c r="CX9" s="7"/>
+      <c r="CY9" s="7"/>
+      <c r="CZ9" s="7"/>
+      <c r="DA9" s="7"/>
+      <c r="DB9" s="7"/>
+      <c r="DC9" s="7"/>
+      <c r="DD9" s="7"/>
+      <c r="DE9" s="7"/>
+      <c r="DF9" s="7"/>
+      <c r="DG9" s="7"/>
+      <c r="DH9" s="7"/>
+      <c r="DI9" s="7"/>
+      <c r="DJ9" s="7"/>
+      <c r="DK9" s="7"/>
+      <c r="DL9" s="8"/>
+      <c r="DM9" s="18"/>
     </row>
     <row r="10" spans="2:117" ht="42" customHeight="1">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AD10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AE10" s="18" t="str">
+      <c r="AE10" s="16" t="str">
         <f>AD10</f>
         <v>joint 2</v>
       </c>
-      <c r="AF10" s="18" t="s">
+      <c r="AF10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AG10" s="18" t="s">
+      <c r="AG10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AH10" s="18"/>
-      <c r="AI10" s="18"/>
-      <c r="AJ10" s="18"/>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="18"/>
-      <c r="AM10" s="18"/>
-      <c r="AN10" s="18"/>
-      <c r="AO10" s="18"/>
-      <c r="AP10" s="18"/>
-      <c r="AQ10" s="18"/>
-      <c r="AR10" s="18"/>
-      <c r="AS10" s="18"/>
-      <c r="AT10" s="18"/>
-      <c r="AU10" s="18"/>
-      <c r="AV10" s="18"/>
-      <c r="AW10" s="18"/>
-      <c r="AX10" s="18"/>
-      <c r="AY10" s="18"/>
-      <c r="AZ10" s="18"/>
-      <c r="BA10" s="18"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="18"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
-      <c r="BG10" s="18"/>
-      <c r="BH10" s="18"/>
-      <c r="BI10" s="18"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="18"/>
-      <c r="BL10" s="18"/>
-      <c r="BM10" s="18"/>
-      <c r="BN10" s="18"/>
-      <c r="BO10" s="18"/>
-      <c r="BP10" s="18"/>
-      <c r="BQ10" s="18"/>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="18"/>
-      <c r="BT10" s="18"/>
-      <c r="BU10" s="18"/>
-      <c r="BV10" s="18"/>
-      <c r="BW10" s="18"/>
-      <c r="BX10" s="18"/>
-      <c r="BY10" s="18"/>
-      <c r="BZ10" s="18"/>
-      <c r="CA10" s="18"/>
-      <c r="CB10" s="18"/>
-      <c r="CC10" s="18"/>
-      <c r="CD10" s="18"/>
-      <c r="CE10" s="18"/>
-      <c r="CF10" s="18"/>
-      <c r="CG10" s="18"/>
-      <c r="CH10" s="18"/>
-      <c r="CI10" s="18"/>
-      <c r="CJ10" s="9"/>
-      <c r="CK10" s="9"/>
-      <c r="CL10" s="9"/>
-      <c r="CM10" s="9"/>
-      <c r="CN10" s="9"/>
-      <c r="CO10" s="9"/>
-      <c r="CP10" s="9"/>
-      <c r="CQ10" s="9"/>
-      <c r="CR10" s="9"/>
-      <c r="CS10" s="9"/>
-      <c r="CT10" s="9"/>
-      <c r="CU10" s="9"/>
-      <c r="CV10" s="9"/>
-      <c r="CW10" s="9"/>
-      <c r="CX10" s="9"/>
-      <c r="CY10" s="9"/>
-      <c r="CZ10" s="9"/>
-      <c r="DA10" s="9"/>
-      <c r="DB10" s="9"/>
-      <c r="DC10" s="9"/>
-      <c r="DD10" s="9"/>
-      <c r="DE10" s="9"/>
-      <c r="DF10" s="9"/>
-      <c r="DG10" s="9"/>
-      <c r="DH10" s="9"/>
-      <c r="DI10" s="9"/>
-      <c r="DJ10" s="9"/>
-      <c r="DK10" s="9"/>
-      <c r="DL10" s="10"/>
-      <c r="DM10" s="23"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
+      <c r="BR10" s="16"/>
+      <c r="BS10" s="16"/>
+      <c r="BT10" s="16"/>
+      <c r="BU10" s="16"/>
+      <c r="BV10" s="16"/>
+      <c r="BW10" s="16"/>
+      <c r="BX10" s="16"/>
+      <c r="BY10" s="16"/>
+      <c r="BZ10" s="16"/>
+      <c r="CA10" s="16"/>
+      <c r="CB10" s="16"/>
+      <c r="CC10" s="16"/>
+      <c r="CD10" s="16"/>
+      <c r="CE10" s="16"/>
+      <c r="CF10" s="16"/>
+      <c r="CG10" s="16"/>
+      <c r="CH10" s="16"/>
+      <c r="CI10" s="16"/>
+      <c r="CJ10" s="7"/>
+      <c r="CK10" s="7"/>
+      <c r="CL10" s="7"/>
+      <c r="CM10" s="7"/>
+      <c r="CN10" s="7"/>
+      <c r="CO10" s="7"/>
+      <c r="CP10" s="7"/>
+      <c r="CQ10" s="7"/>
+      <c r="CR10" s="7"/>
+      <c r="CS10" s="7"/>
+      <c r="CT10" s="7"/>
+      <c r="CU10" s="7"/>
+      <c r="CV10" s="7"/>
+      <c r="CW10" s="7"/>
+      <c r="CX10" s="7"/>
+      <c r="CY10" s="7"/>
+      <c r="CZ10" s="7"/>
+      <c r="DA10" s="7"/>
+      <c r="DB10" s="7"/>
+      <c r="DC10" s="7"/>
+      <c r="DD10" s="7"/>
+      <c r="DE10" s="7"/>
+      <c r="DF10" s="7"/>
+      <c r="DG10" s="7"/>
+      <c r="DH10" s="7"/>
+      <c r="DI10" s="7"/>
+      <c r="DJ10" s="7"/>
+      <c r="DK10" s="7"/>
+      <c r="DL10" s="8"/>
+      <c r="DM10" s="18"/>
     </row>
     <row r="11" spans="2:117" ht="42" customHeight="1">
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AE11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AF11" s="18" t="str">
+      <c r="AF11" s="16" t="str">
         <f>AE11</f>
         <v>joint 3</v>
       </c>
-      <c r="AG11" s="18" t="str">
+      <c r="AG11" s="16" t="str">
         <f>AF11</f>
         <v>joint 3</v>
       </c>
-      <c r="AH11" s="18" t="str">
+      <c r="AH11" s="16" t="str">
         <f>AG11</f>
         <v>joint 3</v>
       </c>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="18"/>
-      <c r="AK11" s="18"/>
-      <c r="AL11" s="18"/>
-      <c r="AM11" s="18"/>
-      <c r="AN11" s="18"/>
-      <c r="AO11" s="18"/>
-      <c r="AP11" s="18"/>
-      <c r="AQ11" s="18"/>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="18"/>
-      <c r="AT11" s="18"/>
-      <c r="AU11" s="18"/>
-      <c r="AV11" s="18"/>
-      <c r="AW11" s="18"/>
-      <c r="AX11" s="18"/>
-      <c r="AY11" s="18"/>
-      <c r="AZ11" s="18"/>
-      <c r="BA11" s="18"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="18"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="18"/>
-      <c r="BF11" s="18"/>
-      <c r="BG11" s="18"/>
-      <c r="BH11" s="18"/>
-      <c r="BI11" s="18"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="18"/>
-      <c r="BL11" s="18"/>
-      <c r="BM11" s="18"/>
-      <c r="BN11" s="18"/>
-      <c r="BO11" s="18"/>
-      <c r="BP11" s="18"/>
-      <c r="BQ11" s="18"/>
-      <c r="BR11" s="18"/>
-      <c r="BS11" s="18"/>
-      <c r="BT11" s="18"/>
-      <c r="BU11" s="18"/>
-      <c r="BV11" s="18"/>
-      <c r="BW11" s="18"/>
-      <c r="BX11" s="18"/>
-      <c r="BY11" s="18"/>
-      <c r="BZ11" s="18"/>
-      <c r="CA11" s="18"/>
-      <c r="CB11" s="18"/>
-      <c r="CC11" s="18"/>
-      <c r="CD11" s="18"/>
-      <c r="CE11" s="18"/>
-      <c r="CF11" s="18"/>
-      <c r="CG11" s="18"/>
-      <c r="CH11" s="18"/>
-      <c r="CI11" s="18"/>
-      <c r="CJ11" s="9"/>
-      <c r="CK11" s="9"/>
-      <c r="CL11" s="9"/>
-      <c r="CM11" s="9"/>
-      <c r="CN11" s="9"/>
-      <c r="CO11" s="9"/>
-      <c r="CP11" s="9"/>
-      <c r="CQ11" s="9"/>
-      <c r="CR11" s="9"/>
-      <c r="CS11" s="9"/>
-      <c r="CT11" s="9"/>
-      <c r="CU11" s="9"/>
-      <c r="CV11" s="9"/>
-      <c r="CW11" s="9"/>
-      <c r="CX11" s="9"/>
-      <c r="CY11" s="9"/>
-      <c r="CZ11" s="9"/>
-      <c r="DA11" s="9"/>
-      <c r="DB11" s="9"/>
-      <c r="DC11" s="9"/>
-      <c r="DD11" s="9"/>
-      <c r="DE11" s="9"/>
-      <c r="DF11" s="9"/>
-      <c r="DG11" s="9"/>
-      <c r="DH11" s="9"/>
-      <c r="DI11" s="9"/>
-      <c r="DJ11" s="9"/>
-      <c r="DK11" s="9"/>
-      <c r="DL11" s="10"/>
-      <c r="DM11" s="23"/>
+      <c r="AI11" s="16"/>
+      <c r="AJ11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="16"/>
+      <c r="BB11" s="16"/>
+      <c r="BC11" s="16"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="16"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
+      <c r="BR11" s="16"/>
+      <c r="BS11" s="16"/>
+      <c r="BT11" s="16"/>
+      <c r="BU11" s="16"/>
+      <c r="BV11" s="16"/>
+      <c r="BW11" s="16"/>
+      <c r="BX11" s="16"/>
+      <c r="BY11" s="16"/>
+      <c r="BZ11" s="16"/>
+      <c r="CA11" s="16"/>
+      <c r="CB11" s="16"/>
+      <c r="CC11" s="16"/>
+      <c r="CD11" s="16"/>
+      <c r="CE11" s="16"/>
+      <c r="CF11" s="16"/>
+      <c r="CG11" s="16"/>
+      <c r="CH11" s="16"/>
+      <c r="CI11" s="16"/>
+      <c r="CJ11" s="7"/>
+      <c r="CK11" s="7"/>
+      <c r="CL11" s="7"/>
+      <c r="CM11" s="7"/>
+      <c r="CN11" s="7"/>
+      <c r="CO11" s="7"/>
+      <c r="CP11" s="7"/>
+      <c r="CQ11" s="7"/>
+      <c r="CR11" s="7"/>
+      <c r="CS11" s="7"/>
+      <c r="CT11" s="7"/>
+      <c r="CU11" s="7"/>
+      <c r="CV11" s="7"/>
+      <c r="CW11" s="7"/>
+      <c r="CX11" s="7"/>
+      <c r="CY11" s="7"/>
+      <c r="CZ11" s="7"/>
+      <c r="DA11" s="7"/>
+      <c r="DB11" s="7"/>
+      <c r="DC11" s="7"/>
+      <c r="DD11" s="7"/>
+      <c r="DE11" s="7"/>
+      <c r="DF11" s="7"/>
+      <c r="DG11" s="7"/>
+      <c r="DH11" s="7"/>
+      <c r="DI11" s="7"/>
+      <c r="DJ11" s="7"/>
+      <c r="DK11" s="7"/>
+      <c r="DL11" s="8"/>
+      <c r="DM11" s="18"/>
     </row>
     <row r="12" spans="2:117" ht="42" customHeight="1">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AF12" s="18" t="s">
+      <c r="AF12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="27" t="s">
+      <c r="AG12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="27" t="s">
+      <c r="AH12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AI12" s="27" t="s">
+      <c r="AI12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AJ12" s="18"/>
-      <c r="AK12" s="18"/>
-      <c r="AL12" s="18"/>
-      <c r="AM12" s="18"/>
-      <c r="AN12" s="18"/>
-      <c r="AO12" s="18"/>
-      <c r="AP12" s="18"/>
-      <c r="AQ12" s="18"/>
-      <c r="AR12" s="18"/>
-      <c r="AS12" s="18"/>
-      <c r="AT12" s="18"/>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="18"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="18"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="18"/>
-      <c r="BF12" s="18"/>
-      <c r="BG12" s="18"/>
-      <c r="BH12" s="18"/>
-      <c r="BI12" s="18"/>
-      <c r="BJ12" s="18"/>
-      <c r="BK12" s="18"/>
-      <c r="BL12" s="18"/>
-      <c r="BM12" s="18"/>
-      <c r="BN12" s="18"/>
-      <c r="BO12" s="18"/>
-      <c r="BP12" s="18"/>
-      <c r="BQ12" s="18"/>
-      <c r="BR12" s="18"/>
-      <c r="BS12" s="18"/>
-      <c r="BT12" s="18"/>
-      <c r="BU12" s="18"/>
-      <c r="BV12" s="18"/>
-      <c r="BW12" s="18"/>
-      <c r="BX12" s="18"/>
-      <c r="BY12" s="18"/>
-      <c r="BZ12" s="18"/>
-      <c r="CA12" s="18"/>
-      <c r="CB12" s="18"/>
-      <c r="CC12" s="18"/>
-      <c r="CD12" s="18"/>
-      <c r="CE12" s="18"/>
-      <c r="CF12" s="18"/>
-      <c r="CG12" s="18"/>
-      <c r="CH12" s="18"/>
-      <c r="CI12" s="18"/>
-      <c r="CJ12" s="9"/>
-      <c r="CK12" s="9"/>
-      <c r="CL12" s="9"/>
-      <c r="CM12" s="9"/>
-      <c r="CN12" s="9"/>
-      <c r="CO12" s="9"/>
-      <c r="CP12" s="9"/>
-      <c r="CQ12" s="9"/>
-      <c r="CR12" s="9"/>
-      <c r="CS12" s="9"/>
-      <c r="CT12" s="9"/>
-      <c r="CU12" s="9"/>
-      <c r="CV12" s="9"/>
-      <c r="CW12" s="9"/>
-      <c r="CX12" s="9"/>
-      <c r="CY12" s="9"/>
-      <c r="CZ12" s="9"/>
-      <c r="DA12" s="9"/>
-      <c r="DB12" s="9"/>
-      <c r="DC12" s="9"/>
-      <c r="DD12" s="9"/>
-      <c r="DE12" s="9"/>
-      <c r="DF12" s="9"/>
-      <c r="DG12" s="9"/>
-      <c r="DH12" s="9"/>
-      <c r="DI12" s="9"/>
-      <c r="DJ12" s="9"/>
-      <c r="DK12" s="9"/>
-      <c r="DL12" s="10"/>
-      <c r="DM12" s="23"/>
+      <c r="AJ12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="16"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="16"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
+      <c r="BR12" s="16"/>
+      <c r="BS12" s="16"/>
+      <c r="BT12" s="16"/>
+      <c r="BU12" s="16"/>
+      <c r="BV12" s="16"/>
+      <c r="BW12" s="16"/>
+      <c r="BX12" s="16"/>
+      <c r="BY12" s="16"/>
+      <c r="BZ12" s="16"/>
+      <c r="CA12" s="16"/>
+      <c r="CB12" s="16"/>
+      <c r="CC12" s="16"/>
+      <c r="CD12" s="16"/>
+      <c r="CE12" s="16"/>
+      <c r="CF12" s="16"/>
+      <c r="CG12" s="16"/>
+      <c r="CH12" s="16"/>
+      <c r="CI12" s="16"/>
+      <c r="CJ12" s="7"/>
+      <c r="CK12" s="7"/>
+      <c r="CL12" s="7"/>
+      <c r="CM12" s="7"/>
+      <c r="CN12" s="7"/>
+      <c r="CO12" s="7"/>
+      <c r="CP12" s="7"/>
+      <c r="CQ12" s="7"/>
+      <c r="CR12" s="7"/>
+      <c r="CS12" s="7"/>
+      <c r="CT12" s="7"/>
+      <c r="CU12" s="7"/>
+      <c r="CV12" s="7"/>
+      <c r="CW12" s="7"/>
+      <c r="CX12" s="7"/>
+      <c r="CY12" s="7"/>
+      <c r="CZ12" s="7"/>
+      <c r="DA12" s="7"/>
+      <c r="DB12" s="7"/>
+      <c r="DC12" s="7"/>
+      <c r="DD12" s="7"/>
+      <c r="DE12" s="7"/>
+      <c r="DF12" s="7"/>
+      <c r="DG12" s="7"/>
+      <c r="DH12" s="7"/>
+      <c r="DI12" s="7"/>
+      <c r="DJ12" s="7"/>
+      <c r="DK12" s="7"/>
+      <c r="DL12" s="8"/>
+      <c r="DM12" s="18"/>
     </row>
     <row r="13" spans="2:117" ht="42" customHeight="1">
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AG13" s="18" t="s">
+      <c r="AG13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AH13" s="18" t="s">
+      <c r="AH13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AI13" s="18" t="str">
+      <c r="AI13" s="16" t="str">
         <f>AH13</f>
         <v>joint 5</v>
       </c>
-      <c r="AJ13" s="18" t="str">
+      <c r="AJ13" s="16" t="str">
         <f>AI13</f>
         <v>joint 5</v>
       </c>
-      <c r="AK13" s="18"/>
-      <c r="AL13" s="18"/>
-      <c r="AM13" s="18"/>
-      <c r="AN13" s="18"/>
-      <c r="AO13" s="18"/>
-      <c r="AP13" s="18"/>
-      <c r="AQ13" s="18"/>
-      <c r="AR13" s="18"/>
-      <c r="AS13" s="18"/>
-      <c r="AT13" s="18"/>
-      <c r="AU13" s="18"/>
-      <c r="AV13" s="18"/>
-      <c r="AW13" s="18"/>
-      <c r="AX13" s="18"/>
-      <c r="AY13" s="18"/>
-      <c r="AZ13" s="18"/>
-      <c r="BA13" s="18"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="18"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="18"/>
-      <c r="BF13" s="18"/>
-      <c r="BG13" s="18"/>
-      <c r="BH13" s="18"/>
-      <c r="BI13" s="18"/>
-      <c r="BJ13" s="18"/>
-      <c r="BK13" s="18"/>
-      <c r="BL13" s="18"/>
-      <c r="BM13" s="18"/>
-      <c r="BN13" s="18"/>
-      <c r="BO13" s="18"/>
-      <c r="BP13" s="18"/>
-      <c r="BQ13" s="18"/>
-      <c r="BR13" s="18"/>
-      <c r="BS13" s="18"/>
-      <c r="BT13" s="18"/>
-      <c r="BU13" s="18"/>
-      <c r="BV13" s="18"/>
-      <c r="BW13" s="18"/>
-      <c r="BX13" s="18"/>
-      <c r="BY13" s="18"/>
-      <c r="BZ13" s="18"/>
-      <c r="CA13" s="18"/>
-      <c r="CB13" s="18"/>
-      <c r="CC13" s="18"/>
-      <c r="CD13" s="18"/>
-      <c r="CE13" s="18"/>
-      <c r="CF13" s="18"/>
-      <c r="CG13" s="18"/>
-      <c r="CH13" s="18"/>
-      <c r="CI13" s="18"/>
-      <c r="CJ13" s="9"/>
-      <c r="CK13" s="9"/>
-      <c r="CL13" s="9"/>
-      <c r="CM13" s="9"/>
-      <c r="CN13" s="9"/>
-      <c r="CO13" s="9"/>
-      <c r="CP13" s="9"/>
-      <c r="CQ13" s="9"/>
-      <c r="CR13" s="9"/>
-      <c r="CS13" s="9"/>
-      <c r="CT13" s="9"/>
-      <c r="CU13" s="9"/>
-      <c r="CV13" s="9"/>
-      <c r="CW13" s="9"/>
-      <c r="CX13" s="9"/>
-      <c r="CY13" s="9"/>
-      <c r="CZ13" s="9"/>
-      <c r="DA13" s="9"/>
-      <c r="DB13" s="9"/>
-      <c r="DC13" s="9"/>
-      <c r="DD13" s="9"/>
-      <c r="DE13" s="9"/>
-      <c r="DF13" s="9"/>
-      <c r="DG13" s="9"/>
-      <c r="DH13" s="9"/>
-      <c r="DI13" s="9"/>
-      <c r="DJ13" s="9"/>
-      <c r="DK13" s="9"/>
-      <c r="DL13" s="10"/>
-      <c r="DM13" s="23"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
+      <c r="BZ13" s="16"/>
+      <c r="CA13" s="16"/>
+      <c r="CB13" s="16"/>
+      <c r="CC13" s="16"/>
+      <c r="CD13" s="16"/>
+      <c r="CE13" s="16"/>
+      <c r="CF13" s="16"/>
+      <c r="CG13" s="16"/>
+      <c r="CH13" s="16"/>
+      <c r="CI13" s="16"/>
+      <c r="CJ13" s="7"/>
+      <c r="CK13" s="7"/>
+      <c r="CL13" s="7"/>
+      <c r="CM13" s="7"/>
+      <c r="CN13" s="7"/>
+      <c r="CO13" s="7"/>
+      <c r="CP13" s="7"/>
+      <c r="CQ13" s="7"/>
+      <c r="CR13" s="7"/>
+      <c r="CS13" s="7"/>
+      <c r="CT13" s="7"/>
+      <c r="CU13" s="7"/>
+      <c r="CV13" s="7"/>
+      <c r="CW13" s="7"/>
+      <c r="CX13" s="7"/>
+      <c r="CY13" s="7"/>
+      <c r="CZ13" s="7"/>
+      <c r="DA13" s="7"/>
+      <c r="DB13" s="7"/>
+      <c r="DC13" s="7"/>
+      <c r="DD13" s="7"/>
+      <c r="DE13" s="7"/>
+      <c r="DF13" s="7"/>
+      <c r="DG13" s="7"/>
+      <c r="DH13" s="7"/>
+      <c r="DI13" s="7"/>
+      <c r="DJ13" s="7"/>
+      <c r="DK13" s="7"/>
+      <c r="DL13" s="8"/>
+      <c r="DM13" s="18"/>
     </row>
     <row r="14" spans="2:117" ht="42" customHeight="1">
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AH14" s="18" t="s">
+      <c r="AH14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="AI14" s="27" t="s">
+      <c r="AI14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AJ14" s="27" t="s">
+      <c r="AJ14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AK14" s="27" t="s">
+      <c r="AK14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AL14" s="18"/>
-      <c r="AM14" s="18"/>
-      <c r="AN14" s="18"/>
-      <c r="AO14" s="18"/>
-      <c r="AP14" s="18"/>
-      <c r="AQ14" s="18"/>
-      <c r="AR14" s="18"/>
-      <c r="AS14" s="18"/>
-      <c r="AT14" s="18"/>
-      <c r="AU14" s="18"/>
-      <c r="AV14" s="18"/>
-      <c r="AW14" s="18"/>
-      <c r="AX14" s="18"/>
-      <c r="AY14" s="18"/>
-      <c r="AZ14" s="18"/>
-      <c r="BA14" s="18"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="18"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="18"/>
-      <c r="BF14" s="18"/>
-      <c r="BG14" s="18"/>
-      <c r="BH14" s="18"/>
-      <c r="BI14" s="18"/>
-      <c r="BJ14" s="18"/>
-      <c r="BK14" s="18"/>
-      <c r="BL14" s="18"/>
-      <c r="BM14" s="18"/>
-      <c r="BN14" s="18"/>
-      <c r="BO14" s="18"/>
-      <c r="BP14" s="18"/>
-      <c r="BQ14" s="18"/>
-      <c r="BR14" s="18"/>
-      <c r="BS14" s="18"/>
-      <c r="BT14" s="18"/>
-      <c r="BU14" s="18"/>
-      <c r="BV14" s="18"/>
-      <c r="BW14" s="18"/>
-      <c r="BX14" s="18"/>
-      <c r="BY14" s="18"/>
-      <c r="BZ14" s="18"/>
-      <c r="CA14" s="18"/>
-      <c r="CB14" s="18"/>
-      <c r="CC14" s="18"/>
-      <c r="CD14" s="18"/>
-      <c r="CE14" s="18"/>
-      <c r="CF14" s="18"/>
-      <c r="CG14" s="18"/>
-      <c r="CH14" s="18"/>
-      <c r="CI14" s="18"/>
-      <c r="CJ14" s="9"/>
-      <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="9"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
-      <c r="CU14" s="9"/>
-      <c r="CV14" s="9"/>
-      <c r="CW14" s="9"/>
-      <c r="CX14" s="9"/>
-      <c r="CY14" s="9"/>
-      <c r="CZ14" s="9"/>
-      <c r="DA14" s="9"/>
-      <c r="DB14" s="9"/>
-      <c r="DC14" s="9"/>
-      <c r="DD14" s="9"/>
-      <c r="DE14" s="9"/>
-      <c r="DF14" s="9"/>
-      <c r="DG14" s="9"/>
-      <c r="DH14" s="9"/>
-      <c r="DI14" s="9"/>
-      <c r="DJ14" s="9"/>
-      <c r="DK14" s="9"/>
-      <c r="DL14" s="10"/>
-      <c r="DM14" s="23"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="16"/>
+      <c r="BA14" s="16"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="16"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
+      <c r="BR14" s="16"/>
+      <c r="BS14" s="16"/>
+      <c r="BT14" s="16"/>
+      <c r="BU14" s="16"/>
+      <c r="BV14" s="16"/>
+      <c r="BW14" s="16"/>
+      <c r="BX14" s="16"/>
+      <c r="BY14" s="16"/>
+      <c r="BZ14" s="16"/>
+      <c r="CA14" s="16"/>
+      <c r="CB14" s="16"/>
+      <c r="CC14" s="16"/>
+      <c r="CD14" s="16"/>
+      <c r="CE14" s="16"/>
+      <c r="CF14" s="16"/>
+      <c r="CG14" s="16"/>
+      <c r="CH14" s="16"/>
+      <c r="CI14" s="16"/>
+      <c r="CJ14" s="7"/>
+      <c r="CK14" s="7"/>
+      <c r="CL14" s="7"/>
+      <c r="CM14" s="7"/>
+      <c r="CN14" s="7"/>
+      <c r="CO14" s="7"/>
+      <c r="CP14" s="7"/>
+      <c r="CQ14" s="7"/>
+      <c r="CR14" s="7"/>
+      <c r="CS14" s="7"/>
+      <c r="CT14" s="7"/>
+      <c r="CU14" s="7"/>
+      <c r="CV14" s="7"/>
+      <c r="CW14" s="7"/>
+      <c r="CX14" s="7"/>
+      <c r="CY14" s="7"/>
+      <c r="CZ14" s="7"/>
+      <c r="DA14" s="7"/>
+      <c r="DB14" s="7"/>
+      <c r="DC14" s="7"/>
+      <c r="DD14" s="7"/>
+      <c r="DE14" s="7"/>
+      <c r="DF14" s="7"/>
+      <c r="DG14" s="7"/>
+      <c r="DH14" s="7"/>
+      <c r="DI14" s="7"/>
+      <c r="DJ14" s="7"/>
+      <c r="DK14" s="7"/>
+      <c r="DL14" s="8"/>
+      <c r="DM14" s="18"/>
     </row>
     <row r="15" spans="2:117" ht="42" customHeight="1">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="24">
         <v>36</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
       <c r="AH15" s="1" t="s">
         <v>11</v>
       </c>
@@ -5337,7 +5477,7 @@
       <c r="BD15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BE15" s="24" t="s">
+      <c r="BE15" s="19" t="s">
         <v>164</v>
       </c>
       <c r="BF15" s="1" t="s">
@@ -5448,30 +5588,30 @@
       <c r="CO15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="CP15" s="9"/>
-      <c r="CQ15" s="9"/>
-      <c r="CR15" s="25" t="s">
+      <c r="CP15" s="7"/>
+      <c r="CQ15" s="7"/>
+      <c r="CR15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="CS15" s="25" t="s">
+      <c r="CS15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="CT15" s="25" t="s">
+      <c r="CT15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="CU15" s="25" t="s">
+      <c r="CU15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="CV15" s="26" t="s">
+      <c r="CV15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="CW15" s="26" t="s">
+      <c r="CW15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="CX15" s="26" t="s">
+      <c r="CX15" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="CY15" s="9"/>
+      <c r="CY15" s="7"/>
       <c r="CZ15" s="1" t="s">
         <v>66</v>
       </c>
@@ -5502,1717 +5642,1963 @@
       <c r="DI15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="DJ15" s="24" t="s">
+      <c r="DJ15" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="DK15" s="24" t="s">
+      <c r="DK15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="DL15" s="10"/>
-      <c r="DM15" s="23"/>
+      <c r="DL15" s="8"/>
+      <c r="DM15" s="18"/>
     </row>
     <row r="16" spans="2:117" ht="42" customHeight="1" thickBot="1">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>36</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AM16" s="15" t="s">
+      <c r="AM16" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
-      <c r="AQ16" s="15"/>
-      <c r="AR16" s="15"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="15"/>
-      <c r="AW16" s="15"/>
-      <c r="AX16" s="15"/>
-      <c r="AY16" s="15" t="s">
+      <c r="AN16" s="13"/>
+      <c r="AO16" s="13"/>
+      <c r="AP16" s="13"/>
+      <c r="AQ16" s="13"/>
+      <c r="AR16" s="13"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="13"/>
+      <c r="AU16" s="13"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="13"/>
+      <c r="AX16" s="13"/>
+      <c r="AY16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AZ16" s="15" t="s">
+      <c r="AZ16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BA16" s="15"/>
-      <c r="BB16" s="15"/>
-      <c r="BC16" s="15"/>
-      <c r="BD16" s="15"/>
-      <c r="BE16" s="15"/>
-      <c r="BF16" s="15"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
-      <c r="BJ16" s="15"/>
-      <c r="BK16" s="16" t="s">
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="13"/>
+      <c r="BH16" s="13"/>
+      <c r="BI16" s="13"/>
+      <c r="BJ16" s="13"/>
+      <c r="BK16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="BL16" s="16" t="s">
+      <c r="BL16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="BM16" s="15"/>
-      <c r="BN16" s="15"/>
-      <c r="BO16" s="15"/>
-      <c r="BP16" s="15"/>
-      <c r="BQ16" s="15"/>
-      <c r="BR16" s="15"/>
-      <c r="BS16" s="15"/>
-      <c r="BT16" s="15"/>
-      <c r="BU16" s="15"/>
-      <c r="BV16" s="15"/>
-      <c r="BW16" s="16" t="s">
+      <c r="BM16" s="13"/>
+      <c r="BN16" s="13"/>
+      <c r="BO16" s="13"/>
+      <c r="BP16" s="13"/>
+      <c r="BQ16" s="13"/>
+      <c r="BR16" s="13"/>
+      <c r="BS16" s="13"/>
+      <c r="BT16" s="13"/>
+      <c r="BU16" s="13"/>
+      <c r="BV16" s="13"/>
+      <c r="BW16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="BX16" s="16" t="s">
+      <c r="BX16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
-      <c r="CD16" s="15"/>
-      <c r="CE16" s="15"/>
-      <c r="CF16" s="15"/>
-      <c r="CG16" s="15"/>
-      <c r="CH16" s="15"/>
-      <c r="CI16" s="16" t="s">
+      <c r="BY16" s="13"/>
+      <c r="BZ16" s="13"/>
+      <c r="CA16" s="13"/>
+      <c r="CB16" s="13"/>
+      <c r="CC16" s="13"/>
+      <c r="CD16" s="13"/>
+      <c r="CE16" s="13"/>
+      <c r="CF16" s="13"/>
+      <c r="CG16" s="13"/>
+      <c r="CH16" s="13"/>
+      <c r="CI16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="CJ16" s="16" t="s">
+      <c r="CJ16" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="15"/>
-      <c r="CP16" s="15" t="s">
+      <c r="CK16" s="13"/>
+      <c r="CL16" s="13"/>
+      <c r="CM16" s="13"/>
+      <c r="CN16" s="13"/>
+      <c r="CO16" s="13"/>
+      <c r="CP16" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="CQ16" s="15"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
-      <c r="CT16" s="16"/>
-      <c r="CU16" s="16"/>
-      <c r="CV16" s="15"/>
-      <c r="CW16" s="15"/>
-      <c r="CX16" s="15" t="s">
+      <c r="CQ16" s="13"/>
+      <c r="CR16" s="13"/>
+      <c r="CS16" s="13"/>
+      <c r="CT16" s="14"/>
+      <c r="CU16" s="14"/>
+      <c r="CV16" s="13"/>
+      <c r="CW16" s="13"/>
+      <c r="CX16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="CY16" s="15"/>
-      <c r="CZ16" s="15"/>
-      <c r="DA16" s="15"/>
-      <c r="DB16" s="15"/>
-      <c r="DC16" s="15"/>
-      <c r="DD16" s="15"/>
-      <c r="DE16" s="15"/>
-      <c r="DF16" s="15"/>
-      <c r="DG16" s="15"/>
-      <c r="DH16" s="15"/>
-      <c r="DI16" s="15"/>
-      <c r="DJ16" s="15"/>
-      <c r="DK16" s="15"/>
-      <c r="DL16" s="17" t="s">
+      <c r="CY16" s="13"/>
+      <c r="CZ16" s="13"/>
+      <c r="DA16" s="13"/>
+      <c r="DB16" s="13"/>
+      <c r="DC16" s="13"/>
+      <c r="DD16" s="13"/>
+      <c r="DE16" s="13"/>
+      <c r="DF16" s="13"/>
+      <c r="DG16" s="13"/>
+      <c r="DH16" s="13"/>
+      <c r="DI16" s="13"/>
+      <c r="DJ16" s="13"/>
+      <c r="DK16" s="13"/>
+      <c r="DL16" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="DM16" s="23"/>
+      <c r="DM16" s="18"/>
     </row>
-    <row r="17" spans="2:120" ht="42" customHeight="1" thickBot="1"/>
-    <row r="18" spans="2:120" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="17" spans="2:135" ht="42" customHeight="1" thickBot="1"/>
+    <row r="18" spans="2:135" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="32"/>
-      <c r="AU18" s="32"/>
-      <c r="AV18" s="32"/>
-      <c r="AW18" s="32"/>
-      <c r="AX18" s="32"/>
-      <c r="AY18" s="32"/>
-      <c r="AZ18" s="32"/>
-      <c r="BA18" s="32"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
-      <c r="BQ18" s="32"/>
-      <c r="BR18" s="32"/>
-      <c r="BS18" s="32"/>
-      <c r="BT18" s="32"/>
-      <c r="BU18" s="32"/>
-      <c r="BV18" s="32"/>
-      <c r="BW18" s="32"/>
-      <c r="BX18" s="32"/>
-      <c r="BY18" s="32"/>
-      <c r="BZ18" s="32"/>
-      <c r="CA18" s="32"/>
-      <c r="CB18" s="32"/>
-      <c r="CC18" s="32"/>
-      <c r="CD18" s="32"/>
-      <c r="CE18" s="32"/>
-      <c r="CF18" s="32"/>
-      <c r="CG18" s="32"/>
-      <c r="CH18" s="32"/>
-      <c r="CI18" s="32"/>
-      <c r="CJ18" s="32"/>
-      <c r="CK18" s="32"/>
-      <c r="CL18" s="32"/>
-      <c r="CM18" s="32"/>
-      <c r="CN18" s="32"/>
-      <c r="CO18" s="32"/>
-      <c r="CP18" s="32"/>
-      <c r="CQ18" s="32"/>
-      <c r="CR18" s="32"/>
-      <c r="CS18" s="32"/>
-      <c r="CT18" s="32"/>
-      <c r="CU18" s="32"/>
-      <c r="CV18" s="32"/>
-      <c r="CW18" s="32"/>
-      <c r="CX18" s="32"/>
-      <c r="CY18" s="32"/>
-      <c r="CZ18" s="32"/>
-      <c r="DA18" s="32"/>
-      <c r="DB18" s="32"/>
-      <c r="DC18" s="32"/>
-      <c r="DD18" s="32"/>
-      <c r="DE18" s="32"/>
-      <c r="DF18" s="32"/>
-      <c r="DG18" s="32"/>
-      <c r="DH18" s="32"/>
-      <c r="DI18" s="32"/>
-      <c r="DJ18" s="32"/>
-      <c r="DK18" s="32"/>
-      <c r="DL18" s="32"/>
-      <c r="DM18" s="33"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="28"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
+      <c r="BV18" s="28"/>
+      <c r="BW18" s="28"/>
+      <c r="BX18" s="28"/>
+      <c r="BY18" s="28"/>
+      <c r="BZ18" s="28"/>
+      <c r="CA18" s="28"/>
+      <c r="CB18" s="28"/>
+      <c r="CC18" s="28"/>
+      <c r="CD18" s="28"/>
+      <c r="CE18" s="28"/>
+      <c r="CF18" s="28"/>
+      <c r="CG18" s="28"/>
+      <c r="CH18" s="28"/>
+      <c r="CI18" s="28"/>
+      <c r="CJ18" s="28"/>
+      <c r="CK18" s="28"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
+      <c r="CS18" s="28"/>
+      <c r="CT18" s="28"/>
+      <c r="CU18" s="28"/>
+      <c r="CV18" s="28"/>
+      <c r="CW18" s="28"/>
+      <c r="CX18" s="28"/>
+      <c r="CY18" s="28"/>
+      <c r="CZ18" s="28"/>
+      <c r="DA18" s="28"/>
+      <c r="DB18" s="28"/>
+      <c r="DC18" s="28"/>
+      <c r="DD18" s="28"/>
+      <c r="DE18" s="28"/>
+      <c r="DF18" s="28"/>
+      <c r="DG18" s="28"/>
+      <c r="DH18" s="28"/>
+      <c r="DI18" s="28"/>
+      <c r="DJ18" s="28"/>
+      <c r="DK18" s="28"/>
+      <c r="DL18" s="28"/>
+      <c r="DM18" s="28"/>
+      <c r="DN18" s="28"/>
+      <c r="DO18" s="28"/>
+      <c r="DP18" s="28"/>
+      <c r="DQ18" s="28"/>
+      <c r="DR18" s="28"/>
+      <c r="DS18" s="28"/>
+      <c r="DT18" s="28"/>
+      <c r="DU18" s="28"/>
+      <c r="DV18" s="28"/>
+      <c r="DW18" s="28"/>
+      <c r="DX18" s="28"/>
+      <c r="DY18" s="28"/>
+      <c r="DZ18" s="28"/>
+      <c r="EA18" s="28"/>
+      <c r="EB18" s="28"/>
+      <c r="EC18" s="28"/>
+      <c r="ED18" s="28"/>
+      <c r="EE18" s="29"/>
     </row>
-    <row r="19" spans="2:120" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="2:135" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="B19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="33">
         <f>MAX(2:2)+1</f>
         <v>113</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="33">
         <f t="shared" ref="F19" si="56">E19+1</f>
         <v>114</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="33">
         <f t="shared" ref="G19" si="57">F19+1</f>
         <v>115</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="33">
         <f t="shared" ref="H19" si="58">G19+1</f>
         <v>116</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="33">
         <f t="shared" ref="I19" si="59">H19+1</f>
         <v>117</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="33">
         <f t="shared" ref="J19" si="60">I19+1</f>
         <v>118</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="33">
         <f t="shared" ref="K19" si="61">J19+1</f>
         <v>119</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="33">
         <f t="shared" ref="L19" si="62">K19+1</f>
         <v>120</v>
       </c>
-      <c r="M19" s="21">
+      <c r="M19" s="33">
         <f t="shared" ref="M19" si="63">L19+1</f>
         <v>121</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="33">
         <f t="shared" ref="N19" si="64">M19+1</f>
         <v>122</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="33">
         <f t="shared" ref="O19" si="65">N19+1</f>
         <v>123</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="33">
         <f t="shared" ref="P19" si="66">O19+1</f>
         <v>124</v>
       </c>
-      <c r="Q19" s="21">
+      <c r="Q19" s="33">
         <f t="shared" ref="Q19" si="67">P19+1</f>
         <v>125</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="33">
         <f t="shared" ref="R19" si="68">Q19+1</f>
         <v>126</v>
       </c>
-      <c r="S19" s="21">
+      <c r="S19" s="33">
         <f t="shared" ref="S19" si="69">R19+1</f>
         <v>127</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="33">
         <f t="shared" ref="T19" si="70">S19+1</f>
         <v>128</v>
       </c>
-      <c r="U19" s="21">
+      <c r="U19" s="33">
         <f t="shared" ref="U19" si="71">T19+1</f>
         <v>129</v>
       </c>
-      <c r="V19" s="21">
+      <c r="V19" s="33">
         <f t="shared" ref="V19" si="72">U19+1</f>
         <v>130</v>
       </c>
-      <c r="W19" s="21">
+      <c r="W19" s="33">
         <f t="shared" ref="W19" si="73">V19+1</f>
         <v>131</v>
       </c>
-      <c r="X19" s="21">
+      <c r="X19" s="33">
         <f t="shared" ref="X19" si="74">W19+1</f>
         <v>132</v>
       </c>
-      <c r="Y19" s="21">
+      <c r="Y19" s="33">
         <f t="shared" ref="Y19" si="75">X19+1</f>
         <v>133</v>
       </c>
-      <c r="Z19" s="21">
+      <c r="Z19" s="33">
         <f t="shared" ref="Z19" si="76">Y19+1</f>
         <v>134</v>
       </c>
-      <c r="AA19" s="21">
+      <c r="AA19" s="33">
         <f t="shared" ref="AA19" si="77">Z19+1</f>
         <v>135</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19" s="33">
         <f t="shared" ref="AB19" si="78">AA19+1</f>
         <v>136</v>
       </c>
-      <c r="AC19" s="21">
+      <c r="AC19" s="33">
         <f t="shared" ref="AC19" si="79">AB19+1</f>
         <v>137</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19" s="33">
         <f t="shared" ref="AD19" si="80">AC19+1</f>
         <v>138</v>
       </c>
-      <c r="AE19" s="21">
+      <c r="AE19" s="33">
         <f t="shared" ref="AE19" si="81">AD19+1</f>
         <v>139</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AF19" s="33">
         <f t="shared" ref="AF19" si="82">AE19+1</f>
         <v>140</v>
       </c>
-      <c r="AG19" s="21">
+      <c r="AG19" s="33">
         <f t="shared" ref="AG19" si="83">AF19+1</f>
         <v>141</v>
       </c>
-      <c r="AH19" s="21">
+      <c r="AH19" s="33">
         <f t="shared" ref="AH19" si="84">AG19+1</f>
         <v>142</v>
       </c>
-      <c r="AI19" s="21">
+      <c r="AI19" s="33">
         <f t="shared" ref="AI19" si="85">AH19+1</f>
         <v>143</v>
       </c>
-      <c r="AJ19" s="21">
+      <c r="AJ19" s="33">
         <f t="shared" ref="AJ19" si="86">AI19+1</f>
         <v>144</v>
       </c>
-      <c r="AK19" s="21">
+      <c r="AK19" s="33">
         <f t="shared" ref="AK19" si="87">AJ19+1</f>
         <v>145</v>
       </c>
-      <c r="AL19" s="21">
+      <c r="AL19" s="33">
         <f t="shared" ref="AL19" si="88">AK19+1</f>
         <v>146</v>
       </c>
-      <c r="AM19" s="21">
+      <c r="AM19" s="33">
         <f t="shared" ref="AM19" si="89">AL19+1</f>
         <v>147</v>
       </c>
-      <c r="AN19" s="21">
+      <c r="AN19" s="33">
         <f t="shared" ref="AN19" si="90">AM19+1</f>
         <v>148</v>
       </c>
-      <c r="AO19" s="21">
+      <c r="AO19" s="33">
         <f t="shared" ref="AO19" si="91">AN19+1</f>
         <v>149</v>
       </c>
-      <c r="AP19" s="21">
+      <c r="AP19" s="33">
         <f t="shared" ref="AP19" si="92">AO19+1</f>
         <v>150</v>
       </c>
-      <c r="AQ19" s="21">
+      <c r="AQ19" s="33">
         <f t="shared" ref="AQ19" si="93">AP19+1</f>
         <v>151</v>
       </c>
-      <c r="AR19" s="21">
+      <c r="AR19" s="33">
         <f t="shared" ref="AR19" si="94">AQ19+1</f>
         <v>152</v>
       </c>
-      <c r="AS19" s="21">
+      <c r="AS19" s="33">
         <f t="shared" ref="AS19" si="95">AR19+1</f>
         <v>153</v>
       </c>
-      <c r="AT19" s="21">
+      <c r="AT19" s="33">
         <f t="shared" ref="AT19" si="96">AS19+1</f>
         <v>154</v>
       </c>
-      <c r="AU19" s="21">
+      <c r="AU19" s="33">
         <f t="shared" ref="AU19" si="97">AT19+1</f>
         <v>155</v>
       </c>
-      <c r="AV19" s="21">
+      <c r="AV19" s="33">
         <f t="shared" ref="AV19" si="98">AU19+1</f>
         <v>156</v>
       </c>
-      <c r="AW19" s="21">
+      <c r="AW19" s="33">
         <f t="shared" ref="AW19" si="99">AV19+1</f>
         <v>157</v>
       </c>
-      <c r="AX19" s="21">
+      <c r="AX19" s="33">
         <f t="shared" ref="AX19" si="100">AW19+1</f>
         <v>158</v>
       </c>
-      <c r="AY19" s="21">
+      <c r="AY19" s="33">
         <f t="shared" ref="AY19" si="101">AX19+1</f>
         <v>159</v>
       </c>
-      <c r="AZ19" s="21">
+      <c r="AZ19" s="33">
         <f t="shared" ref="AZ19" si="102">AY19+1</f>
         <v>160</v>
       </c>
-      <c r="BA19" s="21">
+      <c r="BA19" s="33">
         <f t="shared" ref="BA19" si="103">AZ19+1</f>
         <v>161</v>
       </c>
-      <c r="BB19" s="21">
+      <c r="BB19" s="33">
         <f t="shared" ref="BB19" si="104">BA19+1</f>
         <v>162</v>
       </c>
-      <c r="BC19" s="21">
+      <c r="BC19" s="33">
         <f t="shared" ref="BC19" si="105">BB19+1</f>
         <v>163</v>
       </c>
-      <c r="BD19" s="21">
+      <c r="BD19" s="33">
         <f t="shared" ref="BD19" si="106">BC19+1</f>
         <v>164</v>
       </c>
-      <c r="BE19" s="21">
+      <c r="BE19" s="33">
         <f t="shared" ref="BE19" si="107">BD19+1</f>
         <v>165</v>
       </c>
-      <c r="BF19" s="21">
+      <c r="BF19" s="33">
         <f t="shared" ref="BF19" si="108">BE19+1</f>
         <v>166</v>
       </c>
-      <c r="BG19" s="21">
+      <c r="BG19" s="33">
         <f t="shared" ref="BG19" si="109">BF19+1</f>
         <v>167</v>
       </c>
-      <c r="BH19" s="21">
+      <c r="BH19" s="33">
         <f t="shared" ref="BH19" si="110">BG19+1</f>
         <v>168</v>
       </c>
-      <c r="BI19" s="21">
+      <c r="BI19" s="33">
         <f t="shared" ref="BI19" si="111">BH19+1</f>
         <v>169</v>
       </c>
-      <c r="BJ19" s="21">
+      <c r="BJ19" s="33">
         <f t="shared" ref="BJ19" si="112">BI19+1</f>
         <v>170</v>
       </c>
-      <c r="BK19" s="21">
+      <c r="BK19" s="33">
         <f t="shared" ref="BK19" si="113">BJ19+1</f>
         <v>171</v>
       </c>
-      <c r="BL19" s="21">
+      <c r="BL19" s="33">
         <f t="shared" ref="BL19" si="114">BK19+1</f>
         <v>172</v>
       </c>
-      <c r="BM19" s="21">
+      <c r="BM19" s="33">
         <f t="shared" ref="BM19" si="115">BL19+1</f>
         <v>173</v>
       </c>
-      <c r="BN19" s="21">
+      <c r="BN19" s="33">
         <f t="shared" ref="BN19" si="116">BM19+1</f>
         <v>174</v>
       </c>
-      <c r="BO19" s="21">
+      <c r="BO19" s="33">
         <f t="shared" ref="BO19" si="117">BN19+1</f>
         <v>175</v>
       </c>
-      <c r="BP19" s="21">
+      <c r="BP19" s="33">
         <f t="shared" ref="BP19" si="118">BO19+1</f>
         <v>176</v>
       </c>
-      <c r="BQ19" s="21">
+      <c r="BQ19" s="33">
         <f t="shared" ref="BQ19" si="119">BP19+1</f>
         <v>177</v>
       </c>
-      <c r="BR19" s="21">
+      <c r="BR19" s="33">
         <f t="shared" ref="BR19" si="120">BQ19+1</f>
         <v>178</v>
       </c>
-      <c r="BS19" s="21">
+      <c r="BS19" s="33">
         <f t="shared" ref="BS19" si="121">BR19+1</f>
         <v>179</v>
       </c>
-      <c r="BT19" s="21">
+      <c r="BT19" s="33">
         <f t="shared" ref="BT19" si="122">BS19+1</f>
         <v>180</v>
       </c>
-      <c r="BU19" s="21">
+      <c r="BU19" s="33">
         <f t="shared" ref="BU19" si="123">BT19+1</f>
         <v>181</v>
       </c>
-      <c r="BV19" s="21">
+      <c r="BV19" s="33">
         <f t="shared" ref="BV19" si="124">BU19+1</f>
         <v>182</v>
       </c>
-      <c r="BW19" s="21">
+      <c r="BW19" s="33">
         <f t="shared" ref="BW19" si="125">BV19+1</f>
         <v>183</v>
       </c>
-      <c r="BX19" s="21">
+      <c r="BX19" s="33">
         <f t="shared" ref="BX19" si="126">BW19+1</f>
         <v>184</v>
       </c>
-      <c r="BY19" s="21">
+      <c r="BY19" s="33">
         <f t="shared" ref="BY19" si="127">BX19+1</f>
         <v>185</v>
       </c>
-      <c r="BZ19" s="21">
+      <c r="BZ19" s="33">
         <f t="shared" ref="BZ19" si="128">BY19+1</f>
         <v>186</v>
       </c>
-      <c r="CA19" s="21">
+      <c r="CA19" s="33">
         <f t="shared" ref="CA19" si="129">BZ19+1</f>
         <v>187</v>
       </c>
-      <c r="CB19" s="21">
+      <c r="CB19" s="33">
         <f t="shared" ref="CB19" si="130">CA19+1</f>
         <v>188</v>
       </c>
-      <c r="CC19" s="21">
+      <c r="CC19" s="33">
         <f t="shared" ref="CC19" si="131">CB19+1</f>
         <v>189</v>
       </c>
-      <c r="CD19" s="21">
+      <c r="CD19" s="33">
         <f t="shared" ref="CD19" si="132">CC19+1</f>
         <v>190</v>
       </c>
-      <c r="CE19" s="21">
+      <c r="CE19" s="33">
         <f t="shared" ref="CE19" si="133">CD19+1</f>
         <v>191</v>
       </c>
-      <c r="CF19" s="21">
+      <c r="CF19" s="33">
         <f t="shared" ref="CF19" si="134">CE19+1</f>
         <v>192</v>
       </c>
-      <c r="CG19" s="21">
+      <c r="CG19" s="33">
         <f t="shared" ref="CG19" si="135">CF19+1</f>
         <v>193</v>
       </c>
-      <c r="CH19" s="21">
+      <c r="CH19" s="33">
         <f t="shared" ref="CH19" si="136">CG19+1</f>
         <v>194</v>
       </c>
-      <c r="CI19" s="21">
+      <c r="CI19" s="33">
         <f t="shared" ref="CI19" si="137">CH19+1</f>
         <v>195</v>
       </c>
-      <c r="CJ19" s="21">
+      <c r="CJ19" s="33">
         <f t="shared" ref="CJ19" si="138">CI19+1</f>
         <v>196</v>
       </c>
-      <c r="CK19" s="21">
+      <c r="CK19" s="33">
         <f t="shared" ref="CK19" si="139">CJ19+1</f>
         <v>197</v>
       </c>
-      <c r="CL19" s="21">
+      <c r="CL19" s="33">
         <f t="shared" ref="CL19" si="140">CK19+1</f>
         <v>198</v>
       </c>
-      <c r="CM19" s="21">
+      <c r="CM19" s="33">
         <f t="shared" ref="CM19" si="141">CL19+1</f>
         <v>199</v>
       </c>
-      <c r="CN19" s="21">
+      <c r="CN19" s="33">
         <f t="shared" ref="CN19" si="142">CM19+1</f>
         <v>200</v>
       </c>
-      <c r="CO19" s="21">
+      <c r="CO19" s="33">
         <f t="shared" ref="CO19" si="143">CN19+1</f>
         <v>201</v>
       </c>
-      <c r="CP19" s="21">
+      <c r="CP19" s="33">
         <f t="shared" ref="CP19" si="144">CO19+1</f>
         <v>202</v>
       </c>
-      <c r="CQ19" s="21">
+      <c r="CQ19" s="33">
         <f t="shared" ref="CQ19" si="145">CP19+1</f>
         <v>203</v>
       </c>
-      <c r="CR19" s="21">
+      <c r="CR19" s="33">
         <f>CQ19+1</f>
         <v>204</v>
       </c>
-      <c r="CS19" s="21">
+      <c r="CS19" s="33">
         <f t="shared" ref="CS19" si="146">CR19+1</f>
         <v>205</v>
       </c>
-      <c r="CT19" s="21">
+      <c r="CT19" s="33">
         <f t="shared" ref="CT19" si="147">CS19+1</f>
         <v>206</v>
       </c>
-      <c r="CU19" s="21">
+      <c r="CU19" s="33">
         <f t="shared" ref="CU19" si="148">CT19+1</f>
         <v>207</v>
       </c>
-      <c r="CV19" s="21">
+      <c r="CV19" s="33">
         <f t="shared" ref="CV19" si="149">CU19+1</f>
         <v>208</v>
       </c>
-      <c r="CW19" s="21">
+      <c r="CW19" s="33">
         <f t="shared" ref="CW19" si="150">CV19+1</f>
         <v>209</v>
       </c>
-      <c r="CX19" s="21">
+      <c r="CX19" s="33">
         <f t="shared" ref="CX19" si="151">CW19+1</f>
         <v>210</v>
       </c>
-      <c r="CY19" s="21">
+      <c r="CY19" s="33">
         <f t="shared" ref="CY19" si="152">CX19+1</f>
         <v>211</v>
       </c>
-      <c r="CZ19" s="21">
+      <c r="CZ19" s="33">
         <f t="shared" ref="CZ19" si="153">CY19+1</f>
         <v>212</v>
       </c>
-      <c r="DA19" s="21">
+      <c r="DA19" s="33">
         <f t="shared" ref="DA19" si="154">CZ19+1</f>
         <v>213</v>
       </c>
-      <c r="DB19" s="21">
+      <c r="DB19" s="33">
         <f t="shared" ref="DB19" si="155">DA19+1</f>
         <v>214</v>
       </c>
-      <c r="DC19" s="21">
+      <c r="DC19" s="33">
         <f t="shared" ref="DC19" si="156">DB19+1</f>
         <v>215</v>
       </c>
-      <c r="DD19" s="21">
+      <c r="DD19" s="33">
         <f t="shared" ref="DD19" si="157">DC19+1</f>
         <v>216</v>
       </c>
-      <c r="DE19" s="21">
+      <c r="DE19" s="33">
         <f t="shared" ref="DE19" si="158">DD19+1</f>
         <v>217</v>
       </c>
-      <c r="DF19" s="21">
+      <c r="DF19" s="33">
         <f t="shared" ref="DF19" si="159">DE19+1</f>
         <v>218</v>
       </c>
-      <c r="DG19" s="21">
+      <c r="DG19" s="33">
         <f t="shared" ref="DG19" si="160">DF19+1</f>
         <v>219</v>
       </c>
-      <c r="DH19" s="21">
+      <c r="DH19" s="33">
         <f t="shared" ref="DH19" si="161">DG19+1</f>
         <v>220</v>
       </c>
-      <c r="DI19" s="21">
+      <c r="DI19" s="33">
         <f t="shared" ref="DI19" si="162">DH19+1</f>
         <v>221</v>
       </c>
-      <c r="DJ19" s="21">
+      <c r="DJ19" s="33">
         <f t="shared" ref="DJ19" si="163">DI19+1</f>
         <v>222</v>
       </c>
-      <c r="DK19" s="21">
+      <c r="DK19" s="33">
         <f t="shared" ref="DK19" si="164">DJ19+1</f>
         <v>223</v>
       </c>
-      <c r="DL19" s="21">
+      <c r="DL19" s="33">
         <f t="shared" ref="DL19" si="165">DK19+1</f>
         <v>224</v>
       </c>
-      <c r="DM19" s="7">
+      <c r="DM19" s="33">
         <f t="shared" ref="DM19" si="166">DL19+1</f>
         <v>225</v>
       </c>
+      <c r="DN19" s="33">
+        <f t="shared" ref="DN19" si="167">DM19+1</f>
+        <v>226</v>
+      </c>
+      <c r="DO19" s="33">
+        <f t="shared" ref="DO19" si="168">DN19+1</f>
+        <v>227</v>
+      </c>
+      <c r="DP19" s="33">
+        <f t="shared" ref="DP19" si="169">DO19+1</f>
+        <v>228</v>
+      </c>
+      <c r="DQ19" s="33">
+        <f t="shared" ref="DQ19" si="170">DP19+1</f>
+        <v>229</v>
+      </c>
+      <c r="DR19" s="33">
+        <f t="shared" ref="DR19" si="171">DQ19+1</f>
+        <v>230</v>
+      </c>
+      <c r="DS19" s="33">
+        <f t="shared" ref="DS19" si="172">DR19+1</f>
+        <v>231</v>
+      </c>
+      <c r="DT19" s="33">
+        <f t="shared" ref="DT19" si="173">DS19+1</f>
+        <v>232</v>
+      </c>
+      <c r="DU19" s="33">
+        <f t="shared" ref="DU19" si="174">DT19+1</f>
+        <v>233</v>
+      </c>
+      <c r="DV19" s="33">
+        <f t="shared" ref="DV19" si="175">DU19+1</f>
+        <v>234</v>
+      </c>
+      <c r="DW19" s="33">
+        <f t="shared" ref="DW19" si="176">DV19+1</f>
+        <v>235</v>
+      </c>
+      <c r="DX19" s="33">
+        <f t="shared" ref="DX19" si="177">DW19+1</f>
+        <v>236</v>
+      </c>
+      <c r="DY19" s="33">
+        <f t="shared" ref="DY19" si="178">DX19+1</f>
+        <v>237</v>
+      </c>
+      <c r="DZ19" s="33">
+        <f t="shared" ref="DZ19" si="179">DY19+1</f>
+        <v>238</v>
+      </c>
+      <c r="EA19" s="33">
+        <f t="shared" ref="EA19" si="180">DZ19+1</f>
+        <v>239</v>
+      </c>
+      <c r="EB19" s="33">
+        <f t="shared" ref="EB19" si="181">EA19+1</f>
+        <v>240</v>
+      </c>
+      <c r="EC19" s="33">
+        <f t="shared" ref="EC19" si="182">EB19+1</f>
+        <v>241</v>
+      </c>
+      <c r="ED19" s="33">
+        <f t="shared" ref="ED19" si="183">EC19+1</f>
+        <v>242</v>
+      </c>
+      <c r="EE19" s="34">
+        <f t="shared" ref="EE19" si="184">ED19+1</f>
+        <v>243</v>
+      </c>
     </row>
-    <row r="20" spans="2:120" ht="42" customHeight="1">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:135" ht="42" customHeight="1">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>5</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="Q20" s="18" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="18" t="s">
+      <c r="T20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="U20" s="18" t="s">
+      <c r="U20" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18" t="s">
+      <c r="V20" s="35"/>
+      <c r="W20" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="X20" s="18" t="s">
+      <c r="X20" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="Y20" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="Z20" s="18" t="s">
+      <c r="Z20" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18" t="s">
+      <c r="AA20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AH20" s="18" t="s">
+      <c r="AJ20" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AI20" s="18" t="s">
+      <c r="AK20" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AJ20" s="18" t="s">
+      <c r="AL20" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18" t="s">
+      <c r="AM20" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AM20" s="18" t="s">
+      <c r="AP20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AN20" s="18" t="s">
+      <c r="AQ20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AO20" s="18" t="s">
+      <c r="AR20" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="18"/>
-      <c r="AT20" s="18"/>
-      <c r="AU20" s="18"/>
-      <c r="AV20" s="18" t="s">
+      <c r="AS20" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="35"/>
+      <c r="BA20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AW20" s="18" t="s">
+      <c r="BB20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AX20" s="18" t="s">
+      <c r="BC20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AY20" s="18" t="s">
+      <c r="BD20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AZ20" s="18"/>
-      <c r="BA20" s="19" t="s">
+      <c r="BE20" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF20" s="35"/>
+      <c r="BG20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="BB20" s="19" t="s">
+      <c r="BH20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="BC20" s="19" t="s">
+      <c r="BI20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="BD20" s="19" t="s">
+      <c r="BJ20" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="BE20" s="18"/>
-      <c r="BF20" s="18"/>
-      <c r="BG20" s="18"/>
-      <c r="BH20" s="18"/>
-      <c r="BI20" s="18"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="19" t="s">
+      <c r="BK20" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL20" s="35"/>
+      <c r="BM20" s="35"/>
+      <c r="BN20" s="35"/>
+      <c r="BO20" s="35"/>
+      <c r="BP20" s="35"/>
+      <c r="BQ20" s="35"/>
+      <c r="BR20" s="35"/>
+      <c r="BS20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BL20" s="19" t="s">
+      <c r="BT20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BM20" s="19" t="s">
+      <c r="BU20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BN20" s="19" t="s">
+      <c r="BV20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="BO20" s="18"/>
-      <c r="BP20" s="19" t="s">
+      <c r="BW20" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX20" s="35"/>
+      <c r="BY20" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BQ20" s="19" t="s">
+      <c r="BZ20" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BR20" s="19" t="s">
+      <c r="CA20" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BS20" s="19" t="s">
+      <c r="CB20" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="BT20" s="18"/>
-      <c r="BU20" s="18"/>
-      <c r="BV20" s="18"/>
-      <c r="BW20" s="18"/>
-      <c r="BX20" s="18"/>
-      <c r="BY20" s="18"/>
-      <c r="BZ20" s="19" t="s">
+      <c r="CC20" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="CD20" s="35"/>
+      <c r="CE20" s="35"/>
+      <c r="CF20" s="35"/>
+      <c r="CG20" s="35"/>
+      <c r="CH20" s="35"/>
+      <c r="CI20" s="35"/>
+      <c r="CJ20" s="35"/>
+      <c r="CK20" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CA20" s="19" t="s">
+      <c r="CL20" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CB20" s="19" t="s">
+      <c r="CM20" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CC20" s="19" t="s">
+      <c r="CN20" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="CD20" s="18"/>
-      <c r="CE20" s="19" t="s">
+      <c r="CO20" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP20" s="35"/>
+      <c r="CQ20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="CF20" s="19" t="s">
+      <c r="CR20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="CG20" s="19" t="s">
+      <c r="CS20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="CH20" s="19" t="s">
+      <c r="CT20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="CI20" s="9"/>
-      <c r="CJ20" s="9"/>
-      <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
-      <c r="CW20" s="9"/>
-      <c r="CX20" s="9"/>
-      <c r="CY20" s="9"/>
-      <c r="CZ20" s="9"/>
-      <c r="DA20" s="9"/>
-      <c r="DB20" s="9"/>
-      <c r="DC20" s="9"/>
-      <c r="DD20" s="9"/>
-      <c r="DE20" s="9"/>
-      <c r="DF20" s="9"/>
-      <c r="DG20" s="9"/>
-      <c r="DH20" s="9"/>
-      <c r="DI20" s="9"/>
-      <c r="DJ20" s="9"/>
-      <c r="DK20" s="9"/>
-      <c r="DL20" s="9"/>
-      <c r="DM20" s="18" t="s">
+      <c r="CU20" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="CV20" s="35"/>
+      <c r="CW20" s="35"/>
+      <c r="CX20" s="35"/>
+      <c r="CY20" s="35"/>
+      <c r="CZ20" s="35"/>
+      <c r="DA20" s="35"/>
+      <c r="DB20" s="35"/>
+      <c r="DC20" s="35"/>
+      <c r="DD20" s="35"/>
+      <c r="DE20" s="35"/>
+      <c r="DF20" s="35"/>
+      <c r="DG20" s="35"/>
+      <c r="DH20" s="35"/>
+      <c r="DI20" s="35"/>
+      <c r="DJ20" s="35"/>
+      <c r="DK20" s="35"/>
+      <c r="DL20" s="35"/>
+      <c r="DM20" s="35"/>
+      <c r="DN20" s="35"/>
+      <c r="DO20" s="35"/>
+      <c r="DP20" s="35"/>
+      <c r="DQ20" s="35"/>
+      <c r="DR20" s="35"/>
+      <c r="DS20" s="35"/>
+      <c r="DT20" s="35"/>
+      <c r="DU20" s="35"/>
+      <c r="DV20" s="35"/>
+      <c r="DW20" s="35"/>
+      <c r="DX20" s="35"/>
+      <c r="DY20" s="35"/>
+      <c r="DZ20" s="35"/>
+      <c r="EA20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="DN20" s="18" t="s">
+      <c r="EB20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="DO20" s="18" t="s">
+      <c r="EC20" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="DP20" s="28" t="s">
+      <c r="ED20" s="35" t="s">
         <v>99</v>
       </c>
+      <c r="EE20" s="37" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="21" spans="2:120" ht="42" customHeight="1">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:135" ht="42" customHeight="1">
+      <c r="B21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="27">
         <v>36</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
-      <c r="BL21" s="9"/>
-      <c r="BM21" s="9"/>
-      <c r="BN21" s="9"/>
-      <c r="BO21" s="9"/>
-      <c r="BP21" s="9"/>
-      <c r="BQ21" s="9"/>
-      <c r="BR21" s="9"/>
-      <c r="BS21" s="9"/>
-      <c r="BT21" s="9"/>
-      <c r="BU21" s="9"/>
-      <c r="BV21" s="9"/>
-      <c r="BW21" s="9"/>
-      <c r="BX21" s="9"/>
-      <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
-      <c r="CD21" s="9"/>
-      <c r="CE21" s="9"/>
-      <c r="CF21" s="9"/>
-      <c r="CG21" s="9"/>
-      <c r="CH21" s="9"/>
-      <c r="CI21" s="9"/>
-      <c r="CJ21" s="9"/>
-      <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="1" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="AX21" s="7"/>
+      <c r="AY21" s="7"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="7"/>
+      <c r="BC21" s="7"/>
+      <c r="BD21" s="7"/>
+      <c r="BE21" s="7"/>
+      <c r="BF21" s="7"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="7"/>
+      <c r="BJ21" s="7"/>
+      <c r="BK21" s="7"/>
+      <c r="BL21" s="7"/>
+      <c r="BM21" s="7"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="7"/>
+      <c r="BQ21" s="7"/>
+      <c r="BR21" s="7"/>
+      <c r="BS21" s="7"/>
+      <c r="BT21" s="7"/>
+      <c r="BU21" s="7"/>
+      <c r="BV21" s="7"/>
+      <c r="BW21" s="7"/>
+      <c r="BX21" s="7"/>
+      <c r="BY21" s="7"/>
+      <c r="BZ21" s="7"/>
+      <c r="CA21" s="7"/>
+      <c r="CB21" s="7"/>
+      <c r="CC21" s="7"/>
+      <c r="CD21" s="7"/>
+      <c r="CE21" s="7"/>
+      <c r="CF21" s="7"/>
+      <c r="CG21" s="7"/>
+      <c r="CH21" s="7"/>
+      <c r="CI21" s="7"/>
+      <c r="CJ21" s="7"/>
+      <c r="CK21" s="7"/>
+      <c r="CL21" s="7"/>
+      <c r="CM21" s="7"/>
+      <c r="CN21" s="7"/>
+      <c r="CO21" s="7"/>
+      <c r="CP21" s="7"/>
+      <c r="CQ21" s="7"/>
+      <c r="CR21" s="7"/>
+      <c r="CS21" s="7"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="7"/>
+      <c r="CX21" s="7"/>
+      <c r="CY21" s="7"/>
+      <c r="CZ21" s="7"/>
+      <c r="DA21" s="7"/>
+      <c r="DB21" s="7"/>
+      <c r="DC21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CP21" s="1" t="s">
+      <c r="DD21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CQ21" s="1" t="s">
+      <c r="DE21" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CR21" s="1" t="s">
+      <c r="DF21" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CS21" s="1" t="s">
+      <c r="DG21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CT21" s="1" t="s">
+      <c r="DH21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CU21" s="1" t="s">
+      <c r="DI21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CV21" s="1" t="s">
+      <c r="DJ21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CW21" s="1" t="s">
+      <c r="DK21" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="CX21" s="1" t="s">
+      <c r="DL21" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="CY21" s="1" t="s">
+      <c r="DM21" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="CZ21" s="1" t="s">
+      <c r="DN21" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="DA21" s="1" t="s">
+      <c r="DO21" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="DB21" s="1" t="s">
+      <c r="DP21" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="DC21" s="1" t="s">
+      <c r="DQ21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="DD21" s="1" t="s">
+      <c r="DR21" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="DE21" s="1" t="s">
+      <c r="DS21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="DF21" s="1" t="s">
+      <c r="DT21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="DG21" s="1" t="s">
+      <c r="DU21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="DH21" s="1" t="s">
+      <c r="DV21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="DI21" s="1" t="s">
+      <c r="DW21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="DJ21" s="1" t="s">
+      <c r="DX21" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="DK21" s="1" t="s">
+      <c r="DY21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="DL21" s="1" t="s">
+      <c r="DZ21" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="DM21" s="9"/>
-      <c r="DN21" s="9"/>
-      <c r="DO21" s="9"/>
-      <c r="DP21" s="10"/>
+      <c r="EA21" s="7"/>
+      <c r="EB21" s="7"/>
+      <c r="EC21" s="7"/>
+      <c r="ED21" s="7"/>
+      <c r="EE21" s="8"/>
     </row>
-    <row r="22" spans="2:120" ht="42" customHeight="1">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:135" ht="42" customHeight="1">
+      <c r="B22" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="27">
         <v>36</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="27">
         <v>1</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9" t="s">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9" t="s">
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9" t="s">
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="9" t="s">
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="AQ22" s="9"/>
-      <c r="AR22" s="9"/>
-      <c r="AS22" s="9"/>
-      <c r="AT22" s="9"/>
-      <c r="AU22" s="9"/>
-      <c r="AV22" s="9"/>
-      <c r="AW22" s="9"/>
-      <c r="AX22" s="9"/>
-      <c r="AY22" s="9"/>
-      <c r="AZ22" s="9" t="s">
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="AX22" s="7"/>
+      <c r="AY22" s="7"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="7"/>
+      <c r="BC22" s="7"/>
+      <c r="BD22" s="7"/>
+      <c r="BE22" s="7"/>
+      <c r="BF22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BA22" s="9"/>
-      <c r="BB22" s="9"/>
-      <c r="BC22" s="9"/>
-      <c r="BD22" s="9"/>
-      <c r="BE22" s="12" t="s">
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="7"/>
+      <c r="BJ22" s="7"/>
+      <c r="BK22" s="7"/>
+      <c r="BL22" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="BF22" s="9"/>
-      <c r="BG22" s="9"/>
-      <c r="BH22" s="9"/>
-      <c r="BI22" s="9"/>
-      <c r="BJ22" s="9"/>
-      <c r="BK22" s="9"/>
-      <c r="BL22" s="9"/>
-      <c r="BM22" s="9"/>
-      <c r="BN22" s="9"/>
-      <c r="BO22" s="12" t="s">
+      <c r="BM22" s="7"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="7"/>
+      <c r="BQ22" s="7"/>
+      <c r="BR22" s="7"/>
+      <c r="BS22" s="7"/>
+      <c r="BT22" s="7"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="7"/>
+      <c r="BW22" s="7"/>
+      <c r="BX22" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="BP22" s="9"/>
-      <c r="BQ22" s="9"/>
-      <c r="BR22" s="9"/>
-      <c r="BS22" s="9"/>
-      <c r="BT22" s="12" t="s">
+      <c r="BY22" s="7"/>
+      <c r="BZ22" s="7"/>
+      <c r="CA22" s="7"/>
+      <c r="CB22" s="7"/>
+      <c r="CC22" s="7"/>
+      <c r="CD22" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="BU22" s="9"/>
-      <c r="BV22" s="9"/>
-      <c r="BW22" s="9"/>
-      <c r="BX22" s="9"/>
-      <c r="BY22" s="9"/>
-      <c r="BZ22" s="9"/>
-      <c r="CA22" s="9"/>
-      <c r="CB22" s="9"/>
-      <c r="CC22" s="9"/>
-      <c r="CD22" s="12" t="s">
+      <c r="CE22" s="7"/>
+      <c r="CF22" s="7"/>
+      <c r="CG22" s="7"/>
+      <c r="CH22" s="7"/>
+      <c r="CI22" s="7"/>
+      <c r="CJ22" s="7"/>
+      <c r="CK22" s="7"/>
+      <c r="CL22" s="7"/>
+      <c r="CM22" s="7"/>
+      <c r="CN22" s="7"/>
+      <c r="CO22" s="7"/>
+      <c r="CP22" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="CE22" s="9"/>
-      <c r="CF22" s="9"/>
-      <c r="CG22" s="9"/>
-      <c r="CH22" s="9"/>
-      <c r="CI22" s="12" t="s">
+      <c r="CQ22" s="7"/>
+      <c r="CR22" s="7"/>
+      <c r="CS22" s="7"/>
+      <c r="CT22" s="7"/>
+      <c r="CU22" s="7"/>
+      <c r="CV22" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="CJ22" s="9"/>
-      <c r="CK22" s="9"/>
-      <c r="CL22" s="9"/>
-      <c r="CM22" s="9"/>
-      <c r="CN22" s="9"/>
-      <c r="CO22" s="9"/>
-      <c r="CP22" s="9"/>
-      <c r="CQ22" s="9"/>
-      <c r="CR22" s="9"/>
-      <c r="CS22" s="9"/>
-      <c r="CT22" s="9"/>
-      <c r="CU22" s="9"/>
-      <c r="CV22" s="9"/>
-      <c r="CW22" s="9"/>
-      <c r="CX22" s="9"/>
-      <c r="CY22" s="9"/>
-      <c r="CZ22" s="9"/>
-      <c r="DA22" s="9"/>
-      <c r="DB22" s="9"/>
-      <c r="DC22" s="9"/>
-      <c r="DD22" s="9"/>
-      <c r="DE22" s="9"/>
-      <c r="DF22" s="9"/>
-      <c r="DG22" s="9"/>
-      <c r="DH22" s="9"/>
-      <c r="DI22" s="9"/>
-      <c r="DJ22" s="9"/>
-      <c r="DK22" s="9"/>
-      <c r="DL22" s="9"/>
-      <c r="DM22" s="9"/>
-      <c r="DN22" s="9"/>
-      <c r="DO22" s="9"/>
-      <c r="DP22" s="10"/>
+      <c r="CW22" s="7"/>
+      <c r="CX22" s="7"/>
+      <c r="CY22" s="7"/>
+      <c r="CZ22" s="7"/>
+      <c r="DA22" s="7"/>
+      <c r="DB22" s="7"/>
+      <c r="DC22" s="7"/>
+      <c r="DD22" s="7"/>
+      <c r="DE22" s="7"/>
+      <c r="DF22" s="7"/>
+      <c r="DG22" s="7"/>
+      <c r="DH22" s="7"/>
+      <c r="DI22" s="7"/>
+      <c r="DJ22" s="7"/>
+      <c r="DK22" s="7"/>
+      <c r="DL22" s="7"/>
+      <c r="DM22" s="7"/>
+      <c r="DN22" s="7"/>
+      <c r="DO22" s="7"/>
+      <c r="DP22" s="7"/>
+      <c r="DQ22" s="7"/>
+      <c r="DR22" s="7"/>
+      <c r="DS22" s="7"/>
+      <c r="DT22" s="7"/>
+      <c r="DU22" s="7"/>
+      <c r="DV22" s="7"/>
+      <c r="DW22" s="7"/>
+      <c r="DX22" s="7"/>
+      <c r="DY22" s="7"/>
+      <c r="DZ22" s="7"/>
+      <c r="EA22" s="7"/>
+      <c r="EB22" s="7"/>
+      <c r="EC22" s="7"/>
+      <c r="ED22" s="7"/>
+      <c r="EE22" s="8"/>
     </row>
-    <row r="23" spans="2:120" ht="42" customHeight="1">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:135" ht="42" customHeight="1">
+      <c r="B23" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="27">
         <v>1</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="27">
         <v>6</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9" t="s">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="X23" s="9" t="s">
+      <c r="X23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Y23" s="9" t="s">
+      <c r="Y23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="Z23" s="9" t="s">
+      <c r="Z23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AA23" s="9" t="s">
+      <c r="AA23" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9" t="s">
+      <c r="AB23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AM23" s="9" t="s">
+      <c r="AP23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AN23" s="9" t="s">
+      <c r="AQ23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AO23" s="9" t="s">
+      <c r="AR23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AP23" s="9" t="s">
+      <c r="AS23" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="12" t="s">
+      <c r="AT23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU23" s="7"/>
+      <c r="AV23" s="7"/>
+      <c r="AW23" s="7"/>
+      <c r="AX23" s="7"/>
+      <c r="AY23" s="7"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="7"/>
+      <c r="BC23" s="7"/>
+      <c r="BD23" s="7"/>
+      <c r="BE23" s="7"/>
+      <c r="BF23" s="7"/>
+      <c r="BG23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BB23" s="12" t="s">
+      <c r="BH23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BC23" s="12" t="s">
+      <c r="BI23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BD23" s="12" t="s">
+      <c r="BJ23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BE23" s="12" t="s">
+      <c r="BK23" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-      <c r="BL23" s="9"/>
-      <c r="BM23" s="9"/>
-      <c r="BN23" s="9"/>
-      <c r="BO23" s="9"/>
-      <c r="BP23" s="12" t="s">
+      <c r="BL23" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM23" s="7"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="7"/>
+      <c r="BQ23" s="7"/>
+      <c r="BR23" s="7"/>
+      <c r="BS23" s="7"/>
+      <c r="BT23" s="7"/>
+      <c r="BU23" s="7"/>
+      <c r="BV23" s="7"/>
+      <c r="BW23" s="7"/>
+      <c r="BX23" s="7"/>
+      <c r="BY23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BQ23" s="12" t="s">
+      <c r="BZ23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BR23" s="12" t="s">
+      <c r="CA23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BS23" s="12" t="s">
+      <c r="CB23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BT23" s="12" t="s">
+      <c r="CC23" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="BU23" s="9"/>
-      <c r="BV23" s="9"/>
-      <c r="BW23" s="9"/>
-      <c r="BX23" s="9"/>
-      <c r="BY23" s="9"/>
-      <c r="BZ23" s="9"/>
-      <c r="CA23" s="9"/>
-      <c r="CB23" s="9"/>
-      <c r="CC23" s="9"/>
-      <c r="CD23" s="9"/>
-      <c r="CE23" s="12" t="s">
+      <c r="CD23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE23" s="7"/>
+      <c r="CF23" s="7"/>
+      <c r="CG23" s="7"/>
+      <c r="CH23" s="7"/>
+      <c r="CI23" s="7"/>
+      <c r="CJ23" s="7"/>
+      <c r="CK23" s="7"/>
+      <c r="CL23" s="7"/>
+      <c r="CM23" s="7"/>
+      <c r="CN23" s="7"/>
+      <c r="CO23" s="7"/>
+      <c r="CP23" s="7"/>
+      <c r="CQ23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CF23" s="12" t="s">
+      <c r="CR23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CG23" s="12" t="s">
+      <c r="CS23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CH23" s="12" t="s">
+      <c r="CT23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CI23" s="12" t="s">
+      <c r="CU23" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="CJ23" s="9"/>
-      <c r="CK23" s="9"/>
-      <c r="CL23" s="9"/>
-      <c r="CM23" s="9"/>
-      <c r="CN23" s="9"/>
-      <c r="CO23" s="9"/>
-      <c r="CP23" s="9"/>
-      <c r="CQ23" s="9"/>
-      <c r="CR23" s="9"/>
-      <c r="CS23" s="9"/>
-      <c r="CT23" s="9"/>
-      <c r="CU23" s="9"/>
-      <c r="CV23" s="9"/>
-      <c r="CW23" s="9"/>
-      <c r="CX23" s="9"/>
-      <c r="CY23" s="9"/>
-      <c r="CZ23" s="9"/>
-      <c r="DA23" s="9"/>
-      <c r="DB23" s="9"/>
-      <c r="DC23" s="9"/>
-      <c r="DD23" s="9"/>
-      <c r="DE23" s="9"/>
-      <c r="DF23" s="9"/>
-      <c r="DG23" s="9"/>
-      <c r="DH23" s="9"/>
-      <c r="DI23" s="9"/>
-      <c r="DJ23" s="9"/>
-      <c r="DK23" s="9"/>
-      <c r="DL23" s="9"/>
-      <c r="DM23" s="9"/>
-      <c r="DN23" s="9"/>
-      <c r="DO23" s="9"/>
-      <c r="DP23" s="10"/>
+      <c r="CV23" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CW23" s="7"/>
+      <c r="CX23" s="7"/>
+      <c r="CY23" s="7"/>
+      <c r="CZ23" s="7"/>
+      <c r="DA23" s="7"/>
+      <c r="DB23" s="7"/>
+      <c r="DC23" s="7"/>
+      <c r="DD23" s="7"/>
+      <c r="DE23" s="7"/>
+      <c r="DF23" s="7"/>
+      <c r="DG23" s="7"/>
+      <c r="DH23" s="7"/>
+      <c r="DI23" s="7"/>
+      <c r="DJ23" s="7"/>
+      <c r="DK23" s="7"/>
+      <c r="DL23" s="7"/>
+      <c r="DM23" s="7"/>
+      <c r="DN23" s="7"/>
+      <c r="DO23" s="7"/>
+      <c r="DP23" s="7"/>
+      <c r="DQ23" s="7"/>
+      <c r="DR23" s="7"/>
+      <c r="DS23" s="7"/>
+      <c r="DT23" s="7"/>
+      <c r="DU23" s="7"/>
+      <c r="DV23" s="7"/>
+      <c r="DW23" s="7"/>
+      <c r="DX23" s="7"/>
+      <c r="DY23" s="7"/>
+      <c r="DZ23" s="7"/>
+      <c r="EA23" s="7"/>
+      <c r="EB23" s="7"/>
+      <c r="EC23" s="7"/>
+      <c r="ED23" s="7"/>
+      <c r="EE23" s="8"/>
     </row>
-    <row r="24" spans="2:120" ht="42" customHeight="1" thickBot="1">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:135" ht="42" customHeight="1" thickBot="1">
+      <c r="B24" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>6</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>6</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="K24" s="15" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="S24" s="15" t="s">
+      <c r="S24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="T24" s="15" t="s">
+      <c r="T24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="U24" s="15" t="s">
+      <c r="U24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="V24" s="15" t="s">
+      <c r="V24" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15" t="s">
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AC24" s="15" t="s">
+      <c r="AD24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AD24" s="15" t="s">
+      <c r="AE24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AE24" s="15" t="s">
+      <c r="AF24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AF24" s="15" t="s">
+      <c r="AG24" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="AG24" s="15" t="s">
+      <c r="AH24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AH24" s="15" t="s">
+      <c r="AJ24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AI24" s="15" t="s">
+      <c r="AK24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AJ24" s="15" t="s">
+      <c r="AL24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AK24" s="15" t="s">
+      <c r="AM24" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AL24" s="15"/>
-      <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
-      <c r="AQ24" s="15" t="s">
+      <c r="AN24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AR24" s="15" t="s">
+      <c r="AV24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AS24" s="15" t="s">
+      <c r="AW24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AT24" s="15" t="s">
+      <c r="AX24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AU24" s="15" t="s">
+      <c r="AY24" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AV24" s="16" t="s">
+      <c r="AZ24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AW24" s="16" t="s">
+      <c r="BB24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AX24" s="16" t="s">
+      <c r="BC24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AY24" s="16" t="s">
+      <c r="BD24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AZ24" s="16" t="s">
+      <c r="BE24" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="BA24" s="15"/>
-      <c r="BB24" s="15"/>
-      <c r="BC24" s="15"/>
-      <c r="BD24" s="15"/>
-      <c r="BE24" s="15"/>
-      <c r="BF24" s="15" t="s">
+      <c r="BF24" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BG24" s="15" t="s">
+      <c r="BN24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BH24" s="15" t="s">
+      <c r="BO24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BI24" s="15" t="s">
+      <c r="BP24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BJ24" s="15" t="s">
+      <c r="BQ24" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BK24" s="16" t="s">
+      <c r="BR24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BL24" s="16" t="s">
+      <c r="BT24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BM24" s="16" t="s">
+      <c r="BU24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BN24" s="16" t="s">
+      <c r="BV24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BO24" s="16" t="s">
+      <c r="BW24" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="BP24" s="15"/>
-      <c r="BQ24" s="15"/>
-      <c r="BR24" s="15"/>
-      <c r="BS24" s="15"/>
-      <c r="BT24" s="15"/>
-      <c r="BU24" s="15" t="s">
+      <c r="BX24" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY24" s="13"/>
+      <c r="BZ24" s="13"/>
+      <c r="CA24" s="13"/>
+      <c r="CB24" s="13"/>
+      <c r="CC24" s="13"/>
+      <c r="CD24" s="13"/>
+      <c r="CE24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BV24" s="15" t="s">
+      <c r="CF24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BW24" s="15" t="s">
+      <c r="CG24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BX24" s="15" t="s">
+      <c r="CH24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BY24" s="15" t="s">
+      <c r="CI24" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="BZ24" s="16" t="s">
+      <c r="CJ24" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="CK24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="CA24" s="16" t="s">
+      <c r="CL24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="CB24" s="16" t="s">
+      <c r="CM24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="CC24" s="16" t="s">
+      <c r="CN24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="CD24" s="16" t="s">
+      <c r="CO24" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="CE24" s="15"/>
-      <c r="CF24" s="15"/>
-      <c r="CG24" s="15"/>
-      <c r="CH24" s="15"/>
-      <c r="CI24" s="15"/>
-      <c r="CJ24" s="16" t="s">
+      <c r="CP24" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="CQ24" s="13"/>
+      <c r="CR24" s="13"/>
+      <c r="CS24" s="13"/>
+      <c r="CT24" s="13"/>
+      <c r="CU24" s="13"/>
+      <c r="CV24" s="13"/>
+      <c r="CW24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="CK24" s="16" t="s">
+      <c r="CX24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="CL24" s="16" t="s">
+      <c r="CY24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="CM24" s="16" t="s">
+      <c r="CZ24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="CN24" s="16" t="s">
+      <c r="DA24" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="CO24" s="15"/>
-      <c r="CP24" s="15"/>
-      <c r="CQ24" s="15"/>
-      <c r="CR24" s="15"/>
-      <c r="CS24" s="15"/>
-      <c r="CT24" s="15"/>
-      <c r="CU24" s="15"/>
-      <c r="CV24" s="15"/>
-      <c r="CW24" s="15"/>
-      <c r="CX24" s="15"/>
-      <c r="CY24" s="15"/>
-      <c r="CZ24" s="15"/>
-      <c r="DA24" s="15"/>
-      <c r="DB24" s="15"/>
-      <c r="DC24" s="15"/>
-      <c r="DD24" s="15"/>
-      <c r="DE24" s="15"/>
-      <c r="DF24" s="15"/>
-      <c r="DG24" s="15"/>
-      <c r="DH24" s="15"/>
-      <c r="DI24" s="15"/>
-      <c r="DJ24" s="15"/>
-      <c r="DK24" s="15"/>
-      <c r="DL24" s="15"/>
-      <c r="DM24" s="15"/>
-      <c r="DN24" s="15"/>
-      <c r="DO24" s="15"/>
-      <c r="DP24" s="17"/>
+      <c r="DB24" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="DC24" s="13"/>
+      <c r="DD24" s="13"/>
+      <c r="DE24" s="13"/>
+      <c r="DF24" s="13"/>
+      <c r="DG24" s="13"/>
+      <c r="DH24" s="13"/>
+      <c r="DI24" s="13"/>
+      <c r="DJ24" s="13"/>
+      <c r="DK24" s="13"/>
+      <c r="DL24" s="13"/>
+      <c r="DM24" s="13"/>
+      <c r="DN24" s="13"/>
+      <c r="DO24" s="13"/>
+      <c r="DP24" s="13"/>
+      <c r="DQ24" s="13"/>
+      <c r="DR24" s="13"/>
+      <c r="DS24" s="13"/>
+      <c r="DT24" s="13"/>
+      <c r="DU24" s="13"/>
+      <c r="DV24" s="13"/>
+      <c r="DW24" s="13"/>
+      <c r="DX24" s="13"/>
+      <c r="DY24" s="13"/>
+      <c r="DZ24" s="13"/>
+      <c r="EA24" s="13"/>
+      <c r="EB24" s="13"/>
+      <c r="EC24" s="13"/>
+      <c r="ED24" s="13"/>
+      <c r="EE24" s="15"/>
+    </row>
+    <row r="26" spans="2:135" ht="42" customHeight="1">
+      <c r="B26" s="2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="2:135" ht="42" customHeight="1">
+      <c r="B27" s="38">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:135" ht="42" customHeight="1">
+      <c r="B28" s="38">
+        <f>1/B27</f>
+        <v>2E-8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:135" ht="42" customHeight="1">
+      <c r="B29" s="38">
+        <f>B26*B28</f>
+        <v>4.8600000000000001E-6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="E1:DL1"/>
-    <mergeCell ref="E18:DM18"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:D8"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E18:EE18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="165">
   <si>
     <t>sincos</t>
   </si>
@@ -725,19 +725,19 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -745,14 +745,14 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="851">
+  <cellStyleXfs count="867">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1604,8 +1604,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1673,12 +1689,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1686,6 +1696,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,29 +1740,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="851">
+  <cellStyles count="867">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2148,6 +2167,14 @@
     <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2573,6 +2600,14 @@
     <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2905,13 +2940,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EE29"/>
+  <dimension ref="A1:EG29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18:EG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
@@ -2925,572 +2960,572 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-      <c r="BD1" s="28"/>
-      <c r="BE1" s="28"/>
-      <c r="BF1" s="28"/>
-      <c r="BG1" s="28"/>
-      <c r="BH1" s="28"/>
-      <c r="BI1" s="28"/>
-      <c r="BJ1" s="28"/>
-      <c r="BK1" s="28"/>
-      <c r="BL1" s="28"/>
-      <c r="BM1" s="28"/>
-      <c r="BN1" s="28"/>
-      <c r="BO1" s="28"/>
-      <c r="BP1" s="28"/>
-      <c r="BQ1" s="28"/>
-      <c r="BR1" s="28"/>
-      <c r="BS1" s="28"/>
-      <c r="BT1" s="28"/>
-      <c r="BU1" s="28"/>
-      <c r="BV1" s="28"/>
-      <c r="BW1" s="28"/>
-      <c r="BX1" s="28"/>
-      <c r="BY1" s="28"/>
-      <c r="BZ1" s="28"/>
-      <c r="CA1" s="28"/>
-      <c r="CB1" s="28"/>
-      <c r="CC1" s="28"/>
-      <c r="CD1" s="28"/>
-      <c r="CE1" s="28"/>
-      <c r="CF1" s="28"/>
-      <c r="CG1" s="28"/>
-      <c r="CH1" s="28"/>
-      <c r="CI1" s="28"/>
-      <c r="CJ1" s="28"/>
-      <c r="CK1" s="28"/>
-      <c r="CL1" s="28"/>
-      <c r="CM1" s="28"/>
-      <c r="CN1" s="28"/>
-      <c r="CO1" s="28"/>
-      <c r="CP1" s="28"/>
-      <c r="CQ1" s="28"/>
-      <c r="CR1" s="28"/>
-      <c r="CS1" s="28"/>
-      <c r="CT1" s="28"/>
-      <c r="CU1" s="28"/>
-      <c r="CV1" s="28"/>
-      <c r="CW1" s="28"/>
-      <c r="CX1" s="28"/>
-      <c r="CY1" s="28"/>
-      <c r="CZ1" s="28"/>
-      <c r="DA1" s="28"/>
-      <c r="DB1" s="28"/>
-      <c r="DC1" s="28"/>
-      <c r="DD1" s="28"/>
-      <c r="DE1" s="28"/>
-      <c r="DF1" s="28"/>
-      <c r="DG1" s="28"/>
-      <c r="DH1" s="28"/>
-      <c r="DI1" s="28"/>
-      <c r="DJ1" s="28"/>
-      <c r="DK1" s="28"/>
-      <c r="DL1" s="29"/>
-      <c r="DM1" s="25"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="36"/>
+      <c r="AY1" s="36"/>
+      <c r="AZ1" s="36"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="36"/>
+      <c r="BC1" s="36"/>
+      <c r="BD1" s="36"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="36"/>
+      <c r="BG1" s="36"/>
+      <c r="BH1" s="36"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="36"/>
+      <c r="BK1" s="36"/>
+      <c r="BL1" s="36"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="36"/>
+      <c r="BO1" s="36"/>
+      <c r="BP1" s="36"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="36"/>
+      <c r="BS1" s="36"/>
+      <c r="BT1" s="36"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="36"/>
+      <c r="BW1" s="36"/>
+      <c r="BX1" s="36"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="36"/>
+      <c r="CA1" s="36"/>
+      <c r="CB1" s="36"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="36"/>
+      <c r="CE1" s="36"/>
+      <c r="CF1" s="36"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="36"/>
+      <c r="CI1" s="36"/>
+      <c r="CJ1" s="36"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="36"/>
+      <c r="CM1" s="36"/>
+      <c r="CN1" s="36"/>
+      <c r="CO1" s="36"/>
+      <c r="CP1" s="36"/>
+      <c r="CQ1" s="36"/>
+      <c r="CR1" s="36"/>
+      <c r="CS1" s="36"/>
+      <c r="CT1" s="36"/>
+      <c r="CU1" s="36"/>
+      <c r="CV1" s="36"/>
+      <c r="CW1" s="36"/>
+      <c r="CX1" s="36"/>
+      <c r="CY1" s="36"/>
+      <c r="CZ1" s="36"/>
+      <c r="DA1" s="36"/>
+      <c r="DB1" s="36"/>
+      <c r="DC1" s="36"/>
+      <c r="DD1" s="36"/>
+      <c r="DE1" s="36"/>
+      <c r="DF1" s="36"/>
+      <c r="DG1" s="36"/>
+      <c r="DH1" s="36"/>
+      <c r="DI1" s="36"/>
+      <c r="DJ1" s="36"/>
+      <c r="DK1" s="36"/>
+      <c r="DL1" s="37"/>
+      <c r="DM1" s="23"/>
     </row>
     <row r="2" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="25">
         <v>1</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="25">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="25">
         <f t="shared" ref="G2:BR2" si="0">F2+1</f>
         <v>3</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="25">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="25">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="25">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="25">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="25">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="25">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="25">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="25">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="X2" s="24">
+      <c r="X2" s="25">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="Y2" s="25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="25">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AC2" s="24">
+      <c r="AC2" s="25">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AD2" s="24">
+      <c r="AD2" s="25">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AE2" s="24">
+      <c r="AE2" s="25">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AF2" s="24">
+      <c r="AF2" s="25">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AG2" s="24">
+      <c r="AG2" s="25">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AH2" s="24">
+      <c r="AH2" s="25">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AI2" s="24">
+      <c r="AI2" s="25">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="AJ2" s="24">
+      <c r="AJ2" s="25">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="AK2" s="24">
+      <c r="AK2" s="25">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="AL2" s="24">
+      <c r="AL2" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="AM2" s="24">
+      <c r="AM2" s="25">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="AN2" s="24">
+      <c r="AN2" s="25">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="AO2" s="24">
+      <c r="AO2" s="25">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="AP2" s="24">
+      <c r="AP2" s="25">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AQ2" s="24">
+      <c r="AQ2" s="25">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="AR2" s="24">
+      <c r="AR2" s="25">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="AS2" s="24">
+      <c r="AS2" s="25">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="AT2" s="24">
+      <c r="AT2" s="25">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="AU2" s="24">
+      <c r="AU2" s="25">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="AV2" s="24">
+      <c r="AV2" s="25">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="AW2" s="24">
+      <c r="AW2" s="25">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="AX2" s="24">
+      <c r="AX2" s="25">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="AY2" s="24">
+      <c r="AY2" s="25">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="AZ2" s="24">
+      <c r="AZ2" s="25">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="BA2" s="24">
+      <c r="BA2" s="25">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="BB2" s="24">
+      <c r="BB2" s="25">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="BC2" s="24">
+      <c r="BC2" s="25">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="BD2" s="24">
+      <c r="BD2" s="25">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="BE2" s="24">
+      <c r="BE2" s="25">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="BF2" s="24">
+      <c r="BF2" s="25">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="BG2" s="24">
+      <c r="BG2" s="25">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="BH2" s="24">
+      <c r="BH2" s="25">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="BI2" s="24">
+      <c r="BI2" s="25">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="BJ2" s="24">
+      <c r="BJ2" s="25">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="BK2" s="24">
+      <c r="BK2" s="25">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="BL2" s="24">
+      <c r="BL2" s="25">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="BM2" s="24">
+      <c r="BM2" s="25">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="BN2" s="24">
+      <c r="BN2" s="25">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="BO2" s="24">
+      <c r="BO2" s="25">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="BP2" s="24">
+      <c r="BP2" s="25">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="BQ2" s="24">
+      <c r="BQ2" s="25">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="BR2" s="24">
+      <c r="BR2" s="25">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="BS2" s="24">
+      <c r="BS2" s="25">
         <f t="shared" ref="BS2:BZ2" si="1">BR2+1</f>
         <v>67</v>
       </c>
-      <c r="BT2" s="24">
+      <c r="BT2" s="25">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="BU2" s="24">
+      <c r="BU2" s="25">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="BV2" s="24">
+      <c r="BV2" s="25">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="BW2" s="24">
+      <c r="BW2" s="25">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="BX2" s="24">
+      <c r="BX2" s="25">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="BY2" s="24">
+      <c r="BY2" s="25">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="BZ2" s="24">
+      <c r="BZ2" s="25">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="CA2" s="24">
+      <c r="CA2" s="25">
         <f t="shared" ref="CA2" si="2">BZ2+1</f>
         <v>75</v>
       </c>
-      <c r="CB2" s="24">
+      <c r="CB2" s="25">
         <f t="shared" ref="CB2" si="3">CA2+1</f>
         <v>76</v>
       </c>
-      <c r="CC2" s="24">
+      <c r="CC2" s="25">
         <f t="shared" ref="CC2" si="4">CB2+1</f>
         <v>77</v>
       </c>
-      <c r="CD2" s="24">
+      <c r="CD2" s="25">
         <f t="shared" ref="CD2" si="5">CC2+1</f>
         <v>78</v>
       </c>
-      <c r="CE2" s="24">
+      <c r="CE2" s="25">
         <f t="shared" ref="CE2" si="6">CD2+1</f>
         <v>79</v>
       </c>
-      <c r="CF2" s="24">
+      <c r="CF2" s="25">
         <f t="shared" ref="CF2" si="7">CE2+1</f>
         <v>80</v>
       </c>
-      <c r="CG2" s="24">
+      <c r="CG2" s="25">
         <f t="shared" ref="CG2" si="8">CF2+1</f>
         <v>81</v>
       </c>
-      <c r="CH2" s="24">
+      <c r="CH2" s="25">
         <f t="shared" ref="CH2" si="9">CG2+1</f>
         <v>82</v>
       </c>
-      <c r="CI2" s="24">
+      <c r="CI2" s="25">
         <f t="shared" ref="CI2" si="10">CH2+1</f>
         <v>83</v>
       </c>
-      <c r="CJ2" s="24">
+      <c r="CJ2" s="25">
         <f t="shared" ref="CJ2" si="11">CI2+1</f>
         <v>84</v>
       </c>
-      <c r="CK2" s="24">
+      <c r="CK2" s="25">
         <f t="shared" ref="CK2" si="12">CJ2+1</f>
         <v>85</v>
       </c>
-      <c r="CL2" s="24">
+      <c r="CL2" s="25">
         <f t="shared" ref="CL2" si="13">CK2+1</f>
         <v>86</v>
       </c>
-      <c r="CM2" s="24">
+      <c r="CM2" s="25">
         <f t="shared" ref="CM2" si="14">CL2+1</f>
         <v>87</v>
       </c>
-      <c r="CN2" s="24">
+      <c r="CN2" s="25">
         <f t="shared" ref="CN2" si="15">CM2+1</f>
         <v>88</v>
       </c>
-      <c r="CO2" s="24">
+      <c r="CO2" s="25">
         <f t="shared" ref="CO2" si="16">CN2+1</f>
         <v>89</v>
       </c>
-      <c r="CP2" s="24">
+      <c r="CP2" s="25">
         <f t="shared" ref="CP2" si="17">CO2+1</f>
         <v>90</v>
       </c>
-      <c r="CQ2" s="24">
+      <c r="CQ2" s="25">
         <f t="shared" ref="CQ2" si="18">CP2+1</f>
         <v>91</v>
       </c>
-      <c r="CR2" s="24">
+      <c r="CR2" s="25">
         <f t="shared" ref="CR2" si="19">CQ2+1</f>
         <v>92</v>
       </c>
-      <c r="CS2" s="24">
+      <c r="CS2" s="25">
         <f t="shared" ref="CS2" si="20">CR2+1</f>
         <v>93</v>
       </c>
-      <c r="CT2" s="24">
+      <c r="CT2" s="25">
         <f t="shared" ref="CT2" si="21">CS2+1</f>
         <v>94</v>
       </c>
-      <c r="CU2" s="24">
+      <c r="CU2" s="25">
         <f t="shared" ref="CU2" si="22">CT2+1</f>
         <v>95</v>
       </c>
-      <c r="CV2" s="24">
+      <c r="CV2" s="25">
         <f t="shared" ref="CV2" si="23">CU2+1</f>
         <v>96</v>
       </c>
-      <c r="CW2" s="24">
+      <c r="CW2" s="25">
         <f t="shared" ref="CW2" si="24">CV2+1</f>
         <v>97</v>
       </c>
-      <c r="CX2" s="24">
+      <c r="CX2" s="25">
         <f t="shared" ref="CX2" si="25">CW2+1</f>
         <v>98</v>
       </c>
-      <c r="CY2" s="24">
+      <c r="CY2" s="25">
         <f t="shared" ref="CY2" si="26">CX2+1</f>
         <v>99</v>
       </c>
-      <c r="CZ2" s="24">
+      <c r="CZ2" s="25">
         <f t="shared" ref="CZ2" si="27">CY2+1</f>
         <v>100</v>
       </c>
-      <c r="DA2" s="24">
+      <c r="DA2" s="25">
         <f t="shared" ref="DA2" si="28">CZ2+1</f>
         <v>101</v>
       </c>
-      <c r="DB2" s="24">
+      <c r="DB2" s="25">
         <f t="shared" ref="DB2" si="29">DA2+1</f>
         <v>102</v>
       </c>
-      <c r="DC2" s="24">
+      <c r="DC2" s="25">
         <f t="shared" ref="DC2" si="30">DB2+1</f>
         <v>103</v>
       </c>
-      <c r="DD2" s="24">
+      <c r="DD2" s="25">
         <f t="shared" ref="DD2" si="31">DC2+1</f>
         <v>104</v>
       </c>
-      <c r="DE2" s="24">
+      <c r="DE2" s="25">
         <f t="shared" ref="DE2" si="32">DD2+1</f>
         <v>105</v>
       </c>
-      <c r="DF2" s="24">
+      <c r="DF2" s="25">
         <f t="shared" ref="DF2" si="33">DE2+1</f>
         <v>106</v>
       </c>
-      <c r="DG2" s="24">
+      <c r="DG2" s="25">
         <f t="shared" ref="DG2" si="34">DF2+1</f>
         <v>107</v>
       </c>
-      <c r="DH2" s="24">
+      <c r="DH2" s="25">
         <f t="shared" ref="DH2" si="35">DG2+1</f>
         <v>108</v>
       </c>
-      <c r="DI2" s="24">
+      <c r="DI2" s="25">
         <f t="shared" ref="DI2" si="36">DH2+1</f>
         <v>109</v>
       </c>
-      <c r="DJ2" s="24">
+      <c r="DJ2" s="25">
         <f t="shared" ref="DJ2" si="37">DI2+1</f>
         <v>110</v>
       </c>
-      <c r="DK2" s="24">
+      <c r="DK2" s="25">
         <f t="shared" ref="DK2" si="38">DJ2+1</f>
         <v>111</v>
       </c>
@@ -3501,13 +3536,13 @@
       <c r="DM2" s="17"/>
     </row>
     <row r="3" spans="2:117" ht="42" customHeight="1">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="39">
         <v>2</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="39">
         <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3692,9 +3727,9 @@
       <c r="DM3" s="18"/>
     </row>
     <row r="4" spans="2:117" ht="42" customHeight="1">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -3866,9 +3901,9 @@
       <c r="DM4" s="18"/>
     </row>
     <row r="5" spans="2:117" ht="42" customHeight="1">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -4044,9 +4079,9 @@
       <c r="DM5" s="18"/>
     </row>
     <row r="6" spans="2:117" ht="42" customHeight="1">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4209,9 +4244,9 @@
       <c r="DM6" s="18"/>
     </row>
     <row r="7" spans="2:117" ht="42" customHeight="1">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4373,9 +4408,9 @@
       <c r="DM7" s="18"/>
     </row>
     <row r="8" spans="2:117" ht="42" customHeight="1">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4538,13 +4573,13 @@
       <c r="DM8" s="18"/>
     </row>
     <row r="9" spans="2:117" ht="42" customHeight="1">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="39">
         <v>15</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="39">
         <v>5</v>
       </c>
       <c r="E9" s="7"/>
@@ -4724,9 +4759,9 @@
       <c r="DM9" s="18"/>
     </row>
     <row r="10" spans="2:117" ht="42" customHeight="1">
-      <c r="B10" s="30"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4853,9 +4888,9 @@
       <c r="DM10" s="18"/>
     </row>
     <row r="11" spans="2:117" ht="42" customHeight="1">
-      <c r="B11" s="30"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4984,9 +5019,9 @@
       <c r="DM11" s="18"/>
     </row>
     <row r="12" spans="2:117" ht="42" customHeight="1">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5112,9 +5147,9 @@
       <c r="DM12" s="18"/>
     </row>
     <row r="13" spans="2:117" ht="42" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5242,9 +5277,9 @@
       <c r="DM13" s="18"/>
     </row>
     <row r="14" spans="2:117" ht="42" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -5370,13 +5405,13 @@
       <c r="DM14" s="18"/>
     </row>
     <row r="15" spans="2:117" ht="42" customHeight="1">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="25">
         <v>36</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="25" t="s">
         <v>163</v>
       </c>
       <c r="E15" s="7"/>
@@ -5769,7 +5804,9 @@
       <c r="CL16" s="13"/>
       <c r="CM16" s="13"/>
       <c r="CN16" s="13"/>
-      <c r="CO16" s="13"/>
+      <c r="CO16" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="CP16" s="13" t="s">
         <v>102</v>
       </c>
@@ -5795,946 +5832,958 @@
       <c r="DH16" s="13"/>
       <c r="DI16" s="13"/>
       <c r="DJ16" s="13"/>
-      <c r="DK16" s="13"/>
-      <c r="DL16" s="15" t="s">
+      <c r="DK16" s="13" t="s">
         <v>105</v>
       </c>
+      <c r="DL16" s="15"/>
       <c r="DM16" s="18"/>
     </row>
-    <row r="17" spans="2:135" ht="42" customHeight="1" thickBot="1"/>
-    <row r="18" spans="2:135" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="17" spans="2:137" ht="42" customHeight="1" thickBot="1"/>
+    <row r="18" spans="2:137" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="28"/>
-      <c r="BM18" s="28"/>
-      <c r="BN18" s="28"/>
-      <c r="BO18" s="28"/>
-      <c r="BP18" s="28"/>
-      <c r="BQ18" s="28"/>
-      <c r="BR18" s="28"/>
-      <c r="BS18" s="28"/>
-      <c r="BT18" s="28"/>
-      <c r="BU18" s="28"/>
-      <c r="BV18" s="28"/>
-      <c r="BW18" s="28"/>
-      <c r="BX18" s="28"/>
-      <c r="BY18" s="28"/>
-      <c r="BZ18" s="28"/>
-      <c r="CA18" s="28"/>
-      <c r="CB18" s="28"/>
-      <c r="CC18" s="28"/>
-      <c r="CD18" s="28"/>
-      <c r="CE18" s="28"/>
-      <c r="CF18" s="28"/>
-      <c r="CG18" s="28"/>
-      <c r="CH18" s="28"/>
-      <c r="CI18" s="28"/>
-      <c r="CJ18" s="28"/>
-      <c r="CK18" s="28"/>
-      <c r="CL18" s="28"/>
-      <c r="CM18" s="28"/>
-      <c r="CN18" s="28"/>
-      <c r="CO18" s="28"/>
-      <c r="CP18" s="28"/>
-      <c r="CQ18" s="28"/>
-      <c r="CR18" s="28"/>
-      <c r="CS18" s="28"/>
-      <c r="CT18" s="28"/>
-      <c r="CU18" s="28"/>
-      <c r="CV18" s="28"/>
-      <c r="CW18" s="28"/>
-      <c r="CX18" s="28"/>
-      <c r="CY18" s="28"/>
-      <c r="CZ18" s="28"/>
-      <c r="DA18" s="28"/>
-      <c r="DB18" s="28"/>
-      <c r="DC18" s="28"/>
-      <c r="DD18" s="28"/>
-      <c r="DE18" s="28"/>
-      <c r="DF18" s="28"/>
-      <c r="DG18" s="28"/>
-      <c r="DH18" s="28"/>
-      <c r="DI18" s="28"/>
-      <c r="DJ18" s="28"/>
-      <c r="DK18" s="28"/>
-      <c r="DL18" s="28"/>
-      <c r="DM18" s="28"/>
-      <c r="DN18" s="28"/>
-      <c r="DO18" s="28"/>
-      <c r="DP18" s="28"/>
-      <c r="DQ18" s="28"/>
-      <c r="DR18" s="28"/>
-      <c r="DS18" s="28"/>
-      <c r="DT18" s="28"/>
-      <c r="DU18" s="28"/>
-      <c r="DV18" s="28"/>
-      <c r="DW18" s="28"/>
-      <c r="DX18" s="28"/>
-      <c r="DY18" s="28"/>
-      <c r="DZ18" s="28"/>
-      <c r="EA18" s="28"/>
-      <c r="EB18" s="28"/>
-      <c r="EC18" s="28"/>
-      <c r="ED18" s="28"/>
-      <c r="EE18" s="29"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
+      <c r="BJ18" s="36"/>
+      <c r="BK18" s="36"/>
+      <c r="BL18" s="36"/>
+      <c r="BM18" s="36"/>
+      <c r="BN18" s="36"/>
+      <c r="BO18" s="36"/>
+      <c r="BP18" s="36"/>
+      <c r="BQ18" s="36"/>
+      <c r="BR18" s="36"/>
+      <c r="BS18" s="36"/>
+      <c r="BT18" s="36"/>
+      <c r="BU18" s="36"/>
+      <c r="BV18" s="36"/>
+      <c r="BW18" s="36"/>
+      <c r="BX18" s="36"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="36"/>
+      <c r="CA18" s="36"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="36"/>
+      <c r="CF18" s="36"/>
+      <c r="CG18" s="36"/>
+      <c r="CH18" s="36"/>
+      <c r="CI18" s="36"/>
+      <c r="CJ18" s="36"/>
+      <c r="CK18" s="36"/>
+      <c r="CL18" s="36"/>
+      <c r="CM18" s="36"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="36"/>
+      <c r="CP18" s="36"/>
+      <c r="CQ18" s="36"/>
+      <c r="CR18" s="36"/>
+      <c r="CS18" s="36"/>
+      <c r="CT18" s="36"/>
+      <c r="CU18" s="36"/>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="36"/>
+      <c r="CX18" s="36"/>
+      <c r="CY18" s="36"/>
+      <c r="CZ18" s="36"/>
+      <c r="DA18" s="36"/>
+      <c r="DB18" s="36"/>
+      <c r="DC18" s="36"/>
+      <c r="DD18" s="36"/>
+      <c r="DE18" s="36"/>
+      <c r="DF18" s="36"/>
+      <c r="DG18" s="36"/>
+      <c r="DH18" s="36"/>
+      <c r="DI18" s="36"/>
+      <c r="DJ18" s="36"/>
+      <c r="DK18" s="36"/>
+      <c r="DL18" s="36"/>
+      <c r="DM18" s="36"/>
+      <c r="DN18" s="36"/>
+      <c r="DO18" s="36"/>
+      <c r="DP18" s="36"/>
+      <c r="DQ18" s="36"/>
+      <c r="DR18" s="36"/>
+      <c r="DS18" s="36"/>
+      <c r="DT18" s="36"/>
+      <c r="DU18" s="36"/>
+      <c r="DV18" s="36"/>
+      <c r="DW18" s="36"/>
+      <c r="DX18" s="36"/>
+      <c r="DY18" s="36"/>
+      <c r="DZ18" s="36"/>
+      <c r="EA18" s="36"/>
+      <c r="EB18" s="36"/>
+      <c r="EC18" s="36"/>
+      <c r="ED18" s="36"/>
+      <c r="EE18" s="36"/>
+      <c r="EF18" s="36"/>
+      <c r="EG18" s="37"/>
     </row>
-    <row r="19" spans="2:135" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="B19" s="32" t="s">
+    <row r="19" spans="2:137" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="B19" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="12">
         <f>MAX(2:2)+1</f>
         <v>113</v>
       </c>
-      <c r="F19" s="33">
+      <c r="F19" s="12">
         <f t="shared" ref="F19" si="56">E19+1</f>
         <v>114</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="12">
         <f t="shared" ref="G19" si="57">F19+1</f>
         <v>115</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H19" s="12">
         <f t="shared" ref="H19" si="58">G19+1</f>
         <v>116</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I19" s="12">
         <f t="shared" ref="I19" si="59">H19+1</f>
         <v>117</v>
       </c>
-      <c r="J19" s="33">
+      <c r="J19" s="12">
         <f t="shared" ref="J19" si="60">I19+1</f>
         <v>118</v>
       </c>
-      <c r="K19" s="33">
+      <c r="K19" s="12">
         <f t="shared" ref="K19" si="61">J19+1</f>
         <v>119</v>
       </c>
-      <c r="L19" s="33">
+      <c r="L19" s="12">
         <f t="shared" ref="L19" si="62">K19+1</f>
         <v>120</v>
       </c>
-      <c r="M19" s="33">
+      <c r="M19" s="12">
         <f t="shared" ref="M19" si="63">L19+1</f>
         <v>121</v>
       </c>
-      <c r="N19" s="33">
+      <c r="N19" s="12">
         <f t="shared" ref="N19" si="64">M19+1</f>
         <v>122</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="12">
         <f t="shared" ref="O19" si="65">N19+1</f>
         <v>123</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="12">
         <f t="shared" ref="P19" si="66">O19+1</f>
         <v>124</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="12">
         <f t="shared" ref="Q19" si="67">P19+1</f>
         <v>125</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="12">
         <f t="shared" ref="R19" si="68">Q19+1</f>
         <v>126</v>
       </c>
-      <c r="S19" s="33">
+      <c r="S19" s="12">
         <f t="shared" ref="S19" si="69">R19+1</f>
         <v>127</v>
       </c>
-      <c r="T19" s="33">
+      <c r="T19" s="12">
         <f t="shared" ref="T19" si="70">S19+1</f>
         <v>128</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="12">
         <f t="shared" ref="U19" si="71">T19+1</f>
         <v>129</v>
       </c>
-      <c r="V19" s="33">
+      <c r="V19" s="12">
         <f t="shared" ref="V19" si="72">U19+1</f>
         <v>130</v>
       </c>
-      <c r="W19" s="33">
+      <c r="W19" s="12">
         <f t="shared" ref="W19" si="73">V19+1</f>
         <v>131</v>
       </c>
-      <c r="X19" s="33">
+      <c r="X19" s="12">
         <f t="shared" ref="X19" si="74">W19+1</f>
         <v>132</v>
       </c>
-      <c r="Y19" s="33">
+      <c r="Y19" s="12">
         <f t="shared" ref="Y19" si="75">X19+1</f>
         <v>133</v>
       </c>
-      <c r="Z19" s="33">
+      <c r="Z19" s="12">
         <f t="shared" ref="Z19" si="76">Y19+1</f>
         <v>134</v>
       </c>
-      <c r="AA19" s="33">
+      <c r="AA19" s="12">
         <f t="shared" ref="AA19" si="77">Z19+1</f>
         <v>135</v>
       </c>
-      <c r="AB19" s="33">
+      <c r="AB19" s="12">
         <f t="shared" ref="AB19" si="78">AA19+1</f>
         <v>136</v>
       </c>
-      <c r="AC19" s="33">
+      <c r="AC19" s="12">
         <f t="shared" ref="AC19" si="79">AB19+1</f>
         <v>137</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AD19" s="12">
         <f t="shared" ref="AD19" si="80">AC19+1</f>
         <v>138</v>
       </c>
-      <c r="AE19" s="33">
+      <c r="AE19" s="12">
         <f t="shared" ref="AE19" si="81">AD19+1</f>
         <v>139</v>
       </c>
-      <c r="AF19" s="33">
+      <c r="AF19" s="12">
         <f t="shared" ref="AF19" si="82">AE19+1</f>
         <v>140</v>
       </c>
-      <c r="AG19" s="33">
+      <c r="AG19" s="12">
         <f t="shared" ref="AG19" si="83">AF19+1</f>
         <v>141</v>
       </c>
-      <c r="AH19" s="33">
+      <c r="AH19" s="12">
         <f t="shared" ref="AH19" si="84">AG19+1</f>
         <v>142</v>
       </c>
-      <c r="AI19" s="33">
+      <c r="AI19" s="12">
         <f t="shared" ref="AI19" si="85">AH19+1</f>
         <v>143</v>
       </c>
-      <c r="AJ19" s="33">
+      <c r="AJ19" s="12">
         <f t="shared" ref="AJ19" si="86">AI19+1</f>
         <v>144</v>
       </c>
-      <c r="AK19" s="33">
+      <c r="AK19" s="12">
         <f t="shared" ref="AK19" si="87">AJ19+1</f>
         <v>145</v>
       </c>
-      <c r="AL19" s="33">
+      <c r="AL19" s="12">
         <f t="shared" ref="AL19" si="88">AK19+1</f>
         <v>146</v>
       </c>
-      <c r="AM19" s="33">
+      <c r="AM19" s="12">
         <f t="shared" ref="AM19" si="89">AL19+1</f>
         <v>147</v>
       </c>
-      <c r="AN19" s="33">
+      <c r="AN19" s="12">
         <f t="shared" ref="AN19" si="90">AM19+1</f>
         <v>148</v>
       </c>
-      <c r="AO19" s="33">
+      <c r="AO19" s="12">
         <f t="shared" ref="AO19" si="91">AN19+1</f>
         <v>149</v>
       </c>
-      <c r="AP19" s="33">
+      <c r="AP19" s="12">
         <f t="shared" ref="AP19" si="92">AO19+1</f>
         <v>150</v>
       </c>
-      <c r="AQ19" s="33">
+      <c r="AQ19" s="12">
         <f t="shared" ref="AQ19" si="93">AP19+1</f>
         <v>151</v>
       </c>
-      <c r="AR19" s="33">
+      <c r="AR19" s="12">
         <f t="shared" ref="AR19" si="94">AQ19+1</f>
         <v>152</v>
       </c>
-      <c r="AS19" s="33">
+      <c r="AS19" s="12">
         <f t="shared" ref="AS19" si="95">AR19+1</f>
         <v>153</v>
       </c>
-      <c r="AT19" s="33">
+      <c r="AT19" s="12">
         <f t="shared" ref="AT19" si="96">AS19+1</f>
         <v>154</v>
       </c>
-      <c r="AU19" s="33">
+      <c r="AU19" s="12">
         <f t="shared" ref="AU19" si="97">AT19+1</f>
         <v>155</v>
       </c>
-      <c r="AV19" s="33">
+      <c r="AV19" s="12">
         <f t="shared" ref="AV19" si="98">AU19+1</f>
         <v>156</v>
       </c>
-      <c r="AW19" s="33">
+      <c r="AW19" s="12">
         <f t="shared" ref="AW19" si="99">AV19+1</f>
         <v>157</v>
       </c>
-      <c r="AX19" s="33">
+      <c r="AX19" s="12">
         <f t="shared" ref="AX19" si="100">AW19+1</f>
         <v>158</v>
       </c>
-      <c r="AY19" s="33">
+      <c r="AY19" s="12">
         <f t="shared" ref="AY19" si="101">AX19+1</f>
         <v>159</v>
       </c>
-      <c r="AZ19" s="33">
+      <c r="AZ19" s="12">
         <f t="shared" ref="AZ19" si="102">AY19+1</f>
         <v>160</v>
       </c>
-      <c r="BA19" s="33">
+      <c r="BA19" s="12">
         <f t="shared" ref="BA19" si="103">AZ19+1</f>
         <v>161</v>
       </c>
-      <c r="BB19" s="33">
+      <c r="BB19" s="12">
         <f t="shared" ref="BB19" si="104">BA19+1</f>
         <v>162</v>
       </c>
-      <c r="BC19" s="33">
+      <c r="BC19" s="12">
         <f t="shared" ref="BC19" si="105">BB19+1</f>
         <v>163</v>
       </c>
-      <c r="BD19" s="33">
+      <c r="BD19" s="12">
         <f t="shared" ref="BD19" si="106">BC19+1</f>
         <v>164</v>
       </c>
-      <c r="BE19" s="33">
+      <c r="BE19" s="12">
         <f t="shared" ref="BE19" si="107">BD19+1</f>
         <v>165</v>
       </c>
-      <c r="BF19" s="33">
+      <c r="BF19" s="12">
         <f t="shared" ref="BF19" si="108">BE19+1</f>
         <v>166</v>
       </c>
-      <c r="BG19" s="33">
+      <c r="BG19" s="12">
         <f t="shared" ref="BG19" si="109">BF19+1</f>
         <v>167</v>
       </c>
-      <c r="BH19" s="33">
+      <c r="BH19" s="12">
         <f t="shared" ref="BH19" si="110">BG19+1</f>
         <v>168</v>
       </c>
-      <c r="BI19" s="33">
+      <c r="BI19" s="12">
         <f t="shared" ref="BI19" si="111">BH19+1</f>
         <v>169</v>
       </c>
-      <c r="BJ19" s="33">
+      <c r="BJ19" s="12">
         <f t="shared" ref="BJ19" si="112">BI19+1</f>
         <v>170</v>
       </c>
-      <c r="BK19" s="33">
+      <c r="BK19" s="12">
         <f t="shared" ref="BK19" si="113">BJ19+1</f>
         <v>171</v>
       </c>
-      <c r="BL19" s="33">
+      <c r="BL19" s="12">
         <f t="shared" ref="BL19" si="114">BK19+1</f>
         <v>172</v>
       </c>
-      <c r="BM19" s="33">
+      <c r="BM19" s="12">
         <f t="shared" ref="BM19" si="115">BL19+1</f>
         <v>173</v>
       </c>
-      <c r="BN19" s="33">
+      <c r="BN19" s="12">
         <f t="shared" ref="BN19" si="116">BM19+1</f>
         <v>174</v>
       </c>
-      <c r="BO19" s="33">
+      <c r="BO19" s="12">
         <f t="shared" ref="BO19" si="117">BN19+1</f>
         <v>175</v>
       </c>
-      <c r="BP19" s="33">
+      <c r="BP19" s="12">
         <f t="shared" ref="BP19" si="118">BO19+1</f>
         <v>176</v>
       </c>
-      <c r="BQ19" s="33">
+      <c r="BQ19" s="12">
         <f t="shared" ref="BQ19" si="119">BP19+1</f>
         <v>177</v>
       </c>
-      <c r="BR19" s="33">
+      <c r="BR19" s="12">
         <f t="shared" ref="BR19" si="120">BQ19+1</f>
         <v>178</v>
       </c>
-      <c r="BS19" s="33">
+      <c r="BS19" s="12">
         <f t="shared" ref="BS19" si="121">BR19+1</f>
         <v>179</v>
       </c>
-      <c r="BT19" s="33">
+      <c r="BT19" s="12">
         <f t="shared" ref="BT19" si="122">BS19+1</f>
         <v>180</v>
       </c>
-      <c r="BU19" s="33">
+      <c r="BU19" s="12">
         <f t="shared" ref="BU19" si="123">BT19+1</f>
         <v>181</v>
       </c>
-      <c r="BV19" s="33">
+      <c r="BV19" s="12">
         <f t="shared" ref="BV19" si="124">BU19+1</f>
         <v>182</v>
       </c>
-      <c r="BW19" s="33">
+      <c r="BW19" s="12">
         <f t="shared" ref="BW19" si="125">BV19+1</f>
         <v>183</v>
       </c>
-      <c r="BX19" s="33">
+      <c r="BX19" s="12">
         <f t="shared" ref="BX19" si="126">BW19+1</f>
         <v>184</v>
       </c>
-      <c r="BY19" s="33">
+      <c r="BY19" s="12">
         <f t="shared" ref="BY19" si="127">BX19+1</f>
         <v>185</v>
       </c>
-      <c r="BZ19" s="33">
+      <c r="BZ19" s="12">
         <f t="shared" ref="BZ19" si="128">BY19+1</f>
         <v>186</v>
       </c>
-      <c r="CA19" s="33">
+      <c r="CA19" s="12">
         <f t="shared" ref="CA19" si="129">BZ19+1</f>
         <v>187</v>
       </c>
-      <c r="CB19" s="33">
+      <c r="CB19" s="12">
         <f t="shared" ref="CB19" si="130">CA19+1</f>
         <v>188</v>
       </c>
-      <c r="CC19" s="33">
+      <c r="CC19" s="12">
         <f t="shared" ref="CC19" si="131">CB19+1</f>
         <v>189</v>
       </c>
-      <c r="CD19" s="33">
+      <c r="CD19" s="12">
         <f t="shared" ref="CD19" si="132">CC19+1</f>
         <v>190</v>
       </c>
-      <c r="CE19" s="33">
+      <c r="CE19" s="12">
         <f t="shared" ref="CE19" si="133">CD19+1</f>
         <v>191</v>
       </c>
-      <c r="CF19" s="33">
+      <c r="CF19" s="12">
         <f t="shared" ref="CF19" si="134">CE19+1</f>
         <v>192</v>
       </c>
-      <c r="CG19" s="33">
+      <c r="CG19" s="12">
         <f t="shared" ref="CG19" si="135">CF19+1</f>
         <v>193</v>
       </c>
-      <c r="CH19" s="33">
+      <c r="CH19" s="12">
         <f t="shared" ref="CH19" si="136">CG19+1</f>
         <v>194</v>
       </c>
-      <c r="CI19" s="33">
+      <c r="CI19" s="12">
         <f t="shared" ref="CI19" si="137">CH19+1</f>
         <v>195</v>
       </c>
-      <c r="CJ19" s="33">
+      <c r="CJ19" s="12">
         <f t="shared" ref="CJ19" si="138">CI19+1</f>
         <v>196</v>
       </c>
-      <c r="CK19" s="33">
+      <c r="CK19" s="12">
         <f t="shared" ref="CK19" si="139">CJ19+1</f>
         <v>197</v>
       </c>
-      <c r="CL19" s="33">
+      <c r="CL19" s="12">
         <f t="shared" ref="CL19" si="140">CK19+1</f>
         <v>198</v>
       </c>
-      <c r="CM19" s="33">
+      <c r="CM19" s="12">
         <f t="shared" ref="CM19" si="141">CL19+1</f>
         <v>199</v>
       </c>
-      <c r="CN19" s="33">
+      <c r="CN19" s="12">
         <f t="shared" ref="CN19" si="142">CM19+1</f>
         <v>200</v>
       </c>
-      <c r="CO19" s="33">
+      <c r="CO19" s="12">
         <f t="shared" ref="CO19" si="143">CN19+1</f>
         <v>201</v>
       </c>
-      <c r="CP19" s="33">
+      <c r="CP19" s="12">
         <f t="shared" ref="CP19" si="144">CO19+1</f>
         <v>202</v>
       </c>
-      <c r="CQ19" s="33">
+      <c r="CQ19" s="12">
         <f t="shared" ref="CQ19" si="145">CP19+1</f>
         <v>203</v>
       </c>
-      <c r="CR19" s="33">
+      <c r="CR19" s="12">
         <f>CQ19+1</f>
         <v>204</v>
       </c>
-      <c r="CS19" s="33">
+      <c r="CS19" s="12">
         <f t="shared" ref="CS19" si="146">CR19+1</f>
         <v>205</v>
       </c>
-      <c r="CT19" s="33">
+      <c r="CT19" s="12">
         <f t="shared" ref="CT19" si="147">CS19+1</f>
         <v>206</v>
       </c>
-      <c r="CU19" s="33">
+      <c r="CU19" s="12">
         <f t="shared" ref="CU19" si="148">CT19+1</f>
         <v>207</v>
       </c>
-      <c r="CV19" s="33">
+      <c r="CV19" s="12">
         <f t="shared" ref="CV19" si="149">CU19+1</f>
         <v>208</v>
       </c>
-      <c r="CW19" s="33">
+      <c r="CW19" s="12">
         <f t="shared" ref="CW19" si="150">CV19+1</f>
         <v>209</v>
       </c>
-      <c r="CX19" s="33">
+      <c r="CX19" s="12">
         <f t="shared" ref="CX19" si="151">CW19+1</f>
         <v>210</v>
       </c>
-      <c r="CY19" s="33">
+      <c r="CY19" s="12">
         <f t="shared" ref="CY19" si="152">CX19+1</f>
         <v>211</v>
       </c>
-      <c r="CZ19" s="33">
+      <c r="CZ19" s="12">
         <f t="shared" ref="CZ19" si="153">CY19+1</f>
         <v>212</v>
       </c>
-      <c r="DA19" s="33">
+      <c r="DA19" s="12">
         <f t="shared" ref="DA19" si="154">CZ19+1</f>
         <v>213</v>
       </c>
-      <c r="DB19" s="33">
+      <c r="DB19" s="12">
         <f t="shared" ref="DB19" si="155">DA19+1</f>
         <v>214</v>
       </c>
-      <c r="DC19" s="33">
+      <c r="DC19" s="12">
         <f t="shared" ref="DC19" si="156">DB19+1</f>
         <v>215</v>
       </c>
-      <c r="DD19" s="33">
+      <c r="DD19" s="12">
         <f t="shared" ref="DD19" si="157">DC19+1</f>
         <v>216</v>
       </c>
-      <c r="DE19" s="33">
+      <c r="DE19" s="12">
         <f t="shared" ref="DE19" si="158">DD19+1</f>
         <v>217</v>
       </c>
-      <c r="DF19" s="33">
+      <c r="DF19" s="12">
         <f t="shared" ref="DF19" si="159">DE19+1</f>
         <v>218</v>
       </c>
-      <c r="DG19" s="33">
+      <c r="DG19" s="12">
         <f t="shared" ref="DG19" si="160">DF19+1</f>
         <v>219</v>
       </c>
-      <c r="DH19" s="33">
+      <c r="DH19" s="12">
         <f t="shared" ref="DH19" si="161">DG19+1</f>
         <v>220</v>
       </c>
-      <c r="DI19" s="33">
+      <c r="DI19" s="12">
         <f t="shared" ref="DI19" si="162">DH19+1</f>
         <v>221</v>
       </c>
-      <c r="DJ19" s="33">
+      <c r="DJ19" s="12">
         <f t="shared" ref="DJ19" si="163">DI19+1</f>
         <v>222</v>
       </c>
-      <c r="DK19" s="33">
+      <c r="DK19" s="12">
         <f t="shared" ref="DK19" si="164">DJ19+1</f>
         <v>223</v>
       </c>
-      <c r="DL19" s="33">
+      <c r="DL19" s="12">
         <f t="shared" ref="DL19" si="165">DK19+1</f>
         <v>224</v>
       </c>
-      <c r="DM19" s="33">
+      <c r="DM19" s="12">
         <f t="shared" ref="DM19" si="166">DL19+1</f>
         <v>225</v>
       </c>
-      <c r="DN19" s="33">
+      <c r="DN19" s="12">
         <f t="shared" ref="DN19" si="167">DM19+1</f>
         <v>226</v>
       </c>
-      <c r="DO19" s="33">
+      <c r="DO19" s="12">
         <f t="shared" ref="DO19" si="168">DN19+1</f>
         <v>227</v>
       </c>
-      <c r="DP19" s="33">
+      <c r="DP19" s="12">
         <f t="shared" ref="DP19" si="169">DO19+1</f>
         <v>228</v>
       </c>
-      <c r="DQ19" s="33">
+      <c r="DQ19" s="12">
         <f t="shared" ref="DQ19" si="170">DP19+1</f>
         <v>229</v>
       </c>
-      <c r="DR19" s="33">
+      <c r="DR19" s="12">
         <f t="shared" ref="DR19" si="171">DQ19+1</f>
         <v>230</v>
       </c>
-      <c r="DS19" s="33">
+      <c r="DS19" s="12">
         <f t="shared" ref="DS19" si="172">DR19+1</f>
         <v>231</v>
       </c>
-      <c r="DT19" s="33">
+      <c r="DT19" s="12">
         <f t="shared" ref="DT19" si="173">DS19+1</f>
         <v>232</v>
       </c>
-      <c r="DU19" s="33">
+      <c r="DU19" s="12">
         <f t="shared" ref="DU19" si="174">DT19+1</f>
         <v>233</v>
       </c>
-      <c r="DV19" s="33">
+      <c r="DV19" s="12">
         <f t="shared" ref="DV19" si="175">DU19+1</f>
         <v>234</v>
       </c>
-      <c r="DW19" s="33">
+      <c r="DW19" s="12">
         <f t="shared" ref="DW19" si="176">DV19+1</f>
         <v>235</v>
       </c>
-      <c r="DX19" s="33">
+      <c r="DX19" s="12">
         <f t="shared" ref="DX19" si="177">DW19+1</f>
         <v>236</v>
       </c>
-      <c r="DY19" s="33">
+      <c r="DY19" s="12">
         <f t="shared" ref="DY19" si="178">DX19+1</f>
         <v>237</v>
       </c>
-      <c r="DZ19" s="33">
+      <c r="DZ19" s="12">
         <f t="shared" ref="DZ19" si="179">DY19+1</f>
         <v>238</v>
       </c>
-      <c r="EA19" s="33">
+      <c r="EA19" s="12">
         <f t="shared" ref="EA19" si="180">DZ19+1</f>
         <v>239</v>
       </c>
-      <c r="EB19" s="33">
+      <c r="EB19" s="12">
         <f t="shared" ref="EB19" si="181">EA19+1</f>
         <v>240</v>
       </c>
-      <c r="EC19" s="33">
+      <c r="EC19" s="12">
         <f t="shared" ref="EC19" si="182">EB19+1</f>
         <v>241</v>
       </c>
-      <c r="ED19" s="33">
+      <c r="ED19" s="12">
         <f t="shared" ref="ED19" si="183">EC19+1</f>
         <v>242</v>
       </c>
-      <c r="EE19" s="34">
-        <f t="shared" ref="EE19" si="184">ED19+1</f>
+      <c r="EE19" s="12">
+        <f t="shared" ref="EE19:EG19" si="184">ED19+1</f>
         <v>243</v>
       </c>
+      <c r="EF19" s="12">
+        <f t="shared" si="184"/>
+        <v>244</v>
+      </c>
+      <c r="EG19" s="33">
+        <f t="shared" si="184"/>
+        <v>245</v>
+      </c>
     </row>
-    <row r="20" spans="2:135" ht="42" customHeight="1">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:137" ht="42" customHeight="1">
+      <c r="B20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="30">
         <v>15</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="30">
         <v>5</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="R20" s="35" t="s">
+      <c r="R20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="35" t="s">
+      <c r="S20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="35" t="s">
+      <c r="T20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="U20" s="35" t="s">
+      <c r="U20" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35" t="s">
+      <c r="V20" s="34"/>
+      <c r="W20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="X20" s="35" t="s">
+      <c r="X20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Y20" s="35" t="s">
+      <c r="Y20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Z20" s="35" t="s">
+      <c r="Z20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AA20" s="35" t="s">
+      <c r="AA20" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="35"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="35"/>
-      <c r="AH20" s="35"/>
-      <c r="AI20" s="35" t="s">
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="34"/>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AJ20" s="35" t="s">
+      <c r="AJ20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AK20" s="35" t="s">
+      <c r="AK20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AL20" s="35" t="s">
+      <c r="AL20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AM20" s="35" t="s">
+      <c r="AM20" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AN20" s="35"/>
-      <c r="AO20" s="35" t="s">
+      <c r="AN20" s="34"/>
+      <c r="AO20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="AP20" s="35" t="s">
+      <c r="AP20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="AQ20" s="35" t="s">
+      <c r="AQ20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="AR20" s="35" t="s">
+      <c r="AR20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="AS20" s="35" t="s">
+      <c r="AS20" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="AT20" s="35"/>
-      <c r="AU20" s="35"/>
-      <c r="AV20" s="35"/>
-      <c r="AW20" s="35"/>
-      <c r="AX20" s="35"/>
-      <c r="AY20" s="35"/>
-      <c r="AZ20" s="35"/>
-      <c r="BA20" s="35" t="s">
+      <c r="AT20" s="34"/>
+      <c r="AU20" s="34"/>
+      <c r="AV20" s="34"/>
+      <c r="AW20" s="34"/>
+      <c r="AX20" s="34"/>
+      <c r="AY20" s="34"/>
+      <c r="AZ20" s="34"/>
+      <c r="BA20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="BB20" s="35" t="s">
+      <c r="BB20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="BC20" s="35" t="s">
+      <c r="BC20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="BD20" s="35" t="s">
+      <c r="BD20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="BE20" s="35" t="s">
+      <c r="BE20" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="BF20" s="35"/>
-      <c r="BG20" s="36" t="s">
+      <c r="BF20" s="34"/>
+      <c r="BG20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BH20" s="36" t="s">
+      <c r="BH20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BI20" s="36" t="s">
+      <c r="BI20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BJ20" s="36" t="s">
+      <c r="BJ20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BK20" s="36" t="s">
+      <c r="BK20" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="BL20" s="35"/>
-      <c r="BM20" s="35"/>
-      <c r="BN20" s="35"/>
-      <c r="BO20" s="35"/>
-      <c r="BP20" s="35"/>
-      <c r="BQ20" s="35"/>
-      <c r="BR20" s="35"/>
-      <c r="BS20" s="36" t="s">
+      <c r="BL20" s="34"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="34"/>
+      <c r="BO20" s="34"/>
+      <c r="BP20" s="34"/>
+      <c r="BQ20" s="34"/>
+      <c r="BR20" s="34"/>
+      <c r="BS20" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BT20" s="36" t="s">
+      <c r="BT20" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BU20" s="36" t="s">
+      <c r="BU20" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BV20" s="36" t="s">
+      <c r="BV20" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BW20" s="36" t="s">
+      <c r="BW20" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="BX20" s="35"/>
-      <c r="BY20" s="36" t="s">
+      <c r="BX20" s="34"/>
+      <c r="BY20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="BZ20" s="36" t="s">
+      <c r="BZ20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="CA20" s="36" t="s">
+      <c r="CA20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="CB20" s="36" t="s">
+      <c r="CB20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="CC20" s="36" t="s">
+      <c r="CC20" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="CD20" s="35"/>
-      <c r="CE20" s="35"/>
-      <c r="CF20" s="35"/>
-      <c r="CG20" s="35"/>
-      <c r="CH20" s="35"/>
-      <c r="CI20" s="35"/>
-      <c r="CJ20" s="35"/>
-      <c r="CK20" s="36" t="s">
+      <c r="CD20" s="34"/>
+      <c r="CE20" s="34"/>
+      <c r="CF20" s="34"/>
+      <c r="CG20" s="34"/>
+      <c r="CH20" s="34"/>
+      <c r="CI20" s="34"/>
+      <c r="CJ20" s="34"/>
+      <c r="CK20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="CL20" s="36" t="s">
+      <c r="CL20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="CM20" s="36" t="s">
+      <c r="CM20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="CN20" s="36" t="s">
+      <c r="CN20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="CO20" s="36" t="s">
+      <c r="CO20" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="CP20" s="35"/>
-      <c r="CQ20" s="36" t="s">
+      <c r="CP20" s="34"/>
+      <c r="CQ20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CR20" s="36" t="s">
+      <c r="CR20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CS20" s="36" t="s">
+      <c r="CS20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CT20" s="36" t="s">
+      <c r="CT20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CU20" s="36" t="s">
+      <c r="CU20" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="CV20" s="35"/>
-      <c r="CW20" s="35"/>
-      <c r="CX20" s="35"/>
-      <c r="CY20" s="35"/>
-      <c r="CZ20" s="35"/>
-      <c r="DA20" s="35"/>
-      <c r="DB20" s="35"/>
-      <c r="DC20" s="35"/>
-      <c r="DD20" s="35"/>
-      <c r="DE20" s="35"/>
-      <c r="DF20" s="35"/>
-      <c r="DG20" s="35"/>
-      <c r="DH20" s="35"/>
-      <c r="DI20" s="35"/>
-      <c r="DJ20" s="35"/>
-      <c r="DK20" s="35"/>
-      <c r="DL20" s="35"/>
-      <c r="DM20" s="35"/>
-      <c r="DN20" s="35"/>
-      <c r="DO20" s="35"/>
-      <c r="DP20" s="35"/>
-      <c r="DQ20" s="35"/>
-      <c r="DR20" s="35"/>
-      <c r="DS20" s="35"/>
-      <c r="DT20" s="35"/>
-      <c r="DU20" s="35"/>
-      <c r="DV20" s="35"/>
-      <c r="DW20" s="35"/>
-      <c r="DX20" s="35"/>
-      <c r="DY20" s="35"/>
-      <c r="DZ20" s="35"/>
-      <c r="EA20" s="35" t="s">
+      <c r="CV20" s="31"/>
+      <c r="CW20" s="31"/>
+      <c r="CX20" s="31"/>
+      <c r="CY20" s="31"/>
+      <c r="CZ20" s="31"/>
+      <c r="DA20" s="31"/>
+      <c r="DB20" s="31"/>
+      <c r="DC20" s="31"/>
+      <c r="DD20" s="31"/>
+      <c r="DE20" s="31"/>
+      <c r="DF20" s="31"/>
+      <c r="DG20" s="31"/>
+      <c r="DH20" s="31"/>
+      <c r="DI20" s="31"/>
+      <c r="DJ20" s="31"/>
+      <c r="DK20" s="31"/>
+      <c r="DL20" s="31"/>
+      <c r="DM20" s="31"/>
+      <c r="DN20" s="31"/>
+      <c r="DO20" s="31"/>
+      <c r="DP20" s="31"/>
+      <c r="DQ20" s="31"/>
+      <c r="DR20" s="31"/>
+      <c r="DS20" s="31"/>
+      <c r="DT20" s="31"/>
+      <c r="DU20" s="31"/>
+      <c r="DV20" s="31"/>
+      <c r="DW20" s="31"/>
+      <c r="DX20" s="31"/>
+      <c r="DY20" s="31"/>
+      <c r="DZ20" s="31"/>
+      <c r="EA20" s="31"/>
+      <c r="EB20" s="31"/>
+      <c r="EC20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="EB20" s="35" t="s">
+      <c r="ED20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="EC20" s="35" t="s">
+      <c r="EE20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="ED20" s="35" t="s">
+      <c r="EF20" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="EE20" s="37" t="s">
+      <c r="EG20" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:135" ht="42" customHeight="1">
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="2:137" ht="42" customHeight="1">
+      <c r="B21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="28">
         <v>36</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="28" t="s">
         <v>163</v>
       </c>
       <c r="E21" s="7"/>
@@ -6839,92 +6888,94 @@
       <c r="CZ21" s="7"/>
       <c r="DA21" s="7"/>
       <c r="DB21" s="7"/>
-      <c r="DC21" s="7" t="s">
+      <c r="DC21" s="7"/>
+      <c r="DD21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="DD21" s="7" t="s">
+      <c r="DE21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="DE21" s="7" t="s">
+      <c r="DF21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="DF21" s="7" t="s">
+      <c r="DG21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="DG21" s="7" t="s">
+      <c r="DH21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="DH21" s="7" t="s">
+      <c r="DI21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="DI21" s="7" t="s">
+      <c r="DJ21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="DJ21" s="7" t="s">
+      <c r="DK21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="DK21" s="7" t="s">
+      <c r="DL21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="DL21" s="7" t="s">
+      <c r="DM21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="DM21" s="7" t="s">
+      <c r="DN21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="DN21" s="7" t="s">
+      <c r="DO21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="DO21" s="7" t="s">
+      <c r="DP21" s="7"/>
+      <c r="DQ21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="DP21" s="7" t="s">
+      <c r="DR21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="DQ21" s="7" t="s">
+      <c r="DS21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="DR21" s="7" t="s">
+      <c r="DT21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="DS21" s="7" t="s">
+      <c r="DU21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="DT21" s="7" t="s">
+      <c r="DV21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="DU21" s="7" t="s">
+      <c r="DW21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="DV21" s="7" t="s">
+      <c r="DX21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="DW21" s="7" t="s">
+      <c r="DY21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="DX21" s="7" t="s">
+      <c r="DZ21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="DY21" s="7" t="s">
+      <c r="EA21" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="DZ21" s="7" t="s">
+      <c r="EB21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="EA21" s="7"/>
-      <c r="EB21" s="7"/>
       <c r="EC21" s="7"/>
       <c r="ED21" s="7"/>
-      <c r="EE21" s="8"/>
+      <c r="EE21" s="7"/>
+      <c r="EF21" s="7"/>
+      <c r="EG21" s="8"/>
     </row>
-    <row r="22" spans="2:135" ht="42" customHeight="1">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:137" ht="42" customHeight="1">
+      <c r="B22" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="28">
         <v>36</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="28">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
@@ -7077,16 +7128,18 @@
       <c r="EB22" s="7"/>
       <c r="EC22" s="7"/>
       <c r="ED22" s="7"/>
-      <c r="EE22" s="8"/>
+      <c r="EE22" s="7"/>
+      <c r="EF22" s="7"/>
+      <c r="EG22" s="8"/>
     </row>
-    <row r="23" spans="2:135" ht="42" customHeight="1">
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="2:137" ht="42" customHeight="1">
+      <c r="B23" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="28">
         <v>1</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="28">
         <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -7291,9 +7344,11 @@
       <c r="EB23" s="7"/>
       <c r="EC23" s="7"/>
       <c r="ED23" s="7"/>
-      <c r="EE23" s="8"/>
+      <c r="EE23" s="7"/>
+      <c r="EF23" s="7"/>
+      <c r="EG23" s="8"/>
     </row>
-    <row r="24" spans="2:135" ht="42" customHeight="1" thickBot="1">
+    <row r="24" spans="2:137" ht="42" customHeight="1" thickBot="1">
       <c r="B24" s="11" t="s">
         <v>78</v>
       </c>
@@ -7565,28 +7620,31 @@
       <c r="EB24" s="13"/>
       <c r="EC24" s="13"/>
       <c r="ED24" s="13"/>
-      <c r="EE24" s="15"/>
+      <c r="EE24" s="13"/>
+      <c r="EF24" s="13"/>
+      <c r="EG24" s="15"/>
     </row>
-    <row r="26" spans="2:135" ht="42" customHeight="1">
+    <row r="26" spans="2:137" ht="42" customHeight="1">
       <c r="B26" s="2">
-        <v>243</v>
+        <f>MAX(19:19)</f>
+        <v>245</v>
       </c>
     </row>
-    <row r="27" spans="2:135" ht="42" customHeight="1">
-      <c r="B27" s="38">
+    <row r="27" spans="2:137" ht="42" customHeight="1">
+      <c r="B27" s="26">
         <v>50000000</v>
       </c>
     </row>
-    <row r="28" spans="2:135" ht="42" customHeight="1">
-      <c r="B28" s="38">
+    <row r="28" spans="2:137" ht="42" customHeight="1">
+      <c r="B28" s="26">
         <f>1/B27</f>
         <v>2E-8</v>
       </c>
     </row>
-    <row r="29" spans="2:135" ht="42" customHeight="1">
-      <c r="B29" s="38">
+    <row r="29" spans="2:137" ht="42" customHeight="1">
+      <c r="B29" s="26">
         <f>B26*B28</f>
-        <v>4.8600000000000001E-6</v>
+        <v>4.9000000000000005E-6</v>
       </c>
     </row>
   </sheetData>
@@ -7598,7 +7656,7 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E18:EE18"/>
+    <mergeCell ref="E18:EG18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="165">
   <si>
     <t>sincos</t>
   </si>
@@ -752,7 +752,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="867">
+  <cellStyleXfs count="873">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1620,8 +1620,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1701,12 +1707,6 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,6 +1728,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1740,8 +1746,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="867">
+  <cellStyles count="873">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2175,6 +2184,9 @@
     <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2608,6 +2620,9 @@
     <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2940,20 +2955,22 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EG29"/>
+  <dimension ref="A1:EI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E11" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18:EG18"/>
+      <selection pane="bottomRight" activeCell="CZ2" sqref="CZ1:CZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="4.33203125" style="9"/>
+    <col min="5" max="94" width="4.33203125" style="9"/>
+    <col min="95" max="95" width="4.33203125" style="9" customWidth="1"/>
+    <col min="96" max="16384" width="4.33203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
@@ -5838,8 +5855,8 @@
       <c r="DL16" s="15"/>
       <c r="DM16" s="18"/>
     </row>
-    <row r="17" spans="2:137" ht="42" customHeight="1" thickBot="1"/>
-    <row r="18" spans="2:137" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="17" spans="2:139" ht="42" customHeight="1" thickBot="1"/>
+    <row r="18" spans="2:139" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -5977,9 +5994,11 @@
       <c r="ED18" s="36"/>
       <c r="EE18" s="36"/>
       <c r="EF18" s="36"/>
-      <c r="EG18" s="37"/>
+      <c r="EG18" s="36"/>
+      <c r="EH18" s="36"/>
+      <c r="EI18" s="37"/>
     </row>
-    <row r="19" spans="2:137" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
+    <row r="19" spans="2:139" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="B19" s="11" t="s">
         <v>100</v>
       </c>
@@ -6514,276 +6533,276 @@
         <v>243</v>
       </c>
       <c r="EF19" s="12">
-        <f t="shared" si="184"/>
+        <f t="shared" ref="EF19" si="185">EE19+1</f>
         <v>244</v>
       </c>
-      <c r="EG19" s="33">
-        <f t="shared" si="184"/>
+      <c r="EG19" s="12">
+        <f t="shared" ref="EG19" si="186">EF19+1</f>
         <v>245</v>
       </c>
+      <c r="EH19" s="12">
+        <f t="shared" ref="EH19" si="187">EG19+1</f>
+        <v>246</v>
+      </c>
+      <c r="EI19" s="31">
+        <f t="shared" ref="EI19" si="188">EH19+1</f>
+        <v>247</v>
+      </c>
     </row>
-    <row r="20" spans="2:137" ht="42" customHeight="1">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="2:139" ht="42" customHeight="1">
+      <c r="B20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="28">
         <v>15</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="28">
         <v>5</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="34" t="s">
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="R20" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="S20" s="34" t="s">
+      <c r="S20" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="T20" s="34" t="s">
+      <c r="T20" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="U20" s="34" t="s">
+      <c r="U20" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34" t="s">
+      <c r="V20" s="32"/>
+      <c r="W20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="X20" s="34" t="s">
+      <c r="X20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="Y20" s="34" t="s">
+      <c r="Y20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="Z20" s="34" t="s">
+      <c r="Z20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AA20" s="34" t="s">
+      <c r="AA20" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34" t="s">
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AJ20" s="34" t="s">
+      <c r="AJ20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AK20" s="34" t="s">
+      <c r="AK20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AL20" s="34" t="s">
+      <c r="AL20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AM20" s="34" t="s">
+      <c r="AM20" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AN20" s="34"/>
-      <c r="AO20" s="34" t="s">
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AP20" s="34" t="s">
+      <c r="AP20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AQ20" s="34" t="s">
+      <c r="AQ20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AR20" s="34" t="s">
+      <c r="AR20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AS20" s="34" t="s">
+      <c r="AS20" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="AT20" s="34"/>
-      <c r="AU20" s="34"/>
-      <c r="AV20" s="34"/>
-      <c r="AW20" s="34"/>
-      <c r="AX20" s="34"/>
-      <c r="AY20" s="34"/>
-      <c r="AZ20" s="34"/>
-      <c r="BA20" s="34" t="s">
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="BB20" s="34" t="s">
+      <c r="BB20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="BC20" s="34" t="s">
+      <c r="BC20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="BD20" s="34" t="s">
+      <c r="BD20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="BE20" s="34" t="s">
+      <c r="BE20" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="BF20" s="34"/>
-      <c r="BG20" s="35" t="s">
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BH20" s="35" t="s">
+      <c r="BH20" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BI20" s="35" t="s">
+      <c r="BI20" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BJ20" s="35" t="s">
+      <c r="BJ20" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BK20" s="35" t="s">
+      <c r="BK20" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="BL20" s="34"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="34"/>
-      <c r="BO20" s="34"/>
-      <c r="BP20" s="34"/>
-      <c r="BQ20" s="34"/>
-      <c r="BR20" s="34"/>
-      <c r="BS20" s="35" t="s">
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="32"/>
+      <c r="BQ20" s="32"/>
+      <c r="BR20" s="32"/>
+      <c r="BS20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BT20" s="35" t="s">
+      <c r="BT20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BU20" s="35" t="s">
+      <c r="BU20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BV20" s="35" t="s">
+      <c r="BV20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BW20" s="35" t="s">
+      <c r="BW20" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="BX20" s="34"/>
-      <c r="BY20" s="35" t="s">
+      <c r="BX20" s="32"/>
+      <c r="BY20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="BZ20" s="35" t="s">
+      <c r="BZ20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="CA20" s="35" t="s">
+      <c r="CA20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="CB20" s="35" t="s">
+      <c r="CB20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="CC20" s="35" t="s">
+      <c r="CC20" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="CD20" s="34"/>
-      <c r="CE20" s="34"/>
-      <c r="CF20" s="34"/>
-      <c r="CG20" s="34"/>
-      <c r="CH20" s="34"/>
-      <c r="CI20" s="34"/>
-      <c r="CJ20" s="34"/>
-      <c r="CK20" s="35" t="s">
+      <c r="CD20" s="32"/>
+      <c r="CE20" s="32"/>
+      <c r="CF20" s="32"/>
+      <c r="CG20" s="32"/>
+      <c r="CH20" s="32"/>
+      <c r="CI20" s="32"/>
+      <c r="CJ20" s="32"/>
+      <c r="CK20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CL20" s="35" t="s">
+      <c r="CL20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CM20" s="35" t="s">
+      <c r="CM20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CN20" s="35" t="s">
+      <c r="CN20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CO20" s="35" t="s">
+      <c r="CO20" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="CP20" s="34"/>
-      <c r="CQ20" s="35" t="s">
+      <c r="CP20" s="32"/>
+      <c r="CQ20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="CR20" s="35" t="s">
+      <c r="CR20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="CS20" s="35" t="s">
+      <c r="CS20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="CT20" s="35" t="s">
+      <c r="CT20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="CU20" s="35" t="s">
+      <c r="CU20" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="CV20" s="31"/>
-      <c r="CW20" s="31"/>
-      <c r="CX20" s="31"/>
-      <c r="CY20" s="31"/>
-      <c r="CZ20" s="31"/>
-      <c r="DA20" s="31"/>
-      <c r="DB20" s="31"/>
-      <c r="DC20" s="31"/>
-      <c r="DD20" s="31"/>
-      <c r="DE20" s="31"/>
-      <c r="DF20" s="31"/>
-      <c r="DG20" s="31"/>
-      <c r="DH20" s="31"/>
-      <c r="DI20" s="31"/>
-      <c r="DJ20" s="31"/>
-      <c r="DK20" s="31"/>
-      <c r="DL20" s="31"/>
-      <c r="DM20" s="31"/>
-      <c r="DN20" s="31"/>
-      <c r="DO20" s="31"/>
-      <c r="DP20" s="31"/>
-      <c r="DQ20" s="31"/>
-      <c r="DR20" s="31"/>
-      <c r="DS20" s="31"/>
-      <c r="DT20" s="31"/>
-      <c r="DU20" s="31"/>
-      <c r="DV20" s="31"/>
-      <c r="DW20" s="31"/>
-      <c r="DX20" s="31"/>
-      <c r="DY20" s="31"/>
-      <c r="DZ20" s="31"/>
-      <c r="EA20" s="31"/>
-      <c r="EB20" s="31"/>
-      <c r="EC20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="ED20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="EE20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="EF20" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="EG20" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="CV20" s="29"/>
+      <c r="CW20" s="29"/>
+      <c r="CX20" s="29"/>
+      <c r="CY20" s="29"/>
+      <c r="CZ20" s="29"/>
+      <c r="DA20" s="29"/>
+      <c r="DB20" s="29"/>
+      <c r="DC20" s="29"/>
+      <c r="DD20" s="29"/>
+      <c r="DE20" s="29"/>
+      <c r="DF20" s="29"/>
+      <c r="DG20" s="29"/>
+      <c r="DH20" s="29"/>
+      <c r="DI20" s="29"/>
+      <c r="DJ20" s="29"/>
+      <c r="DK20" s="29"/>
+      <c r="DL20" s="29"/>
+      <c r="DM20" s="29"/>
+      <c r="DN20" s="29"/>
+      <c r="DO20" s="29"/>
+      <c r="DP20" s="29"/>
+      <c r="DQ20" s="29"/>
+      <c r="DR20" s="29"/>
+      <c r="DS20" s="29"/>
+      <c r="DT20" s="29"/>
+      <c r="DU20" s="29"/>
+      <c r="DV20" s="29"/>
+      <c r="DW20" s="29"/>
+      <c r="DX20" s="29"/>
+      <c r="DY20" s="29"/>
+      <c r="DZ20" s="29"/>
+      <c r="EA20" s="29"/>
+      <c r="EB20" s="29"/>
+      <c r="EC20" s="29"/>
+      <c r="ED20" s="29"/>
+      <c r="EE20" s="29"/>
+      <c r="EF20" s="29"/>
+      <c r="EG20" s="29"/>
+      <c r="EH20" s="29"/>
+      <c r="EI20" s="30"/>
     </row>
-    <row r="21" spans="2:137" ht="42" customHeight="1">
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="2:139" ht="42" customHeight="1">
+      <c r="B21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="28">
+      <c r="C21" s="35">
         <v>36</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="35" t="s">
         <v>163</v>
       </c>
       <c r="E21" s="7"/>
@@ -6962,20 +6981,36 @@
       <c r="EB21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="EC21" s="7"/>
-      <c r="ED21" s="7"/>
-      <c r="EE21" s="7"/>
-      <c r="EF21" s="7"/>
-      <c r="EG21" s="8"/>
+      <c r="EC21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="ED21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="EE21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="EF21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="EG21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="EH21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="EI21" s="40" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="22" spans="2:137" ht="42" customHeight="1">
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="2:139" ht="42" customHeight="1">
+      <c r="B22" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="35">
         <v>36</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="35">
         <v>1</v>
       </c>
       <c r="E22" s="7"/>
@@ -7130,16 +7165,18 @@
       <c r="ED22" s="7"/>
       <c r="EE22" s="7"/>
       <c r="EF22" s="7"/>
-      <c r="EG22" s="8"/>
+      <c r="EG22" s="7"/>
+      <c r="EH22" s="7"/>
+      <c r="EI22" s="8"/>
     </row>
-    <row r="23" spans="2:137" ht="42" customHeight="1">
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="2:139" ht="42" customHeight="1">
+      <c r="B23" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="28">
+      <c r="C23" s="35">
         <v>1</v>
       </c>
-      <c r="D23" s="28">
+      <c r="D23" s="35">
         <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
@@ -7346,9 +7383,11 @@
       <c r="ED23" s="7"/>
       <c r="EE23" s="7"/>
       <c r="EF23" s="7"/>
-      <c r="EG23" s="8"/>
+      <c r="EG23" s="7"/>
+      <c r="EH23" s="7"/>
+      <c r="EI23" s="8"/>
     </row>
-    <row r="24" spans="2:137" ht="42" customHeight="1" thickBot="1">
+    <row r="24" spans="2:139" ht="42" customHeight="1" thickBot="1">
       <c r="B24" s="11" t="s">
         <v>78</v>
       </c>
@@ -7622,33 +7661,36 @@
       <c r="ED24" s="13"/>
       <c r="EE24" s="13"/>
       <c r="EF24" s="13"/>
-      <c r="EG24" s="15"/>
+      <c r="EG24" s="13"/>
+      <c r="EH24" s="13"/>
+      <c r="EI24" s="15"/>
     </row>
-    <row r="26" spans="2:137" ht="42" customHeight="1">
+    <row r="26" spans="2:139" ht="42" customHeight="1">
       <c r="B26" s="2">
         <f>MAX(19:19)</f>
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="27" spans="2:137" ht="42" customHeight="1">
+    <row r="27" spans="2:139" ht="42" customHeight="1">
       <c r="B27" s="26">
         <v>50000000</v>
       </c>
     </row>
-    <row r="28" spans="2:137" ht="42" customHeight="1">
+    <row r="28" spans="2:139" ht="42" customHeight="1">
       <c r="B28" s="26">
         <f>1/B27</f>
         <v>2E-8</v>
       </c>
     </row>
-    <row r="29" spans="2:137" ht="42" customHeight="1">
+    <row r="29" spans="2:139" ht="42" customHeight="1">
       <c r="B29" s="26">
         <f>B26*B28</f>
-        <v>4.9000000000000005E-6</v>
+        <v>4.9400000000000001E-6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="E18:EI18"/>
     <mergeCell ref="E1:DL1"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="C3:C8"/>
@@ -7656,7 +7698,6 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="C9:C14"/>
     <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E18:EG18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
   <si>
     <t>sincos</t>
   </si>
@@ -514,6 +514,9 @@
   </si>
   <si>
     <t>T03 cyc 12</t>
+  </si>
+  <si>
+    <t>T06 x Z0</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="873">
+  <cellStyleXfs count="875">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1734,6 +1739,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1746,11 +1754,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="873">
+  <cellStyles count="875">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2187,6 +2192,7 @@
     <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2623,6 +2629,7 @@
     <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2958,10 +2965,10 @@
   <dimension ref="A1:EI29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="BO3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CZ2" sqref="CZ1:CZ1048576"/>
+      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
@@ -2977,120 +2984,120 @@
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="36"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="36"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="36"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="36"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="36"/>
-      <c r="CH1" s="36"/>
-      <c r="CI1" s="36"/>
-      <c r="CJ1" s="36"/>
-      <c r="CK1" s="36"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="36"/>
-      <c r="CO1" s="36"/>
-      <c r="CP1" s="36"/>
-      <c r="CQ1" s="36"/>
-      <c r="CR1" s="36"/>
-      <c r="CS1" s="36"/>
-      <c r="CT1" s="36"/>
-      <c r="CU1" s="36"/>
-      <c r="CV1" s="36"/>
-      <c r="CW1" s="36"/>
-      <c r="CX1" s="36"/>
-      <c r="CY1" s="36"/>
-      <c r="CZ1" s="36"/>
-      <c r="DA1" s="36"/>
-      <c r="DB1" s="36"/>
-      <c r="DC1" s="36"/>
-      <c r="DD1" s="36"/>
-      <c r="DE1" s="36"/>
-      <c r="DF1" s="36"/>
-      <c r="DG1" s="36"/>
-      <c r="DH1" s="36"/>
-      <c r="DI1" s="36"/>
-      <c r="DJ1" s="36"/>
-      <c r="DK1" s="36"/>
-      <c r="DL1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="37"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="37"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="37"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="37"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="37"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="37"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="37"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="37"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="37"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
+      <c r="CO1" s="37"/>
+      <c r="CP1" s="37"/>
+      <c r="CQ1" s="37"/>
+      <c r="CR1" s="37"/>
+      <c r="CS1" s="37"/>
+      <c r="CT1" s="37"/>
+      <c r="CU1" s="37"/>
+      <c r="CV1" s="37"/>
+      <c r="CW1" s="37"/>
+      <c r="CX1" s="37"/>
+      <c r="CY1" s="37"/>
+      <c r="CZ1" s="37"/>
+      <c r="DA1" s="37"/>
+      <c r="DB1" s="37"/>
+      <c r="DC1" s="37"/>
+      <c r="DD1" s="37"/>
+      <c r="DE1" s="37"/>
+      <c r="DF1" s="37"/>
+      <c r="DG1" s="37"/>
+      <c r="DH1" s="37"/>
+      <c r="DI1" s="37"/>
+      <c r="DJ1" s="37"/>
+      <c r="DK1" s="37"/>
+      <c r="DL1" s="38"/>
       <c r="DM1" s="23"/>
     </row>
     <row r="2" spans="2:117" s="2" customFormat="1" ht="42" customHeight="1">
@@ -3553,13 +3560,13 @@
       <c r="DM2" s="17"/>
     </row>
     <row r="3" spans="2:117" ht="42" customHeight="1">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="40">
         <v>2</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="40">
         <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -3744,9 +3751,9 @@
       <c r="DM3" s="18"/>
     </row>
     <row r="4" spans="2:117" ht="42" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
@@ -3918,9 +3925,9 @@
       <c r="DM4" s="18"/>
     </row>
     <row r="5" spans="2:117" ht="42" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
@@ -4096,9 +4103,9 @@
       <c r="DM5" s="18"/>
     </row>
     <row r="6" spans="2:117" ht="42" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4261,9 +4268,9 @@
       <c r="DM6" s="18"/>
     </row>
     <row r="7" spans="2:117" ht="42" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4425,9 +4432,9 @@
       <c r="DM7" s="18"/>
     </row>
     <row r="8" spans="2:117" ht="42" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4590,13 +4597,13 @@
       <c r="DM8" s="18"/>
     </row>
     <row r="9" spans="2:117" ht="42" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="40">
         <v>15</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="40">
         <v>5</v>
       </c>
       <c r="E9" s="7"/>
@@ -4744,18 +4751,28 @@
       <c r="CI9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="CJ9" s="7"/>
-      <c r="CK9" s="7"/>
-      <c r="CL9" s="7"/>
-      <c r="CM9" s="7"/>
-      <c r="CN9" s="7"/>
-      <c r="CO9" s="7"/>
-      <c r="CP9" s="7"/>
-      <c r="CQ9" s="7"/>
-      <c r="CR9" s="7"/>
-      <c r="CS9" s="7"/>
-      <c r="CT9" s="7"/>
-      <c r="CU9" s="7"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="16"/>
+      <c r="CL9" s="16"/>
+      <c r="CM9" s="16"/>
+      <c r="CN9" s="16"/>
+      <c r="CO9" s="16"/>
+      <c r="CP9" s="16"/>
+      <c r="CQ9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CR9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CS9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CT9" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="CU9" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="CV9" s="7"/>
       <c r="CW9" s="7"/>
       <c r="CX9" s="7"/>
@@ -4776,9 +4793,9 @@
       <c r="DM9" s="18"/>
     </row>
     <row r="10" spans="2:117" ht="42" customHeight="1">
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4873,18 +4890,18 @@
       <c r="CG10" s="16"/>
       <c r="CH10" s="16"/>
       <c r="CI10" s="16"/>
-      <c r="CJ10" s="7"/>
-      <c r="CK10" s="7"/>
-      <c r="CL10" s="7"/>
-      <c r="CM10" s="7"/>
-      <c r="CN10" s="7"/>
-      <c r="CO10" s="7"/>
-      <c r="CP10" s="7"/>
-      <c r="CQ10" s="7"/>
-      <c r="CR10" s="7"/>
-      <c r="CS10" s="7"/>
-      <c r="CT10" s="7"/>
-      <c r="CU10" s="7"/>
+      <c r="CJ10" s="16"/>
+      <c r="CK10" s="16"/>
+      <c r="CL10" s="16"/>
+      <c r="CM10" s="16"/>
+      <c r="CN10" s="16"/>
+      <c r="CO10" s="16"/>
+      <c r="CP10" s="16"/>
+      <c r="CQ10" s="16"/>
+      <c r="CR10" s="16"/>
+      <c r="CS10" s="16"/>
+      <c r="CT10" s="16"/>
+      <c r="CU10" s="16"/>
       <c r="CV10" s="7"/>
       <c r="CW10" s="7"/>
       <c r="CX10" s="7"/>
@@ -4905,9 +4922,9 @@
       <c r="DM10" s="18"/>
     </row>
     <row r="11" spans="2:117" ht="42" customHeight="1">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5004,18 +5021,18 @@
       <c r="CG11" s="16"/>
       <c r="CH11" s="16"/>
       <c r="CI11" s="16"/>
-      <c r="CJ11" s="7"/>
-      <c r="CK11" s="7"/>
-      <c r="CL11" s="7"/>
-      <c r="CM11" s="7"/>
-      <c r="CN11" s="7"/>
-      <c r="CO11" s="7"/>
-      <c r="CP11" s="7"/>
-      <c r="CQ11" s="7"/>
-      <c r="CR11" s="7"/>
-      <c r="CS11" s="7"/>
-      <c r="CT11" s="7"/>
-      <c r="CU11" s="7"/>
+      <c r="CJ11" s="16"/>
+      <c r="CK11" s="16"/>
+      <c r="CL11" s="16"/>
+      <c r="CM11" s="16"/>
+      <c r="CN11" s="16"/>
+      <c r="CO11" s="16"/>
+      <c r="CP11" s="16"/>
+      <c r="CQ11" s="16"/>
+      <c r="CR11" s="16"/>
+      <c r="CS11" s="16"/>
+      <c r="CT11" s="16"/>
+      <c r="CU11" s="16"/>
       <c r="CV11" s="7"/>
       <c r="CW11" s="7"/>
       <c r="CX11" s="7"/>
@@ -5036,9 +5053,9 @@
       <c r="DM11" s="18"/>
     </row>
     <row r="12" spans="2:117" ht="42" customHeight="1">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5132,18 +5149,18 @@
       <c r="CG12" s="16"/>
       <c r="CH12" s="16"/>
       <c r="CI12" s="16"/>
-      <c r="CJ12" s="7"/>
-      <c r="CK12" s="7"/>
-      <c r="CL12" s="7"/>
-      <c r="CM12" s="7"/>
-      <c r="CN12" s="7"/>
-      <c r="CO12" s="7"/>
-      <c r="CP12" s="7"/>
-      <c r="CQ12" s="7"/>
-      <c r="CR12" s="7"/>
-      <c r="CS12" s="7"/>
-      <c r="CT12" s="7"/>
-      <c r="CU12" s="7"/>
+      <c r="CJ12" s="16"/>
+      <c r="CK12" s="16"/>
+      <c r="CL12" s="16"/>
+      <c r="CM12" s="16"/>
+      <c r="CN12" s="16"/>
+      <c r="CO12" s="16"/>
+      <c r="CP12" s="16"/>
+      <c r="CQ12" s="16"/>
+      <c r="CR12" s="16"/>
+      <c r="CS12" s="16"/>
+      <c r="CT12" s="16"/>
+      <c r="CU12" s="16"/>
       <c r="CV12" s="7"/>
       <c r="CW12" s="7"/>
       <c r="CX12" s="7"/>
@@ -5164,9 +5181,9 @@
       <c r="DM12" s="18"/>
     </row>
     <row r="13" spans="2:117" ht="42" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5262,18 +5279,18 @@
       <c r="CG13" s="16"/>
       <c r="CH13" s="16"/>
       <c r="CI13" s="16"/>
-      <c r="CJ13" s="7"/>
-      <c r="CK13" s="7"/>
-      <c r="CL13" s="7"/>
-      <c r="CM13" s="7"/>
-      <c r="CN13" s="7"/>
-      <c r="CO13" s="7"/>
-      <c r="CP13" s="7"/>
-      <c r="CQ13" s="7"/>
-      <c r="CR13" s="7"/>
-      <c r="CS13" s="7"/>
-      <c r="CT13" s="7"/>
-      <c r="CU13" s="7"/>
+      <c r="CJ13" s="16"/>
+      <c r="CK13" s="16"/>
+      <c r="CL13" s="16"/>
+      <c r="CM13" s="16"/>
+      <c r="CN13" s="16"/>
+      <c r="CO13" s="16"/>
+      <c r="CP13" s="16"/>
+      <c r="CQ13" s="16"/>
+      <c r="CR13" s="16"/>
+      <c r="CS13" s="16"/>
+      <c r="CT13" s="16"/>
+      <c r="CU13" s="16"/>
       <c r="CV13" s="7"/>
       <c r="CW13" s="7"/>
       <c r="CX13" s="7"/>
@@ -5294,9 +5311,9 @@
       <c r="DM13" s="18"/>
     </row>
     <row r="14" spans="2:117" ht="42" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -5390,18 +5407,18 @@
       <c r="CG14" s="16"/>
       <c r="CH14" s="16"/>
       <c r="CI14" s="16"/>
-      <c r="CJ14" s="7"/>
-      <c r="CK14" s="7"/>
-      <c r="CL14" s="7"/>
-      <c r="CM14" s="7"/>
-      <c r="CN14" s="7"/>
-      <c r="CO14" s="7"/>
-      <c r="CP14" s="7"/>
-      <c r="CQ14" s="7"/>
-      <c r="CR14" s="7"/>
-      <c r="CS14" s="7"/>
-      <c r="CT14" s="7"/>
-      <c r="CU14" s="7"/>
+      <c r="CJ14" s="16"/>
+      <c r="CK14" s="16"/>
+      <c r="CL14" s="16"/>
+      <c r="CM14" s="16"/>
+      <c r="CN14" s="16"/>
+      <c r="CO14" s="16"/>
+      <c r="CP14" s="16"/>
+      <c r="CQ14" s="16"/>
+      <c r="CR14" s="16"/>
+      <c r="CS14" s="16"/>
+      <c r="CT14" s="16"/>
+      <c r="CU14" s="16"/>
       <c r="CV14" s="7"/>
       <c r="CW14" s="7"/>
       <c r="CX14" s="7"/>
@@ -5860,143 +5877,143 @@
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="36"/>
-      <c r="CF18" s="36"/>
-      <c r="CG18" s="36"/>
-      <c r="CH18" s="36"/>
-      <c r="CI18" s="36"/>
-      <c r="CJ18" s="36"/>
-      <c r="CK18" s="36"/>
-      <c r="CL18" s="36"/>
-      <c r="CM18" s="36"/>
-      <c r="CN18" s="36"/>
-      <c r="CO18" s="36"/>
-      <c r="CP18" s="36"/>
-      <c r="CQ18" s="36"/>
-      <c r="CR18" s="36"/>
-      <c r="CS18" s="36"/>
-      <c r="CT18" s="36"/>
-      <c r="CU18" s="36"/>
-      <c r="CV18" s="36"/>
-      <c r="CW18" s="36"/>
-      <c r="CX18" s="36"/>
-      <c r="CY18" s="36"/>
-      <c r="CZ18" s="36"/>
-      <c r="DA18" s="36"/>
-      <c r="DB18" s="36"/>
-      <c r="DC18" s="36"/>
-      <c r="DD18" s="36"/>
-      <c r="DE18" s="36"/>
-      <c r="DF18" s="36"/>
-      <c r="DG18" s="36"/>
-      <c r="DH18" s="36"/>
-      <c r="DI18" s="36"/>
-      <c r="DJ18" s="36"/>
-      <c r="DK18" s="36"/>
-      <c r="DL18" s="36"/>
-      <c r="DM18" s="36"/>
-      <c r="DN18" s="36"/>
-      <c r="DO18" s="36"/>
-      <c r="DP18" s="36"/>
-      <c r="DQ18" s="36"/>
-      <c r="DR18" s="36"/>
-      <c r="DS18" s="36"/>
-      <c r="DT18" s="36"/>
-      <c r="DU18" s="36"/>
-      <c r="DV18" s="36"/>
-      <c r="DW18" s="36"/>
-      <c r="DX18" s="36"/>
-      <c r="DY18" s="36"/>
-      <c r="DZ18" s="36"/>
-      <c r="EA18" s="36"/>
-      <c r="EB18" s="36"/>
-      <c r="EC18" s="36"/>
-      <c r="ED18" s="36"/>
-      <c r="EE18" s="36"/>
-      <c r="EF18" s="36"/>
-      <c r="EG18" s="36"/>
-      <c r="EH18" s="36"/>
-      <c r="EI18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
+      <c r="AH18" s="37"/>
+      <c r="AI18" s="37"/>
+      <c r="AJ18" s="37"/>
+      <c r="AK18" s="37"/>
+      <c r="AL18" s="37"/>
+      <c r="AM18" s="37"/>
+      <c r="AN18" s="37"/>
+      <c r="AO18" s="37"/>
+      <c r="AP18" s="37"/>
+      <c r="AQ18" s="37"/>
+      <c r="AR18" s="37"/>
+      <c r="AS18" s="37"/>
+      <c r="AT18" s="37"/>
+      <c r="AU18" s="37"/>
+      <c r="AV18" s="37"/>
+      <c r="AW18" s="37"/>
+      <c r="AX18" s="37"/>
+      <c r="AY18" s="37"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="37"/>
+      <c r="BE18" s="37"/>
+      <c r="BF18" s="37"/>
+      <c r="BG18" s="37"/>
+      <c r="BH18" s="37"/>
+      <c r="BI18" s="37"/>
+      <c r="BJ18" s="37"/>
+      <c r="BK18" s="37"/>
+      <c r="BL18" s="37"/>
+      <c r="BM18" s="37"/>
+      <c r="BN18" s="37"/>
+      <c r="BO18" s="37"/>
+      <c r="BP18" s="37"/>
+      <c r="BQ18" s="37"/>
+      <c r="BR18" s="37"/>
+      <c r="BS18" s="37"/>
+      <c r="BT18" s="37"/>
+      <c r="BU18" s="37"/>
+      <c r="BV18" s="37"/>
+      <c r="BW18" s="37"/>
+      <c r="BX18" s="37"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="37"/>
+      <c r="CA18" s="37"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
+      <c r="CL18" s="37"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="37"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
+      <c r="CU18" s="37"/>
+      <c r="CV18" s="37"/>
+      <c r="CW18" s="37"/>
+      <c r="CX18" s="37"/>
+      <c r="CY18" s="37"/>
+      <c r="CZ18" s="37"/>
+      <c r="DA18" s="37"/>
+      <c r="DB18" s="37"/>
+      <c r="DC18" s="37"/>
+      <c r="DD18" s="37"/>
+      <c r="DE18" s="37"/>
+      <c r="DF18" s="37"/>
+      <c r="DG18" s="37"/>
+      <c r="DH18" s="37"/>
+      <c r="DI18" s="37"/>
+      <c r="DJ18" s="37"/>
+      <c r="DK18" s="37"/>
+      <c r="DL18" s="37"/>
+      <c r="DM18" s="37"/>
+      <c r="DN18" s="37"/>
+      <c r="DO18" s="37"/>
+      <c r="DP18" s="37"/>
+      <c r="DQ18" s="37"/>
+      <c r="DR18" s="37"/>
+      <c r="DS18" s="37"/>
+      <c r="DT18" s="37"/>
+      <c r="DU18" s="37"/>
+      <c r="DV18" s="37"/>
+      <c r="DW18" s="37"/>
+      <c r="DX18" s="37"/>
+      <c r="DY18" s="37"/>
+      <c r="DZ18" s="37"/>
+      <c r="EA18" s="37"/>
+      <c r="EB18" s="37"/>
+      <c r="EC18" s="37"/>
+      <c r="ED18" s="37"/>
+      <c r="EE18" s="37"/>
+      <c r="EF18" s="37"/>
+      <c r="EG18" s="37"/>
+      <c r="EH18" s="37"/>
+      <c r="EI18" s="38"/>
     </row>
     <row r="19" spans="2:139" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="B19" s="11" t="s">
@@ -6529,7 +6546,7 @@
         <v>242</v>
       </c>
       <c r="EE19" s="12">
-        <f t="shared" ref="EE19:EG19" si="184">ED19+1</f>
+        <f t="shared" ref="EE19" si="184">ED19+1</f>
         <v>243</v>
       </c>
       <c r="EF19" s="12">
@@ -6999,7 +7016,7 @@
       <c r="EH21" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="EI21" s="40" t="s">
+      <c r="EI21" s="36" t="s">
         <v>99</v>
       </c>
     </row>

--- a/doc/design/schedule.xlsx
+++ b/doc/design/schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="167">
   <si>
     <t>sincos</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>T06 x Z0</t>
+  </si>
+  <si>
+    <t>T06 x Z0 accum</t>
   </si>
 </sst>
 </file>
@@ -755,8 +758,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="875">
+  <cellStyleXfs count="879">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1755,7 +1762,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="875">
+  <cellStyles count="879">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2193,6 +2200,8 @@
     <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2630,6 +2639,8 @@
     <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2968,15 +2979,15 @@
       <pane xSplit="4" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="AL1" sqref="AL1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
+      <selection pane="bottomRight" activeCell="CV16" sqref="CV16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="6" customWidth="1"/>
     <col min="2" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="94" width="4.33203125" style="9"/>
-    <col min="95" max="95" width="4.33203125" style="9" customWidth="1"/>
+    <col min="5" max="93" width="4.33203125" style="9"/>
+    <col min="94" max="95" width="4.33203125" style="9" customWidth="1"/>
     <col min="96" max="16384" width="4.33203125" style="9"/>
   </cols>
   <sheetData>
@@ -5848,8 +5859,12 @@
       <c r="CR16" s="13"/>
       <c r="CS16" s="13"/>
       <c r="CT16" s="14"/>
-      <c r="CU16" s="14"/>
-      <c r="CV16" s="13"/>
+      <c r="CU16" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="CV16" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="CW16" s="13"/>
       <c r="CX16" s="13" t="s">
         <v>104</v>
